--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1500" windowWidth="27000" windowHeight="15760" tabRatio="539"/>
+    <workbookView xWindow="3940" yWindow="2740" windowWidth="27000" windowHeight="15760" tabRatio="539"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -46,14 +46,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="510">
   <si>
     <t>true</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>archon</t>
@@ -75,310 +75,310 @@
   </si>
   <si>
     <t>STR_title</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_titleLevel</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_editAllianceBasicInfo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_editAllianceNotice</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_editAllianceDescription</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_kickAllianceMemberOff</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_sendAllianceMail</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_editAllianceJoinType</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_inviteToJoinAlliance</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_type</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_loyalty</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_honour</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FLOAT_extra</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_level</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood_200k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron_200k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_type</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_count</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_resource</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_upgradeAllianceBuilding</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_editAllianceTerrian</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_upgradeAllianceVillage</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_editAllianceMemberTitle</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_activateAllianceShrineStage</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_value</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_value</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_revengeAlliance</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_addItem</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_giveLoyaltyToAllianceMember</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>dragonStrikeHpDecreasedPercent</t>
   </si>
   <si>
     <t>BOOL_approveJoinAllianceRequest</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_removeJoinAllianceReqeusts</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_desc</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceRevengeMaxMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>复仇最大时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceRegionMapWidth</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟地图宽度</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceRegionMapHeight</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟地图高度</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>龙突袭每次减少的血量百分比</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceFightFaiedProtectMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟战失败保护期时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>createAllianceGem</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>创建联盟所需宝石</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buyArchonGem</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>竞选盟主所需宝石</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>editAllianceBasicInfoGem</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>编辑联盟基础信息所需宝石</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>editAllianceTerrianHonour</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>编辑联盟地形所需荣耀值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>activeShrineStageEventMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>圣地战激活后持续时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceFightPrepareMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟战准备期时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceFightTotalFightMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟战战争期时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceHelpDefenceTroopsMaxCount</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>协防玩家最大数量</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>citizenPerLeadership</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每一点龙的领导力带领多少兵力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceFightSuccessProtectMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟战成功保护期时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>KilledCitizenPerDragonExp</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>多少击杀积分获得一点龙经验</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>KilledCitizenPerBlood</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>多少击杀积分获得一点英雄之血</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>KilledCitizenPerWallHp</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>损失一点城墙血量获得多少击杀积分</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3_5</t>
@@ -439,175 +439,175 @@
   </si>
   <si>
     <t>wood_10k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood_20k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood_50k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood_100k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood_500k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone_10k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone_20k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone_50k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone_100k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone_200k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone_500k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron_10k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron_20k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron_50k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron_100k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron_500k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food_10k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food_20k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food_50k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food_100k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food_200k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food_500k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin_10k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin_20k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin_50k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin_100k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin_200k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin_500k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1_1</t>
@@ -728,7 +728,7 @@
   </si>
   <si>
     <t>BOOL_getJoinRequestEvents</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>dragonMaterials:greenCrystal_1:1</t>
@@ -975,235 +975,67 @@
   </si>
   <si>
     <t>villageRefreshMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>村落采空后多少分钟后刷新</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem_100</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem_200</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem_500</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem_1000</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem_2000</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem_5000</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_level</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_rewards</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_dragon</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>monsterRefreshMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>区域地图野怪多少分钟后刷新</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>monstersPerPlayer</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个联盟玩家创建多少个野怪</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_7</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_8</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_9</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_11</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_12</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_13</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_14</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_15</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_16</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_17</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_18</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_19</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_20</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_21</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_22</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_23</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_24</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_25</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_26</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_27</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_28</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_29</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_30</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_31</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_32</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_33</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_34</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_35</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_36</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_37</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_38</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_39</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_40</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_soldiers</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>士兵战斗受伤士兵基础百分比</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>soldierFightWoundedPercent</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>dragonMaterials:greenSoul_2:1</t>
@@ -1369,47 +1201,11 @@
   </si>
   <si>
     <t>掠夺敌方村落资源比例</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LootVillagePercent</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_1,swordsman_1_8,lancer_1_3,catapult_1_1,ranger_1_2</t>
-  </si>
-  <si>
-    <t>dragon_1_2,lancer_1_21,ballista_1_7,ranger_1_21,swordsman_1_10</t>
-  </si>
-  <si>
-    <t>dragon_1_3,catapult_1_27,crossbowman_1_83,sentinel_1_55,horseArcher_1_13</t>
-  </si>
-  <si>
-    <t>dragon_1_4,crossbowman_1_222,sentinel_1_167,horseArcher_1_55,ballista_1_13</t>
-  </si>
-  <si>
-    <t>dragon_1_6,swordsman_1_380,lancer_1_142,catapult_1_47,ranger_1_95</t>
-  </si>
-  <si>
-    <t>dragon_1_8,lancer_1_294,ballista_1_110,ranger_1_294,swordsman_1_147</t>
-  </si>
-  <si>
-    <t>dragon_2_11,catapult_1_213,crossbowman_1_640,sentinel_1_426,horseArcher_1_106</t>
-  </si>
-  <si>
-    <t>dragon_2_12,crossbowman_1_1176,sentinel_1_882,horseArcher_1_294,ballista_1_73</t>
-  </si>
-  <si>
-    <t>dragon_2_13,swordsman_1_1560,lancer_1_585,catapult_1_195,ranger_1_390</t>
-  </si>
-  <si>
-    <t>dragon_2_14,lancer_1_1004,ballista_1_376,ranger_1_1004,swordsman_1_502</t>
-  </si>
-  <si>
-    <t>dragon_2_16,catapult_1_631,crossbowman_1_1894,sentinel_1_1262,horseArcher_1_315</t>
-  </si>
-  <si>
-    <t>dragon_2_18,crossbowman_1_3112,sentinel_1_2334,horseArcher_1_778,ballista_1_194</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>items:woodClass_1:4:9,items:stoneClass_1:4:9,items:ironClass_1:4:9,items:foodClass_1:4:9,items:coinClass_1:2:3,items:gemClass_1:1:1,buildingMaterials:blueprints:1:15</t>
@@ -1539,149 +1335,11 @@
   </si>
   <si>
     <t>BOOL_attackAlliance</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_moveAlliance</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_21,swordsman_2_3771,lancer_2_1414,catapult_2_471,ranger_2_942</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_22,lancer_2_2253,ballista_2_844,ranger_2_2253,swordsman_2_1126</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_23,catapult_2_1329,crossbowman_2_3988,sentinel_2_2658,horseArcher_2_664</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_24,crossbowman_2_6208,sentinel_2_4656,horseArcher_2_1552,ballista_2_388</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_26,swordsman_2_7180,lancer_2_2692,catapult_2_897,ranger_2_1795</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_28,lancer_2_4118,ballista_2_1544,ranger_2_4118,swordsman_2_2059</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_31,catapult_2_2344,crossbowman_2_7033,sentinel_2_4688,horseArcher_2_1172</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_32,crossbowman_2_10606,sentinel_2_7954,horseArcher_2_2651,ballista_2_662</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_33,swordsman_2_11923,lancer_2_4471,catapult_2_1490,ranger_2_2980</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_34,lancer_2_6666,ballista_2_2499,ranger_2_6666,swordsman_2_3333</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_36,catapult_2_3708,crossbowman_2_11124,sentinel_2_7416,horseArcher_2_1854</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>dragon_4_38,crossbowman_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_16428,sentinel_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_12321,horseArcher_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_4107,ballista_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1026</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1,allianceData:loyalty:800</t>
@@ -1901,147 +1559,177 @@
   </si>
   <si>
     <t>大地图的大小</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>bigMapLength</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_2_50,crossbowman_2_38,ballista_2_7;lancer_2_25,horseArcher_2_19,swordsman_2_25;catapult_2_13,ballista_2_10,lancer_2_13</t>
-  </si>
-  <si>
-    <t>sentinel_2_120,swordsman_2_90,crossbowman_2_60;horseArcher_2_60,swordsman_2_90,catapult_2_15;ballista_2_30,lancer_2_45,horseArcher_2_30</t>
-  </si>
-  <si>
-    <t>crossbowman_2_10,ballista_2_2,swordsman_2_5;sentinel_2_10,lancer_2_4,horseArcher_2_3;horseArcher_2_5,catapult_2_2,sentinel_2_5</t>
-  </si>
-  <si>
-    <t>crossbowman_2_20,ballista_2_4,swordsman_2_10;sentinel_2_20,lancer_2_8,horseArcher_2_5;horseArcher_2_10,catapult_2_4,sentinel_2_10</t>
-  </si>
-  <si>
-    <t>crossbowman_2_30,ballista_2_6,swordsman_2_15;sentinel_2_30,lancer_2_12,horseArcher_2_8;horseArcher_2_15,catapult_2_6,sentinel_2_15</t>
-  </si>
-  <si>
-    <t>swordsman_2_40,crossbowman_2_30,ballista_2_5;lancer_2_20,horseArcher_2_15,swordsman_2_20;catapult_2_10,ballista_2_8,lancer_2_10</t>
-  </si>
-  <si>
-    <t>swordsman_2_70,crossbowman_2_53,ballista_2_9;lancer_2_35,horseArcher_2_27,swordsman_2_35;catapult_2_18,ballista_2_14,lancer_2_18</t>
-  </si>
-  <si>
-    <t>sentinel_2_90,swordsman_2_68,crossbowman_2_45;horseArcher_2_45,swordsman_2_68,catapult_2_12;ballista_2_23,lancer_2_34,horseArcher_2_23</t>
-  </si>
-  <si>
-    <t>sentinel_2_140,swordsman_2_105,crossbowman_2_70;horseArcher_2_70,swordsman_2_105,catapult_2_18;ballista_2_35,lancer_2_53,horseArcher_2_35</t>
-  </si>
-  <si>
-    <t>ranger_2_180,sentinel_2_135,swordsman_2_90;swordsman_2_180,catapult_2_34,ballista_2_23;lancer_2_90,ranger_2_135,swordsman_2_90</t>
-  </si>
-  <si>
-    <t>ranger_2_210,sentinel_2_158,swordsman_2_105;swordsman_2_210,catapult_2_40,ballista_2_27;lancer_2_105,ranger_2_158,swordsman_2_105</t>
-  </si>
-  <si>
-    <t>ranger_2_250,sentinel_2_188,swordsman_2_125;swordsman_2_250,catapult_2_47,ballista_2_32;lancer_2_125,ranger_2_188,swordsman_2_125</t>
-  </si>
-  <si>
-    <t>lancer_2_145,ranger_2_218,sentinel_2_145;catapult_2_73,ballista_2_55,swordsman_2_145;ranger_2_290,crossbowman_2_218,catapult_2_37</t>
-  </si>
-  <si>
-    <t>lancer_2_165,ranger_2_248,sentinel_2_165;catapult_2_83,ballista_2_62,swordsman_2_165;ranger_2_330,crossbowman_2_248,catapult_2_42</t>
-  </si>
-  <si>
-    <t>lancer_2_190,ranger_2_285,sentinel_2_190;catapult_2_95,ballista_2_72,swordsman_2_190;ranger_2_380,crossbowman_2_285,catapult_2_48</t>
-  </si>
-  <si>
-    <t>horseArcher_2_150,lancer_2_113,ranger_2_150;ballista_2_75,swordsman_2_225,sentinel_2_150;crossbowman_2_300,horseArcher_2_113,ballista_2_38</t>
-  </si>
-  <si>
-    <t>horseArcher_2_250,lancer_2_188,ranger_2_250;ballista_2_125,swordsman_2_375,sentinel_2_250;crossbowman_2_500,horseArcher_2_188,ballista_2_63</t>
-  </si>
-  <si>
-    <t>horseArcher_2_290,lancer_2_218,ranger_2_290;ballista_2_145,swordsman_2_435,sentinel_2_290;crossbowman_2_580,horseArcher_2_218,ballista_2_73</t>
-  </si>
-  <si>
-    <t>catapult_2_165,horseArcher_2_248,lancer_2_165;swordsman_2_660,sentinel_2_495,ranger_2_330;horseArcher_2_330,lancer_2_248,swordsman_2_330</t>
-  </si>
-  <si>
-    <t>catapult_2_188,horseArcher_2_282,lancer_2_188;swordsman_2_750,sentinel_2_563,ranger_2_375;horseArcher_2_375,lancer_2_282,swordsman_2_375</t>
-  </si>
-  <si>
-    <t>catapult_2_215,horseArcher_2_323,lancer_2_215;swordsman_2_860,sentinel_2_645,ranger_2_430;horseArcher_2_430,lancer_2_323,swordsman_2_430</t>
-  </si>
-  <si>
-    <t>ballista_2_245,catapult_2_184,horseArcher_2_245;sentinel_2_980,ranger_2_735,lancer_2_245;lancer_2_490,crossbowman_2_735,sentinel_2_490</t>
-  </si>
-  <si>
-    <t>ballista_2_275,catapult_2_207,horseArcher_2_275;sentinel_2_1100,ranger_2_825,lancer_2_275;lancer_2_550,crossbowman_2_825,sentinel_2_550</t>
-  </si>
-  <si>
-    <t>ballista_2_310,catapult_2_233,horseArcher_2_310;sentinel_2_1240,ranger_2_930,lancer_2_310;lancer_2_620,crossbowman_2_930,sentinel_2_620</t>
-  </si>
-  <si>
-    <t>swordsman_3_1000,sentinel_3_750,ranger_3_500;lancer_3_500,horseArcher_3_375,catapult_3_125;ballista_3_250,swordsman_3_750,horseArcher_3_250</t>
-  </si>
-  <si>
-    <t>swordsman_3_1110,sentinel_3_833,ranger_3_555;lancer_3_555,horseArcher_3_417,catapult_3_139;ballista_3_278,swordsman_3_833,horseArcher_3_278</t>
-  </si>
-  <si>
-    <t>sentinel_3_1290,ranger_3_968,crossbowman_3_645;horseArcher_3_645,catapult_3_242,ballista_3_162;catapult_3_323,sentinel_3_968,swordsman_3_645</t>
-  </si>
-  <si>
-    <t>sentinel_3_1490,ranger_3_1118,crossbowman_3_745;horseArcher_3_745,catapult_3_280,ballista_3_187;catapult_3_373,sentinel_3_1118,swordsman_3_745</t>
-  </si>
-  <si>
-    <t>ranger_3_1710,crossbowman_3_1283,lancer_3_428;catapult_3_428,ballista_3_321,swordsman_3_855;horseArcher_3_855,ranger_3_1283,sentinel_3_855</t>
-  </si>
-  <si>
-    <t>ranger_3_1940,crossbowman_3_1455,lancer_3_485;catapult_3_485,ballista_3_364,swordsman_3_970;horseArcher_3_970,ranger_3_1455,sentinel_3_970</t>
-  </si>
-  <si>
-    <t>crossbowman_3_2200,lancer_3_825,horseArcher_3_550;ballista_3_550,swordsman_3_1650,sentinel_3_1100;lancer_3_1100,crossbowman_3_1650,sentinel_3_1100</t>
-  </si>
-  <si>
-    <t>crossbowman_3_2480,lancer_3_930,horseArcher_3_620;ballista_3_620,swordsman_3_1860,sentinel_3_1240;lancer_3_1240,crossbowman_3_1860,catapult_3_310</t>
-  </si>
-  <si>
-    <t>lancer_3_1395,horseArcher_3_1047,catapult_3_349;swordsman_3_2790,sentinel_3_2093,lancer_3_698;crossbowman_3_2790,lancer_3_1047,ballista_3_349</t>
-  </si>
-  <si>
-    <t>lancer_3_1565,horseArcher_3_1174,ballista_3_392;swordsman_3_3130,sentinel_3_2348,horseArcher_3_783;crossbowman_3_3130,lancer_3_1174,swordsman_3_1565</t>
-  </si>
-  <si>
-    <t>horseArcher_3_1750,catapult_3_657,ballista_3_438;sentinel_3_3500,lancer_3_1313,ranger_3_875;ranger_3_3500,horseArcher_3_1313,sentinel_3_1750</t>
-  </si>
-  <si>
-    <t>horseArcher_3_1960,ballista_3_735,catapult_3_490;sentinel_3_3920,horseArcher_3_980,catapult_3_490;ranger_3_3920,horseArcher_3_1470,catapult_3_490</t>
-  </si>
-  <si>
-    <t>catapult_3_1148,ballista_3_861,sentinel_3_2295;lancer_3_2295,sentinel_3_2295,ballista_3_574;swordsman_3_4590,catapult_3_861,lancer_3_1148</t>
-  </si>
-  <si>
-    <t>ballista_3_1335,catapult_3_1002,sentinel_3_2670;horseArcher_3_2670,catapult_3_668,ranger_3_1335;sentinel_3_5340,ballista_3_1002,horseArcher_3_1335</t>
-  </si>
-  <si>
-    <t>ballista_3_1545,swordsman_3_4635,ranger_3_3090;lancer_3_3090,ballista_3_773,crossbowman_3_3090;swordsman_3_6180,ranger_3_4635,ballista_3_773</t>
-  </si>
-  <si>
-    <t>catapult_3_1780,swordsman_3_5340,ranger_3_3560;horseArcher_3_3560,crossbowman_3_3560,catapult_3_890;sentinel_3_7120,lancer_3_2670,catapult_3_890</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceFightRewardGem</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceFightRewardHonour</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟战荣耀值奖励</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟战宝石奖励</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon:1:1,swordsman_1:1:8,lancer_1:1:3,catapult_1:1:1,ranger_1:1:2</t>
+  </si>
+  <si>
+    <t>dragon:1:1,swordsman_1:1:8,lancer_1:1:3,catapult_1:1:1,ranger_1:1:2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:6</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:7</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:8</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:9</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:10</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:11</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:12</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:13</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:14</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:15</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:16</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:17</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:18</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:19</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:20</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:21</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:22</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:23</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:24</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:25</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:26</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:27</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:28</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:29</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:30</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:31</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:32</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:33</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:34</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:35</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:36</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:37</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:38</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:39</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:40</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:41</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:42</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:43</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:44</t>
+  </si>
+  <si>
+    <t>blackDragon:1:1</t>
+  </si>
+  <si>
+    <t>blackDragon:1:1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterCount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个联盟多少个野怪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>villageRefreshTime</t>
+  </si>
+  <si>
+    <t>区域地图村落多少分钟后刷新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2051,27 +1739,11 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0\%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2239,855 +1911,865 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="837">
+  <cellStyleXfs count="847">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3114,59 +2796,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="476" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="476" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="476" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="476" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="476" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="837">
+  <cellStyles count="847">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3587,6 +3260,11 @@
     <cellStyle name="超链接" xfId="831" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="833" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="845" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4000,6 +3678,11 @@
     <cellStyle name="访问过的超链接" xfId="832" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="834" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="846" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4450,10 +4133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4698,83 +4381,94 @@
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>281</v>
+        <v>508</v>
       </c>
       <c r="B22" s="8">
-        <v>2</v>
+        <v>240</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>282</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>325</v>
+        <v>506</v>
       </c>
       <c r="B23" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>324</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="B24" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>380</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>435</v>
+        <v>339</v>
       </c>
       <c r="B25" s="8">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>434</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>523</v>
+        <v>381</v>
       </c>
       <c r="B26" s="8">
-        <v>35</v>
+        <v>360</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>522</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>565</v>
+        <v>457</v>
       </c>
       <c r="B27" s="8">
-        <v>20000</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>566</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>564</v>
+        <v>459</v>
       </c>
       <c r="B28" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B29" s="8">
         <v>200</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>567</v>
+      <c r="C29" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4814,7 +4508,7 @@
       <c r="B4" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4897,7 +4591,7 @@
         <v>32</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>35</v>
@@ -4909,7 +4603,7 @@
         <v>40</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>437</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="20" customHeight="1">
@@ -5324,7 +5018,7 @@
       <c r="N8" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6298,7 +5992,7 @@
       <c r="F40" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6313,8 +6007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6438,7 +6132,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>382</v>
+        <v>463</v>
       </c>
       <c r="J2" s="15">
         <v>200</v>
@@ -6468,7 +6162,7 @@
         <v>223</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="T2" s="17" t="s">
         <v>199</v>
@@ -6477,7 +6171,7 @@
         <v>253</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="W2" s="17" t="s">
         <v>211</v>
@@ -6486,7 +6180,7 @@
         <v>238</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45">
@@ -6515,7 +6209,7 @@
         <v>404</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>383</v>
+        <v>463</v>
       </c>
       <c r="J3" s="15">
         <v>820</v>
@@ -6545,7 +6239,7 @@
         <v>224</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>453</v>
+        <v>387</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>200</v>
@@ -6554,7 +6248,7 @@
         <v>254</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="W3" s="17" t="s">
         <v>212</v>
@@ -6563,7 +6257,7 @@
         <v>239</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>455</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45">
@@ -6592,7 +6286,7 @@
         <v>1088</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="J4" s="15">
         <v>1080</v>
@@ -6622,7 +6316,7 @@
         <v>225</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>456</v>
+        <v>390</v>
       </c>
       <c r="T4" s="17" t="s">
         <v>201</v>
@@ -6631,7 +6325,7 @@
         <v>255</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>457</v>
+        <v>391</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>213</v>
@@ -6640,7 +6334,7 @@
         <v>240</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>458</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45">
@@ -6669,7 +6363,7 @@
         <v>2204</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>385</v>
+        <v>462</v>
       </c>
       <c r="J5" s="15">
         <v>2160</v>
@@ -6699,7 +6393,7 @@
         <v>226</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="T5" s="17" t="s">
         <v>202</v>
@@ -6708,7 +6402,7 @@
         <v>256</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="W5" s="17" t="s">
         <v>214</v>
@@ -6717,7 +6411,7 @@
         <v>241</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>461</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45">
@@ -6746,7 +6440,7 @@
         <v>3788</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>386</v>
+        <v>462</v>
       </c>
       <c r="J6" s="15">
         <v>3650</v>
@@ -6776,7 +6470,7 @@
         <v>227</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>462</v>
+        <v>396</v>
       </c>
       <c r="T6" s="17" t="s">
         <v>203</v>
@@ -6785,7 +6479,7 @@
         <v>257</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>463</v>
+        <v>397</v>
       </c>
       <c r="W6" s="17" t="s">
         <v>215</v>
@@ -6794,7 +6488,7 @@
         <v>242</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>464</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45">
@@ -6823,7 +6517,7 @@
         <v>5876</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>387</v>
+        <v>462</v>
       </c>
       <c r="J7" s="15">
         <v>5670</v>
@@ -6853,7 +6547,7 @@
         <v>228</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>465</v>
+        <v>399</v>
       </c>
       <c r="T7" s="17" t="s">
         <v>204</v>
@@ -6862,7 +6556,7 @@
         <v>258</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="W7" s="17" t="s">
         <v>216</v>
@@ -6871,7 +6565,7 @@
         <v>243</v>
       </c>
       <c r="Y7" s="17" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45">
@@ -6900,7 +6594,7 @@
         <v>8520</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>388</v>
+        <v>462</v>
       </c>
       <c r="J8" s="15">
         <v>10950</v>
@@ -6924,31 +6618,31 @@
         <v>2985</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>468</v>
+        <v>402</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X8" s="17" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="Y8" s="17" t="s">
-        <v>470</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45">
@@ -6977,7 +6671,7 @@
         <v>11752</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="J9" s="15">
         <v>15110</v>
@@ -7007,7 +6701,7 @@
         <v>229</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>471</v>
+        <v>405</v>
       </c>
       <c r="T9" s="17" t="s">
         <v>205</v>
@@ -7016,7 +6710,7 @@
         <v>259</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>472</v>
+        <v>406</v>
       </c>
       <c r="W9" s="17" t="s">
         <v>217</v>
@@ -7025,7 +6719,7 @@
         <v>244</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>473</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45">
@@ -7054,7 +6748,7 @@
         <v>15600</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>390</v>
+        <v>462</v>
       </c>
       <c r="J10" s="15">
         <v>19970</v>
@@ -7078,31 +6772,31 @@
         <v>5460</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="Y10" s="17" t="s">
-        <v>476</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="45">
@@ -7131,7 +6825,7 @@
         <v>20072</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="J11" s="15">
         <v>25730</v>
@@ -7161,7 +6855,7 @@
         <v>230</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="T11" s="17" t="s">
         <v>151</v>
@@ -7170,7 +6864,7 @@
         <v>260</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="W11" s="17" t="s">
         <v>152</v>
@@ -7179,7 +6873,7 @@
         <v>245</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>479</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45">
@@ -7208,7 +6902,7 @@
         <v>25240</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>392</v>
+        <v>462</v>
       </c>
       <c r="J12" s="15">
         <v>32320</v>
@@ -7232,31 +6926,31 @@
         <v>8840</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>480</v>
+        <v>414</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>481</v>
+        <v>415</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="X12" s="17" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>482</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="45">
@@ -7285,7 +6979,7 @@
         <v>31112</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="J13" s="15">
         <v>39880</v>
@@ -7315,7 +7009,7 @@
         <v>231</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="T13" s="17" t="s">
         <v>206</v>
@@ -7324,7 +7018,7 @@
         <v>261</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="W13" s="17" t="s">
         <v>218</v>
@@ -7333,7 +7027,7 @@
         <v>246</v>
       </c>
       <c r="Y13" s="17" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45">
@@ -7362,7 +7056,7 @@
         <v>37700</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="J14" s="15">
         <v>60320</v>
@@ -7386,31 +7080,31 @@
         <v>13200</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="X14" s="17" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="Y14" s="17" t="s">
-        <v>488</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45">
@@ -7439,7 +7133,7 @@
         <v>45044</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="J15" s="15">
         <v>72080</v>
@@ -7469,7 +7163,7 @@
         <v>232</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>489</v>
+        <v>423</v>
       </c>
       <c r="T15" s="17" t="s">
         <v>207</v>
@@ -7478,7 +7172,7 @@
         <v>262</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>490</v>
+        <v>424</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>219</v>
@@ -7487,7 +7181,7 @@
         <v>247</v>
       </c>
       <c r="Y15" s="17" t="s">
-        <v>491</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="45">
@@ -7516,7 +7210,7 @@
         <v>53160</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="J16" s="15">
         <v>85120</v>
@@ -7540,31 +7234,31 @@
         <v>18610</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>492</v>
+        <v>426</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>493</v>
+        <v>427</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="Y16" s="17" t="s">
-        <v>494</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="45">
@@ -7592,8 +7286,8 @@
       <c r="H17" s="16">
         <v>62080</v>
       </c>
-      <c r="I17" s="24" t="s">
-        <v>441</v>
+      <c r="I17" s="23" t="s">
+        <v>462</v>
       </c>
       <c r="J17" s="15">
         <v>99360</v>
@@ -7623,7 +7317,7 @@
         <v>233</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
       <c r="T17" s="17" t="s">
         <v>155</v>
@@ -7632,7 +7326,7 @@
         <v>263</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>496</v>
+        <v>430</v>
       </c>
       <c r="W17" s="17" t="s">
         <v>156</v>
@@ -7641,7 +7335,7 @@
         <v>248</v>
       </c>
       <c r="Y17" s="17" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="45">
@@ -7669,8 +7363,8 @@
       <c r="H18" s="16">
         <v>71788</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>442</v>
+      <c r="I18" s="23" t="s">
+        <v>462</v>
       </c>
       <c r="J18" s="15">
         <v>114880</v>
@@ -7694,31 +7388,31 @@
         <v>25130</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>498</v>
+        <v>432</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="U18" s="17" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>500</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="45">
@@ -7746,8 +7440,8 @@
       <c r="H19" s="16">
         <v>82356</v>
       </c>
-      <c r="I19" s="25" t="s">
-        <v>443</v>
+      <c r="I19" s="23" t="s">
+        <v>462</v>
       </c>
       <c r="J19" s="15">
         <v>131840</v>
@@ -7777,7 +7471,7 @@
         <v>234</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
       <c r="T19" s="17" t="s">
         <v>208</v>
@@ -7786,7 +7480,7 @@
         <v>264</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="W19" s="17" t="s">
         <v>220</v>
@@ -7795,7 +7489,7 @@
         <v>249</v>
       </c>
       <c r="Y19" s="17" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="45">
@@ -7823,8 +7517,8 @@
       <c r="H20" s="16">
         <v>93764</v>
       </c>
-      <c r="I20" s="25" t="s">
-        <v>444</v>
+      <c r="I20" s="23" t="s">
+        <v>462</v>
       </c>
       <c r="J20" s="15">
         <v>180100</v>
@@ -7848,31 +7542,31 @@
         <v>32820</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="U20" s="17" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>505</v>
+        <v>439</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="X20" s="17" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="Y20" s="17" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="45">
@@ -7900,8 +7594,8 @@
       <c r="H21" s="16">
         <v>106040</v>
       </c>
-      <c r="I21" s="24" t="s">
-        <v>445</v>
+      <c r="I21" s="23" t="s">
+        <v>462</v>
       </c>
       <c r="J21" s="12">
         <v>203620</v>
@@ -7931,7 +7625,7 @@
         <v>235</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>507</v>
+        <v>441</v>
       </c>
       <c r="T21" s="17" t="s">
         <v>209</v>
@@ -7940,7 +7634,7 @@
         <v>265</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>508</v>
+        <v>442</v>
       </c>
       <c r="W21" s="17" t="s">
         <v>221</v>
@@ -7949,7 +7643,7 @@
         <v>250</v>
       </c>
       <c r="Y21" s="17" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="45">
@@ -7977,8 +7671,8 @@
       <c r="H22" s="16">
         <v>119220</v>
       </c>
-      <c r="I22" s="25" t="s">
-        <v>446</v>
+      <c r="I22" s="23" t="s">
+        <v>462</v>
       </c>
       <c r="J22" s="12">
         <v>228960</v>
@@ -8002,31 +7696,31 @@
         <v>41730</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="U22" s="17" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="X22" s="17" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="Y22" s="17" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="45">
@@ -8054,8 +7748,8 @@
       <c r="H23" s="12">
         <v>133308</v>
       </c>
-      <c r="I23" s="25" t="s">
-        <v>447</v>
+      <c r="I23" s="23" t="s">
+        <v>462</v>
       </c>
       <c r="J23" s="12">
         <v>256040</v>
@@ -8085,7 +7779,7 @@
         <v>236</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="T23" s="17" t="s">
         <v>159</v>
@@ -8094,7 +7788,7 @@
         <v>266</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="W23" s="17" t="s">
         <v>160</v>
@@ -8103,7 +7797,7 @@
         <v>251</v>
       </c>
       <c r="Y23" s="17" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="45">
@@ -8131,8 +7825,8 @@
       <c r="H24" s="12">
         <v>148320</v>
       </c>
-      <c r="I24" s="25" t="s">
-        <v>448</v>
+      <c r="I24" s="23" t="s">
+        <v>462</v>
       </c>
       <c r="J24" s="12">
         <v>284840</v>
@@ -8156,31 +7850,31 @@
         <v>51915</v>
       </c>
       <c r="Q24" s="22" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>517</v>
+        <v>451</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="X24" s="17" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>518</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="45">
@@ -8208,8 +7902,8 @@
       <c r="H25" s="12">
         <v>164268</v>
       </c>
-      <c r="I25" s="27" t="s">
-        <v>449</v>
+      <c r="I25" s="23" t="s">
+        <v>462</v>
       </c>
       <c r="J25" s="12">
         <v>315460</v>
@@ -8239,7 +7933,7 @@
         <v>237</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>210</v>
@@ -8248,7 +7942,7 @@
         <v>267</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="W25" s="17" t="s">
         <v>222</v>
@@ -8257,11 +7951,11 @@
         <v>252</v>
       </c>
       <c r="Y25" s="17" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="20" customHeight="1">
-      <c r="I26" s="26"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:25" ht="20" customHeight="1">
       <c r="R27" s="15"/>
@@ -8288,7 +7982,7 @@
       <c r="Y29" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -8304,7 +7998,7 @@
   <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8324,7 +8018,7 @@
         <v>278</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>277</v>
@@ -8336,13 +8030,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>283</v>
+        <v>505</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
@@ -8350,13 +8044,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>284</v>
+        <v>505</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
@@ -8364,13 +8058,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>285</v>
+        <v>504</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>528</v>
+        <v>466</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>396</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
@@ -8378,13 +8072,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>286</v>
+        <v>504</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>529</v>
+        <v>467</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>397</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -8392,13 +8086,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>287</v>
+        <v>504</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>398</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
@@ -8406,13 +8100,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>288</v>
+        <v>504</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>530</v>
+        <v>469</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>399</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45">
@@ -8420,13 +8114,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>289</v>
+        <v>504</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>400</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45">
@@ -8434,13 +8128,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>290</v>
+        <v>504</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45">
@@ -8448,41 +8142,41 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>291</v>
+        <v>504</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>533</v>
+        <v>504</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>473</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>534</v>
+        <v>504</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>474</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45">
@@ -8490,13 +8184,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>294</v>
+        <v>504</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>535</v>
+        <v>475</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>405</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45">
@@ -8504,13 +8198,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>295</v>
+        <v>504</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>536</v>
+        <v>476</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>406</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45">
@@ -8518,13 +8212,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>296</v>
+        <v>504</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
@@ -8532,13 +8226,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>297</v>
+        <v>504</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>538</v>
+        <v>478</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45">
@@ -8546,13 +8240,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>298</v>
+        <v>504</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45">
@@ -8560,13 +8254,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>299</v>
+        <v>504</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45">
@@ -8574,13 +8268,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>300</v>
+        <v>504</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>541</v>
+        <v>481</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45">
@@ -8588,13 +8282,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>301</v>
+        <v>504</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45">
@@ -8602,13 +8296,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>302</v>
+        <v>504</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>543</v>
+        <v>483</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45">
@@ -8616,13 +8310,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>303</v>
+        <v>504</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>544</v>
+        <v>484</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45">
@@ -8630,13 +8324,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>304</v>
+        <v>504</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>545</v>
+        <v>485</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="45">
@@ -8644,13 +8338,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>305</v>
+        <v>504</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>546</v>
+        <v>486</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45">
@@ -8658,13 +8352,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>306</v>
+        <v>504</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45">
@@ -8672,13 +8366,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>307</v>
+        <v>504</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>548</v>
+        <v>488</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45">
@@ -8686,13 +8380,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>308</v>
+        <v>504</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="45">
@@ -8700,13 +8394,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>309</v>
+        <v>504</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45">
@@ -8714,13 +8408,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>310</v>
+        <v>504</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>551</v>
+        <v>491</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45">
@@ -8728,13 +8422,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>552</v>
+        <v>492</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45">
@@ -8742,13 +8436,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>312</v>
+        <v>504</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>553</v>
+        <v>493</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="45">
@@ -8756,125 +8450,125 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>313</v>
+        <v>504</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>554</v>
+        <v>494</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45">
       <c r="A33" s="15">
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>555</v>
+        <v>504</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>495</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45">
       <c r="A34" s="15">
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>556</v>
+        <v>504</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>496</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45">
       <c r="A35" s="15">
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>557</v>
+        <v>504</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>497</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45">
       <c r="A36" s="15">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>558</v>
+        <v>504</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>498</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="45">
       <c r="A37" s="15">
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>559</v>
+        <v>504</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>499</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45">
       <c r="A38" s="15">
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>560</v>
+        <v>504</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>500</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45">
       <c r="A39" s="15">
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>561</v>
+        <v>504</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45">
       <c r="A40" s="15">
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>562</v>
+        <v>504</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>502</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -8882,13 +8576,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>563</v>
+        <v>504</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>503</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -9168,7 +8862,7 @@
       <c r="D134" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="2740" windowWidth="27000" windowHeight="15760" tabRatio="539"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33020" windowHeight="19360" tabRatio="333" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="568">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -329,14 +329,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>allianceHelpDefenceTroopsMaxCount</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>协防玩家最大数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>citizenPerLeadership</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1582,154 +1574,333 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>dragon:1:1,swordsman_1:1:8,lancer_1:1:3,catapult_1:1:1,ranger_1:1:2</t>
-  </si>
-  <si>
-    <t>dragon:1:1,swordsman_1:1:8,lancer_1:1:3,catapult_1:1:1,ranger_1:1:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:6</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:7</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:8</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:9</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:10</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:11</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:12</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:13</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:14</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:15</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:16</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:17</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:18</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:19</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:20</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:21</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:22</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:23</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:24</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:25</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:26</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:27</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:28</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:29</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:30</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:31</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:32</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:33</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:34</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:35</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:36</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:37</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:38</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:39</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:40</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:41</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:42</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:43</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:2,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:2,sentinel_2:1:44</t>
-  </si>
-  <si>
     <t>blackDragon:1:1</t>
-  </si>
-  <si>
-    <t>blackDragon:1:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:1:2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:1:3</t>
+  </si>
+  <si>
+    <t>blackDragon:1:4</t>
+  </si>
+  <si>
+    <t>blackDragon:1:5</t>
+  </si>
+  <si>
+    <t>blackDragon:1:6</t>
+  </si>
+  <si>
+    <t>blackDragon:1:7</t>
+  </si>
+  <si>
+    <t>blackDragon:1:8</t>
+  </si>
+  <si>
+    <t>blackDragon:1:9</t>
+  </si>
+  <si>
+    <t>blackDragon:1:10</t>
+  </si>
+  <si>
+    <t>blackDragon:2:11</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:2:12</t>
+  </si>
+  <si>
+    <t>blackDragon:2:13</t>
+  </si>
+  <si>
+    <t>blackDragon:2:14</t>
+  </si>
+  <si>
+    <t>blackDragon:2:15</t>
+  </si>
+  <si>
+    <t>blackDragon:2:16</t>
+  </si>
+  <si>
+    <t>blackDragon:2:17</t>
+  </si>
+  <si>
+    <t>blackDragon:2:18</t>
+  </si>
+  <si>
+    <t>blackDragon:2:19</t>
+  </si>
+  <si>
+    <t>blackDragon:2:20</t>
+  </si>
+  <si>
+    <t>blackDragon:3:21</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:3:22</t>
+  </si>
+  <si>
+    <t>blackDragon:3:23</t>
+  </si>
+  <si>
+    <t>blackDragon:3:24</t>
+  </si>
+  <si>
+    <t>blackDragon:3:25</t>
+  </si>
+  <si>
+    <t>blackDragon:3:26</t>
+  </si>
+  <si>
+    <t>blackDragon:3:27</t>
+  </si>
+  <si>
+    <t>blackDragon:3:28</t>
+  </si>
+  <si>
+    <t>blackDragon:3:29</t>
+  </si>
+  <si>
+    <t>blackDragon:3:30</t>
+  </si>
+  <si>
+    <t>blackDragon:4:31</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:4:32</t>
+  </si>
+  <si>
+    <t>blackDragon:4:33</t>
+  </si>
+  <si>
+    <t>blackDragon:4:34</t>
+  </si>
+  <si>
+    <t>blackDragon:4:35</t>
+  </si>
+  <si>
+    <t>blackDragon:4:36</t>
+  </si>
+  <si>
+    <t>blackDragon:4:37</t>
+  </si>
+  <si>
+    <t>blackDragon:4:38</t>
+  </si>
+  <si>
+    <t>blackDragon:4:39</t>
+  </si>
+  <si>
+    <t>blackDragon:4:40</t>
+  </si>
+  <si>
+    <t>dragon:1:1,swordsman_1:1:32,lancer_1:1:12,catapult_1:1:8,ranger_1:1:8</t>
+  </si>
+  <si>
+    <t>dragon:1:2,lancer_1:1:36,ballista_1:1:27,ranger_1:1:36,swordsman_1:1:18</t>
+  </si>
+  <si>
+    <t>dragon:1:3,catapult_1:1:56,crossbowman_1:1:84,sentinel_1:1:56,horseArcher_1:1:14</t>
+  </si>
+  <si>
+    <t>dragon:1:4,crossbowman_1:2:192,sentinel_1:2:144,horseArcher_1:2:48,ballista_1:2:24</t>
+  </si>
+  <si>
+    <t>dragon:1:6,swordsman_1:2:321,lancer_1:2:121,catapult_1:2:81,ranger_1:2:81</t>
+  </si>
+  <si>
+    <t>dragon:1:8,lancer_1:2:221,ballista_1:2:166,ranger_1:2:221,swordsman_1:2:111</t>
+  </si>
+  <si>
+    <t>dragon:2:11,catapult_1:3:361,crossbowman_1:3:541,sentinel_1:3:361,horseArcher_1:3:91</t>
+  </si>
+  <si>
+    <t>dragon:2:12,crossbowman_1:3:921,sentinel_1:3:691,horseArcher_1:3:231,ballista_1:3:116</t>
+  </si>
+  <si>
+    <t>dragon:2:13,swordsman_1:3:1144,lancer_1:3:429,catapult_1:3:286,ranger_1:3:286</t>
+  </si>
+  <si>
+    <t>dragon:2:14,lancer_2:1:688,ballista_2:1:516,ranger_2:1:688,swordsman_2:1:344</t>
+  </si>
+  <si>
+    <t>dragon:2:16,catapult_2:1:820,crossbowman_2:1:1230,sentinel_2:1:820,horseArcher_2:1:205</t>
+  </si>
+  <si>
+    <t>dragon:2:18,crossbowman_2:1:1920,sentinel_2:1:1440,horseArcher_2:1:480,ballista_2:1:240</t>
+  </si>
+  <si>
+    <t>dragon:3:21,swordsman_2:2:2240,lancer_2:2:840,catapult_2:2:560,ranger_2:2:560</t>
+  </si>
+  <si>
+    <t>dragon:3:22,lancer_2:2:1240,ballista_2:2:930,ranger_2:2:1240,swordsman_2:2:620</t>
+  </si>
+  <si>
+    <t>dragon:3:23,catapult_2:2:1400,crossbowman_2:2:2100,sentinel_2:2:1400,horseArcher_2:2:350</t>
+  </si>
+  <si>
+    <t>dragon:3:24,crossbowman_2:3:3120,sentinel_2:3:2340,horseArcher_2:3:780,ballista_2:3:390</t>
+  </si>
+  <si>
+    <t>dragon:3:26,swordsman_2:3:3440,lancer_2:3:1290,catapult_2:3:860,ranger_2:3:860</t>
+  </si>
+  <si>
+    <t>dragon:3:28,lancer_2:3:1920,ballista_2:3:1440,ranger_2:3:1920,swordsman_2:3:960</t>
+  </si>
+  <si>
+    <t>dragon:4:31,catapult_3:1:2080,crossbowman_3:1:3120,sentinel_3:1:2080,horseArcher_3:1:520</t>
+  </si>
+  <si>
+    <t>dragon:4:32,crossbowman_3:1:4560,sentinel_3:1:3420,horseArcher_3:1:1140,ballista_3:1:570</t>
+  </si>
+  <si>
+    <t>dragon:4:33,swordsman_3:2:4880,lancer_3:2:1830,catapult_3:2:1220,ranger_3:2:1220</t>
+  </si>
+  <si>
+    <t>dragon:4:34,lancer_3:2:2640,ballista_3:2:1980,ranger_3:2:2640,swordsman_3:2:1320</t>
+  </si>
+  <si>
+    <t>dragon:4:36,catapult_3:3:2880,crossbowman_3:3:4320,sentinel_3:3:2880,horseArcher_3:3:720</t>
+  </si>
+  <si>
+    <t>dragon:4:38,crossbowman_3:3:6400,sentinel_3:3:4800,horseArcher_3:3:1600,ballista_3:3:800</t>
+  </si>
+  <si>
+    <t>区域地图村落多少分钟后刷新</t>
+  </si>
+  <si>
+    <t>villageRefreshTime</t>
   </si>
   <si>
     <t>monsterCount</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每个联盟多少个野怪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>villageRefreshTime</t>
-  </si>
-  <si>
-    <t>区域地图村落多少分钟后刷新</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:4,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:4,sentinel_2:1:5</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:30,ballista_2:1:12,swordsman_2:1:15;sentinel_2:1:30,lancer_2:1:12,horseArcher_2:1:8;horseArcher_2:1:15,catapult_2:1:12,sentinel_2:1:15</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:40,ballista_2:1:15,swordsman_2:1:20;sentinel_2:1:40,lancer_2:1:15,horseArcher_2:1:10;horseArcher_2:1:20,catapult_2:1:15,sentinel_2:1:20</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:50,crossbowman_2:1:38,ballista_2:1:13;lancer_2:1:25,horseArcher_2:1:19,swordsman_2:1:25;catapult_2:1:25,ballista_2:1:19,lancer_2:1:13</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:60,crossbowman_2:1:45,ballista_2:1:15;lancer_2:1:30,horseArcher_2:1:23,swordsman_2:1:30;catapult_2:1:30,ballista_2:1:23,lancer_2:1:15</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:90,crossbowman_2:1:68,ballista_2:1:23;lancer_2:1:45,horseArcher_2:1:34,swordsman_2:1:45;catapult_2:1:45,ballista_2:1:34,lancer_2:1:23</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:120,swordsman_2:1:90,crossbowman_2:1:60;horseArcher_2:1:60,swordsman_2:1:90,catapult_2:1:30;ballista_2:1:60,lancer_2:1:45,horseArcher_2:1:30</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:150,swordsman_2:1:113,crossbowman_2:1:75;horseArcher_2:1:75,swordsman_2:1:113,catapult_2:1:38;ballista_2:1:75,lancer_2:1:57,horseArcher_2:1:38</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:180,swordsman_2:1:135,crossbowman_2:1:90;horseArcher_2:1:90,swordsman_2:1:135,catapult_2:1:45;ballista_2:1:90,lancer_2:1:68,horseArcher_2:1:45</t>
+  </si>
+  <si>
+    <t>ranger_2:1:240,sentinel_2:1:180,swordsman_2:1:120;swordsman_2:1:240,catapult_2:1:90,ballista_2:1:60;lancer_2:1:120,ranger_2:1:180,swordsman_2:1:120</t>
+  </si>
+  <si>
+    <t>ranger_2:1:290,sentinel_2:1:218,swordsman_2:1:145;swordsman_2:1:290,catapult_2:1:109,ballista_2:1:73;lancer_2:1:145,ranger_2:1:218,swordsman_2:1:145</t>
+  </si>
+  <si>
+    <t>ranger_2:1:350,sentinel_2:1:263,swordsman_2:1:175;swordsman_2:1:350,catapult_2:1:132,ballista_2:1:88;lancer_2:1:175,ranger_2:1:263,swordsman_2:1:175</t>
+  </si>
+  <si>
+    <t>lancer_2:1:205,ranger_2:1:308,sentinel_2:1:205;catapult_2:1:205,ballista_2:1:154,swordsman_2:1:205;ranger_2:1:410,crossbowman_2:1:308,catapult_2:1:103</t>
+  </si>
+  <si>
+    <t>lancer_2:1:235,ranger_2:1:353,sentinel_2:1:235;catapult_2:1:235,ballista_2:1:177,swordsman_2:1:235;ranger_2:1:470,crossbowman_2:1:353,catapult_2:1:118</t>
+  </si>
+  <si>
+    <t>lancer_2:1:270,ranger_2:1:405,sentinel_2:1:270;catapult_2:1:270,ballista_2:1:203,swordsman_2:1:270;ranger_2:1:540,crossbowman_2:1:405,catapult_2:1:135</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:305,lancer_2:2:229,ranger_2:2:305;ballista_2:2:305,swordsman_2:2:458,sentinel_2:2:305;crossbowman_2:2:610,horseArcher_2:2:229,ballista_2:2:153</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:365,lancer_2:2:274,ranger_2:2:365;ballista_2:2:365,swordsman_2:2:548,sentinel_2:2:365;crossbowman_2:2:730,horseArcher_2:2:274,ballista_2:2:183</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:430,lancer_2:2:323,ranger_2:2:430;ballista_2:2:430,swordsman_2:2:645,sentinel_2:2:430;crossbowman_2:2:860,horseArcher_2:2:323,ballista_2:2:215</t>
+  </si>
+  <si>
+    <t>catapult_2:2:495,horseArcher_2:2:372,lancer_2:2:248;swordsman_2:2:990,sentinel_2:2:743,ranger_2:2:495;horseArcher_2:2:495,lancer_2:2:372,swordsman_2:2:495</t>
+  </si>
+  <si>
+    <t>catapult_2:2:565,horseArcher_2:2:424,lancer_2:2:283;swordsman_2:2:1130,sentinel_2:2:848,ranger_2:2:565;horseArcher_2:2:565,lancer_2:2:424,swordsman_2:2:565</t>
+  </si>
+  <si>
+    <t>catapult_2:2:610,horseArcher_2:2:458,lancer_2:2:305;swordsman_2:2:1220,sentinel_2:2:915,ranger_2:2:610;horseArcher_2:2:610,lancer_2:2:458,swordsman_2:2:610</t>
+  </si>
+  <si>
+    <t>ballista_2:2:660,catapult_2:2:495,horseArcher_2:2:330;sentinel_2:2:1320,ranger_2:2:990,lancer_2:2:330;lancer_2:2:660,crossbowman_2:2:990,sentinel_2:2:660</t>
+  </si>
+  <si>
+    <t>ballista_2:2:705,catapult_2:2:529,horseArcher_2:2:353;sentinel_2:2:1410,ranger_2:2:1058,lancer_2:2:353;lancer_2:2:705,crossbowman_2:2:1058,sentinel_2:2:705</t>
+  </si>
+  <si>
+    <t>ballista_2:2:745,catapult_2:2:559,horseArcher_2:2:373;sentinel_2:2:1490,ranger_2:2:1118,lancer_2:2:373;lancer_2:2:745,crossbowman_2:2:1118,sentinel_2:2:745</t>
+  </si>
+  <si>
+    <t>swordsman_2:2:1580,sentinel_2:2:1185,ranger_2:2:790;lancer_2:2:790,horseArcher_2:2:593,catapult_2:2:395;ballista_2:2:790,swordsman_2:2:1185,horseArcher_2:2:395</t>
+  </si>
+  <si>
+    <t>swordsman_2:3:1660,sentinel_2:3:1245,ranger_2:3:830;lancer_2:3:830,horseArcher_2:3:623,catapult_2:3:415;ballista_2:3:830,swordsman_2:3:1245,horseArcher_2:3:415</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:1840,ranger_2:3:1380,crossbowman_2:3:920;horseArcher_2:3:920,catapult_2:3:690,ballista_2:3:460;catapult_2:3:920,sentinel_2:3:1380,swordsman_2:3:920</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:2020,ranger_2:3:1515,crossbowman_2:3:1010;horseArcher_2:3:1010,catapult_2:3:758,ballista_2:3:505;catapult_2:3:1010,sentinel_2:3:1515,swordsman_2:3:1010</t>
+  </si>
+  <si>
+    <t>ranger_2:3:2190,crossbowman_2:3:1643,lancer_2:3:548;catapult_2:3:1095,ballista_2:3:822,swordsman_2:3:1095;horseArcher_2:3:1095,ranger_2:3:1643,sentinel_2:3:1095</t>
+  </si>
+  <si>
+    <t>ranger_2:3:2360,crossbowman_2:3:1770,lancer_2:3:590;catapult_2:3:1180,ballista_2:3:885,swordsman_2:3:1180;horseArcher_2:3:1180,ranger_2:3:1770,sentinel_2:3:1180</t>
+  </si>
+  <si>
+    <t>crossbowman_3:1:2520,lancer_3:1:945,horseArcher_3:1:630;ballista_3:1:1260,swordsman_3:1:1890,sentinel_3:1:1260;lancer_3:1:1260,crossbowman_3:1:1890,sentinel_3:1:1260</t>
+  </si>
+  <si>
+    <t>crossbowman_3:1:2680,lancer_3:1:1005,horseArcher_3:1:670;ballista_3:1:1340,swordsman_3:1:2010,sentinel_3:1:1340;lancer_3:1:1340,crossbowman_3:1:2010,catapult_3:1:670</t>
+  </si>
+  <si>
+    <t>lancer_3:1:1425,horseArcher_3:1:1069,catapult_3:1:713;swordsman_3:1:2850,sentinel_3:1:2138,lancer_3:1:713;crossbowman_3:1:2850,lancer_3:1:1069,ballista_3:1:713</t>
+  </si>
+  <si>
+    <t>lancer_3:1:1505,horseArcher_3:1:1129,ballista_3:1:753;swordsman_3:1:3010,sentinel_3:1:2258,horseArcher_3:1:753;crossbowman_3:1:3010,lancer_3:1:1129,swordsman_3:1:1505</t>
+  </si>
+  <si>
+    <t>horseArcher_3:1:1580,catapult_3:1:1185,ballista_3:1:790;sentinel_3:1:3160,lancer_3:1:1185,ranger_3:1:790;ranger_3:1:3160,horseArcher_3:1:1185,sentinel_3:1:1580</t>
+  </si>
+  <si>
+    <t>horseArcher_3:2:1660,ballista_3:2:1245,catapult_3:2:830;sentinel_3:2:3320,horseArcher_3:2:830,catapult_3:2:830;ranger_3:2:3320,horseArcher_3:2:1245,catapult_3:2:830</t>
+  </si>
+  <si>
+    <t>catapult_3:2:1820,ballista_3:2:1365,sentinel_3:2:1820;lancer_3:2:1820,sentinel_3:2:1820,ballista_3:2:910;swordsman_3:2:3640,catapult_3:2:1365,lancer_3:2:910</t>
+  </si>
+  <si>
+    <t>ballista_3:2:1980,catapult_3:2:1485,sentinel_3:2:1980;horseArcher_3:2:1980,catapult_3:2:990,ranger_3:2:1980;sentinel_3:2:3960,ballista_3:2:1485,horseArcher_3:2:990</t>
+  </si>
+  <si>
+    <t>ballista_3:2:2140,swordsman_3:2:3210,ranger_3:2:2140;lancer_3:2:2140,ballista_3:2:1070,crossbowman_3:2:2140;swordsman_3:2:4280,ranger_3:2:3210,ballista_3:2:1070</t>
+  </si>
+  <si>
+    <t>catapult_3:3:2295,swordsman_3:3:3443,ranger_3:3:2295;horseArcher_3:3:2295,crossbowman_3:3:2295,catapult_3:3:1148;sentinel_3:3:4590,lancer_3:3:1722,catapult_3:3:1148</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +2082,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="847">
+  <cellStyleXfs count="879">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2393,6 +2564,38 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2839,7 +3042,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="847">
+  <cellStyles count="879">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3265,6 +3468,22 @@
     <cellStyle name="超链接" xfId="841" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="843" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3683,6 +3902,22 @@
     <cellStyle name="访问过的超链接" xfId="842" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="844" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="878" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4133,10 +4368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4238,79 +4473,79 @@
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8">
-        <v>2</v>
+        <v>1440</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="8">
-        <v>1440</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" s="8">
         <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B12" s="8">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B13" s="8">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B14" s="8">
-        <v>5</v>
+        <v>480</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B15" s="8">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
@@ -4318,7 +4553,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="8">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>77</v>
@@ -4340,7 +4575,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>81</v>
@@ -4348,90 +4583,90 @@
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="B19" s="8">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B20" s="8">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>279</v>
+        <v>525</v>
       </c>
       <c r="B21" s="8">
         <v>240</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>280</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B22" s="8">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>506</v>
+        <v>281</v>
       </c>
       <c r="B23" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>507</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="B24" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="B25" s="8">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
       <c r="B26" s="8">
-        <v>360</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>380</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -4439,32 +4674,21 @@
         <v>457</v>
       </c>
       <c r="B27" s="8">
-        <v>35</v>
+        <v>20000</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B28" s="8">
+        <v>200</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="B28" s="8">
-        <v>20000</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B29" s="8">
-        <v>200</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -4567,7 +4791,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>46</v>
@@ -4591,7 +4815,7 @@
         <v>32</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>35</v>
@@ -4603,7 +4827,7 @@
         <v>40</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="20" customHeight="1">
@@ -5071,10 +5295,10 @@
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -5101,10 +5325,10 @@
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -5131,10 +5355,10 @@
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -5161,10 +5385,10 @@
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -5194,7 +5418,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -5221,10 +5445,10 @@
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -5251,10 +5475,10 @@
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -5281,10 +5505,10 @@
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -5313,10 +5537,10 @@
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -5345,10 +5569,10 @@
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -5377,10 +5601,10 @@
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -5409,10 +5633,10 @@
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
@@ -5432,10 +5656,10 @@
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -5455,10 +5679,10 @@
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -5478,10 +5702,10 @@
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -5501,10 +5725,10 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -5527,7 +5751,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -5547,10 +5771,10 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1">
         <v>6</v>
@@ -5570,10 +5794,10 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -5593,10 +5817,10 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -5616,10 +5840,10 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -5639,10 +5863,10 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -5662,10 +5886,10 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -5685,10 +5909,10 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
@@ -5708,10 +5932,10 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -5731,10 +5955,10 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -5754,10 +5978,10 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -5777,10 +6001,10 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -5800,10 +6024,10 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -5823,10 +6047,10 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
@@ -5846,10 +6070,10 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -5869,10 +6093,10 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -5892,10 +6116,10 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -5915,10 +6139,10 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -5938,10 +6162,10 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C36" s="1">
         <v>5</v>
@@ -5961,10 +6185,10 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -6007,8 +6231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6031,84 +6255,84 @@
   <sheetData>
     <row r="1" spans="1:25" s="13" customFormat="1" ht="30">
       <c r="A1" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="45">
       <c r="A2" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6120,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="15">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="F2" s="15">
         <v>50</v>
@@ -6129,10 +6353,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="16">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="J2" s="15">
         <v>200</v>
@@ -6147,45 +6371,45 @@
         <v>800</v>
       </c>
       <c r="N2" s="15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O2" s="15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P2" s="15">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S2" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y2" s="17" t="s">
         <v>384</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45">
       <c r="A3" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="15">
         <v>2</v>
@@ -6197,7 +6421,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="15">
-        <v>1212</v>
+        <v>1080</v>
       </c>
       <c r="F3" s="15">
         <v>50</v>
@@ -6206,13 +6430,13 @@
         <v>6</v>
       </c>
       <c r="H3" s="16">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>463</v>
+        <v>501</v>
       </c>
       <c r="J3" s="15">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="K3" s="15">
         <v>800</v>
@@ -6224,45 +6448,45 @@
         <v>1600</v>
       </c>
       <c r="N3" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="O3" s="15">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="P3" s="15">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S3" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y3" s="17" t="s">
         <v>387</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45">
       <c r="A4" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="15">
         <v>3</v>
@@ -6274,7 +6498,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="15">
-        <v>3264</v>
+        <v>1680</v>
       </c>
       <c r="F4" s="15">
         <v>50</v>
@@ -6283,13 +6507,13 @@
         <v>6</v>
       </c>
       <c r="H4" s="16">
-        <v>1088</v>
+        <v>560</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="J4" s="15">
-        <v>1080</v>
+        <v>600</v>
       </c>
       <c r="K4" s="15">
         <v>1200</v>
@@ -6301,45 +6525,45 @@
         <v>2400</v>
       </c>
       <c r="N4" s="15">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="O4" s="15">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="P4" s="15">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y4" s="17" t="s">
         <v>390</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="T4" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="X4" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45">
       <c r="A5" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="15">
         <v>4</v>
@@ -6351,7 +6575,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="15">
-        <v>6612</v>
+        <v>4320</v>
       </c>
       <c r="F5" s="15">
         <v>50</v>
@@ -6360,13 +6584,13 @@
         <v>6</v>
       </c>
       <c r="H5" s="16">
-        <v>2204</v>
+        <v>1440</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="J5" s="15">
-        <v>2160</v>
+        <v>800</v>
       </c>
       <c r="K5" s="15">
         <v>1600</v>
@@ -6378,45 +6602,45 @@
         <v>3200</v>
       </c>
       <c r="N5" s="15">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="O5" s="15">
-        <v>500</v>
+        <v>195</v>
       </c>
       <c r="P5" s="15">
-        <v>780</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S5" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y5" s="17" t="s">
         <v>393</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="U5" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45">
       <c r="A6" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="15">
         <v>5</v>
@@ -6428,7 +6652,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="15">
-        <v>11364</v>
+        <v>7206</v>
       </c>
       <c r="F6" s="15">
         <v>50</v>
@@ -6437,13 +6661,13 @@
         <v>6</v>
       </c>
       <c r="H6" s="16">
-        <v>3788</v>
+        <v>2402</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="J6" s="15">
-        <v>3650</v>
+        <v>1210</v>
       </c>
       <c r="K6" s="15">
         <v>2000</v>
@@ -6455,45 +6679,45 @@
         <v>4000</v>
       </c>
       <c r="N6" s="15">
-        <v>570</v>
+        <v>215</v>
       </c>
       <c r="O6" s="15">
-        <v>855</v>
+        <v>325</v>
       </c>
       <c r="P6" s="15">
-        <v>1330</v>
+        <v>505</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S6" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="W6" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y6" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45">
       <c r="A7" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
@@ -6505,7 +6729,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="15">
-        <v>17628</v>
+        <v>9906</v>
       </c>
       <c r="F7" s="15">
         <v>50</v>
@@ -6514,13 +6738,13 @@
         <v>6</v>
       </c>
       <c r="H7" s="16">
-        <v>5876</v>
+        <v>3302</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="J7" s="15">
-        <v>5670</v>
+        <v>1660</v>
       </c>
       <c r="K7" s="15">
         <v>2400</v>
@@ -6532,45 +6756,45 @@
         <v>4800</v>
       </c>
       <c r="N7" s="15">
-        <v>880</v>
+        <v>295</v>
       </c>
       <c r="O7" s="15">
-        <v>1325</v>
+        <v>445</v>
       </c>
       <c r="P7" s="15">
-        <v>2060</v>
+        <v>695</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S7" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="V7" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="W7" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y7" s="17" t="s">
         <v>399</v>
-      </c>
-      <c r="T7" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="W7" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="X7" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45">
       <c r="A8" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" s="15">
         <v>7</v>
@@ -6582,7 +6806,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="15">
-        <v>34080</v>
+        <v>28808</v>
       </c>
       <c r="F8" s="15">
         <v>100</v>
@@ -6591,13 +6815,13 @@
         <v>8</v>
       </c>
       <c r="H8" s="16">
-        <v>8520</v>
+        <v>7202</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="J8" s="15">
-        <v>10950</v>
+        <v>3610</v>
       </c>
       <c r="K8" s="15">
         <v>2800</v>
@@ -6609,45 +6833,45 @@
         <v>5600</v>
       </c>
       <c r="N8" s="15">
-        <v>1280</v>
+        <v>645</v>
       </c>
       <c r="O8" s="15">
-        <v>1920</v>
+        <v>970</v>
       </c>
       <c r="P8" s="15">
-        <v>2985</v>
+        <v>1515</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S8" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="V8" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="W8" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y8" s="17" t="s">
         <v>402</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="W8" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="X8" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45">
       <c r="A9" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="15">
         <v>8</v>
@@ -6659,7 +6883,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="15">
-        <v>47008</v>
+        <v>36808</v>
       </c>
       <c r="F9" s="15">
         <v>100</v>
@@ -6668,13 +6892,13 @@
         <v>8</v>
       </c>
       <c r="H9" s="16">
-        <v>11752</v>
+        <v>9202</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="J9" s="15">
-        <v>15110</v>
+        <v>4610</v>
       </c>
       <c r="K9" s="15">
         <v>3200</v>
@@ -6686,45 +6910,45 @@
         <v>6400</v>
       </c>
       <c r="N9" s="15">
-        <v>1760</v>
+        <v>825</v>
       </c>
       <c r="O9" s="15">
-        <v>2645</v>
+        <v>1240</v>
       </c>
       <c r="P9" s="15">
-        <v>4115</v>
+        <v>1935</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S9" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="W9" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y9" s="17" t="s">
         <v>405</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="V9" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="W9" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="X9" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y9" s="17" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45">
       <c r="A10" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="15">
         <v>9</v>
@@ -6736,7 +6960,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="15">
-        <v>62400</v>
+        <v>45760</v>
       </c>
       <c r="F10" s="15">
         <v>100</v>
@@ -6745,13 +6969,13 @@
         <v>8</v>
       </c>
       <c r="H10" s="16">
-        <v>15600</v>
+        <v>11440</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="J10" s="15">
-        <v>19970</v>
+        <v>5720</v>
       </c>
       <c r="K10" s="15">
         <v>4000</v>
@@ -6763,45 +6987,45 @@
         <v>8000</v>
       </c>
       <c r="N10" s="15">
-        <v>2340</v>
+        <v>1030</v>
       </c>
       <c r="O10" s="15">
-        <v>3510</v>
+        <v>1545</v>
       </c>
       <c r="P10" s="15">
-        <v>5460</v>
+        <v>2400</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S10" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="V10" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="W10" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="X10" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y10" s="17" t="s">
         <v>408</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="V10" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="X10" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y10" s="17" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="45">
       <c r="A11" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" s="15">
         <v>10</v>
@@ -6813,7 +7037,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="15">
-        <v>80288</v>
+        <v>68800</v>
       </c>
       <c r="F11" s="15">
         <v>100</v>
@@ -6822,13 +7046,13 @@
         <v>8</v>
       </c>
       <c r="H11" s="16">
-        <v>20072</v>
+        <v>17200</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="J11" s="15">
-        <v>25730</v>
+        <v>6880</v>
       </c>
       <c r="K11" s="15">
         <v>4800</v>
@@ -6840,45 +7064,45 @@
         <v>9600</v>
       </c>
       <c r="N11" s="15">
-        <v>3010</v>
+        <v>1545</v>
       </c>
       <c r="O11" s="15">
-        <v>4520</v>
+        <v>2320</v>
       </c>
       <c r="P11" s="15">
-        <v>7030</v>
+        <v>3610</v>
       </c>
       <c r="Q11" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="U11" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="V11" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="W11" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="R11" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="S11" s="17" t="s">
+      <c r="X11" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y11" s="17" t="s">
         <v>411</v>
-      </c>
-      <c r="T11" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="U11" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="V11" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="W11" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="X11" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y11" s="17" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45">
       <c r="A12" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="15">
         <v>11</v>
@@ -6890,7 +7114,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="15">
-        <v>100960</v>
+        <v>82000</v>
       </c>
       <c r="F12" s="15">
         <v>100</v>
@@ -6899,13 +7123,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="16">
-        <v>25240</v>
+        <v>20500</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="J12" s="15">
-        <v>32320</v>
+        <v>8200</v>
       </c>
       <c r="K12" s="15">
         <v>6400</v>
@@ -6917,45 +7141,45 @@
         <v>12800</v>
       </c>
       <c r="N12" s="15">
-        <v>3785</v>
+        <v>1845</v>
       </c>
       <c r="O12" s="15">
-        <v>5680</v>
+        <v>2765</v>
       </c>
       <c r="P12" s="15">
-        <v>8840</v>
+        <v>4305</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="S12" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y12" s="17" t="s">
         <v>414</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y12" s="17" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="45">
       <c r="A13" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B13" s="15">
         <v>12</v>
@@ -6967,7 +7191,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="15">
-        <v>124448</v>
+        <v>96000</v>
       </c>
       <c r="F13" s="15">
         <v>100</v>
@@ -6976,13 +7200,13 @@
         <v>8</v>
       </c>
       <c r="H13" s="16">
-        <v>31112</v>
+        <v>24000</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="J13" s="15">
-        <v>39880</v>
+        <v>9600</v>
       </c>
       <c r="K13" s="15">
         <v>8400</v>
@@ -6994,45 +7218,45 @@
         <v>16800</v>
       </c>
       <c r="N13" s="15">
-        <v>4665</v>
+        <v>2160</v>
       </c>
       <c r="O13" s="15">
-        <v>7000</v>
+        <v>3240</v>
       </c>
       <c r="P13" s="15">
-        <v>10890</v>
+        <v>5040</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S13" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="U13" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="V13" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="W13" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="X13" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y13" s="17" t="s">
         <v>417</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="U13" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="V13" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="W13" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="X13" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y13" s="17" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45">
       <c r="A14" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B14" s="15">
         <v>13</v>
@@ -7044,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="15">
-        <v>188500</v>
+        <v>168000</v>
       </c>
       <c r="F14" s="15">
         <v>150</v>
@@ -7053,13 +7277,13 @@
         <v>10</v>
       </c>
       <c r="H14" s="16">
-        <v>37700</v>
+        <v>33600</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="J14" s="15">
-        <v>60320</v>
+        <v>14000</v>
       </c>
       <c r="K14" s="15">
         <v>12000</v>
@@ -7071,45 +7295,45 @@
         <v>24000</v>
       </c>
       <c r="N14" s="15">
-        <v>5655</v>
+        <v>3020</v>
       </c>
       <c r="O14" s="15">
-        <v>8485</v>
+        <v>4535</v>
       </c>
       <c r="P14" s="15">
-        <v>13200</v>
+        <v>7055</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="S14" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="V14" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="W14" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="X14" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y14" s="17" t="s">
         <v>420</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="U14" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="V14" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="W14" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="X14" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y14" s="17" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45">
       <c r="A15" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B15" s="15">
         <v>14</v>
@@ -7121,7 +7345,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="15">
-        <v>225220</v>
+        <v>186000</v>
       </c>
       <c r="F15" s="15">
         <v>150</v>
@@ -7130,13 +7354,13 @@
         <v>10</v>
       </c>
       <c r="H15" s="16">
-        <v>45044</v>
+        <v>37200</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="J15" s="15">
-        <v>72080</v>
+        <v>15500</v>
       </c>
       <c r="K15" s="15">
         <v>15000</v>
@@ -7148,45 +7372,45 @@
         <v>30000</v>
       </c>
       <c r="N15" s="15">
-        <v>6755</v>
+        <v>3345</v>
       </c>
       <c r="O15" s="15">
-        <v>10135</v>
+        <v>5020</v>
       </c>
       <c r="P15" s="15">
-        <v>15770</v>
+        <v>7810</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S15" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="U15" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="V15" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="W15" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="X15" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y15" s="17" t="s">
         <v>423</v>
-      </c>
-      <c r="T15" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="U15" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="V15" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="W15" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="X15" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y15" s="17" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="45">
       <c r="A16" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="15">
         <v>15</v>
@@ -7198,7 +7422,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="15">
-        <v>265800</v>
+        <v>210000</v>
       </c>
       <c r="F16" s="15">
         <v>150</v>
@@ -7207,13 +7431,13 @@
         <v>10</v>
       </c>
       <c r="H16" s="16">
-        <v>53160</v>
+        <v>42000</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="J16" s="15">
-        <v>85120</v>
+        <v>17500</v>
       </c>
       <c r="K16" s="15">
         <v>21000</v>
@@ -7225,45 +7449,45 @@
         <v>42000</v>
       </c>
       <c r="N16" s="15">
-        <v>7975</v>
+        <v>3780</v>
       </c>
       <c r="O16" s="15">
-        <v>11960</v>
+        <v>5670</v>
       </c>
       <c r="P16" s="15">
-        <v>18610</v>
+        <v>8820</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S16" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="W16" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="X16" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y16" s="17" t="s">
         <v>426</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="W16" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y16" s="17" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="45">
       <c r="A17" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="15">
         <v>16</v>
@@ -7275,7 +7499,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="15">
-        <v>310400</v>
+        <v>273000</v>
       </c>
       <c r="F17" s="15">
         <v>150</v>
@@ -7284,13 +7508,13 @@
         <v>10</v>
       </c>
       <c r="H17" s="16">
-        <v>62080</v>
+        <v>54600</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="J17" s="15">
-        <v>99360</v>
+        <v>19500</v>
       </c>
       <c r="K17" s="15">
         <v>25600</v>
@@ -7302,45 +7526,45 @@
         <v>51200</v>
       </c>
       <c r="N17" s="15">
-        <v>9310</v>
+        <v>4910</v>
       </c>
       <c r="O17" s="15">
-        <v>13965</v>
+        <v>7370</v>
       </c>
       <c r="P17" s="15">
-        <v>21725</v>
+        <v>11465</v>
       </c>
       <c r="Q17" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="U17" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="V17" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="W17" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="R17" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="S17" s="17" t="s">
+      <c r="X17" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y17" s="17" t="s">
         <v>429</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="V17" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="W17" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="X17" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y17" s="17" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="45">
       <c r="A18" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="15">
         <v>17</v>
@@ -7352,7 +7576,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="15">
-        <v>358940</v>
+        <v>301000</v>
       </c>
       <c r="F18" s="15">
         <v>150</v>
@@ -7361,13 +7585,13 @@
         <v>10</v>
       </c>
       <c r="H18" s="16">
-        <v>71788</v>
+        <v>60200</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="J18" s="15">
-        <v>114880</v>
+        <v>21500</v>
       </c>
       <c r="K18" s="15">
         <v>37400</v>
@@ -7379,45 +7603,45 @@
         <v>74800</v>
       </c>
       <c r="N18" s="15">
-        <v>10770</v>
+        <v>5415</v>
       </c>
       <c r="O18" s="15">
-        <v>16155</v>
+        <v>8125</v>
       </c>
       <c r="P18" s="15">
-        <v>25130</v>
+        <v>12640</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="S18" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="U18" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="V18" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="W18" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="X18" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y18" s="17" t="s">
         <v>432</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="U18" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="X18" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y18" s="17" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="45">
       <c r="A19" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="15">
         <v>18</v>
@@ -7428,8 +7652,8 @@
       <c r="D19" s="15">
         <v>6</v>
       </c>
-      <c r="E19" s="15">
-        <v>411780</v>
+      <c r="E19" s="12">
+        <v>336000</v>
       </c>
       <c r="F19" s="15">
         <v>150</v>
@@ -7438,13 +7662,13 @@
         <v>10</v>
       </c>
       <c r="H19" s="16">
-        <v>82356</v>
+        <v>67200</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="J19" s="15">
-        <v>131840</v>
+        <v>517</v>
+      </c>
+      <c r="J19" s="12">
+        <v>24000</v>
       </c>
       <c r="K19" s="15">
         <v>45000</v>
@@ -7456,45 +7680,45 @@
         <v>90000</v>
       </c>
       <c r="N19" s="15">
-        <v>12350</v>
+        <v>6045</v>
       </c>
       <c r="O19" s="15">
-        <v>18530</v>
+        <v>9070</v>
       </c>
       <c r="P19" s="15">
-        <v>28825</v>
+        <v>14110</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S19" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="U19" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="W19" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="X19" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y19" s="17" t="s">
         <v>435</v>
-      </c>
-      <c r="T19" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="U19" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="W19" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="X19" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y19" s="17" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="45">
       <c r="A20" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B20" s="15">
         <v>19</v>
@@ -7505,8 +7729,8 @@
       <c r="D20" s="15">
         <v>1</v>
       </c>
-      <c r="E20" s="15">
-        <v>562584</v>
+      <c r="E20" s="12">
+        <v>499200</v>
       </c>
       <c r="F20" s="15">
         <v>200</v>
@@ -7514,14 +7738,14 @@
       <c r="G20" s="15">
         <v>12</v>
       </c>
-      <c r="H20" s="16">
-        <v>93764</v>
+      <c r="H20" s="12">
+        <v>83200</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="J20" s="15">
-        <v>180100</v>
+        <v>518</v>
+      </c>
+      <c r="J20" s="12">
+        <v>31200</v>
       </c>
       <c r="K20" s="15">
         <v>65400</v>
@@ -7533,45 +7757,45 @@
         <v>130800</v>
       </c>
       <c r="N20" s="15">
-        <v>14065</v>
+        <v>7485</v>
       </c>
       <c r="O20" s="15">
-        <v>21095</v>
+        <v>11230</v>
       </c>
       <c r="P20" s="15">
-        <v>32820</v>
+        <v>17470</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="S20" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="U20" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="V20" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="W20" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="X20" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y20" s="17" t="s">
         <v>438</v>
-      </c>
-      <c r="T20" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="U20" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="V20" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="W20" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="X20" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y20" s="17" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="45">
       <c r="A21" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" s="15">
         <v>20</v>
@@ -7582,8 +7806,8 @@
       <c r="D21" s="15">
         <v>2</v>
       </c>
-      <c r="E21" s="15">
-        <v>636240</v>
+      <c r="E21" s="12">
+        <v>547200</v>
       </c>
       <c r="F21" s="15">
         <v>200</v>
@@ -7591,14 +7815,14 @@
       <c r="G21" s="15">
         <v>12</v>
       </c>
-      <c r="H21" s="16">
-        <v>106040</v>
+      <c r="H21" s="12">
+        <v>91200</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="J21" s="12">
-        <v>203620</v>
+        <v>34200</v>
       </c>
       <c r="K21" s="15">
         <v>78600</v>
@@ -7610,45 +7834,45 @@
         <v>157200</v>
       </c>
       <c r="N21" s="15">
-        <v>15905</v>
+        <v>8205</v>
       </c>
       <c r="O21" s="15">
-        <v>23860</v>
+        <v>12310</v>
       </c>
       <c r="P21" s="15">
-        <v>37120</v>
+        <v>19150</v>
       </c>
       <c r="Q21" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S21" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="U21" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="V21" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="W21" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="X21" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y21" s="17" t="s">
         <v>441</v>
-      </c>
-      <c r="T21" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="U21" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="V21" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="W21" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="X21" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y21" s="17" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="45">
       <c r="A22" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B22" s="15">
         <v>21</v>
@@ -7660,7 +7884,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="12">
-        <v>715320</v>
+        <v>658800</v>
       </c>
       <c r="F22" s="15">
         <v>200</v>
@@ -7668,14 +7892,14 @@
       <c r="G22" s="15">
         <v>12</v>
       </c>
-      <c r="H22" s="16">
-        <v>119220</v>
+      <c r="H22" s="12">
+        <v>109800</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="J22" s="12">
-        <v>228960</v>
+        <v>36600</v>
       </c>
       <c r="K22" s="15">
         <v>113400</v>
@@ -7686,46 +7910,46 @@
       <c r="M22" s="15">
         <v>226800</v>
       </c>
-      <c r="N22" s="15">
-        <v>17885</v>
-      </c>
-      <c r="O22" s="15">
-        <v>26825</v>
-      </c>
-      <c r="P22" s="15">
-        <v>41730</v>
+      <c r="N22" s="12">
+        <v>9880</v>
+      </c>
+      <c r="O22" s="12">
+        <v>14820</v>
+      </c>
+      <c r="P22" s="12">
+        <v>23055</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="S22" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="U22" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="X22" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y22" s="17" t="s">
         <v>444</v>
-      </c>
-      <c r="T22" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="U22" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="V22" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="W22" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="X22" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y22" s="17" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="45">
       <c r="A23" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" s="15">
         <v>22</v>
@@ -7737,7 +7961,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="12">
-        <v>799848</v>
+        <v>712800</v>
       </c>
       <c r="F23" s="15">
         <v>200</v>
@@ -7746,13 +7970,13 @@
         <v>12</v>
       </c>
       <c r="H23" s="12">
-        <v>133308</v>
+        <v>118800</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="J23" s="12">
-        <v>256040</v>
+        <v>39600</v>
       </c>
       <c r="K23" s="15">
         <v>136000</v>
@@ -7764,45 +7988,45 @@
         <v>272000</v>
       </c>
       <c r="N23" s="12">
-        <v>19995</v>
+        <v>10690</v>
       </c>
       <c r="O23" s="12">
-        <v>29995</v>
+        <v>16035</v>
       </c>
       <c r="P23" s="12">
-        <v>46660</v>
+        <v>24945</v>
       </c>
       <c r="Q23" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="U23" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="V23" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="W23" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="R23" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="S23" s="17" t="s">
+      <c r="X23" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y23" s="17" t="s">
         <v>447</v>
-      </c>
-      <c r="T23" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="U23" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="V23" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="W23" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="X23" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y23" s="17" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="45">
       <c r="A24" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B24" s="15">
         <v>23</v>
@@ -7814,7 +8038,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="12">
-        <v>889920</v>
+        <v>864000</v>
       </c>
       <c r="F24" s="15">
         <v>200</v>
@@ -7823,13 +8047,13 @@
         <v>12</v>
       </c>
       <c r="H24" s="12">
-        <v>148320</v>
+        <v>144000</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="J24" s="12">
-        <v>284840</v>
+        <v>43200</v>
       </c>
       <c r="K24" s="12">
         <v>160000</v>
@@ -7841,45 +8065,45 @@
         <v>320000</v>
       </c>
       <c r="N24" s="12">
-        <v>22245</v>
+        <v>12960</v>
       </c>
       <c r="O24" s="12">
-        <v>33370</v>
+        <v>19440</v>
       </c>
       <c r="P24" s="12">
-        <v>51915</v>
+        <v>30240</v>
       </c>
       <c r="Q24" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S24" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="V24" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="W24" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="X24" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y24" s="17" t="s">
         <v>450</v>
-      </c>
-      <c r="T24" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="U24" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="V24" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="W24" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="X24" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y24" s="17" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="45">
       <c r="A25" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="15">
         <v>24</v>
@@ -7891,7 +8115,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="12">
-        <v>985608</v>
+        <v>960000</v>
       </c>
       <c r="F25" s="15">
         <v>200</v>
@@ -7900,13 +8124,13 @@
         <v>12</v>
       </c>
       <c r="H25" s="12">
-        <v>164268</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>462</v>
+        <v>160000</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>523</v>
       </c>
       <c r="J25" s="12">
-        <v>315460</v>
+        <v>48000</v>
       </c>
       <c r="K25" s="12">
         <v>200000</v>
@@ -7918,44 +8142,41 @@
         <v>400000</v>
       </c>
       <c r="N25" s="12">
-        <v>24640</v>
+        <v>14400</v>
       </c>
       <c r="O25" s="12">
-        <v>36960</v>
+        <v>21600</v>
       </c>
       <c r="P25" s="12">
-        <v>57495</v>
+        <v>33600</v>
       </c>
       <c r="Q25" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R25" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S25" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="U25" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="W25" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="X25" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y25" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="T25" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="U25" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="W25" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="X25" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y25" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="20" customHeight="1">
-      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:25" ht="20" customHeight="1">
       <c r="R27" s="15"/>
@@ -7997,242 +8218,242 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="21"/>
     <col min="2" max="2" width="20" style="21" customWidth="1"/>
-    <col min="3" max="3" width="59.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="78.83203125" style="21" customWidth="1"/>
     <col min="4" max="4" width="140.6640625" style="21" customWidth="1"/>
     <col min="5" max="16384" width="20.6640625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1">
       <c r="A1" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>278</v>
-      </c>
       <c r="C1" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>468</v>
+        <v>532</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>469</v>
+        <v>533</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>504</v>
+        <v>467</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>472</v>
+        <v>536</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>473</v>
+        <v>537</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45">
@@ -8240,13 +8461,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45">
@@ -8254,13 +8475,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45">
@@ -8268,97 +8489,97 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="15">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>482</v>
+        <v>546</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30">
       <c r="A21" s="15">
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="45">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30">
       <c r="A23" s="15">
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30">
       <c r="A24" s="15">
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30">
       <c r="A25" s="15">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45">
@@ -8366,13 +8587,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45">
@@ -8380,13 +8601,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="45">
@@ -8394,13 +8615,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45">
@@ -8408,13 +8629,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45">
@@ -8422,13 +8643,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45">
@@ -8436,13 +8657,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="45">
@@ -8450,13 +8671,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="45">
@@ -8464,13 +8685,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45">
@@ -8478,13 +8699,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="45">
@@ -8492,13 +8713,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="45">
@@ -8506,13 +8727,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45">
@@ -8520,27 +8741,27 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="45">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30">
       <c r="A38" s="15">
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="45">
@@ -8548,27 +8769,27 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="45">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30">
       <c r="A40" s="15">
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>566</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -8576,13 +8797,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>567</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1789,87 +1789,18 @@
     <t>crossbowman_2:1:30,ballista_2:1:12,swordsman_2:1:15;sentinel_2:1:30,lancer_2:1:12,horseArcher_2:1:8;horseArcher_2:1:15,catapult_2:1:12,sentinel_2:1:15</t>
   </si>
   <si>
-    <t>crossbowman_2:1:40,ballista_2:1:15,swordsman_2:1:20;sentinel_2:1:40,lancer_2:1:15,horseArcher_2:1:10;horseArcher_2:1:20,catapult_2:1:15,sentinel_2:1:20</t>
-  </si>
-  <si>
     <t>swordsman_2:1:50,crossbowman_2:1:38,ballista_2:1:13;lancer_2:1:25,horseArcher_2:1:19,swordsman_2:1:25;catapult_2:1:25,ballista_2:1:19,lancer_2:1:13</t>
   </si>
   <si>
-    <t>swordsman_2:1:60,crossbowman_2:1:45,ballista_2:1:15;lancer_2:1:30,horseArcher_2:1:23,swordsman_2:1:30;catapult_2:1:30,ballista_2:1:23,lancer_2:1:15</t>
-  </si>
-  <si>
-    <t>swordsman_2:1:90,crossbowman_2:1:68,ballista_2:1:23;lancer_2:1:45,horseArcher_2:1:34,swordsman_2:1:45;catapult_2:1:45,ballista_2:1:34,lancer_2:1:23</t>
-  </si>
-  <si>
     <t>sentinel_2:1:120,swordsman_2:1:90,crossbowman_2:1:60;horseArcher_2:1:60,swordsman_2:1:90,catapult_2:1:30;ballista_2:1:60,lancer_2:1:45,horseArcher_2:1:30</t>
   </si>
   <si>
     <t>sentinel_2:1:150,swordsman_2:1:113,crossbowman_2:1:75;horseArcher_2:1:75,swordsman_2:1:113,catapult_2:1:38;ballista_2:1:75,lancer_2:1:57,horseArcher_2:1:38</t>
   </si>
   <si>
-    <t>sentinel_2:1:180,swordsman_2:1:135,crossbowman_2:1:90;horseArcher_2:1:90,swordsman_2:1:135,catapult_2:1:45;ballista_2:1:90,lancer_2:1:68,horseArcher_2:1:45</t>
-  </si>
-  <si>
-    <t>ranger_2:1:240,sentinel_2:1:180,swordsman_2:1:120;swordsman_2:1:240,catapult_2:1:90,ballista_2:1:60;lancer_2:1:120,ranger_2:1:180,swordsman_2:1:120</t>
-  </si>
-  <si>
-    <t>ranger_2:1:290,sentinel_2:1:218,swordsman_2:1:145;swordsman_2:1:290,catapult_2:1:109,ballista_2:1:73;lancer_2:1:145,ranger_2:1:218,swordsman_2:1:145</t>
-  </si>
-  <si>
-    <t>ranger_2:1:350,sentinel_2:1:263,swordsman_2:1:175;swordsman_2:1:350,catapult_2:1:132,ballista_2:1:88;lancer_2:1:175,ranger_2:1:263,swordsman_2:1:175</t>
-  </si>
-  <si>
     <t>lancer_2:1:205,ranger_2:1:308,sentinel_2:1:205;catapult_2:1:205,ballista_2:1:154,swordsman_2:1:205;ranger_2:1:410,crossbowman_2:1:308,catapult_2:1:103</t>
   </si>
   <si>
-    <t>lancer_2:1:235,ranger_2:1:353,sentinel_2:1:235;catapult_2:1:235,ballista_2:1:177,swordsman_2:1:235;ranger_2:1:470,crossbowman_2:1:353,catapult_2:1:118</t>
-  </si>
-  <si>
-    <t>lancer_2:1:270,ranger_2:1:405,sentinel_2:1:270;catapult_2:1:270,ballista_2:1:203,swordsman_2:1:270;ranger_2:1:540,crossbowman_2:1:405,catapult_2:1:135</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:305,lancer_2:2:229,ranger_2:2:305;ballista_2:2:305,swordsman_2:2:458,sentinel_2:2:305;crossbowman_2:2:610,horseArcher_2:2:229,ballista_2:2:153</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:365,lancer_2:2:274,ranger_2:2:365;ballista_2:2:365,swordsman_2:2:548,sentinel_2:2:365;crossbowman_2:2:730,horseArcher_2:2:274,ballista_2:2:183</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:430,lancer_2:2:323,ranger_2:2:430;ballista_2:2:430,swordsman_2:2:645,sentinel_2:2:430;crossbowman_2:2:860,horseArcher_2:2:323,ballista_2:2:215</t>
-  </si>
-  <si>
-    <t>catapult_2:2:495,horseArcher_2:2:372,lancer_2:2:248;swordsman_2:2:990,sentinel_2:2:743,ranger_2:2:495;horseArcher_2:2:495,lancer_2:2:372,swordsman_2:2:495</t>
-  </si>
-  <si>
-    <t>catapult_2:2:565,horseArcher_2:2:424,lancer_2:2:283;swordsman_2:2:1130,sentinel_2:2:848,ranger_2:2:565;horseArcher_2:2:565,lancer_2:2:424,swordsman_2:2:565</t>
-  </si>
-  <si>
-    <t>catapult_2:2:610,horseArcher_2:2:458,lancer_2:2:305;swordsman_2:2:1220,sentinel_2:2:915,ranger_2:2:610;horseArcher_2:2:610,lancer_2:2:458,swordsman_2:2:610</t>
-  </si>
-  <si>
-    <t>ballista_2:2:660,catapult_2:2:495,horseArcher_2:2:330;sentinel_2:2:1320,ranger_2:2:990,lancer_2:2:330;lancer_2:2:660,crossbowman_2:2:990,sentinel_2:2:660</t>
-  </si>
-  <si>
-    <t>ballista_2:2:705,catapult_2:2:529,horseArcher_2:2:353;sentinel_2:2:1410,ranger_2:2:1058,lancer_2:2:353;lancer_2:2:705,crossbowman_2:2:1058,sentinel_2:2:705</t>
-  </si>
-  <si>
-    <t>ballista_2:2:745,catapult_2:2:559,horseArcher_2:2:373;sentinel_2:2:1490,ranger_2:2:1118,lancer_2:2:373;lancer_2:2:745,crossbowman_2:2:1118,sentinel_2:2:745</t>
-  </si>
-  <si>
-    <t>swordsman_2:2:1580,sentinel_2:2:1185,ranger_2:2:790;lancer_2:2:790,horseArcher_2:2:593,catapult_2:2:395;ballista_2:2:790,swordsman_2:2:1185,horseArcher_2:2:395</t>
-  </si>
-  <si>
-    <t>swordsman_2:3:1660,sentinel_2:3:1245,ranger_2:3:830;lancer_2:3:830,horseArcher_2:3:623,catapult_2:3:415;ballista_2:3:830,swordsman_2:3:1245,horseArcher_2:3:415</t>
-  </si>
-  <si>
-    <t>sentinel_2:3:1840,ranger_2:3:1380,crossbowman_2:3:920;horseArcher_2:3:920,catapult_2:3:690,ballista_2:3:460;catapult_2:3:920,sentinel_2:3:1380,swordsman_2:3:920</t>
-  </si>
-  <si>
-    <t>sentinel_2:3:2020,ranger_2:3:1515,crossbowman_2:3:1010;horseArcher_2:3:1010,catapult_2:3:758,ballista_2:3:505;catapult_2:3:1010,sentinel_2:3:1515,swordsman_2:3:1010</t>
-  </si>
-  <si>
-    <t>ranger_2:3:2190,crossbowman_2:3:1643,lancer_2:3:548;catapult_2:3:1095,ballista_2:3:822,swordsman_2:3:1095;horseArcher_2:3:1095,ranger_2:3:1643,sentinel_2:3:1095</t>
-  </si>
-  <si>
     <t>ranger_2:3:2360,crossbowman_2:3:1770,lancer_2:3:590;catapult_2:3:1180,ballista_2:3:885,swordsman_2:3:1180;horseArcher_2:3:1180,ranger_2:3:1770,sentinel_2:3:1180</t>
   </si>
   <si>
@@ -1900,7 +1831,77 @@
     <t>ballista_3:2:2140,swordsman_3:2:3210,ranger_3:2:2140;lancer_3:2:2140,ballista_3:2:1070,crossbowman_3:2:2140;swordsman_3:2:4280,ranger_3:2:3210,ballista_3:2:1070</t>
   </si>
   <si>
+    <t>crossbowman_2:1:20,ballista_2:1:8,swordsman_2:1:10;sentinel_2:1:20,lancer_2:1:8,horseArcher_2:1:5;horseArcher_2:1:10,catapult_2:1:8,sentinel_2:1:10</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:40,crossbowman_2:1:30,ballista_2:1:10;lancer_2:1:20,horseArcher_2:1:15,swordsman_2:1:20;catapult_2:1:20,ballista_2:1:15,lancer_2:1:10</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:80,crossbowman_2:1:60,ballista_2:1:20;lancer_2:1:40,horseArcher_2:1:30,swordsman_2:1:40;catapult_2:1:40,ballista_2:1:30,lancer_2:1:20</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:100,swordsman_2:1:75,crossbowman_2:1:50;horseArcher_2:1:50,swordsman_2:1:75,catapult_2:1:25;ballista_2:1:50,lancer_2:1:38,horseArcher_2:1:25</t>
+  </si>
+  <si>
+    <t>ranger_2:1:190,sentinel_2:1:143,swordsman_2:1:95;swordsman_2:1:190,catapult_2:1:72,ballista_2:1:48;lancer_2:1:95,ranger_2:1:143,swordsman_2:1:95</t>
+  </si>
+  <si>
+    <t>ranger_2:1:230,sentinel_2:1:173,swordsman_2:1:115;swordsman_2:1:230,catapult_2:1:87,ballista_2:1:58;lancer_2:1:115,ranger_2:1:173,swordsman_2:1:115</t>
+  </si>
+  <si>
+    <t>ranger_2:1:270,sentinel_2:1:203,swordsman_2:1:135;swordsman_2:1:270,catapult_2:1:102,ballista_2:1:68;lancer_2:1:135,ranger_2:1:203,swordsman_2:1:135</t>
+  </si>
+  <si>
+    <t>lancer_2:1:155,ranger_2:1:233,sentinel_2:1:155;catapult_2:1:155,ballista_2:1:117,swordsman_2:1:155;ranger_2:1:310,crossbowman_2:1:233,catapult_2:1:78</t>
+  </si>
+  <si>
+    <t>lancer_2:1:180,ranger_2:1:270,sentinel_2:1:180;catapult_2:1:180,ballista_2:1:135,swordsman_2:1:180;ranger_2:1:360,crossbowman_2:1:270,catapult_2:1:90</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:230,lancer_2:2:173,ranger_2:2:230;ballista_2:2:230,swordsman_2:2:345,sentinel_2:2:230;crossbowman_2:2:460,horseArcher_2:2:173,ballista_2:2:115</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:270,lancer_2:2:203,ranger_2:2:270;ballista_2:2:270,swordsman_2:2:405,sentinel_2:2:270;crossbowman_2:2:540,horseArcher_2:2:203,ballista_2:2:135</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:315,lancer_2:2:237,ranger_2:2:315;ballista_2:2:315,swordsman_2:2:473,sentinel_2:2:315;crossbowman_2:2:630,horseArcher_2:2:237,ballista_2:2:158</t>
+  </si>
+  <si>
+    <t>catapult_2:2:360,horseArcher_2:2:270,lancer_2:2:180;swordsman_2:2:720,sentinel_2:2:540,ranger_2:2:360;horseArcher_2:2:360,lancer_2:2:270,swordsman_2:2:360</t>
+  </si>
+  <si>
+    <t>catapult_2:2:410,horseArcher_2:2:308,lancer_2:2:205;swordsman_2:2:820,sentinel_2:2:615,ranger_2:2:410;horseArcher_2:2:410,lancer_2:2:308,swordsman_2:2:410</t>
+  </si>
+  <si>
+    <t>catapult_2:2:460,horseArcher_2:2:345,lancer_2:2:230;swordsman_2:2:920,sentinel_2:2:690,ranger_2:2:460;horseArcher_2:2:460,lancer_2:2:345,swordsman_2:2:460</t>
+  </si>
+  <si>
+    <t>ballista_2:2:510,catapult_2:2:383,horseArcher_2:2:255;sentinel_2:2:1020,ranger_2:2:765,lancer_2:2:255;lancer_2:2:510,crossbowman_2:2:765,sentinel_2:2:510</t>
+  </si>
+  <si>
+    <t>ballista_2:2:565,catapult_2:2:424,horseArcher_2:2:283;sentinel_2:2:1130,ranger_2:2:848,lancer_2:2:283;lancer_2:2:565,crossbowman_2:2:848,sentinel_2:2:565</t>
+  </si>
+  <si>
+    <t>ballista_2:2:620,catapult_2:2:465,horseArcher_2:2:310;sentinel_2:2:1240,ranger_2:2:930,lancer_2:2:310;lancer_2:2:620,crossbowman_2:2:930,sentinel_2:2:620</t>
+  </si>
+  <si>
+    <t>swordsman_2:2:1360,sentinel_2:2:1020,ranger_2:2:680;lancer_2:2:680,horseArcher_2:2:510,catapult_2:2:340;ballista_2:2:680,swordsman_2:2:1020,horseArcher_2:2:340</t>
+  </si>
+  <si>
+    <t>swordsman_2:3:1480,sentinel_2:3:1110,ranger_2:3:740;lancer_2:3:740,horseArcher_2:3:555,catapult_2:3:370;ballista_2:3:740,swordsman_2:3:1110,horseArcher_2:3:370</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:1680,ranger_2:3:1260,crossbowman_2:3:840;horseArcher_2:3:840,catapult_2:3:630,ballista_2:3:420;catapult_2:3:840,sentinel_2:3:1260,swordsman_2:3:840</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:1900,ranger_2:3:1425,crossbowman_2:3:950;horseArcher_2:3:950,catapult_2:3:713,ballista_2:3:475;catapult_2:3:950,sentinel_2:3:1425,swordsman_2:3:950</t>
+  </si>
+  <si>
+    <t>ranger_2:3:2120,crossbowman_2:3:1590,lancer_2:3:530;catapult_2:3:1060,ballista_2:3:795,swordsman_2:3:1060;horseArcher_2:3:1060,ranger_2:3:1590,sentinel_2:3:1060</t>
+  </si>
+  <si>
     <t>catapult_3:3:2295,swordsman_3:3:3443,ranger_3:3:2295;horseArcher_3:3:2295,crossbowman_3:3:2295,catapult_3:3:1148;sentinel_3:3:4590,lancer_3:3:1722,catapult_3:3:1148</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2082,7 +2083,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="879">
+  <cellStyleXfs count="881">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2564,6 +2565,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3042,7 +3045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="879">
+  <cellStyles count="881">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3484,6 +3487,7 @@
     <cellStyle name="超链接" xfId="873" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="875" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="879" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3918,6 +3922,7 @@
     <cellStyle name="访问过的超链接" xfId="874" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="876" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="880" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -8218,8 +8223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C43"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8268,7 +8273,7 @@
         <v>461</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>339</v>
@@ -8282,7 +8287,7 @@
         <v>462</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>340</v>
@@ -8296,7 +8301,7 @@
         <v>463</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>341</v>
@@ -8310,7 +8315,7 @@
         <v>464</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>342</v>
@@ -8324,7 +8329,7 @@
         <v>465</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>343</v>
@@ -8338,7 +8343,7 @@
         <v>466</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>344</v>
@@ -8352,7 +8357,7 @@
         <v>467</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>345</v>
@@ -8366,7 +8371,7 @@
         <v>468</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>346</v>
@@ -8380,7 +8385,7 @@
         <v>469</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>347</v>
@@ -8394,7 +8399,7 @@
         <v>470</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>348</v>
@@ -8408,7 +8413,7 @@
         <v>471</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>349</v>
@@ -8422,7 +8427,7 @@
         <v>472</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>350</v>
@@ -8436,7 +8441,7 @@
         <v>473</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>351</v>
@@ -8450,7 +8455,7 @@
         <v>474</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>352</v>
@@ -8464,7 +8469,7 @@
         <v>475</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>353</v>
@@ -8478,7 +8483,7 @@
         <v>476</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>354</v>
@@ -8492,7 +8497,7 @@
         <v>477</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>355</v>
@@ -8506,7 +8511,7 @@
         <v>478</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>356</v>
@@ -8520,7 +8525,7 @@
         <v>479</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>357</v>
@@ -8534,7 +8539,7 @@
         <v>480</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>358</v>
@@ -8548,7 +8553,7 @@
         <v>481</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>359</v>
@@ -8562,7 +8567,7 @@
         <v>482</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>360</v>
@@ -8576,7 +8581,7 @@
         <v>483</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>361</v>
@@ -8590,7 +8595,7 @@
         <v>484</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>362</v>
@@ -8604,7 +8609,7 @@
         <v>485</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>363</v>
@@ -8618,7 +8623,7 @@
         <v>486</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>364</v>
@@ -8632,7 +8637,7 @@
         <v>487</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>365</v>
@@ -8646,7 +8651,7 @@
         <v>488</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>366</v>
@@ -8660,7 +8665,7 @@
         <v>489</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>367</v>
@@ -8674,7 +8679,7 @@
         <v>490</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>368</v>
@@ -8688,7 +8693,7 @@
         <v>491</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>369</v>
@@ -8702,7 +8707,7 @@
         <v>492</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>370</v>
@@ -8716,7 +8721,7 @@
         <v>493</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>371</v>
@@ -8730,7 +8735,7 @@
         <v>494</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>372</v>
@@ -8744,7 +8749,7 @@
         <v>495</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>373</v>
@@ -8758,21 +8763,21 @@
         <v>496</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45">
+    <row r="39" spans="1:4" ht="30">
       <c r="A39" s="15">
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>565</v>
+      <c r="C39" s="21" t="s">
+        <v>542</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>375</v>
@@ -8786,7 +8791,7 @@
         <v>498</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>376</v>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33020" windowHeight="19360" tabRatio="333" activeTab="5"/>
+    <workbookView xWindow="14160" yWindow="580" windowWidth="33020" windowHeight="19360" tabRatio="333"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -4375,8 +4375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4668,7 +4668,7 @@
         <v>455</v>
       </c>
       <c r="B26" s="8">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>454</v>
@@ -8223,7 +8223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A26" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="580" windowWidth="33020" windowHeight="19360" tabRatio="333"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="333"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -4376,7 +4376,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4492,7 +4492,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="8">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>52</v>
@@ -4503,7 +4503,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="8">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>54</v>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="333"/>
+    <workbookView xWindow="3840" yWindow="1380" windowWidth="25600" windowHeight="16060" tabRatio="333"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -4376,7 +4376,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1380" windowWidth="25600" windowHeight="16060" tabRatio="333"/>
+    <workbookView xWindow="1120" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="333" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1200,126 +1200,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>items:woodClass_1:4:9,items:stoneClass_1:4:9,items:ironClass_1:4:9,items:foodClass_1:4:9,items:coinClass_1:2:3,items:gemClass_1:1:1,buildingMaterials:blueprints:1:15</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:10:9,items:stoneClass_1:10:9,items:ironClass_1:10:9,items:foodClass_1:10:9,items:coinClass_1:5:3,items:gemClass_1:2:1,buildingMaterials:blueprints:2:15,buildingMaterials:tools:2:15,buildingMaterials:tiles:2:15,buildingMaterials:pulley:2:15</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:20:9,items:stoneClass_1:20:9,items:ironClass_1:20:9,items:foodClass_1:20:9,items:coinClass_1:10:3,items:gemClass_1:3:1,buildingMaterials:blueprints:3:15,buildingMaterials:tools:3:15,buildingMaterials:tiles:3:15,buildingMaterials:pulley:3:15</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:30:9,items:stoneClass_1:30:9,items:ironClass_1:30:9,items:foodClass_1:30:9,items:coinClass_1:15:3,items:gemClass_1:4:1,buildingMaterials:blueprints:4:15,buildingMaterials:tools:4:15,buildingMaterials:tiles:4:15,buildingMaterials:pulley:4:15</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:2:9,items:stoneClass_2:2:9,items:ironClass_2:2:9,items:foodClass_2:2:9,items:coinClass_2:1:3,items:gemClass_1:5:1,buildingMaterials:blueprints:5:15,buildingMaterials:tools:5:15,buildingMaterials:tiles:5:15,buildingMaterials:pulley:5:15</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:4:9,items:stoneClass_2:4:9,items:ironClass_2:4:9,items:foodClass_2:4:9,items:coinClass_2:2:3,items:gemClass_1:6:1,buildingMaterials:blueprints:6:15,buildingMaterials:tools:6:15,buildingMaterials:tiles:6:15,buildingMaterials:pulley:6:15</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:6:9,items:stoneClass_2:6:9,items:ironClass_2:6:9,items:foodClass_2:6:9,items:coinClass_2:3:3,items:gemClass_1:7:1,buildingMaterials:blueprints:7:15,buildingMaterials:tools:7:15,buildingMaterials:tiles:7:15,buildingMaterials:pulley:7:15</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:8:9,items:stoneClass_2:8:9,items:ironClass_2:8:9,items:foodClass_2:8:9,items:coinClass_2:4:3,items:gemClass_1:8:1,buildingMaterials:blueprints:8:15,buildingMaterials:tools:8:15,buildingMaterials:tiles:8:15,buildingMaterials:pulley:8:15</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:10:9,items:stoneClass_2:10:9,items:ironClass_2:10:9,items:foodClass_2:10:9,items:coinClass_2:5:3,items:gemClass_1:9:1,buildingMaterials:blueprints:9:15,buildingMaterials:tools:9:15,buildingMaterials:tiles:9:15,buildingMaterials:pulley:9:15</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:12:9,items:stoneClass_2:12:9,items:ironClass_2:12:9,items:foodClass_2:12:9,items:coinClass_2:6:3,items:gemClass_2:1:1,buildingMaterials:blueprints:10:15,buildingMaterials:tools:10:15,buildingMaterials:tiles:10:15,buildingMaterials:pulley:10:15</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:14:2,items:stoneClass_2:14:2,items:ironClass_2:14:2,items:foodClass_2:14:2,items:coinClass_2:7:1,items:gemClass_1:11:1,buildingMaterials:blueprints:11:25,buildingMaterials:tools:11:25,buildingMaterials:tiles:11:25,buildingMaterials:pulley:11:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:16:2,items:stoneClass_2:16:2,items:ironClass_2:16:2,items:foodClass_2:16:2,items:coinClass_2:8:1,items:gemClass_1:12:1,buildingMaterials:blueprints:12:25,buildingMaterials:tools:12:25,buildingMaterials:tiles:12:25,buildingMaterials:pulley:12:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:18:2,items:stoneClass_2:18:2,items:ironClass_2:18:2,items:foodClass_2:18:2,items:coinClass_2:9:1,items:gemClass_1:13:1,buildingMaterials:blueprints:13:25,buildingMaterials:tools:13:25,buildingMaterials:tiles:13:25,buildingMaterials:pulley:13:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:4:2,items:stoneClass_3:4:2,items:ironClass_3:4:2,items:foodClass_3:4:2,items:coinClass_3:2:1,items:gemClass_1:14:1,buildingMaterials:blueprints:14:25,buildingMaterials:tools:14:25,buildingMaterials:tiles:14:25,buildingMaterials:pulley:14:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:24:2,items:stoneClass_2:24:2,items:ironClass_2:24:2,items:foodClass_2:24:2,items:coinClass_2:12:1,items:gemClass_1:15:1,buildingMaterials:blueprints:15:25,buildingMaterials:tools:15:25,buildingMaterials:tiles:15:25,buildingMaterials:pulley:15:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:28:2,items:stoneClass_2:28:2,items:ironClass_2:28:2,items:foodClass_2:28:2,items:coinClass_2:14:1,items:gemClass_1:4:1,buildingMaterials:blueprints:16:25,buildingMaterials:tools:16:25,buildingMaterials:tiles:16:25,buildingMaterials:pulley:16:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:32:2,items:stoneClass_2:32:2,items:ironClass_2:32:2,items:foodClass_2:32:2,items:coinClass_2:16:1,items:gemClass_1:17:1,buildingMaterials:blueprints:18:25,buildingMaterials:tools:18:25,buildingMaterials:tiles:18:25,buildingMaterials:pulley:18:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:36:2,items:stoneClass_2:36:2,items:ironClass_2:36:2,items:foodClass_2:36:2,items:coinClass_2:18:1,items:gemClass_1:18:1,buildingMaterials:blueprints:20:25,buildingMaterials:tools:20:25,buildingMaterials:tiles:20:25,buildingMaterials:pulley:20:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:8:2,items:stoneClass_3:8:2,items:ironClass_3:8:2,items:foodClass_3:8:2,items:coinClass_3:4:1,items:gemClass_1:19:1,buildingMaterials:blueprints:25:25,buildingMaterials:tools:25:25,buildingMaterials:tiles:25:25,buildingMaterials:pulley:25:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:2:2,items:stoneClass_4:2:2,items:ironClass_4:2:2,items:foodClass_4:2:2,items:coinClass_4:1:1,items:gemClass_2:2:1,buildingMaterials:blueprints:30:25,buildingMaterials:tools:30:25,buildingMaterials:tiles:30:25,buildingMaterials:pulley:30:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:12:2,items:stoneClass_3:12:2,items:ironClass_3:12:2,items:foodClass_3:12:2,items:coinClass_3:6:1,items:gemClass_1:21:1,buildingMaterials:blueprints:35:25,buildingMaterials:tools:35:25,buildingMaterials:tiles:35:25,buildingMaterials:pulley:35:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:14:2,items:stoneClass_3:14:2,items:ironClass_3:14:2,items:foodClass_3:14:2,items:coinClass_3:7:1,items:gemClass_1:22:1,buildingMaterials:blueprints:40:25,buildingMaterials:tools:40:25,buildingMaterials:tiles:40:25,buildingMaterials:pulley:40:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:16:2,items:stoneClass_3:16:2,items:ironClass_3:16:2,items:foodClass_3:16:2,items:coinClass_3:8:1,items:gemClass_1:23:1,buildingMaterials:blueprints:45:25,buildingMaterials:tools:45:25,buildingMaterials:tiles:45:25,buildingMaterials:pulley:45:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:18:2,items:stoneClass_3:18:2,items:ironClass_3:18:2,items:foodClass_3:18:2,items:coinClass_3:9:1,items:gemClass_1:24:1,buildingMaterials:blueprints:50:25,buildingMaterials:tools:50:25,buildingMaterials:tiles:50:25,buildingMaterials:pulley:50:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:4:2,items:stoneClass_4:4:2,items:ironClass_4:4:2,items:foodClass_4:4:2,items:coinClass_4:2:1,items:gemClass_1:25:1,buildingMaterials:blueprints:55:25,buildingMaterials:tools:55:25,buildingMaterials:tiles:55:25,buildingMaterials:pulley:55:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:6:2,items:stoneClass_4:6:2,items:ironClass_4:6:2,items:foodClass_4:6:2,items:coinClass_4:3:1,items:gemClass_1:26:1,buildingMaterials:blueprints:60:25,buildingMaterials:tools:60:25,buildingMaterials:tiles:60:25,buildingMaterials:pulley:60:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:8:2,items:stoneClass_4:8:2,items:ironClass_4:8:2,items:foodClass_4:8:2,items:coinClass_4:4:1,items:gemClass_1:27:1,buildingMaterials:blueprints:70:25,buildingMaterials:tools:70:25,buildingMaterials:tiles:70:25,buildingMaterials:pulley:70:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:10:2,items:stoneClass_4:10:2,items:ironClass_4:10:2,items:foodClass_4:10:2,items:coinClass_4:5:1,items:gemClass_1:28:1,buildingMaterials:blueprints:80:25,buildingMaterials:tools:80:25,buildingMaterials:tiles:80:25,buildingMaterials:pulley:80:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:12:2,items:stoneClass_4:12:2,items:ironClass_4:12:2,items:foodClass_4:12:2,items:coinClass_4:6:1,items:gemClass_1:29:1,buildingMaterials:blueprints:90:25,buildingMaterials:tools:90:25,buildingMaterials:tiles:90:25,buildingMaterials:pulley:90:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:14:2,items:stoneClass_4:14:2,items:ironClass_4:14:2,items:foodClass_4:14:2,items:coinClass_4:7:1,items:gemClass_2:3:1,buildingMaterials:blueprints:100:25,buildingMaterials:tools:100:25,buildingMaterials:tiles:100:25,buildingMaterials:pulley:100:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:16:2,items:stoneClass_4:16:2,items:ironClass_4:16:2,items:foodClass_4:16:2,items:coinClass_4:8:1,items:gemClass_1:31:1,buildingMaterials:blueprints:110:25,buildingMaterials:tools:110:25,buildingMaterials:tiles:110:25,buildingMaterials:pulley:110:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:6:2,items:stoneClass_5:6:2,items:ironClass_5:6:2,items:foodClass_5:6:2,items:coinClass_5:3:1,items:gemClass_1:32:1,buildingMaterials:blueprints:120:25,buildingMaterials:tools:120:25,buildingMaterials:tiles:120:25,buildingMaterials:pulley:120:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:2:2,items:stoneClass_6:2:2,items:ironClass_6:2:2,items:foodClass_6:2:2,items:coinClass_6:1:1,items:gemClass_1:33:1,buildingMaterials:blueprints:130:25,buildingMaterials:tools:130:25,buildingMaterials:tiles:130:25,buildingMaterials:pulley:130:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:8:2,items:stoneClass_5:8:2,items:ironClass_5:8:2,items:foodClass_5:8:2,items:coinClass_5:4:1,items:gemClass_1:34:1,buildingMaterials:blueprints:140:25,buildingMaterials:tools:140:25,buildingMaterials:tiles:140:25,buildingMaterials:pulley:140:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:10:2,items:stoneClass_5:10:2,items:ironClass_5:10:2,items:foodClass_5:10:2,items:coinClass_5:5:1,items:gemClass_1:35:1,buildingMaterials:blueprints:150:25,buildingMaterials:tools:150:25,buildingMaterials:tiles:150:25,buildingMaterials:pulley:150:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:12:2,items:stoneClass_5:12:2,items:ironClass_5:12:2,items:foodClass_5:12:2,items:coinClass_5:6:1,items:gemClass_1:36:1,buildingMaterials:blueprints:160:25,buildingMaterials:tools:160:25,buildingMaterials:tiles:160:25,buildingMaterials:pulley:160:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:14:2,items:stoneClass_5:14:2,items:ironClass_5:14:2,items:foodClass_5:14:2,items:coinClass_5:7:1,items:gemClass_1:37:1,buildingMaterials:blueprints:180:25,buildingMaterials:tools:180:25,buildingMaterials:tiles:180:25,buildingMaterials:pulley:180:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:16:2,items:stoneClass_5:16:2,items:ironClass_5:16:2,items:foodClass_5:16:2,items:coinClass_5:8:1,items:gemClass_1:38:1,buildingMaterials:blueprints:200:25,buildingMaterials:tools:200:25,buildingMaterials:tiles:200:25,buildingMaterials:pulley:200:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:18:2,items:stoneClass_5:18:2,items:ironClass_5:18:2,items:foodClass_5:18:2,items:coinClass_5:9:1,items:gemClass_1:39:1,buildingMaterials:blueprints:220:25,buildingMaterials:tools:220:25,buildingMaterials:tiles:220:25,buildingMaterials:pulley:220:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:6:2,items:stoneClass_6:6:2,items:ironClass_6:6:2,items:foodClass_6:6:2,items:coinClass_6:3:1,items:gemClass_2:4:1,buildingMaterials:blueprints:240:25,buildingMaterials:tools:240:25,buildingMaterials:tiles:240:25,buildingMaterials:pulley:240:25</t>
-  </si>
-  <si>
     <t>移动联盟冷却时间</t>
   </si>
   <si>
@@ -1901,6 +1781,166 @@
   </si>
   <si>
     <t>catapult_3:3:2295,swordsman_3:3:3443,ranger_3:3:2295;horseArcher_3:3:2295,crossbowman_3:3:2295,catapult_3:3:1148;sentinel_3:3:4590,lancer_3:3:1722,catapult_3:3:1148</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_6:1:2,items:stoneClass_6:1:2,items:ironClass_6:1:2,items:foodClass_6:1:2,items:coinClass_6:1:1,items:gemClass_1:33:1,buildingMaterials:blueprints:33:25,buildingMaterials:tools:33:25,buildingMaterials:tiles:33:25,buildingMaterials:pulley:33:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_5:4:2,items:stoneClass_5:4:2,items:ironClass_5:4:2,items:foodClass_5:4:2,items:coinClass_5:4:1,items:gemClass_1:34:1,buildingMaterials:blueprints:34:25,buildingMaterials:tools:34:25,buildingMaterials:tiles:34:25,buildingMaterials:pulley:34:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_5:5:2,items:stoneClass_5:5:2,items:ironClass_5:5:2,items:foodClass_5:5:2,items:coinClass_5:5:1,items:gemClass_1:35:1,buildingMaterials:blueprints:35:25,buildingMaterials:tools:35:25,buildingMaterials:tiles:35:25,buildingMaterials:pulley:35:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_5:6:2,items:stoneClass_5:6:2,items:ironClass_5:6:2,items:foodClass_5:6:2,items:coinClass_5:6:1,items:gemClass_1:36:1,buildingMaterials:blueprints:36:25,buildingMaterials:tools:36:25,buildingMaterials:tiles:36:25,buildingMaterials:pulley:36:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_5:7:2,items:stoneClass_5:7:2,items:ironClass_5:7:2,items:foodClass_5:7:2,items:coinClass_5:7:1,items:gemClass_1:37:1,buildingMaterials:blueprints:37:25,buildingMaterials:tools:37:25,buildingMaterials:tiles:37:25,buildingMaterials:pulley:37:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_5:8:2,items:stoneClass_5:8:2,items:ironClass_5:8:2,items:foodClass_5:8:2,items:coinClass_5:8:1,items:gemClass_1:38:1,buildingMaterials:blueprints:38:25,buildingMaterials:tools:38:25,buildingMaterials:tiles:38:25,buildingMaterials:pulley:38:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_5:9:2,items:stoneClass_5:9:2,items:ironClass_5:9:2,items:foodClass_5:9:2,items:coinClass_5:9:1,items:gemClass_1:39:1,buildingMaterials:blueprints:39:25,buildingMaterials:tools:39:25,buildingMaterials:tiles:39:25,buildingMaterials:pulley:39:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_6:3:2,items:stoneClass_6:3:2,items:ironClass_6:3:2,items:foodClass_6:3:2,items:coinClass_6:3:1,items:gemClass_2:4:1,buildingMaterials:blueprints:40:25,buildingMaterials:tools:40:25,buildingMaterials:tiles:40:25,buildingMaterials:pulley:40:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_1:2:2,items:stoneClass_1:2:2,items:ironClass_1:2:2,items:foodClass_1:2:2,items:coinClass_1:2:1,items:gemClass_1:1:1,buildingMaterials:blueprints:1:25,buildingMaterials:tools:1:25,buildingMaterials:tiles:1:25,buildingMaterials:pulley:1:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_1:5:2,items:stoneClass_1:5:2,items:ironClass_1:5:2,items:foodClass_1:5:2,items:coinClass_1:5:1,items:gemClass_1:2:1,buildingMaterials:blueprints:2:25,buildingMaterials:tools:2:25,buildingMaterials:tiles:2:25,buildingMaterials:pulley:2:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_1:10:2,items:stoneClass_1:10:2,items:ironClass_1:10:2,items:foodClass_1:10:2,items:coinClass_1:10:1,items:gemClass_1:3:1,buildingMaterials:blueprints:3:25,buildingMaterials:tools:3:25,buildingMaterials:tiles:3:25,buildingMaterials:pulley:3:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_1:15:2,items:stoneClass_1:15:2,items:ironClass_1:15:2,items:foodClass_1:15:2,items:coinClass_1:15:1,items:gemClass_1:4:1,buildingMaterials:blueprints:4:25,buildingMaterials:tools:4:25,buildingMaterials:tiles:4:25,buildingMaterials:pulley:4:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:1:2,items:stoneClass_2:1:2,items:ironClass_2:1:2,items:foodClass_2:1:2,items:coinClass_2:1:1,items:gemClass_1:5:1,buildingMaterials:blueprints:5:25,buildingMaterials:tools:5:25,buildingMaterials:tiles:5:25,buildingMaterials:pulley:5:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:2:2,items:stoneClass_2:2:2,items:ironClass_2:2:2,items:foodClass_2:2:2,items:coinClass_2:2:1,items:gemClass_1:6:1,buildingMaterials:blueprints:6:25,buildingMaterials:tools:6:25,buildingMaterials:tiles:6:25,buildingMaterials:pulley:6:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:3:2,items:stoneClass_2:3:2,items:ironClass_2:3:2,items:foodClass_2:3:2,items:coinClass_2:3:1,items:gemClass_1:7:1,buildingMaterials:blueprints:7:25,buildingMaterials:tools:7:25,buildingMaterials:tiles:7:25,buildingMaterials:pulley:7:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:4:2,items:stoneClass_2:4:2,items:ironClass_2:4:2,items:foodClass_2:4:2,items:coinClass_2:4:1,items:gemClass_1:8:1,buildingMaterials:blueprints:8:25,buildingMaterials:tools:8:25,buildingMaterials:tiles:8:25,buildingMaterials:pulley:8:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:5:2,items:stoneClass_2:5:2,items:ironClass_2:5:2,items:foodClass_2:5:2,items:coinClass_2:5:1,items:gemClass_1:9:1,buildingMaterials:blueprints:9:25,buildingMaterials:tools:9:25,buildingMaterials:tiles:9:25,buildingMaterials:pulley:9:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:6:2,items:stoneClass_2:6:2,items:ironClass_2:6:2,items:foodClass_2:6:2,items:coinClass_2:6:1,items:gemClass_2:1:1,buildingMaterials:blueprints:10:25,buildingMaterials:tools:10:25,buildingMaterials:tiles:10:25,buildingMaterials:pulley:10:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:7:2,items:stoneClass_2:7:2,items:ironClass_2:7:2,items:foodClass_2:7:2,items:coinClass_2:7:1,items:gemClass_1:11:1,buildingMaterials:blueprints:11:25,buildingMaterials:tools:11:25,buildingMaterials:tiles:11:25,buildingMaterials:pulley:11:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:8:2,items:stoneClass_2:8:2,items:ironClass_2:8:2,items:foodClass_2:8:2,items:coinClass_2:8:1,items:gemClass_1:12:1,buildingMaterials:blueprints:12:25,buildingMaterials:tools:12:25,buildingMaterials:tiles:12:25,buildingMaterials:pulley:12:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:9:2,items:stoneClass_2:9:2,items:ironClass_2:9:2,items:foodClass_2:9:2,items:coinClass_2:9:1,items:gemClass_1:13:1,buildingMaterials:blueprints:13:25,buildingMaterials:tools:13:25,buildingMaterials:tiles:13:25,buildingMaterials:pulley:13:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:2:2,items:stoneClass_3:2:2,items:ironClass_3:2:2,items:foodClass_3:2:2,items:coinClass_3:2:1,items:gemClass_1:14:1,buildingMaterials:blueprints:14:25,buildingMaterials:tools:14:25,buildingMaterials:tiles:14:25,buildingMaterials:pulley:14:25,items:redbag_2:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:12:2,items:stoneClass_2:12:2,items:ironClass_2:12:2,items:foodClass_2:12:2,items:coinClass_2:12:1,items:gemClass_1:15:1,buildingMaterials:blueprints:15:25,buildingMaterials:tools:15:25,buildingMaterials:tiles:15:25,buildingMaterials:pulley:15:25,items:redbag_2:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:14:2,items:stoneClass_2:14:2,items:ironClass_2:14:2,items:foodClass_2:14:2,items:coinClass_2:14:1,items:gemClass_1:4:1,buildingMaterials:blueprints:16:25,buildingMaterials:tools:16:25,buildingMaterials:tiles:16:25,buildingMaterials:pulley:16:25,items:redbag_2:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:16:2,items:stoneClass_2:16:2,items:ironClass_2:16:2,items:foodClass_2:16:2,items:coinClass_2:16:1,items:gemClass_1:17:1,buildingMaterials:blueprints:17:25,buildingMaterials:tools:17:25,buildingMaterials:tiles:17:25,buildingMaterials:pulley:17:25,items:redbag_2:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:18:2,items:stoneClass_2:18:2,items:ironClass_2:18:2,items:foodClass_2:18:2,items:coinClass_2:18:1,items:gemClass_1:18:1,buildingMaterials:blueprints:18:25,buildingMaterials:tools:18:25,buildingMaterials:tiles:18:25,buildingMaterials:pulley:18:25,items:redbag_2:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:4:2,items:stoneClass_3:4:2,items:ironClass_3:4:2,items:foodClass_3:4:2,items:coinClass_3:4:1,items:gemClass_1:19:1,buildingMaterials:blueprints:19:25,buildingMaterials:tools:19:25,buildingMaterials:tiles:19:25,buildingMaterials:pulley:19:25,items:redbag_2:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4:1:2,items:stoneClass_4:1:2,items:ironClass_4:1:2,items:foodClass_4:1:2,items:coinClass_4:1:1,items:gemClass_2:2:1,buildingMaterials:blueprints:20:25,buildingMaterials:tools:20:25,buildingMaterials:tiles:20:25,buildingMaterials:pulley:20:25,items:redbag_2:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4:7:2,items:stoneClass_4:7:2,items:ironClass_4:7:2,items:foodClass_4:7:2,items:coinClass_4:7:1,items:gemClass_2:3:1,buildingMaterials:blueprints:30:25,buildingMaterials:tools:30:25,buildingMaterials:tiles:30:25,buildingMaterials:pulley:30:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4:8:2,items:stoneClass_4:8:2,items:ironClass_4:8:2,items:foodClass_4:8:2,items:coinClass_4:8:1,items:gemClass_1:31:1,buildingMaterials:blueprints:31:25,buildingMaterials:tools:31:25,buildingMaterials:tiles:31:25,buildingMaterials:pulley:31:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_5:3:2,items:stoneClass_5:3:2,items:ironClass_5:3:2,items:foodClass_5:3:2,items:coinClass_5:3:1,items:gemClass_1:32:1,buildingMaterials:blueprints:32:25,buildingMaterials:tools:32:25,buildingMaterials:tiles:32:25,buildingMaterials:pulley:32:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4:6:2,items:stoneClass_4:6:2,items:ironClass_4:6:2,items:foodClass_4:6:2,items:coinClass_4:6:1,items:gemClass_1:29:1,buildingMaterials:blueprints:29:25,buildingMaterials:tools:29:25,buildingMaterials:tiles:29:25,buildingMaterials:pulley:29:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4:5:2,items:stoneClass_4:5:2,items:ironClass_4:5:2,items:foodClass_4:5:2,items:coinClass_4:5:1,items:gemClass_1:28:1,buildingMaterials:blueprints:28:25,buildingMaterials:tools:28:25,buildingMaterials:tiles:28:25,buildingMaterials:pulley:28:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4:4:2,items:stoneClass_4:4:2,items:ironClass_4:4:2,items:foodClass_4:4:2,items:coinClass_4:4:1,items:gemClass_1:27:1,buildingMaterials:blueprints:27:25,buildingMaterials:tools:27:25,buildingMaterials:tiles:27:25,buildingMaterials:pulley:27:25,items:redbag_3:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4:3:2,items:stoneClass_4:3:2,items:ironClass_4:3:2,items:foodClass_4:3:2,items:coinClass_4:3:1,items:gemClass_1:26:1,buildingMaterials:blueprints:26:25,buildingMaterials:tools:26:25,buildingMaterials:tiles:26:25,buildingMaterials:pulley:26:25,items:redbag_2:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4:2:2,items:stoneClass_4:2:2,items:ironClass_4:2:2,items:foodClass_4:2:2,items:coinClass_4:2:1,items:gemClass_1:25:1,buildingMaterials:blueprints:25:25,buildingMaterials:tools:25:25,buildingMaterials:tiles:25:25,buildingMaterials:pulley:25:25,items:redbag_2:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:9:2,items:stoneClass_3:9:2,items:ironClass_3:9:2,items:foodClass_3:9:2,items:coinClass_3:9:1,items:gemClass_1:24:1,buildingMaterials:blueprints:24:25,buildingMaterials:tools:24:25,buildingMaterials:tiles:24:25,buildingMaterials:pulley:24:25,items:redbag_2:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:8:2,items:stoneClass_3:8:2,items:ironClass_3:8:2,items:foodClass_3:8:2,items:coinClass_3:8:1,items:gemClass_1:23:1,buildingMaterials:blueprints:23:25,buildingMaterials:tools:23:25,buildingMaterials:tiles:23:25,buildingMaterials:pulley:23:25,items:redbag_2:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:7:2,items:stoneClass_3:7:2,items:ironClass_3:7:2,items:foodClass_3:7:2,items:coinClass_3:7:1,items:gemClass_1:22:1,buildingMaterials:blueprints:22:25,buildingMaterials:tools:22:25,buildingMaterials:tiles:22:25,buildingMaterials:pulley:22:25,items:redbag_2:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:6:2,items:stoneClass_3:6:2,items:ironClass_3:6:2,items:foodClass_3:6:2,items:coinClass_3:6:1,items:gemClass_1:21:1,buildingMaterials:blueprints:21:25,buildingMaterials:tools:21:25,buildingMaterials:tiles:21:25,buildingMaterials:pulley:21:25,items:redbag_2:1:30</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2083,7 +2123,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="881">
+  <cellStyleXfs count="883">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2969,8 +3009,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3044,8 +3086,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="881">
+  <cellStyles count="883">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3488,6 +3533,7 @@
     <cellStyle name="超链接" xfId="875" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="881" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3923,6 +3969,7 @@
     <cellStyle name="访问过的超链接" xfId="876" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="878" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="882" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4375,7 +4422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -4610,24 +4657,24 @@
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="B21" s="8">
         <v>240</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="B22" s="8">
         <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -4654,46 +4701,46 @@
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="B25" s="8">
         <v>360</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="B26" s="8">
         <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="B27" s="8">
         <v>20000</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="B28" s="8">
         <v>200</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -4820,7 +4867,7 @@
         <v>32</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>35</v>
@@ -4832,7 +4879,7 @@
         <v>40</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="20" customHeight="1">
@@ -6361,7 +6408,7 @@
         <v>160</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="J2" s="15">
         <v>200</v>
@@ -6391,7 +6438,7 @@
         <v>221</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="T2" s="17" t="s">
         <v>197</v>
@@ -6400,7 +6447,7 @@
         <v>251</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="W2" s="17" t="s">
         <v>209</v>
@@ -6409,7 +6456,7 @@
         <v>236</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45">
@@ -6438,7 +6485,7 @@
         <v>360</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="J3" s="15">
         <v>400</v>
@@ -6468,7 +6515,7 @@
         <v>222</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>198</v>
@@ -6477,7 +6524,7 @@
         <v>252</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="W3" s="17" t="s">
         <v>210</v>
@@ -6486,7 +6533,7 @@
         <v>237</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45">
@@ -6515,7 +6562,7 @@
         <v>560</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="J4" s="15">
         <v>600</v>
@@ -6545,7 +6592,7 @@
         <v>223</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="T4" s="17" t="s">
         <v>199</v>
@@ -6554,7 +6601,7 @@
         <v>253</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>211</v>
@@ -6563,7 +6610,7 @@
         <v>238</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45">
@@ -6592,7 +6639,7 @@
         <v>1440</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="J5" s="15">
         <v>800</v>
@@ -6622,7 +6669,7 @@
         <v>224</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="T5" s="17" t="s">
         <v>200</v>
@@ -6631,7 +6678,7 @@
         <v>254</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="W5" s="17" t="s">
         <v>212</v>
@@ -6640,7 +6687,7 @@
         <v>239</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45">
@@ -6669,7 +6716,7 @@
         <v>2402</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="J6" s="15">
         <v>1210</v>
@@ -6699,7 +6746,7 @@
         <v>225</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="T6" s="17" t="s">
         <v>201</v>
@@ -6708,7 +6755,7 @@
         <v>255</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="W6" s="17" t="s">
         <v>213</v>
@@ -6717,7 +6764,7 @@
         <v>240</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45">
@@ -6746,7 +6793,7 @@
         <v>3302</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="J7" s="15">
         <v>1660</v>
@@ -6776,7 +6823,7 @@
         <v>226</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="T7" s="17" t="s">
         <v>202</v>
@@ -6785,7 +6832,7 @@
         <v>256</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="W7" s="17" t="s">
         <v>214</v>
@@ -6794,7 +6841,7 @@
         <v>241</v>
       </c>
       <c r="Y7" s="17" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45">
@@ -6823,7 +6870,7 @@
         <v>7202</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="J8" s="15">
         <v>3610</v>
@@ -6853,7 +6900,7 @@
         <v>309</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="T8" s="17" t="s">
         <v>291</v>
@@ -6862,7 +6909,7 @@
         <v>318</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="W8" s="17" t="s">
         <v>300</v>
@@ -6871,7 +6918,7 @@
         <v>327</v>
       </c>
       <c r="Y8" s="17" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45">
@@ -6900,7 +6947,7 @@
         <v>9202</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="J9" s="15">
         <v>4610</v>
@@ -6930,7 +6977,7 @@
         <v>227</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="T9" s="17" t="s">
         <v>203</v>
@@ -6939,7 +6986,7 @@
         <v>257</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="W9" s="17" t="s">
         <v>215</v>
@@ -6948,7 +6995,7 @@
         <v>242</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45">
@@ -6977,7 +7024,7 @@
         <v>11440</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="J10" s="15">
         <v>5720</v>
@@ -7007,7 +7054,7 @@
         <v>310</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="T10" s="17" t="s">
         <v>292</v>
@@ -7016,7 +7063,7 @@
         <v>319</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="W10" s="17" t="s">
         <v>301</v>
@@ -7025,7 +7072,7 @@
         <v>328</v>
       </c>
       <c r="Y10" s="17" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="45">
@@ -7054,7 +7101,7 @@
         <v>17200</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="J11" s="15">
         <v>6880</v>
@@ -7084,7 +7131,7 @@
         <v>228</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="T11" s="17" t="s">
         <v>149</v>
@@ -7093,7 +7140,7 @@
         <v>258</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="W11" s="17" t="s">
         <v>150</v>
@@ -7102,7 +7149,7 @@
         <v>243</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45">
@@ -7131,7 +7178,7 @@
         <v>20500</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="J12" s="15">
         <v>8200</v>
@@ -7161,7 +7208,7 @@
         <v>311</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="T12" s="17" t="s">
         <v>293</v>
@@ -7170,7 +7217,7 @@
         <v>320</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="W12" s="17" t="s">
         <v>302</v>
@@ -7179,7 +7226,7 @@
         <v>329</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="45">
@@ -7208,7 +7255,7 @@
         <v>24000</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="J13" s="15">
         <v>9600</v>
@@ -7238,7 +7285,7 @@
         <v>229</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="T13" s="17" t="s">
         <v>204</v>
@@ -7247,7 +7294,7 @@
         <v>259</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="W13" s="17" t="s">
         <v>216</v>
@@ -7256,7 +7303,7 @@
         <v>244</v>
       </c>
       <c r="Y13" s="17" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45">
@@ -7285,7 +7332,7 @@
         <v>33600</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="J14" s="15">
         <v>14000</v>
@@ -7315,7 +7362,7 @@
         <v>312</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="T14" s="17" t="s">
         <v>294</v>
@@ -7324,7 +7371,7 @@
         <v>321</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="W14" s="17" t="s">
         <v>303</v>
@@ -7333,7 +7380,7 @@
         <v>330</v>
       </c>
       <c r="Y14" s="17" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45">
@@ -7362,7 +7409,7 @@
         <v>37200</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="J15" s="15">
         <v>15500</v>
@@ -7392,7 +7439,7 @@
         <v>230</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="T15" s="17" t="s">
         <v>205</v>
@@ -7401,7 +7448,7 @@
         <v>260</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>217</v>
@@ -7410,7 +7457,7 @@
         <v>245</v>
       </c>
       <c r="Y15" s="17" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="45">
@@ -7439,7 +7486,7 @@
         <v>42000</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="J16" s="15">
         <v>17500</v>
@@ -7469,7 +7516,7 @@
         <v>313</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="T16" s="17" t="s">
         <v>295</v>
@@ -7478,7 +7525,7 @@
         <v>322</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="W16" s="17" t="s">
         <v>304</v>
@@ -7487,7 +7534,7 @@
         <v>331</v>
       </c>
       <c r="Y16" s="17" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="45">
@@ -7516,7 +7563,7 @@
         <v>54600</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="J17" s="15">
         <v>19500</v>
@@ -7546,7 +7593,7 @@
         <v>231</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="T17" s="17" t="s">
         <v>153</v>
@@ -7555,7 +7602,7 @@
         <v>261</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="W17" s="17" t="s">
         <v>154</v>
@@ -7564,7 +7611,7 @@
         <v>246</v>
       </c>
       <c r="Y17" s="17" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="45">
@@ -7593,7 +7640,7 @@
         <v>60200</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="J18" s="15">
         <v>21500</v>
@@ -7623,7 +7670,7 @@
         <v>314</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="T18" s="17" t="s">
         <v>296</v>
@@ -7632,7 +7679,7 @@
         <v>323</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="W18" s="17" t="s">
         <v>305</v>
@@ -7641,7 +7688,7 @@
         <v>332</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="45">
@@ -7670,7 +7717,7 @@
         <v>67200</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="J19" s="12">
         <v>24000</v>
@@ -7700,7 +7747,7 @@
         <v>232</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="T19" s="17" t="s">
         <v>206</v>
@@ -7709,7 +7756,7 @@
         <v>262</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="W19" s="17" t="s">
         <v>218</v>
@@ -7718,7 +7765,7 @@
         <v>247</v>
       </c>
       <c r="Y19" s="17" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="45">
@@ -7747,7 +7794,7 @@
         <v>83200</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
       <c r="J20" s="12">
         <v>31200</v>
@@ -7777,7 +7824,7 @@
         <v>315</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="T20" s="17" t="s">
         <v>297</v>
@@ -7786,7 +7833,7 @@
         <v>324</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="W20" s="17" t="s">
         <v>306</v>
@@ -7795,7 +7842,7 @@
         <v>333</v>
       </c>
       <c r="Y20" s="17" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="45">
@@ -7824,7 +7871,7 @@
         <v>91200</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="J21" s="12">
         <v>34200</v>
@@ -7854,7 +7901,7 @@
         <v>233</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="T21" s="17" t="s">
         <v>207</v>
@@ -7863,7 +7910,7 @@
         <v>263</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="W21" s="17" t="s">
         <v>219</v>
@@ -7872,7 +7919,7 @@
         <v>248</v>
       </c>
       <c r="Y21" s="17" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="45">
@@ -7901,7 +7948,7 @@
         <v>109800</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="J22" s="12">
         <v>36600</v>
@@ -7931,7 +7978,7 @@
         <v>316</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="T22" s="17" t="s">
         <v>298</v>
@@ -7940,7 +7987,7 @@
         <v>325</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="W22" s="17" t="s">
         <v>307</v>
@@ -7949,7 +7996,7 @@
         <v>334</v>
       </c>
       <c r="Y22" s="17" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="45">
@@ -7978,7 +8025,7 @@
         <v>118800</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="J23" s="12">
         <v>39600</v>
@@ -8008,7 +8055,7 @@
         <v>234</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="T23" s="17" t="s">
         <v>157</v>
@@ -8017,7 +8064,7 @@
         <v>264</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="W23" s="17" t="s">
         <v>158</v>
@@ -8026,7 +8073,7 @@
         <v>249</v>
       </c>
       <c r="Y23" s="17" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="45">
@@ -8055,7 +8102,7 @@
         <v>144000</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="J24" s="12">
         <v>43200</v>
@@ -8085,7 +8132,7 @@
         <v>317</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="T24" s="17" t="s">
         <v>299</v>
@@ -8094,7 +8141,7 @@
         <v>326</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="W24" s="17" t="s">
         <v>308</v>
@@ -8103,7 +8150,7 @@
         <v>335</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="45">
@@ -8132,7 +8179,7 @@
         <v>160000</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="J25" s="12">
         <v>48000</v>
@@ -8162,7 +8209,7 @@
         <v>235</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>208</v>
@@ -8171,7 +8218,7 @@
         <v>265</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="W25" s="17" t="s">
         <v>220</v>
@@ -8180,7 +8227,7 @@
         <v>250</v>
       </c>
       <c r="Y25" s="17" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="20" customHeight="1">
@@ -8221,10 +8268,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8232,7 +8279,7 @@
     <col min="1" max="1" width="20.6640625" style="21"/>
     <col min="2" max="2" width="20" style="21" customWidth="1"/>
     <col min="3" max="3" width="78.83203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="140.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="140.6640625" style="17" customWidth="1"/>
     <col min="5" max="16384" width="20.6640625" style="21"/>
   </cols>
   <sheetData>
@@ -8246,7 +8293,7 @@
       <c r="C1" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="25" t="s">
         <v>275</v>
       </c>
       <c r="F1" s="20"/>
@@ -8256,13 +8303,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>338</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -8270,13 +8317,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>339</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -8284,13 +8331,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>340</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -8298,13 +8345,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>341</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -8312,13 +8359,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>342</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -8326,13 +8373,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>343</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -8340,13 +8387,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>344</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -8354,13 +8401,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>345</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
@@ -8368,13 +8415,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>346</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -8382,13 +8429,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>347</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
@@ -8396,13 +8443,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>348</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -8410,13 +8457,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>349</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
@@ -8424,13 +8471,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>350</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
@@ -8438,27 +8485,27 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45">
       <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>352</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45">
@@ -8466,13 +8513,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>353</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45">
@@ -8480,13 +8527,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>554</v>
+        <v>514</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>354</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45">
@@ -8494,13 +8541,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>355</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30">
@@ -8508,13 +8555,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>356</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
@@ -8522,13 +8569,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>357</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30">
@@ -8536,13 +8583,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>358</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
@@ -8550,13 +8597,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>359</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
@@ -8564,13 +8611,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>360</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
@@ -8578,13 +8625,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>361</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45">
@@ -8592,13 +8639,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>362</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45">
@@ -8606,13 +8653,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>363</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="45">
@@ -8620,13 +8667,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>564</v>
+        <v>524</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>364</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45">
@@ -8634,13 +8681,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>365</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45">
@@ -8648,13 +8695,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>366</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45">
@@ -8662,13 +8709,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>367</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="45">
@@ -8676,13 +8723,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>368</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="45">
@@ -8690,13 +8737,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>369</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45">
@@ -8704,13 +8751,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>370</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="45">
@@ -8718,13 +8765,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>371</v>
+        <v>529</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="45">
@@ -8732,13 +8779,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>372</v>
+        <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45">
@@ -8746,13 +8793,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>373</v>
+        <v>531</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -8760,13 +8807,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>374</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
@@ -8774,13 +8821,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>375</v>
+        <v>533</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
@@ -8788,13 +8835,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>376</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -8802,290 +8849,14 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="17"/>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="17"/>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="17"/>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="17"/>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="17"/>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="17"/>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="17"/>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="17"/>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="17"/>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="17"/>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="17"/>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="17"/>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" s="17"/>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" s="17"/>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" s="17"/>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70" s="17"/>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" s="17"/>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72" s="17"/>
-    </row>
-    <row r="73" spans="4:4">
-      <c r="D73" s="17"/>
-    </row>
-    <row r="74" spans="4:4">
-      <c r="D74" s="17"/>
-    </row>
-    <row r="75" spans="4:4">
-      <c r="D75" s="17"/>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76" s="17"/>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" s="17"/>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78" s="17"/>
-    </row>
-    <row r="79" spans="4:4">
-      <c r="D79" s="17"/>
-    </row>
-    <row r="80" spans="4:4">
-      <c r="D80" s="17"/>
-    </row>
-    <row r="81" spans="4:4">
-      <c r="D81" s="17"/>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82" s="17"/>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83" s="17"/>
-    </row>
-    <row r="84" spans="4:4">
-      <c r="D84" s="17"/>
-    </row>
-    <row r="85" spans="4:4">
-      <c r="D85" s="17"/>
-    </row>
-    <row r="86" spans="4:4">
-      <c r="D86" s="17"/>
-    </row>
-    <row r="87" spans="4:4">
-      <c r="D87" s="17"/>
-    </row>
-    <row r="88" spans="4:4">
-      <c r="D88" s="17"/>
-    </row>
-    <row r="89" spans="4:4">
-      <c r="D89" s="17"/>
-    </row>
-    <row r="90" spans="4:4">
-      <c r="D90" s="17"/>
-    </row>
-    <row r="91" spans="4:4">
-      <c r="D91" s="17"/>
-    </row>
-    <row r="92" spans="4:4">
-      <c r="D92" s="17"/>
-    </row>
-    <row r="93" spans="4:4">
-      <c r="D93" s="17"/>
-    </row>
-    <row r="94" spans="4:4">
-      <c r="D94" s="17"/>
-    </row>
-    <row r="95" spans="4:4">
-      <c r="D95" s="17"/>
-    </row>
-    <row r="96" spans="4:4">
-      <c r="D96" s="17"/>
-    </row>
-    <row r="97" spans="4:4">
-      <c r="D97" s="17"/>
-    </row>
-    <row r="98" spans="4:4">
-      <c r="D98" s="17"/>
-    </row>
-    <row r="99" spans="4:4">
-      <c r="D99" s="17"/>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" s="17"/>
-    </row>
-    <row r="101" spans="4:4">
-      <c r="D101" s="17"/>
-    </row>
-    <row r="102" spans="4:4">
-      <c r="D102" s="17"/>
-    </row>
-    <row r="103" spans="4:4">
-      <c r="D103" s="17"/>
-    </row>
-    <row r="104" spans="4:4">
-      <c r="D104" s="17"/>
-    </row>
-    <row r="105" spans="4:4">
-      <c r="D105" s="17"/>
-    </row>
-    <row r="106" spans="4:4">
-      <c r="D106" s="17"/>
-    </row>
-    <row r="107" spans="4:4">
-      <c r="D107" s="17"/>
-    </row>
-    <row r="108" spans="4:4">
-      <c r="D108" s="17"/>
-    </row>
-    <row r="109" spans="4:4">
-      <c r="D109" s="17"/>
-    </row>
-    <row r="110" spans="4:4">
-      <c r="D110" s="17"/>
-    </row>
-    <row r="111" spans="4:4">
-      <c r="D111" s="17"/>
-    </row>
-    <row r="112" spans="4:4">
-      <c r="D112" s="17"/>
-    </row>
-    <row r="113" spans="4:4">
-      <c r="D113" s="17"/>
-    </row>
-    <row r="114" spans="4:4">
-      <c r="D114" s="17"/>
-    </row>
-    <row r="115" spans="4:4">
-      <c r="D115" s="17"/>
-    </row>
-    <row r="116" spans="4:4">
-      <c r="D116" s="17"/>
-    </row>
-    <row r="117" spans="4:4">
-      <c r="D117" s="17"/>
-    </row>
-    <row r="118" spans="4:4">
-      <c r="D118" s="17"/>
-    </row>
-    <row r="119" spans="4:4">
-      <c r="D119" s="17"/>
-    </row>
-    <row r="120" spans="4:4">
-      <c r="D120" s="17"/>
-    </row>
-    <row r="121" spans="4:4">
-      <c r="D121" s="17"/>
-    </row>
-    <row r="122" spans="4:4">
-      <c r="D122" s="17"/>
-    </row>
-    <row r="123" spans="4:4">
-      <c r="D123" s="17"/>
-    </row>
-    <row r="124" spans="4:4">
-      <c r="D124" s="17"/>
-    </row>
-    <row r="125" spans="4:4">
-      <c r="D125" s="17"/>
-    </row>
-    <row r="126" spans="4:4">
-      <c r="D126" s="17"/>
-    </row>
-    <row r="127" spans="4:4">
-      <c r="D127" s="17"/>
-    </row>
-    <row r="128" spans="4:4">
-      <c r="D128" s="17"/>
-    </row>
-    <row r="129" spans="4:4">
-      <c r="D129" s="17"/>
-    </row>
-    <row r="130" spans="4:4">
-      <c r="D130" s="17"/>
-    </row>
-    <row r="131" spans="4:4">
-      <c r="D131" s="17"/>
-    </row>
-    <row r="132" spans="4:4">
-      <c r="D132" s="17"/>
-    </row>
-    <row r="133" spans="4:4">
-      <c r="D133" s="17"/>
-    </row>
-    <row r="134" spans="4:4">
-      <c r="D134" s="17"/>
+        <v>535</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="333" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="5960" yWindow="560" windowWidth="25600" windowHeight="18260" tabRatio="497"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1784,164 +1784,124 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>items:woodClass_6:1:2,items:stoneClass_6:1:2,items:ironClass_6:1:2,items:foodClass_6:1:2,items:coinClass_6:1:1,items:gemClass_1:33:1,buildingMaterials:blueprints:33:25,buildingMaterials:tools:33:25,buildingMaterials:tiles:33:25,buildingMaterials:pulley:33:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_5:4:2,items:stoneClass_5:4:2,items:ironClass_5:4:2,items:foodClass_5:4:2,items:coinClass_5:4:1,items:gemClass_1:34:1,buildingMaterials:blueprints:34:25,buildingMaterials:tools:34:25,buildingMaterials:tiles:34:25,buildingMaterials:pulley:34:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_5:5:2,items:stoneClass_5:5:2,items:ironClass_5:5:2,items:foodClass_5:5:2,items:coinClass_5:5:1,items:gemClass_1:35:1,buildingMaterials:blueprints:35:25,buildingMaterials:tools:35:25,buildingMaterials:tiles:35:25,buildingMaterials:pulley:35:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_5:6:2,items:stoneClass_5:6:2,items:ironClass_5:6:2,items:foodClass_5:6:2,items:coinClass_5:6:1,items:gemClass_1:36:1,buildingMaterials:blueprints:36:25,buildingMaterials:tools:36:25,buildingMaterials:tiles:36:25,buildingMaterials:pulley:36:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_5:7:2,items:stoneClass_5:7:2,items:ironClass_5:7:2,items:foodClass_5:7:2,items:coinClass_5:7:1,items:gemClass_1:37:1,buildingMaterials:blueprints:37:25,buildingMaterials:tools:37:25,buildingMaterials:tiles:37:25,buildingMaterials:pulley:37:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_5:8:2,items:stoneClass_5:8:2,items:ironClass_5:8:2,items:foodClass_5:8:2,items:coinClass_5:8:1,items:gemClass_1:38:1,buildingMaterials:blueprints:38:25,buildingMaterials:tools:38:25,buildingMaterials:tiles:38:25,buildingMaterials:pulley:38:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_5:9:2,items:stoneClass_5:9:2,items:ironClass_5:9:2,items:foodClass_5:9:2,items:coinClass_5:9:1,items:gemClass_1:39:1,buildingMaterials:blueprints:39:25,buildingMaterials:tools:39:25,buildingMaterials:tiles:39:25,buildingMaterials:pulley:39:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_6:3:2,items:stoneClass_6:3:2,items:ironClass_6:3:2,items:foodClass_6:3:2,items:coinClass_6:3:1,items:gemClass_2:4:1,buildingMaterials:blueprints:40:25,buildingMaterials:tools:40:25,buildingMaterials:tiles:40:25,buildingMaterials:pulley:40:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_1:2:2,items:stoneClass_1:2:2,items:ironClass_1:2:2,items:foodClass_1:2:2,items:coinClass_1:2:1,items:gemClass_1:1:1,buildingMaterials:blueprints:1:25,buildingMaterials:tools:1:25,buildingMaterials:tiles:1:25,buildingMaterials:pulley:1:25,items:redbag_1:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_1:5:2,items:stoneClass_1:5:2,items:ironClass_1:5:2,items:foodClass_1:5:2,items:coinClass_1:5:1,items:gemClass_1:2:1,buildingMaterials:blueprints:2:25,buildingMaterials:tools:2:25,buildingMaterials:tiles:2:25,buildingMaterials:pulley:2:25,items:redbag_1:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_1:10:2,items:stoneClass_1:10:2,items:ironClass_1:10:2,items:foodClass_1:10:2,items:coinClass_1:10:1,items:gemClass_1:3:1,buildingMaterials:blueprints:3:25,buildingMaterials:tools:3:25,buildingMaterials:tiles:3:25,buildingMaterials:pulley:3:25,items:redbag_1:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_1:15:2,items:stoneClass_1:15:2,items:ironClass_1:15:2,items:foodClass_1:15:2,items:coinClass_1:15:1,items:gemClass_1:4:1,buildingMaterials:blueprints:4:25,buildingMaterials:tools:4:25,buildingMaterials:tiles:4:25,buildingMaterials:pulley:4:25,items:redbag_1:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_2:1:2,items:stoneClass_2:1:2,items:ironClass_2:1:2,items:foodClass_2:1:2,items:coinClass_2:1:1,items:gemClass_1:5:1,buildingMaterials:blueprints:5:25,buildingMaterials:tools:5:25,buildingMaterials:tiles:5:25,buildingMaterials:pulley:5:25,items:redbag_1:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_2:2:2,items:stoneClass_2:2:2,items:ironClass_2:2:2,items:foodClass_2:2:2,items:coinClass_2:2:1,items:gemClass_1:6:1,buildingMaterials:blueprints:6:25,buildingMaterials:tools:6:25,buildingMaterials:tiles:6:25,buildingMaterials:pulley:6:25,items:redbag_1:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_2:3:2,items:stoneClass_2:3:2,items:ironClass_2:3:2,items:foodClass_2:3:2,items:coinClass_2:3:1,items:gemClass_1:7:1,buildingMaterials:blueprints:7:25,buildingMaterials:tools:7:25,buildingMaterials:tiles:7:25,buildingMaterials:pulley:7:25,items:redbag_1:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_2:4:2,items:stoneClass_2:4:2,items:ironClass_2:4:2,items:foodClass_2:4:2,items:coinClass_2:4:1,items:gemClass_1:8:1,buildingMaterials:blueprints:8:25,buildingMaterials:tools:8:25,buildingMaterials:tiles:8:25,buildingMaterials:pulley:8:25,items:redbag_1:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_2:5:2,items:stoneClass_2:5:2,items:ironClass_2:5:2,items:foodClass_2:5:2,items:coinClass_2:5:1,items:gemClass_1:9:1,buildingMaterials:blueprints:9:25,buildingMaterials:tools:9:25,buildingMaterials:tiles:9:25,buildingMaterials:pulley:9:25,items:redbag_1:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_2:6:2,items:stoneClass_2:6:2,items:ironClass_2:6:2,items:foodClass_2:6:2,items:coinClass_2:6:1,items:gemClass_2:1:1,buildingMaterials:blueprints:10:25,buildingMaterials:tools:10:25,buildingMaterials:tiles:10:25,buildingMaterials:pulley:10:25,items:redbag_1:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_2:7:2,items:stoneClass_2:7:2,items:ironClass_2:7:2,items:foodClass_2:7:2,items:coinClass_2:7:1,items:gemClass_1:11:1,buildingMaterials:blueprints:11:25,buildingMaterials:tools:11:25,buildingMaterials:tiles:11:25,buildingMaterials:pulley:11:25,items:redbag_1:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_2:8:2,items:stoneClass_2:8:2,items:ironClass_2:8:2,items:foodClass_2:8:2,items:coinClass_2:8:1,items:gemClass_1:12:1,buildingMaterials:blueprints:12:25,buildingMaterials:tools:12:25,buildingMaterials:tiles:12:25,buildingMaterials:pulley:12:25,items:redbag_1:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_2:9:2,items:stoneClass_2:9:2,items:ironClass_2:9:2,items:foodClass_2:9:2,items:coinClass_2:9:1,items:gemClass_1:13:1,buildingMaterials:blueprints:13:25,buildingMaterials:tools:13:25,buildingMaterials:tiles:13:25,buildingMaterials:pulley:13:25,items:redbag_1:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_3:2:2,items:stoneClass_3:2:2,items:ironClass_3:2:2,items:foodClass_3:2:2,items:coinClass_3:2:1,items:gemClass_1:14:1,buildingMaterials:blueprints:14:25,buildingMaterials:tools:14:25,buildingMaterials:tiles:14:25,buildingMaterials:pulley:14:25,items:redbag_2:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_2:12:2,items:stoneClass_2:12:2,items:ironClass_2:12:2,items:foodClass_2:12:2,items:coinClass_2:12:1,items:gemClass_1:15:1,buildingMaterials:blueprints:15:25,buildingMaterials:tools:15:25,buildingMaterials:tiles:15:25,buildingMaterials:pulley:15:25,items:redbag_2:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_2:14:2,items:stoneClass_2:14:2,items:ironClass_2:14:2,items:foodClass_2:14:2,items:coinClass_2:14:1,items:gemClass_1:4:1,buildingMaterials:blueprints:16:25,buildingMaterials:tools:16:25,buildingMaterials:tiles:16:25,buildingMaterials:pulley:16:25,items:redbag_2:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_2:16:2,items:stoneClass_2:16:2,items:ironClass_2:16:2,items:foodClass_2:16:2,items:coinClass_2:16:1,items:gemClass_1:17:1,buildingMaterials:blueprints:17:25,buildingMaterials:tools:17:25,buildingMaterials:tiles:17:25,buildingMaterials:pulley:17:25,items:redbag_2:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_2:18:2,items:stoneClass_2:18:2,items:ironClass_2:18:2,items:foodClass_2:18:2,items:coinClass_2:18:1,items:gemClass_1:18:1,buildingMaterials:blueprints:18:25,buildingMaterials:tools:18:25,buildingMaterials:tiles:18:25,buildingMaterials:pulley:18:25,items:redbag_2:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_3:4:2,items:stoneClass_3:4:2,items:ironClass_3:4:2,items:foodClass_3:4:2,items:coinClass_3:4:1,items:gemClass_1:19:1,buildingMaterials:blueprints:19:25,buildingMaterials:tools:19:25,buildingMaterials:tiles:19:25,buildingMaterials:pulley:19:25,items:redbag_2:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_4:1:2,items:stoneClass_4:1:2,items:ironClass_4:1:2,items:foodClass_4:1:2,items:coinClass_4:1:1,items:gemClass_2:2:1,buildingMaterials:blueprints:20:25,buildingMaterials:tools:20:25,buildingMaterials:tiles:20:25,buildingMaterials:pulley:20:25,items:redbag_2:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_4:7:2,items:stoneClass_4:7:2,items:ironClass_4:7:2,items:foodClass_4:7:2,items:coinClass_4:7:1,items:gemClass_2:3:1,buildingMaterials:blueprints:30:25,buildingMaterials:tools:30:25,buildingMaterials:tiles:30:25,buildingMaterials:pulley:30:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_4:8:2,items:stoneClass_4:8:2,items:ironClass_4:8:2,items:foodClass_4:8:2,items:coinClass_4:8:1,items:gemClass_1:31:1,buildingMaterials:blueprints:31:25,buildingMaterials:tools:31:25,buildingMaterials:tiles:31:25,buildingMaterials:pulley:31:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_5:3:2,items:stoneClass_5:3:2,items:ironClass_5:3:2,items:foodClass_5:3:2,items:coinClass_5:3:1,items:gemClass_1:32:1,buildingMaterials:blueprints:32:25,buildingMaterials:tools:32:25,buildingMaterials:tiles:32:25,buildingMaterials:pulley:32:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_4:6:2,items:stoneClass_4:6:2,items:ironClass_4:6:2,items:foodClass_4:6:2,items:coinClass_4:6:1,items:gemClass_1:29:1,buildingMaterials:blueprints:29:25,buildingMaterials:tools:29:25,buildingMaterials:tiles:29:25,buildingMaterials:pulley:29:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_4:5:2,items:stoneClass_4:5:2,items:ironClass_4:5:2,items:foodClass_4:5:2,items:coinClass_4:5:1,items:gemClass_1:28:1,buildingMaterials:blueprints:28:25,buildingMaterials:tools:28:25,buildingMaterials:tiles:28:25,buildingMaterials:pulley:28:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_4:4:2,items:stoneClass_4:4:2,items:ironClass_4:4:2,items:foodClass_4:4:2,items:coinClass_4:4:1,items:gemClass_1:27:1,buildingMaterials:blueprints:27:25,buildingMaterials:tools:27:25,buildingMaterials:tiles:27:25,buildingMaterials:pulley:27:25,items:redbag_3:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_4:3:2,items:stoneClass_4:3:2,items:ironClass_4:3:2,items:foodClass_4:3:2,items:coinClass_4:3:1,items:gemClass_1:26:1,buildingMaterials:blueprints:26:25,buildingMaterials:tools:26:25,buildingMaterials:tiles:26:25,buildingMaterials:pulley:26:25,items:redbag_2:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_4:2:2,items:stoneClass_4:2:2,items:ironClass_4:2:2,items:foodClass_4:2:2,items:coinClass_4:2:1,items:gemClass_1:25:1,buildingMaterials:blueprints:25:25,buildingMaterials:tools:25:25,buildingMaterials:tiles:25:25,buildingMaterials:pulley:25:25,items:redbag_2:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_3:9:2,items:stoneClass_3:9:2,items:ironClass_3:9:2,items:foodClass_3:9:2,items:coinClass_3:9:1,items:gemClass_1:24:1,buildingMaterials:blueprints:24:25,buildingMaterials:tools:24:25,buildingMaterials:tiles:24:25,buildingMaterials:pulley:24:25,items:redbag_2:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_3:8:2,items:stoneClass_3:8:2,items:ironClass_3:8:2,items:foodClass_3:8:2,items:coinClass_3:8:1,items:gemClass_1:23:1,buildingMaterials:blueprints:23:25,buildingMaterials:tools:23:25,buildingMaterials:tiles:23:25,buildingMaterials:pulley:23:25,items:redbag_2:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_3:7:2,items:stoneClass_3:7:2,items:ironClass_3:7:2,items:foodClass_3:7:2,items:coinClass_3:7:1,items:gemClass_1:22:1,buildingMaterials:blueprints:22:25,buildingMaterials:tools:22:25,buildingMaterials:tiles:22:25,buildingMaterials:pulley:22:25,items:redbag_2:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_3:6:2,items:stoneClass_3:6:2,items:ironClass_3:6:2,items:foodClass_3:6:2,items:coinClass_3:6:1,items:gemClass_1:21:1,buildingMaterials:blueprints:21:25,buildingMaterials:tools:21:25,buildingMaterials:tiles:21:25,buildingMaterials:pulley:21:25,items:redbag_2:1:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>items:woodClass_1:2:2,items:stoneClass_1:2:2,items:ironClass_1:2:2,items:foodClass_1:2:2,items:coinClass_1:2:1,items:gemClass_1:1:1,buildingMaterials:blueprints:1:25,buildingMaterials:tools:1:25,buildingMaterials:tiles:1:25,buildingMaterials:pulley:1:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:5:2,items:stoneClass_1:5:2,items:ironClass_1:5:2,items:foodClass_1:5:2,items:coinClass_1:5:1,items:gemClass_1:2:1,buildingMaterials:blueprints:2:25,buildingMaterials:tools:2:25,buildingMaterials:tiles:2:25,buildingMaterials:pulley:2:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:10:2,items:stoneClass_1:10:2,items:ironClass_1:10:2,items:foodClass_1:10:2,items:coinClass_1:10:1,items:gemClass_1:3:1,buildingMaterials:blueprints:3:25,buildingMaterials:tools:3:25,buildingMaterials:tiles:3:25,buildingMaterials:pulley:3:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:15:2,items:stoneClass_1:15:2,items:ironClass_1:15:2,items:foodClass_1:15:2,items:coinClass_1:15:1,items:gemClass_1:4:1,buildingMaterials:blueprints:4:25,buildingMaterials:tools:4:25,buildingMaterials:tiles:4:25,buildingMaterials:pulley:4:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:1:2,items:stoneClass_2:1:2,items:ironClass_2:1:2,items:foodClass_2:1:2,items:coinClass_2:1:1,items:gemClass_1:5:1,buildingMaterials:blueprints:5:25,buildingMaterials:tools:5:25,buildingMaterials:tiles:5:25,buildingMaterials:pulley:5:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:2:2,items:stoneClass_2:2:2,items:ironClass_2:2:2,items:foodClass_2:2:2,items:coinClass_2:2:1,items:gemClass_1:6:1,buildingMaterials:blueprints:6:25,buildingMaterials:tools:6:25,buildingMaterials:tiles:6:25,buildingMaterials:pulley:6:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:3:2,items:stoneClass_2:3:2,items:ironClass_2:3:2,items:foodClass_2:3:2,items:coinClass_2:3:1,items:gemClass_1:7:1,buildingMaterials:blueprints:7:25,buildingMaterials:tools:7:25,buildingMaterials:tiles:7:25,buildingMaterials:pulley:7:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:4:2,items:stoneClass_2:4:2,items:ironClass_2:4:2,items:foodClass_2:4:2,items:coinClass_2:4:1,items:gemClass_1:8:1,buildingMaterials:blueprints:8:25,buildingMaterials:tools:8:25,buildingMaterials:tiles:8:25,buildingMaterials:pulley:8:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:5:2,items:stoneClass_2:5:2,items:ironClass_2:5:2,items:foodClass_2:5:2,items:coinClass_2:5:1,items:gemClass_1:9:1,buildingMaterials:blueprints:9:25,buildingMaterials:tools:9:25,buildingMaterials:tiles:9:25,buildingMaterials:pulley:9:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:6:2,items:stoneClass_2:6:2,items:ironClass_2:6:2,items:foodClass_2:6:2,items:coinClass_2:6:1,items:gemClass_2:1:1,buildingMaterials:blueprints:10:25,buildingMaterials:tools:10:25,buildingMaterials:tiles:10:25,buildingMaterials:pulley:10:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:7:2,items:stoneClass_2:7:2,items:ironClass_2:7:2,items:foodClass_2:7:2,items:coinClass_2:7:1,items:gemClass_1:11:1,buildingMaterials:blueprints:11:25,buildingMaterials:tools:11:25,buildingMaterials:tiles:11:25,buildingMaterials:pulley:11:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:8:2,items:stoneClass_2:8:2,items:ironClass_2:8:2,items:foodClass_2:8:2,items:coinClass_2:8:1,items:gemClass_1:12:1,buildingMaterials:blueprints:12:25,buildingMaterials:tools:12:25,buildingMaterials:tiles:12:25,buildingMaterials:pulley:12:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:9:2,items:stoneClass_2:9:2,items:ironClass_2:9:2,items:foodClass_2:9:2,items:coinClass_2:9:1,items:gemClass_1:13:1,buildingMaterials:blueprints:13:25,buildingMaterials:tools:13:25,buildingMaterials:tiles:13:25,buildingMaterials:pulley:13:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:2:2,items:stoneClass_3:2:2,items:ironClass_3:2:2,items:foodClass_3:2:2,items:coinClass_3:2:1,items:gemClass_1:14:1,buildingMaterials:blueprints:14:25,buildingMaterials:tools:14:25,buildingMaterials:tiles:14:25,buildingMaterials:pulley:14:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:12:2,items:stoneClass_2:12:2,items:ironClass_2:12:2,items:foodClass_2:12:2,items:coinClass_2:12:1,items:gemClass_1:15:1,buildingMaterials:blueprints:15:25,buildingMaterials:tools:15:25,buildingMaterials:tiles:15:25,buildingMaterials:pulley:15:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:14:2,items:stoneClass_2:14:2,items:ironClass_2:14:2,items:foodClass_2:14:2,items:coinClass_2:14:1,items:gemClass_1:4:1,buildingMaterials:blueprints:16:25,buildingMaterials:tools:16:25,buildingMaterials:tiles:16:25,buildingMaterials:pulley:16:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:16:2,items:stoneClass_2:16:2,items:ironClass_2:16:2,items:foodClass_2:16:2,items:coinClass_2:16:1,items:gemClass_1:17:1,buildingMaterials:blueprints:17:25,buildingMaterials:tools:17:25,buildingMaterials:tiles:17:25,buildingMaterials:pulley:17:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:18:2,items:stoneClass_2:18:2,items:ironClass_2:18:2,items:foodClass_2:18:2,items:coinClass_2:18:1,items:gemClass_1:18:1,buildingMaterials:blueprints:18:25,buildingMaterials:tools:18:25,buildingMaterials:tiles:18:25,buildingMaterials:pulley:18:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:4:2,items:stoneClass_3:4:2,items:ironClass_3:4:2,items:foodClass_3:4:2,items:coinClass_3:4:1,items:gemClass_1:19:1,buildingMaterials:blueprints:19:25,buildingMaterials:tools:19:25,buildingMaterials:tiles:19:25,buildingMaterials:pulley:19:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:1:2,items:stoneClass_4:1:2,items:ironClass_4:1:2,items:foodClass_4:1:2,items:coinClass_4:1:1,items:gemClass_2:2:1,buildingMaterials:blueprints:20:25,buildingMaterials:tools:20:25,buildingMaterials:tiles:20:25,buildingMaterials:pulley:20:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:6:2,items:stoneClass_3:6:2,items:ironClass_3:6:2,items:foodClass_3:6:2,items:coinClass_3:6:1,items:gemClass_1:21:1,buildingMaterials:blueprints:21:25,buildingMaterials:tools:21:25,buildingMaterials:tiles:21:25,buildingMaterials:pulley:21:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:7:2,items:stoneClass_3:7:2,items:ironClass_3:7:2,items:foodClass_3:7:2,items:coinClass_3:7:1,items:gemClass_1:22:1,buildingMaterials:blueprints:22:25,buildingMaterials:tools:22:25,buildingMaterials:tiles:22:25,buildingMaterials:pulley:22:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:8:2,items:stoneClass_3:8:2,items:ironClass_3:8:2,items:foodClass_3:8:2,items:coinClass_3:8:1,items:gemClass_1:23:1,buildingMaterials:blueprints:23:25,buildingMaterials:tools:23:25,buildingMaterials:tiles:23:25,buildingMaterials:pulley:23:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:9:2,items:stoneClass_3:9:2,items:ironClass_3:9:2,items:foodClass_3:9:2,items:coinClass_3:9:1,items:gemClass_1:24:1,buildingMaterials:blueprints:24:25,buildingMaterials:tools:24:25,buildingMaterials:tiles:24:25,buildingMaterials:pulley:24:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:2:2,items:stoneClass_4:2:2,items:ironClass_4:2:2,items:foodClass_4:2:2,items:coinClass_4:2:1,items:gemClass_1:25:1,buildingMaterials:blueprints:25:25,buildingMaterials:tools:25:25,buildingMaterials:tiles:25:25,buildingMaterials:pulley:25:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:3:2,items:stoneClass_4:3:2,items:ironClass_4:3:2,items:foodClass_4:3:2,items:coinClass_4:3:1,items:gemClass_1:26:1,buildingMaterials:blueprints:26:25,buildingMaterials:tools:26:25,buildingMaterials:tiles:26:25,buildingMaterials:pulley:26:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:4:2,items:stoneClass_4:4:2,items:ironClass_4:4:2,items:foodClass_4:4:2,items:coinClass_4:4:1,items:gemClass_1:27:1,buildingMaterials:blueprints:27:25,buildingMaterials:tools:27:25,buildingMaterials:tiles:27:25,buildingMaterials:pulley:27:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:5:2,items:stoneClass_4:5:2,items:ironClass_4:5:2,items:foodClass_4:5:2,items:coinClass_4:5:1,items:gemClass_1:28:1,buildingMaterials:blueprints:28:25,buildingMaterials:tools:28:25,buildingMaterials:tiles:28:25,buildingMaterials:pulley:28:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:6:2,items:stoneClass_4:6:2,items:ironClass_4:6:2,items:foodClass_4:6:2,items:coinClass_4:6:1,items:gemClass_1:29:1,buildingMaterials:blueprints:29:25,buildingMaterials:tools:29:25,buildingMaterials:tiles:29:25,buildingMaterials:pulley:29:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:7:2,items:stoneClass_4:7:2,items:ironClass_4:7:2,items:foodClass_4:7:2,items:coinClass_4:7:1,items:gemClass_2:3:1,buildingMaterials:blueprints:30:25,buildingMaterials:tools:30:25,buildingMaterials:tiles:30:25,buildingMaterials:pulley:30:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:8:2,items:stoneClass_4:8:2,items:ironClass_4:8:2,items:foodClass_4:8:2,items:coinClass_4:8:1,items:gemClass_1:31:1,buildingMaterials:blueprints:31:25,buildingMaterials:tools:31:25,buildingMaterials:tiles:31:25,buildingMaterials:pulley:31:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:3:2,items:stoneClass_5:3:2,items:ironClass_5:3:2,items:foodClass_5:3:2,items:coinClass_5:3:1,items:gemClass_1:32:1,buildingMaterials:blueprints:32:25,buildingMaterials:tools:32:25,buildingMaterials:tiles:32:25,buildingMaterials:pulley:32:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:1:2,items:stoneClass_6:1:2,items:ironClass_6:1:2,items:foodClass_6:1:2,items:coinClass_6:1:1,items:gemClass_1:33:1,buildingMaterials:blueprints:33:25,buildingMaterials:tools:33:25,buildingMaterials:tiles:33:25,buildingMaterials:pulley:33:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:4:2,items:stoneClass_5:4:2,items:ironClass_5:4:2,items:foodClass_5:4:2,items:coinClass_5:4:1,items:gemClass_1:34:1,buildingMaterials:blueprints:34:25,buildingMaterials:tools:34:25,buildingMaterials:tiles:34:25,buildingMaterials:pulley:34:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:5:2,items:stoneClass_5:5:2,items:ironClass_5:5:2,items:foodClass_5:5:2,items:coinClass_5:5:1,items:gemClass_1:35:1,buildingMaterials:blueprints:35:25,buildingMaterials:tools:35:25,buildingMaterials:tiles:35:25,buildingMaterials:pulley:35:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:6:2,items:stoneClass_5:6:2,items:ironClass_5:6:2,items:foodClass_5:6:2,items:coinClass_5:6:1,items:gemClass_1:36:1,buildingMaterials:blueprints:36:25,buildingMaterials:tools:36:25,buildingMaterials:tiles:36:25,buildingMaterials:pulley:36:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:7:2,items:stoneClass_5:7:2,items:ironClass_5:7:2,items:foodClass_5:7:2,items:coinClass_5:7:1,items:gemClass_1:37:1,buildingMaterials:blueprints:37:25,buildingMaterials:tools:37:25,buildingMaterials:tiles:37:25,buildingMaterials:pulley:37:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:8:2,items:stoneClass_5:8:2,items:ironClass_5:8:2,items:foodClass_5:8:2,items:coinClass_5:8:1,items:gemClass_1:38:1,buildingMaterials:blueprints:38:25,buildingMaterials:tools:38:25,buildingMaterials:tiles:38:25,buildingMaterials:pulley:38:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:9:2,items:stoneClass_5:9:2,items:ironClass_5:9:2,items:foodClass_5:9:2,items:coinClass_5:9:1,items:gemClass_1:39:1,buildingMaterials:blueprints:39:25,buildingMaterials:tools:39:25,buildingMaterials:tiles:39:25,buildingMaterials:pulley:39:25</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:3:2,items:stoneClass_6:3:2,items:ironClass_6:3:2,items:foodClass_6:3:2,items:coinClass_6:3:1,items:gemClass_2:4:1,buildingMaterials:blueprints:40:25,buildingMaterials:tools:40:25,buildingMaterials:tiles:40:25,buildingMaterials:pulley:40:25</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2083,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="883">
+  <cellStyleXfs count="885">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2605,6 +2565,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3090,7 +3052,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="883">
+  <cellStyles count="885">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3534,6 +3496,7 @@
     <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="879" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="883" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3970,6 +3933,7 @@
     <cellStyle name="访问过的超链接" xfId="878" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="880" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="884" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4422,8 +4386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4737,7 +4701,7 @@
         <v>416</v>
       </c>
       <c r="B28" s="8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>419</v>
@@ -8270,8 +8234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8309,7 +8273,7 @@
         <v>488</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -8323,7 +8287,7 @@
         <v>504</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -8337,7 +8301,7 @@
         <v>489</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -8351,7 +8315,7 @@
         <v>505</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -8365,7 +8329,7 @@
         <v>490</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -8379,7 +8343,7 @@
         <v>506</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -8393,7 +8357,7 @@
         <v>507</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -8407,7 +8371,7 @@
         <v>491</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
@@ -8421,7 +8385,7 @@
         <v>492</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -8435,7 +8399,7 @@
         <v>508</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
@@ -8449,7 +8413,7 @@
         <v>509</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -8463,7 +8427,7 @@
         <v>510</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
@@ -8477,7 +8441,7 @@
         <v>511</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
@@ -8491,10 +8455,10 @@
         <v>512</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -8505,7 +8469,7 @@
         <v>493</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45">
@@ -8519,7 +8483,7 @@
         <v>513</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45">
@@ -8533,7 +8497,7 @@
         <v>514</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45">
@@ -8547,7 +8511,7 @@
         <v>515</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30">
@@ -8561,7 +8525,7 @@
         <v>516</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
@@ -8575,7 +8539,7 @@
         <v>517</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30">
@@ -8589,7 +8553,7 @@
         <v>518</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
@@ -8603,7 +8567,7 @@
         <v>519</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
@@ -8617,7 +8581,7 @@
         <v>520</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
@@ -8631,7 +8595,7 @@
         <v>521</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45">
@@ -8645,7 +8609,7 @@
         <v>522</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45">
@@ -8659,7 +8623,7 @@
         <v>523</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="45">
@@ -8673,7 +8637,7 @@
         <v>524</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45">
@@ -8687,7 +8651,7 @@
         <v>525</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45">
@@ -8701,7 +8665,7 @@
         <v>526</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45">
@@ -8715,7 +8679,7 @@
         <v>494</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="45">
@@ -8729,7 +8693,7 @@
         <v>495</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="45">
@@ -8743,7 +8707,7 @@
         <v>496</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45">
@@ -8757,7 +8721,7 @@
         <v>497</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="45">
@@ -8771,7 +8735,7 @@
         <v>498</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="45">
@@ -8785,7 +8749,7 @@
         <v>499</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45">
@@ -8799,7 +8763,7 @@
         <v>500</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -8813,7 +8777,7 @@
         <v>501</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
@@ -8827,7 +8791,7 @@
         <v>502</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
@@ -8841,7 +8805,7 @@
         <v>503</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -8855,7 +8819,7 @@
         <v>527</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="560" windowWidth="25600" windowHeight="18260" tabRatio="497"/>
+    <workbookView xWindow="1180" yWindow="0" windowWidth="36300" windowHeight="18260" tabRatio="497" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1784,124 +1784,124 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>items:woodClass_1:2:2,items:stoneClass_1:2:2,items:ironClass_1:2:2,items:foodClass_1:2:2,items:coinClass_1:2:1,items:gemClass_1:1:1,buildingMaterials:blueprints:1:25,buildingMaterials:tools:1:25,buildingMaterials:tiles:1:25,buildingMaterials:pulley:1:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:5:2,items:stoneClass_1:5:2,items:ironClass_1:5:2,items:foodClass_1:5:2,items:coinClass_1:5:1,items:gemClass_1:2:1,buildingMaterials:blueprints:2:25,buildingMaterials:tools:2:25,buildingMaterials:tiles:2:25,buildingMaterials:pulley:2:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:10:2,items:stoneClass_1:10:2,items:ironClass_1:10:2,items:foodClass_1:10:2,items:coinClass_1:10:1,items:gemClass_1:3:1,buildingMaterials:blueprints:3:25,buildingMaterials:tools:3:25,buildingMaterials:tiles:3:25,buildingMaterials:pulley:3:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:15:2,items:stoneClass_1:15:2,items:ironClass_1:15:2,items:foodClass_1:15:2,items:coinClass_1:15:1,items:gemClass_1:4:1,buildingMaterials:blueprints:4:25,buildingMaterials:tools:4:25,buildingMaterials:tiles:4:25,buildingMaterials:pulley:4:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:1:2,items:stoneClass_2:1:2,items:ironClass_2:1:2,items:foodClass_2:1:2,items:coinClass_2:1:1,items:gemClass_1:5:1,buildingMaterials:blueprints:5:25,buildingMaterials:tools:5:25,buildingMaterials:tiles:5:25,buildingMaterials:pulley:5:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:2:2,items:stoneClass_2:2:2,items:ironClass_2:2:2,items:foodClass_2:2:2,items:coinClass_2:2:1,items:gemClass_1:6:1,buildingMaterials:blueprints:6:25,buildingMaterials:tools:6:25,buildingMaterials:tiles:6:25,buildingMaterials:pulley:6:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:3:2,items:stoneClass_2:3:2,items:ironClass_2:3:2,items:foodClass_2:3:2,items:coinClass_2:3:1,items:gemClass_1:7:1,buildingMaterials:blueprints:7:25,buildingMaterials:tools:7:25,buildingMaterials:tiles:7:25,buildingMaterials:pulley:7:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:4:2,items:stoneClass_2:4:2,items:ironClass_2:4:2,items:foodClass_2:4:2,items:coinClass_2:4:1,items:gemClass_1:8:1,buildingMaterials:blueprints:8:25,buildingMaterials:tools:8:25,buildingMaterials:tiles:8:25,buildingMaterials:pulley:8:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:5:2,items:stoneClass_2:5:2,items:ironClass_2:5:2,items:foodClass_2:5:2,items:coinClass_2:5:1,items:gemClass_1:9:1,buildingMaterials:blueprints:9:25,buildingMaterials:tools:9:25,buildingMaterials:tiles:9:25,buildingMaterials:pulley:9:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:6:2,items:stoneClass_2:6:2,items:ironClass_2:6:2,items:foodClass_2:6:2,items:coinClass_2:6:1,items:gemClass_2:1:1,buildingMaterials:blueprints:10:25,buildingMaterials:tools:10:25,buildingMaterials:tiles:10:25,buildingMaterials:pulley:10:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:7:2,items:stoneClass_2:7:2,items:ironClass_2:7:2,items:foodClass_2:7:2,items:coinClass_2:7:1,items:gemClass_1:11:1,buildingMaterials:blueprints:11:25,buildingMaterials:tools:11:25,buildingMaterials:tiles:11:25,buildingMaterials:pulley:11:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:8:2,items:stoneClass_2:8:2,items:ironClass_2:8:2,items:foodClass_2:8:2,items:coinClass_2:8:1,items:gemClass_1:12:1,buildingMaterials:blueprints:12:25,buildingMaterials:tools:12:25,buildingMaterials:tiles:12:25,buildingMaterials:pulley:12:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:9:2,items:stoneClass_2:9:2,items:ironClass_2:9:2,items:foodClass_2:9:2,items:coinClass_2:9:1,items:gemClass_1:13:1,buildingMaterials:blueprints:13:25,buildingMaterials:tools:13:25,buildingMaterials:tiles:13:25,buildingMaterials:pulley:13:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:2:2,items:stoneClass_3:2:2,items:ironClass_3:2:2,items:foodClass_3:2:2,items:coinClass_3:2:1,items:gemClass_1:14:1,buildingMaterials:blueprints:14:25,buildingMaterials:tools:14:25,buildingMaterials:tiles:14:25,buildingMaterials:pulley:14:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:12:2,items:stoneClass_2:12:2,items:ironClass_2:12:2,items:foodClass_2:12:2,items:coinClass_2:12:1,items:gemClass_1:15:1,buildingMaterials:blueprints:15:25,buildingMaterials:tools:15:25,buildingMaterials:tiles:15:25,buildingMaterials:pulley:15:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:14:2,items:stoneClass_2:14:2,items:ironClass_2:14:2,items:foodClass_2:14:2,items:coinClass_2:14:1,items:gemClass_1:4:1,buildingMaterials:blueprints:16:25,buildingMaterials:tools:16:25,buildingMaterials:tiles:16:25,buildingMaterials:pulley:16:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:16:2,items:stoneClass_2:16:2,items:ironClass_2:16:2,items:foodClass_2:16:2,items:coinClass_2:16:1,items:gemClass_1:17:1,buildingMaterials:blueprints:17:25,buildingMaterials:tools:17:25,buildingMaterials:tiles:17:25,buildingMaterials:pulley:17:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:18:2,items:stoneClass_2:18:2,items:ironClass_2:18:2,items:foodClass_2:18:2,items:coinClass_2:18:1,items:gemClass_1:18:1,buildingMaterials:blueprints:18:25,buildingMaterials:tools:18:25,buildingMaterials:tiles:18:25,buildingMaterials:pulley:18:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:4:2,items:stoneClass_3:4:2,items:ironClass_3:4:2,items:foodClass_3:4:2,items:coinClass_3:4:1,items:gemClass_1:19:1,buildingMaterials:blueprints:19:25,buildingMaterials:tools:19:25,buildingMaterials:tiles:19:25,buildingMaterials:pulley:19:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:1:2,items:stoneClass_4:1:2,items:ironClass_4:1:2,items:foodClass_4:1:2,items:coinClass_4:1:1,items:gemClass_2:2:1,buildingMaterials:blueprints:20:25,buildingMaterials:tools:20:25,buildingMaterials:tiles:20:25,buildingMaterials:pulley:20:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:6:2,items:stoneClass_3:6:2,items:ironClass_3:6:2,items:foodClass_3:6:2,items:coinClass_3:6:1,items:gemClass_1:21:1,buildingMaterials:blueprints:21:25,buildingMaterials:tools:21:25,buildingMaterials:tiles:21:25,buildingMaterials:pulley:21:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:7:2,items:stoneClass_3:7:2,items:ironClass_3:7:2,items:foodClass_3:7:2,items:coinClass_3:7:1,items:gemClass_1:22:1,buildingMaterials:blueprints:22:25,buildingMaterials:tools:22:25,buildingMaterials:tiles:22:25,buildingMaterials:pulley:22:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:8:2,items:stoneClass_3:8:2,items:ironClass_3:8:2,items:foodClass_3:8:2,items:coinClass_3:8:1,items:gemClass_1:23:1,buildingMaterials:blueprints:23:25,buildingMaterials:tools:23:25,buildingMaterials:tiles:23:25,buildingMaterials:pulley:23:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:9:2,items:stoneClass_3:9:2,items:ironClass_3:9:2,items:foodClass_3:9:2,items:coinClass_3:9:1,items:gemClass_1:24:1,buildingMaterials:blueprints:24:25,buildingMaterials:tools:24:25,buildingMaterials:tiles:24:25,buildingMaterials:pulley:24:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:2:2,items:stoneClass_4:2:2,items:ironClass_4:2:2,items:foodClass_4:2:2,items:coinClass_4:2:1,items:gemClass_1:25:1,buildingMaterials:blueprints:25:25,buildingMaterials:tools:25:25,buildingMaterials:tiles:25:25,buildingMaterials:pulley:25:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:3:2,items:stoneClass_4:3:2,items:ironClass_4:3:2,items:foodClass_4:3:2,items:coinClass_4:3:1,items:gemClass_1:26:1,buildingMaterials:blueprints:26:25,buildingMaterials:tools:26:25,buildingMaterials:tiles:26:25,buildingMaterials:pulley:26:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:4:2,items:stoneClass_4:4:2,items:ironClass_4:4:2,items:foodClass_4:4:2,items:coinClass_4:4:1,items:gemClass_1:27:1,buildingMaterials:blueprints:27:25,buildingMaterials:tools:27:25,buildingMaterials:tiles:27:25,buildingMaterials:pulley:27:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:5:2,items:stoneClass_4:5:2,items:ironClass_4:5:2,items:foodClass_4:5:2,items:coinClass_4:5:1,items:gemClass_1:28:1,buildingMaterials:blueprints:28:25,buildingMaterials:tools:28:25,buildingMaterials:tiles:28:25,buildingMaterials:pulley:28:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:6:2,items:stoneClass_4:6:2,items:ironClass_4:6:2,items:foodClass_4:6:2,items:coinClass_4:6:1,items:gemClass_1:29:1,buildingMaterials:blueprints:29:25,buildingMaterials:tools:29:25,buildingMaterials:tiles:29:25,buildingMaterials:pulley:29:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:7:2,items:stoneClass_4:7:2,items:ironClass_4:7:2,items:foodClass_4:7:2,items:coinClass_4:7:1,items:gemClass_2:3:1,buildingMaterials:blueprints:30:25,buildingMaterials:tools:30:25,buildingMaterials:tiles:30:25,buildingMaterials:pulley:30:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:8:2,items:stoneClass_4:8:2,items:ironClass_4:8:2,items:foodClass_4:8:2,items:coinClass_4:8:1,items:gemClass_1:31:1,buildingMaterials:blueprints:31:25,buildingMaterials:tools:31:25,buildingMaterials:tiles:31:25,buildingMaterials:pulley:31:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:3:2,items:stoneClass_5:3:2,items:ironClass_5:3:2,items:foodClass_5:3:2,items:coinClass_5:3:1,items:gemClass_1:32:1,buildingMaterials:blueprints:32:25,buildingMaterials:tools:32:25,buildingMaterials:tiles:32:25,buildingMaterials:pulley:32:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:1:2,items:stoneClass_6:1:2,items:ironClass_6:1:2,items:foodClass_6:1:2,items:coinClass_6:1:1,items:gemClass_1:33:1,buildingMaterials:blueprints:33:25,buildingMaterials:tools:33:25,buildingMaterials:tiles:33:25,buildingMaterials:pulley:33:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:4:2,items:stoneClass_5:4:2,items:ironClass_5:4:2,items:foodClass_5:4:2,items:coinClass_5:4:1,items:gemClass_1:34:1,buildingMaterials:blueprints:34:25,buildingMaterials:tools:34:25,buildingMaterials:tiles:34:25,buildingMaterials:pulley:34:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:5:2,items:stoneClass_5:5:2,items:ironClass_5:5:2,items:foodClass_5:5:2,items:coinClass_5:5:1,items:gemClass_1:35:1,buildingMaterials:blueprints:35:25,buildingMaterials:tools:35:25,buildingMaterials:tiles:35:25,buildingMaterials:pulley:35:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:6:2,items:stoneClass_5:6:2,items:ironClass_5:6:2,items:foodClass_5:6:2,items:coinClass_5:6:1,items:gemClass_1:36:1,buildingMaterials:blueprints:36:25,buildingMaterials:tools:36:25,buildingMaterials:tiles:36:25,buildingMaterials:pulley:36:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:7:2,items:stoneClass_5:7:2,items:ironClass_5:7:2,items:foodClass_5:7:2,items:coinClass_5:7:1,items:gemClass_1:37:1,buildingMaterials:blueprints:37:25,buildingMaterials:tools:37:25,buildingMaterials:tiles:37:25,buildingMaterials:pulley:37:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:8:2,items:stoneClass_5:8:2,items:ironClass_5:8:2,items:foodClass_5:8:2,items:coinClass_5:8:1,items:gemClass_1:38:1,buildingMaterials:blueprints:38:25,buildingMaterials:tools:38:25,buildingMaterials:tiles:38:25,buildingMaterials:pulley:38:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:9:2,items:stoneClass_5:9:2,items:ironClass_5:9:2,items:foodClass_5:9:2,items:coinClass_5:9:1,items:gemClass_1:39:1,buildingMaterials:blueprints:39:25,buildingMaterials:tools:39:25,buildingMaterials:tiles:39:25,buildingMaterials:pulley:39:25</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:3:2,items:stoneClass_6:3:2,items:ironClass_6:3:2,items:foodClass_6:3:2,items:coinClass_6:3:1,items:gemClass_2:4:1,buildingMaterials:blueprints:40:25,buildingMaterials:tools:40:25,buildingMaterials:tiles:40:25,buildingMaterials:pulley:40:25</t>
+    <t>items:woodClass_1:2:50,items:stoneClass_1:2:50,items:ironClass_1:2:50,items:foodClass_1:2:50,items:coinClass_1:2:36,items:gemClass_1:1:4,buildingMaterials:blueprints:1:190,buildingMaterials:tools:1:190,buildingMaterials:tiles:1:190,buildingMaterials:pulley:1:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:5:50,items:stoneClass_1:5:50,items:ironClass_1:5:50,items:foodClass_1:5:50,items:coinClass_1:5:36,items:gemClass_1:2:4,buildingMaterials:blueprints:2:190,buildingMaterials:tools:2:190,buildingMaterials:tiles:2:190,buildingMaterials:pulley:2:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:10:50,items:stoneClass_1:10:50,items:ironClass_1:10:50,items:foodClass_1:10:50,items:coinClass_1:10:36,items:gemClass_1:3:4,buildingMaterials:blueprints:3:190,buildingMaterials:tools:3:190,buildingMaterials:tiles:3:190,buildingMaterials:pulley:3:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:15:50,items:stoneClass_1:15:50,items:ironClass_1:15:50,items:foodClass_1:15:50,items:coinClass_1:15:36,items:gemClass_1:4:4,buildingMaterials:blueprints:4:190,buildingMaterials:tools:4:190,buildingMaterials:tiles:4:190,buildingMaterials:pulley:4:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:1:50,items:stoneClass_2:1:50,items:ironClass_2:1:50,items:foodClass_2:1:50,items:coinClass_2:1:36,items:gemClass_1:5:4,buildingMaterials:blueprints:5:190,buildingMaterials:tools:5:190,buildingMaterials:tiles:5:190,buildingMaterials:pulley:5:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:2:50,items:stoneClass_2:2:50,items:ironClass_2:2:50,items:foodClass_2:2:50,items:coinClass_2:2:36,items:gemClass_1:6:4,buildingMaterials:blueprints:6:190,buildingMaterials:tools:6:190,buildingMaterials:tiles:6:190,buildingMaterials:pulley:6:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:3:50,items:stoneClass_2:3:50,items:ironClass_2:3:50,items:foodClass_2:3:50,items:coinClass_2:3:36,items:gemClass_1:7:4,buildingMaterials:blueprints:7:190,buildingMaterials:tools:7:190,buildingMaterials:tiles:7:190,buildingMaterials:pulley:7:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:4:50,items:stoneClass_2:4:50,items:ironClass_2:4:50,items:foodClass_2:4:50,items:coinClass_2:4:36,items:gemClass_1:8:4,buildingMaterials:blueprints:8:190,buildingMaterials:tools:8:190,buildingMaterials:tiles:8:190,buildingMaterials:pulley:8:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:5:50,items:stoneClass_2:5:50,items:ironClass_2:5:50,items:foodClass_2:5:50,items:coinClass_2:5:36,items:gemClass_1:9:4,buildingMaterials:blueprints:9:190,buildingMaterials:tools:9:190,buildingMaterials:tiles:9:190,buildingMaterials:pulley:9:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:6:50,items:stoneClass_2:6:50,items:ironClass_2:6:50,items:foodClass_2:6:50,items:coinClass_2:6:36,items:gemClass_2:1:4,buildingMaterials:blueprints:10:190,buildingMaterials:tools:10:190,buildingMaterials:tiles:10:190,buildingMaterials:pulley:10:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:7:50,items:stoneClass_2:7:50,items:ironClass_2:7:50,items:foodClass_2:7:50,items:coinClass_2:7:36,items:gemClass_1:11:4,buildingMaterials:blueprints:11:190,buildingMaterials:tools:11:190,buildingMaterials:tiles:11:190,buildingMaterials:pulley:11:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:8:50,items:stoneClass_2:8:50,items:ironClass_2:8:50,items:foodClass_2:8:50,items:coinClass_2:8:36,items:gemClass_1:12:4,buildingMaterials:blueprints:12:190,buildingMaterials:tools:12:190,buildingMaterials:tiles:12:190,buildingMaterials:pulley:12:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:9:50,items:stoneClass_2:9:50,items:ironClass_2:9:50,items:foodClass_2:9:50,items:coinClass_2:9:36,items:gemClass_1:13:4,buildingMaterials:blueprints:13:190,buildingMaterials:tools:13:190,buildingMaterials:tiles:13:190,buildingMaterials:pulley:13:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:2:50,items:stoneClass_3:2:50,items:ironClass_3:2:50,items:foodClass_3:2:50,items:coinClass_3:2:36,items:gemClass_1:14:4,buildingMaterials:blueprints:14:190,buildingMaterials:tools:14:190,buildingMaterials:tiles:14:190,buildingMaterials:pulley:14:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:12:50,items:stoneClass_2:12:50,items:ironClass_2:12:50,items:foodClass_2:12:50,items:coinClass_2:12:36,items:gemClass_1:15:4,buildingMaterials:blueprints:15:190,buildingMaterials:tools:15:190,buildingMaterials:tiles:15:190,buildingMaterials:pulley:15:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:14:50,items:stoneClass_2:14:50,items:ironClass_2:14:50,items:foodClass_2:14:50,items:coinClass_2:14:36,items:gemClass_1:4:4,buildingMaterials:blueprints:16:190,buildingMaterials:tools:16:190,buildingMaterials:tiles:16:190,buildingMaterials:pulley:16:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:16:50,items:stoneClass_2:16:50,items:ironClass_2:16:50,items:foodClass_2:16:50,items:coinClass_2:16:36,items:gemClass_1:17:4,buildingMaterials:blueprints:17:190,buildingMaterials:tools:17:190,buildingMaterials:tiles:17:190,buildingMaterials:pulley:17:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:18:50,items:stoneClass_2:18:50,items:ironClass_2:18:50,items:foodClass_2:18:50,items:coinClass_2:18:36,items:gemClass_1:18:4,buildingMaterials:blueprints:18:190,buildingMaterials:tools:18:190,buildingMaterials:tiles:18:190,buildingMaterials:pulley:18:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:4:50,items:stoneClass_3:4:50,items:ironClass_3:4:50,items:foodClass_3:4:50,items:coinClass_3:4:36,items:gemClass_1:19:4,buildingMaterials:blueprints:19:190,buildingMaterials:tools:19:190,buildingMaterials:tiles:19:190,buildingMaterials:pulley:19:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:1:50,items:stoneClass_4:1:50,items:ironClass_4:1:50,items:foodClass_4:1:50,items:coinClass_4:1:36,items:gemClass_2:2:4,buildingMaterials:blueprints:20:190,buildingMaterials:tools:20:190,buildingMaterials:tiles:20:190,buildingMaterials:pulley:20:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:6:50,items:stoneClass_3:6:50,items:ironClass_3:6:50,items:foodClass_3:6:50,items:coinClass_3:6:36,items:gemClass_1:21:4,buildingMaterials:blueprints:21:190,buildingMaterials:tools:21:190,buildingMaterials:tiles:21:190,buildingMaterials:pulley:21:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:7:50,items:stoneClass_3:7:50,items:ironClass_3:7:50,items:foodClass_3:7:50,items:coinClass_3:7:36,items:gemClass_1:22:4,buildingMaterials:blueprints:22:190,buildingMaterials:tools:22:190,buildingMaterials:tiles:22:190,buildingMaterials:pulley:22:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:8:50,items:stoneClass_3:8:50,items:ironClass_3:8:50,items:foodClass_3:8:50,items:coinClass_3:8:36,items:gemClass_1:23:4,buildingMaterials:blueprints:23:190,buildingMaterials:tools:23:190,buildingMaterials:tiles:23:190,buildingMaterials:pulley:23:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:9:50,items:stoneClass_3:9:50,items:ironClass_3:9:50,items:foodClass_3:9:50,items:coinClass_3:9:36,items:gemClass_1:24:4,buildingMaterials:blueprints:24:190,buildingMaterials:tools:24:190,buildingMaterials:tiles:24:190,buildingMaterials:pulley:24:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:2:50,items:stoneClass_4:2:50,items:ironClass_4:2:50,items:foodClass_4:2:50,items:coinClass_4:2:36,items:gemClass_1:25:4,buildingMaterials:blueprints:25:190,buildingMaterials:tools:25:190,buildingMaterials:tiles:25:190,buildingMaterials:pulley:25:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:3:50,items:stoneClass_4:3:50,items:ironClass_4:3:50,items:foodClass_4:3:50,items:coinClass_4:3:36,items:gemClass_1:26:4,buildingMaterials:blueprints:26:190,buildingMaterials:tools:26:190,buildingMaterials:tiles:26:190,buildingMaterials:pulley:26:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:4:50,items:stoneClass_4:4:50,items:ironClass_4:4:50,items:foodClass_4:4:50,items:coinClass_4:4:36,items:gemClass_1:27:4,buildingMaterials:blueprints:27:190,buildingMaterials:tools:27:190,buildingMaterials:tiles:27:190,buildingMaterials:pulley:27:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:5:50,items:stoneClass_4:5:50,items:ironClass_4:5:50,items:foodClass_4:5:50,items:coinClass_4:5:36,items:gemClass_1:28:4,buildingMaterials:blueprints:28:190,buildingMaterials:tools:28:190,buildingMaterials:tiles:28:190,buildingMaterials:pulley:28:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:6:50,items:stoneClass_4:6:50,items:ironClass_4:6:50,items:foodClass_4:6:50,items:coinClass_4:6:36,items:gemClass_1:29:4,buildingMaterials:blueprints:29:190,buildingMaterials:tools:29:190,buildingMaterials:tiles:29:190,buildingMaterials:pulley:29:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:7:50,items:stoneClass_4:7:50,items:ironClass_4:7:50,items:foodClass_4:7:50,items:coinClass_4:7:36,items:gemClass_2:3:4,buildingMaterials:blueprints:30:190,buildingMaterials:tools:30:190,buildingMaterials:tiles:30:190,buildingMaterials:pulley:30:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:8:50,items:stoneClass_4:8:50,items:ironClass_4:8:50,items:foodClass_4:8:50,items:coinClass_4:8:36,items:gemClass_1:31:4,buildingMaterials:blueprints:31:190,buildingMaterials:tools:31:190,buildingMaterials:tiles:31:190,buildingMaterials:pulley:31:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:3:50,items:stoneClass_5:3:50,items:ironClass_5:3:50,items:foodClass_5:3:50,items:coinClass_5:3:36,items:gemClass_1:32:4,buildingMaterials:blueprints:32:190,buildingMaterials:tools:32:190,buildingMaterials:tiles:32:190,buildingMaterials:pulley:32:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:1:50,items:stoneClass_6:1:50,items:ironClass_6:1:50,items:foodClass_6:1:50,items:coinClass_6:1:36,items:gemClass_1:33:4,buildingMaterials:blueprints:33:190,buildingMaterials:tools:33:190,buildingMaterials:tiles:33:190,buildingMaterials:pulley:33:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:4:50,items:stoneClass_5:4:50,items:ironClass_5:4:50,items:foodClass_5:4:50,items:coinClass_5:4:36,items:gemClass_1:34:4,buildingMaterials:blueprints:34:190,buildingMaterials:tools:34:190,buildingMaterials:tiles:34:190,buildingMaterials:pulley:34:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:5:50,items:stoneClass_5:5:50,items:ironClass_5:5:50,items:foodClass_5:5:50,items:coinClass_5:5:36,items:gemClass_1:35:4,buildingMaterials:blueprints:35:190,buildingMaterials:tools:35:190,buildingMaterials:tiles:35:190,buildingMaterials:pulley:35:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:6:50,items:stoneClass_5:6:50,items:ironClass_5:6:50,items:foodClass_5:6:50,items:coinClass_5:6:36,items:gemClass_1:36:4,buildingMaterials:blueprints:36:190,buildingMaterials:tools:36:190,buildingMaterials:tiles:36:190,buildingMaterials:pulley:36:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:7:50,items:stoneClass_5:7:50,items:ironClass_5:7:50,items:foodClass_5:7:50,items:coinClass_5:7:36,items:gemClass_1:37:4,buildingMaterials:blueprints:37:190,buildingMaterials:tools:37:190,buildingMaterials:tiles:37:190,buildingMaterials:pulley:37:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:8:50,items:stoneClass_5:8:50,items:ironClass_5:8:50,items:foodClass_5:8:50,items:coinClass_5:8:36,items:gemClass_1:38:4,buildingMaterials:blueprints:38:190,buildingMaterials:tools:38:190,buildingMaterials:tiles:38:190,buildingMaterials:pulley:38:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:9:50,items:stoneClass_5:9:50,items:ironClass_5:9:50,items:foodClass_5:9:50,items:coinClass_5:9:36,items:gemClass_1:39:4,buildingMaterials:blueprints:39:190,buildingMaterials:tools:39:190,buildingMaterials:tiles:39:190,buildingMaterials:pulley:39:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:3:50,items:stoneClass_6:3:50,items:ironClass_6:3:50,items:foodClass_6:3:50,items:coinClass_6:3:36,items:gemClass_2:4:4,buildingMaterials:blueprints:40:190,buildingMaterials:tools:40:190,buildingMaterials:tiles:40:190,buildingMaterials:pulley:40:190</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2083,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="885">
+  <cellStyleXfs count="889">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2565,6 +2565,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3052,7 +3056,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="885">
+  <cellStyles count="889">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3497,6 +3501,8 @@
     <cellStyle name="超链接" xfId="879" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="881" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="887" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3934,6 +3940,8 @@
     <cellStyle name="访问过的超链接" xfId="880" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="882" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="888" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4386,7 +4394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -8234,8 +8242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D44"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="0" windowWidth="36300" windowHeight="18260" tabRatio="497" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="497" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="567">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -671,18 +671,6 @@
     <t>STR_troops</t>
   </si>
   <si>
-    <t>INT_star2DeathCitizen</t>
-  </si>
-  <si>
-    <t>INT_star1Honour</t>
-  </si>
-  <si>
-    <t>INT_star2Honour</t>
-  </si>
-  <si>
-    <t>INT_star3Honour</t>
-  </si>
-  <si>
     <t>INT_playerKill_1</t>
   </si>
   <si>
@@ -1579,78 +1567,6 @@
     <t>blackDragon:4:40</t>
   </si>
   <si>
-    <t>dragon:1:1,swordsman_1:1:32,lancer_1:1:12,catapult_1:1:8,ranger_1:1:8</t>
-  </si>
-  <si>
-    <t>dragon:1:2,lancer_1:1:36,ballista_1:1:27,ranger_1:1:36,swordsman_1:1:18</t>
-  </si>
-  <si>
-    <t>dragon:1:3,catapult_1:1:56,crossbowman_1:1:84,sentinel_1:1:56,horseArcher_1:1:14</t>
-  </si>
-  <si>
-    <t>dragon:1:4,crossbowman_1:2:192,sentinel_1:2:144,horseArcher_1:2:48,ballista_1:2:24</t>
-  </si>
-  <si>
-    <t>dragon:1:6,swordsman_1:2:321,lancer_1:2:121,catapult_1:2:81,ranger_1:2:81</t>
-  </si>
-  <si>
-    <t>dragon:1:8,lancer_1:2:221,ballista_1:2:166,ranger_1:2:221,swordsman_1:2:111</t>
-  </si>
-  <si>
-    <t>dragon:2:11,catapult_1:3:361,crossbowman_1:3:541,sentinel_1:3:361,horseArcher_1:3:91</t>
-  </si>
-  <si>
-    <t>dragon:2:12,crossbowman_1:3:921,sentinel_1:3:691,horseArcher_1:3:231,ballista_1:3:116</t>
-  </si>
-  <si>
-    <t>dragon:2:13,swordsman_1:3:1144,lancer_1:3:429,catapult_1:3:286,ranger_1:3:286</t>
-  </si>
-  <si>
-    <t>dragon:2:14,lancer_2:1:688,ballista_2:1:516,ranger_2:1:688,swordsman_2:1:344</t>
-  </si>
-  <si>
-    <t>dragon:2:16,catapult_2:1:820,crossbowman_2:1:1230,sentinel_2:1:820,horseArcher_2:1:205</t>
-  </si>
-  <si>
-    <t>dragon:2:18,crossbowman_2:1:1920,sentinel_2:1:1440,horseArcher_2:1:480,ballista_2:1:240</t>
-  </si>
-  <si>
-    <t>dragon:3:21,swordsman_2:2:2240,lancer_2:2:840,catapult_2:2:560,ranger_2:2:560</t>
-  </si>
-  <si>
-    <t>dragon:3:22,lancer_2:2:1240,ballista_2:2:930,ranger_2:2:1240,swordsman_2:2:620</t>
-  </si>
-  <si>
-    <t>dragon:3:23,catapult_2:2:1400,crossbowman_2:2:2100,sentinel_2:2:1400,horseArcher_2:2:350</t>
-  </si>
-  <si>
-    <t>dragon:3:24,crossbowman_2:3:3120,sentinel_2:3:2340,horseArcher_2:3:780,ballista_2:3:390</t>
-  </si>
-  <si>
-    <t>dragon:3:26,swordsman_2:3:3440,lancer_2:3:1290,catapult_2:3:860,ranger_2:3:860</t>
-  </si>
-  <si>
-    <t>dragon:3:28,lancer_2:3:1920,ballista_2:3:1440,ranger_2:3:1920,swordsman_2:3:960</t>
-  </si>
-  <si>
-    <t>dragon:4:31,catapult_3:1:2080,crossbowman_3:1:3120,sentinel_3:1:2080,horseArcher_3:1:520</t>
-  </si>
-  <si>
-    <t>dragon:4:32,crossbowman_3:1:4560,sentinel_3:1:3420,horseArcher_3:1:1140,ballista_3:1:570</t>
-  </si>
-  <si>
-    <t>dragon:4:33,swordsman_3:2:4880,lancer_3:2:1830,catapult_3:2:1220,ranger_3:2:1220</t>
-  </si>
-  <si>
-    <t>dragon:4:34,lancer_3:2:2640,ballista_3:2:1980,ranger_3:2:2640,swordsman_3:2:1320</t>
-  </si>
-  <si>
-    <t>dragon:4:36,catapult_3:3:2880,crossbowman_3:3:4320,sentinel_3:3:2880,horseArcher_3:3:720</t>
-  </si>
-  <si>
-    <t>dragon:4:38,crossbowman_3:3:6400,sentinel_3:3:4800,horseArcher_3:3:1600,ballista_3:3:800</t>
-  </si>
-  <si>
     <t>区域地图村落多少分钟后刷新</t>
   </si>
   <si>
@@ -1663,245 +1579,329 @@
     <t>每个联盟多少个野怪</t>
   </si>
   <si>
-    <t>crossbowman_2:1:10,ballista_2:1:4,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:4,sentinel_2:1:5</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:30,ballista_2:1:12,swordsman_2:1:15;sentinel_2:1:30,lancer_2:1:12,horseArcher_2:1:8;horseArcher_2:1:15,catapult_2:1:12,sentinel_2:1:15</t>
-  </si>
-  <si>
-    <t>swordsman_2:1:50,crossbowman_2:1:38,ballista_2:1:13;lancer_2:1:25,horseArcher_2:1:19,swordsman_2:1:25;catapult_2:1:25,ballista_2:1:19,lancer_2:1:13</t>
-  </si>
-  <si>
-    <t>sentinel_2:1:120,swordsman_2:1:90,crossbowman_2:1:60;horseArcher_2:1:60,swordsman_2:1:90,catapult_2:1:30;ballista_2:1:60,lancer_2:1:45,horseArcher_2:1:30</t>
-  </si>
-  <si>
-    <t>sentinel_2:1:150,swordsman_2:1:113,crossbowman_2:1:75;horseArcher_2:1:75,swordsman_2:1:113,catapult_2:1:38;ballista_2:1:75,lancer_2:1:57,horseArcher_2:1:38</t>
-  </si>
-  <si>
-    <t>lancer_2:1:205,ranger_2:1:308,sentinel_2:1:205;catapult_2:1:205,ballista_2:1:154,swordsman_2:1:205;ranger_2:1:410,crossbowman_2:1:308,catapult_2:1:103</t>
-  </si>
-  <si>
-    <t>ranger_2:3:2360,crossbowman_2:3:1770,lancer_2:3:590;catapult_2:3:1180,ballista_2:3:885,swordsman_2:3:1180;horseArcher_2:3:1180,ranger_2:3:1770,sentinel_2:3:1180</t>
-  </si>
-  <si>
-    <t>crossbowman_3:1:2520,lancer_3:1:945,horseArcher_3:1:630;ballista_3:1:1260,swordsman_3:1:1890,sentinel_3:1:1260;lancer_3:1:1260,crossbowman_3:1:1890,sentinel_3:1:1260</t>
-  </si>
-  <si>
-    <t>crossbowman_3:1:2680,lancer_3:1:1005,horseArcher_3:1:670;ballista_3:1:1340,swordsman_3:1:2010,sentinel_3:1:1340;lancer_3:1:1340,crossbowman_3:1:2010,catapult_3:1:670</t>
-  </si>
-  <si>
-    <t>lancer_3:1:1425,horseArcher_3:1:1069,catapult_3:1:713;swordsman_3:1:2850,sentinel_3:1:2138,lancer_3:1:713;crossbowman_3:1:2850,lancer_3:1:1069,ballista_3:1:713</t>
-  </si>
-  <si>
-    <t>lancer_3:1:1505,horseArcher_3:1:1129,ballista_3:1:753;swordsman_3:1:3010,sentinel_3:1:2258,horseArcher_3:1:753;crossbowman_3:1:3010,lancer_3:1:1129,swordsman_3:1:1505</t>
-  </si>
-  <si>
-    <t>horseArcher_3:1:1580,catapult_3:1:1185,ballista_3:1:790;sentinel_3:1:3160,lancer_3:1:1185,ranger_3:1:790;ranger_3:1:3160,horseArcher_3:1:1185,sentinel_3:1:1580</t>
-  </si>
-  <si>
-    <t>horseArcher_3:2:1660,ballista_3:2:1245,catapult_3:2:830;sentinel_3:2:3320,horseArcher_3:2:830,catapult_3:2:830;ranger_3:2:3320,horseArcher_3:2:1245,catapult_3:2:830</t>
-  </si>
-  <si>
-    <t>catapult_3:2:1820,ballista_3:2:1365,sentinel_3:2:1820;lancer_3:2:1820,sentinel_3:2:1820,ballista_3:2:910;swordsman_3:2:3640,catapult_3:2:1365,lancer_3:2:910</t>
-  </si>
-  <si>
-    <t>ballista_3:2:1980,catapult_3:2:1485,sentinel_3:2:1980;horseArcher_3:2:1980,catapult_3:2:990,ranger_3:2:1980;sentinel_3:2:3960,ballista_3:2:1485,horseArcher_3:2:990</t>
-  </si>
-  <si>
-    <t>ballista_3:2:2140,swordsman_3:2:3210,ranger_3:2:2140;lancer_3:2:2140,ballista_3:2:1070,crossbowman_3:2:2140;swordsman_3:2:4280,ranger_3:2:3210,ballista_3:2:1070</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:20,ballista_2:1:8,swordsman_2:1:10;sentinel_2:1:20,lancer_2:1:8,horseArcher_2:1:5;horseArcher_2:1:10,catapult_2:1:8,sentinel_2:1:10</t>
-  </si>
-  <si>
-    <t>swordsman_2:1:40,crossbowman_2:1:30,ballista_2:1:10;lancer_2:1:20,horseArcher_2:1:15,swordsman_2:1:20;catapult_2:1:20,ballista_2:1:15,lancer_2:1:10</t>
-  </si>
-  <si>
-    <t>swordsman_2:1:80,crossbowman_2:1:60,ballista_2:1:20;lancer_2:1:40,horseArcher_2:1:30,swordsman_2:1:40;catapult_2:1:40,ballista_2:1:30,lancer_2:1:20</t>
-  </si>
-  <si>
-    <t>sentinel_2:1:100,swordsman_2:1:75,crossbowman_2:1:50;horseArcher_2:1:50,swordsman_2:1:75,catapult_2:1:25;ballista_2:1:50,lancer_2:1:38,horseArcher_2:1:25</t>
-  </si>
-  <si>
-    <t>ranger_2:1:190,sentinel_2:1:143,swordsman_2:1:95;swordsman_2:1:190,catapult_2:1:72,ballista_2:1:48;lancer_2:1:95,ranger_2:1:143,swordsman_2:1:95</t>
-  </si>
-  <si>
-    <t>ranger_2:1:230,sentinel_2:1:173,swordsman_2:1:115;swordsman_2:1:230,catapult_2:1:87,ballista_2:1:58;lancer_2:1:115,ranger_2:1:173,swordsman_2:1:115</t>
-  </si>
-  <si>
-    <t>ranger_2:1:270,sentinel_2:1:203,swordsman_2:1:135;swordsman_2:1:270,catapult_2:1:102,ballista_2:1:68;lancer_2:1:135,ranger_2:1:203,swordsman_2:1:135</t>
-  </si>
-  <si>
-    <t>lancer_2:1:155,ranger_2:1:233,sentinel_2:1:155;catapult_2:1:155,ballista_2:1:117,swordsman_2:1:155;ranger_2:1:310,crossbowman_2:1:233,catapult_2:1:78</t>
-  </si>
-  <si>
-    <t>lancer_2:1:180,ranger_2:1:270,sentinel_2:1:180;catapult_2:1:180,ballista_2:1:135,swordsman_2:1:180;ranger_2:1:360,crossbowman_2:1:270,catapult_2:1:90</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:230,lancer_2:2:173,ranger_2:2:230;ballista_2:2:230,swordsman_2:2:345,sentinel_2:2:230;crossbowman_2:2:460,horseArcher_2:2:173,ballista_2:2:115</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:270,lancer_2:2:203,ranger_2:2:270;ballista_2:2:270,swordsman_2:2:405,sentinel_2:2:270;crossbowman_2:2:540,horseArcher_2:2:203,ballista_2:2:135</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:315,lancer_2:2:237,ranger_2:2:315;ballista_2:2:315,swordsman_2:2:473,sentinel_2:2:315;crossbowman_2:2:630,horseArcher_2:2:237,ballista_2:2:158</t>
-  </si>
-  <si>
-    <t>catapult_2:2:360,horseArcher_2:2:270,lancer_2:2:180;swordsman_2:2:720,sentinel_2:2:540,ranger_2:2:360;horseArcher_2:2:360,lancer_2:2:270,swordsman_2:2:360</t>
-  </si>
-  <si>
-    <t>catapult_2:2:410,horseArcher_2:2:308,lancer_2:2:205;swordsman_2:2:820,sentinel_2:2:615,ranger_2:2:410;horseArcher_2:2:410,lancer_2:2:308,swordsman_2:2:410</t>
-  </si>
-  <si>
-    <t>catapult_2:2:460,horseArcher_2:2:345,lancer_2:2:230;swordsman_2:2:920,sentinel_2:2:690,ranger_2:2:460;horseArcher_2:2:460,lancer_2:2:345,swordsman_2:2:460</t>
-  </si>
-  <si>
-    <t>ballista_2:2:510,catapult_2:2:383,horseArcher_2:2:255;sentinel_2:2:1020,ranger_2:2:765,lancer_2:2:255;lancer_2:2:510,crossbowman_2:2:765,sentinel_2:2:510</t>
-  </si>
-  <si>
-    <t>ballista_2:2:565,catapult_2:2:424,horseArcher_2:2:283;sentinel_2:2:1130,ranger_2:2:848,lancer_2:2:283;lancer_2:2:565,crossbowman_2:2:848,sentinel_2:2:565</t>
-  </si>
-  <si>
-    <t>ballista_2:2:620,catapult_2:2:465,horseArcher_2:2:310;sentinel_2:2:1240,ranger_2:2:930,lancer_2:2:310;lancer_2:2:620,crossbowman_2:2:930,sentinel_2:2:620</t>
-  </si>
-  <si>
-    <t>swordsman_2:2:1360,sentinel_2:2:1020,ranger_2:2:680;lancer_2:2:680,horseArcher_2:2:510,catapult_2:2:340;ballista_2:2:680,swordsman_2:2:1020,horseArcher_2:2:340</t>
-  </si>
-  <si>
-    <t>swordsman_2:3:1480,sentinel_2:3:1110,ranger_2:3:740;lancer_2:3:740,horseArcher_2:3:555,catapult_2:3:370;ballista_2:3:740,swordsman_2:3:1110,horseArcher_2:3:370</t>
-  </si>
-  <si>
-    <t>sentinel_2:3:1680,ranger_2:3:1260,crossbowman_2:3:840;horseArcher_2:3:840,catapult_2:3:630,ballista_2:3:420;catapult_2:3:840,sentinel_2:3:1260,swordsman_2:3:840</t>
-  </si>
-  <si>
-    <t>sentinel_2:3:1900,ranger_2:3:1425,crossbowman_2:3:950;horseArcher_2:3:950,catapult_2:3:713,ballista_2:3:475;catapult_2:3:950,sentinel_2:3:1425,swordsman_2:3:950</t>
-  </si>
-  <si>
-    <t>ranger_2:3:2120,crossbowman_2:3:1590,lancer_2:3:530;catapult_2:3:1060,ballista_2:3:795,swordsman_2:3:1060;horseArcher_2:3:1060,ranger_2:3:1590,sentinel_2:3:1060</t>
-  </si>
-  <si>
-    <t>catapult_3:3:2295,swordsman_3:3:3443,ranger_3:3:2295;horseArcher_3:3:2295,crossbowman_3:3:2295,catapult_3:3:1148;sentinel_3:3:4590,lancer_3:3:1722,catapult_3:3:1148</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>items:woodClass_1:5:50,items:stoneClass_1:5:50,items:ironClass_1:5:50,items:foodClass_1:5:50,items:coinClass_1:5:36,items:gemClass_1:2:4,buildingMaterials:blueprints:2:190,buildingMaterials:tools:2:190,buildingMaterials:tiles:2:190,buildingMaterials:pulley:2:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:10:50,items:stoneClass_1:10:50,items:ironClass_1:10:50,items:foodClass_1:10:50,items:coinClass_1:10:36,items:gemClass_1:3:4,buildingMaterials:blueprints:3:190,buildingMaterials:tools:3:190,buildingMaterials:tiles:3:190,buildingMaterials:pulley:3:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:15:50,items:stoneClass_1:15:50,items:ironClass_1:15:50,items:foodClass_1:15:50,items:coinClass_1:15:36,items:gemClass_1:4:4,buildingMaterials:blueprints:4:190,buildingMaterials:tools:4:190,buildingMaterials:tiles:4:190,buildingMaterials:pulley:4:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:1:50,items:stoneClass_2:1:50,items:ironClass_2:1:50,items:foodClass_2:1:50,items:coinClass_2:1:36,items:gemClass_1:5:4,buildingMaterials:blueprints:5:190,buildingMaterials:tools:5:190,buildingMaterials:tiles:5:190,buildingMaterials:pulley:5:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:2:50,items:stoneClass_2:2:50,items:ironClass_2:2:50,items:foodClass_2:2:50,items:coinClass_2:2:36,items:gemClass_1:6:4,buildingMaterials:blueprints:6:190,buildingMaterials:tools:6:190,buildingMaterials:tiles:6:190,buildingMaterials:pulley:6:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:3:50,items:stoneClass_2:3:50,items:ironClass_2:3:50,items:foodClass_2:3:50,items:coinClass_2:3:36,items:gemClass_1:7:4,buildingMaterials:blueprints:7:190,buildingMaterials:tools:7:190,buildingMaterials:tiles:7:190,buildingMaterials:pulley:7:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:4:50,items:stoneClass_2:4:50,items:ironClass_2:4:50,items:foodClass_2:4:50,items:coinClass_2:4:36,items:gemClass_1:8:4,buildingMaterials:blueprints:8:190,buildingMaterials:tools:8:190,buildingMaterials:tiles:8:190,buildingMaterials:pulley:8:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:5:50,items:stoneClass_2:5:50,items:ironClass_2:5:50,items:foodClass_2:5:50,items:coinClass_2:5:36,items:gemClass_1:9:4,buildingMaterials:blueprints:9:190,buildingMaterials:tools:9:190,buildingMaterials:tiles:9:190,buildingMaterials:pulley:9:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:6:50,items:stoneClass_2:6:50,items:ironClass_2:6:50,items:foodClass_2:6:50,items:coinClass_2:6:36,items:gemClass_2:1:4,buildingMaterials:blueprints:10:190,buildingMaterials:tools:10:190,buildingMaterials:tiles:10:190,buildingMaterials:pulley:10:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:7:50,items:stoneClass_2:7:50,items:ironClass_2:7:50,items:foodClass_2:7:50,items:coinClass_2:7:36,items:gemClass_1:11:4,buildingMaterials:blueprints:11:190,buildingMaterials:tools:11:190,buildingMaterials:tiles:11:190,buildingMaterials:pulley:11:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:8:50,items:stoneClass_2:8:50,items:ironClass_2:8:50,items:foodClass_2:8:50,items:coinClass_2:8:36,items:gemClass_1:12:4,buildingMaterials:blueprints:12:190,buildingMaterials:tools:12:190,buildingMaterials:tiles:12:190,buildingMaterials:pulley:12:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:9:50,items:stoneClass_2:9:50,items:ironClass_2:9:50,items:foodClass_2:9:50,items:coinClass_2:9:36,items:gemClass_1:13:4,buildingMaterials:blueprints:13:190,buildingMaterials:tools:13:190,buildingMaterials:tiles:13:190,buildingMaterials:pulley:13:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:2:50,items:stoneClass_3:2:50,items:ironClass_3:2:50,items:foodClass_3:2:50,items:coinClass_3:2:36,items:gemClass_1:14:4,buildingMaterials:blueprints:14:190,buildingMaterials:tools:14:190,buildingMaterials:tiles:14:190,buildingMaterials:pulley:14:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:12:50,items:stoneClass_2:12:50,items:ironClass_2:12:50,items:foodClass_2:12:50,items:coinClass_2:12:36,items:gemClass_1:15:4,buildingMaterials:blueprints:15:190,buildingMaterials:tools:15:190,buildingMaterials:tiles:15:190,buildingMaterials:pulley:15:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:14:50,items:stoneClass_2:14:50,items:ironClass_2:14:50,items:foodClass_2:14:50,items:coinClass_2:14:36,items:gemClass_1:4:4,buildingMaterials:blueprints:16:190,buildingMaterials:tools:16:190,buildingMaterials:tiles:16:190,buildingMaterials:pulley:16:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:16:50,items:stoneClass_2:16:50,items:ironClass_2:16:50,items:foodClass_2:16:50,items:coinClass_2:16:36,items:gemClass_1:17:4,buildingMaterials:blueprints:17:190,buildingMaterials:tools:17:190,buildingMaterials:tiles:17:190,buildingMaterials:pulley:17:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:18:50,items:stoneClass_2:18:50,items:ironClass_2:18:50,items:foodClass_2:18:50,items:coinClass_2:18:36,items:gemClass_1:18:4,buildingMaterials:blueprints:18:190,buildingMaterials:tools:18:190,buildingMaterials:tiles:18:190,buildingMaterials:pulley:18:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:4:50,items:stoneClass_3:4:50,items:ironClass_3:4:50,items:foodClass_3:4:50,items:coinClass_3:4:36,items:gemClass_1:19:4,buildingMaterials:blueprints:19:190,buildingMaterials:tools:19:190,buildingMaterials:tiles:19:190,buildingMaterials:pulley:19:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:1:50,items:stoneClass_4:1:50,items:ironClass_4:1:50,items:foodClass_4:1:50,items:coinClass_4:1:36,items:gemClass_2:2:4,buildingMaterials:blueprints:20:190,buildingMaterials:tools:20:190,buildingMaterials:tiles:20:190,buildingMaterials:pulley:20:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:6:50,items:stoneClass_3:6:50,items:ironClass_3:6:50,items:foodClass_3:6:50,items:coinClass_3:6:36,items:gemClass_1:21:4,buildingMaterials:blueprints:21:190,buildingMaterials:tools:21:190,buildingMaterials:tiles:21:190,buildingMaterials:pulley:21:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:7:50,items:stoneClass_3:7:50,items:ironClass_3:7:50,items:foodClass_3:7:50,items:coinClass_3:7:36,items:gemClass_1:22:4,buildingMaterials:blueprints:22:190,buildingMaterials:tools:22:190,buildingMaterials:tiles:22:190,buildingMaterials:pulley:22:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:8:50,items:stoneClass_3:8:50,items:ironClass_3:8:50,items:foodClass_3:8:50,items:coinClass_3:8:36,items:gemClass_1:23:4,buildingMaterials:blueprints:23:190,buildingMaterials:tools:23:190,buildingMaterials:tiles:23:190,buildingMaterials:pulley:23:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:9:50,items:stoneClass_3:9:50,items:ironClass_3:9:50,items:foodClass_3:9:50,items:coinClass_3:9:36,items:gemClass_1:24:4,buildingMaterials:blueprints:24:190,buildingMaterials:tools:24:190,buildingMaterials:tiles:24:190,buildingMaterials:pulley:24:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:2:50,items:stoneClass_4:2:50,items:ironClass_4:2:50,items:foodClass_4:2:50,items:coinClass_4:2:36,items:gemClass_1:25:4,buildingMaterials:blueprints:25:190,buildingMaterials:tools:25:190,buildingMaterials:tiles:25:190,buildingMaterials:pulley:25:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:3:50,items:stoneClass_4:3:50,items:ironClass_4:3:50,items:foodClass_4:3:50,items:coinClass_4:3:36,items:gemClass_1:26:4,buildingMaterials:blueprints:26:190,buildingMaterials:tools:26:190,buildingMaterials:tiles:26:190,buildingMaterials:pulley:26:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:4:50,items:stoneClass_4:4:50,items:ironClass_4:4:50,items:foodClass_4:4:50,items:coinClass_4:4:36,items:gemClass_1:27:4,buildingMaterials:blueprints:27:190,buildingMaterials:tools:27:190,buildingMaterials:tiles:27:190,buildingMaterials:pulley:27:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:5:50,items:stoneClass_4:5:50,items:ironClass_4:5:50,items:foodClass_4:5:50,items:coinClass_4:5:36,items:gemClass_1:28:4,buildingMaterials:blueprints:28:190,buildingMaterials:tools:28:190,buildingMaterials:tiles:28:190,buildingMaterials:pulley:28:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:6:50,items:stoneClass_4:6:50,items:ironClass_4:6:50,items:foodClass_4:6:50,items:coinClass_4:6:36,items:gemClass_1:29:4,buildingMaterials:blueprints:29:190,buildingMaterials:tools:29:190,buildingMaterials:tiles:29:190,buildingMaterials:pulley:29:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:7:50,items:stoneClass_4:7:50,items:ironClass_4:7:50,items:foodClass_4:7:50,items:coinClass_4:7:36,items:gemClass_2:3:4,buildingMaterials:blueprints:30:190,buildingMaterials:tools:30:190,buildingMaterials:tiles:30:190,buildingMaterials:pulley:30:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:8:50,items:stoneClass_4:8:50,items:ironClass_4:8:50,items:foodClass_4:8:50,items:coinClass_4:8:36,items:gemClass_1:31:4,buildingMaterials:blueprints:31:190,buildingMaterials:tools:31:190,buildingMaterials:tiles:31:190,buildingMaterials:pulley:31:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:3:50,items:stoneClass_5:3:50,items:ironClass_5:3:50,items:foodClass_5:3:50,items:coinClass_5:3:36,items:gemClass_1:32:4,buildingMaterials:blueprints:32:190,buildingMaterials:tools:32:190,buildingMaterials:tiles:32:190,buildingMaterials:pulley:32:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:1:50,items:stoneClass_6:1:50,items:ironClass_6:1:50,items:foodClass_6:1:50,items:coinClass_6:1:36,items:gemClass_1:33:4,buildingMaterials:blueprints:33:190,buildingMaterials:tools:33:190,buildingMaterials:tiles:33:190,buildingMaterials:pulley:33:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:4:50,items:stoneClass_5:4:50,items:ironClass_5:4:50,items:foodClass_5:4:50,items:coinClass_5:4:36,items:gemClass_1:34:4,buildingMaterials:blueprints:34:190,buildingMaterials:tools:34:190,buildingMaterials:tiles:34:190,buildingMaterials:pulley:34:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:5:50,items:stoneClass_5:5:50,items:ironClass_5:5:50,items:foodClass_5:5:50,items:coinClass_5:5:36,items:gemClass_1:35:4,buildingMaterials:blueprints:35:190,buildingMaterials:tools:35:190,buildingMaterials:tiles:35:190,buildingMaterials:pulley:35:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:6:50,items:stoneClass_5:6:50,items:ironClass_5:6:50,items:foodClass_5:6:50,items:coinClass_5:6:36,items:gemClass_1:36:4,buildingMaterials:blueprints:36:190,buildingMaterials:tools:36:190,buildingMaterials:tiles:36:190,buildingMaterials:pulley:36:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:7:50,items:stoneClass_5:7:50,items:ironClass_5:7:50,items:foodClass_5:7:50,items:coinClass_5:7:36,items:gemClass_1:37:4,buildingMaterials:blueprints:37:190,buildingMaterials:tools:37:190,buildingMaterials:tiles:37:190,buildingMaterials:pulley:37:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:8:50,items:stoneClass_5:8:50,items:ironClass_5:8:50,items:foodClass_5:8:50,items:coinClass_5:8:36,items:gemClass_1:38:4,buildingMaterials:blueprints:38:190,buildingMaterials:tools:38:190,buildingMaterials:tiles:38:190,buildingMaterials:pulley:38:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:9:50,items:stoneClass_5:9:50,items:ironClass_5:9:50,items:foodClass_5:9:50,items:coinClass_5:9:36,items:gemClass_1:39:4,buildingMaterials:blueprints:39:190,buildingMaterials:tools:39:190,buildingMaterials:tiles:39:190,buildingMaterials:pulley:39:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:3:50,items:stoneClass_6:3:50,items:ironClass_6:3:50,items:foodClass_6:3:50,items:coinClass_6:3:36,items:gemClass_2:4:4,buildingMaterials:blueprints:40:190,buildingMaterials:tools:40:190,buildingMaterials:tiles:40:190,buildingMaterials:pulley:40:190</t>
+  </si>
+  <si>
+    <t>maxTroopPerDragon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每条龙最多带多少部队</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon:1:1,swordsman_1:1:16,lancer_1:1:8,swordsman_1:1:16,catapult_1:1:4,ranger_1:1:8,catapult_1:1:4</t>
+  </si>
+  <si>
+    <t>dragon:1:2,lancer_1:1:18,ballista_1:1:18,lancer_1:1:18,ranger_1:1:18,swordsman_1:1:18,ranger_1:1:18</t>
+  </si>
+  <si>
+    <t>dragon:1:3,catapult_1:1:28,crossbowman_1:1:56,catapult_1:1:28,sentinel_1:1:28,horseArcher_1:1:14,sentinel_1:1:28</t>
+  </si>
+  <si>
+    <t>dragon:1:4,crossbowman_1:2:96,sentinel_1:2:96,crossbowman_1:2:96,horseArcher_1:2:24,ballista_1:2:24,horseArcher_1:2:24</t>
+  </si>
+  <si>
+    <t>dragon:1:6,swordsman_1:2:161,lancer_1:2:81,swordsman_1:2:161,catapult_1:2:41,ranger_1:2:81,catapult_1:2:41</t>
+  </si>
+  <si>
+    <t>dragon:1:8,lancer_1:2:111,ballista_1:2:111,lancer_1:2:111,ranger_1:2:111,swordsman_1:2:111,ranger_1:2:111</t>
+  </si>
+  <si>
+    <t>dragon:2:11,catapult_1:3:181,crossbowman_1:3:361,catapult_1:3:181,sentinel_1:3:181,horseArcher_1:3:91,sentinel_1:3:181</t>
+  </si>
+  <si>
+    <t>dragon:2:12,crossbowman_1:3:461,sentinel_1:3:461,crossbowman_1:3:461,horseArcher_1:3:116,ballista_1:3:116,horseArcher_1:3:116</t>
+  </si>
+  <si>
+    <t>dragon:2:13,swordsman_1:3:572,lancer_1:3:286,swordsman_1:3:572,catapult_1:3:143,ranger_1:3:286,catapult_1:3:143</t>
+  </si>
+  <si>
+    <t>dragon:2:14,lancer_2:1:344,ballista_2:1:344,lancer_2:1:344,ranger_2:1:344,swordsman_2:1:344,ranger_2:1:344</t>
+  </si>
+  <si>
+    <t>dragon:2:16,catapult_2:1:410,crossbowman_2:1:820,catapult_2:1:410,sentinel_2:1:410,horseArcher_2:1:205,sentinel_2:1:410</t>
+  </si>
+  <si>
+    <t>dragon:2:18,crossbowman_2:1:960,sentinel_2:1:960,crossbowman_2:1:960,horseArcher_2:1:240,ballista_2:1:240,horseArcher_2:1:240</t>
+  </si>
+  <si>
+    <t>dragon:3:21,swordsman_2:2:1120,lancer_2:2:560,swordsman_2:2:1120,catapult_2:2:280,ranger_2:2:560,catapult_2:2:280</t>
+  </si>
+  <si>
+    <t>dragon:3:22,lancer_2:2:620,ballista_2:2:620,lancer_2:2:620,ranger_2:2:620,swordsman_2:2:620,ranger_2:2:620</t>
+  </si>
+  <si>
+    <t>dragon:3:23,catapult_2:2:700,crossbowman_2:2:1400,catapult_2:2:700,sentinel_2:2:700,horseArcher_2:2:350,sentinel_2:2:700</t>
+  </si>
+  <si>
+    <t>dragon:3:24,crossbowman_2:3:1560,sentinel_2:3:1560,crossbowman_2:3:1560,horseArcher_2:3:390,ballista_2:3:390,horseArcher_2:3:390</t>
+  </si>
+  <si>
+    <t>dragon:3:26,swordsman_2:3:1720,lancer_2:3:860,swordsman_2:3:1720,catapult_2:3:430,ranger_2:3:860,catapult_2:3:430</t>
+  </si>
+  <si>
+    <t>dragon:3:28,lancer_2:3:960,ballista_2:3:960,lancer_2:3:960,ranger_2:3:960,swordsman_2:3:960,ranger_2:3:960</t>
+  </si>
+  <si>
+    <t>dragon:4:31,catapult_3:1:1040,crossbowman_3:1:2080,catapult_3:1:1040,sentinel_3:1:1040,horseArcher_3:1:520,sentinel_3:1:1040</t>
+  </si>
+  <si>
+    <t>dragon:4:32,crossbowman_3:1:2280,sentinel_3:1:2280,crossbowman_3:1:2280,horseArcher_3:1:570,ballista_3:1:570,horseArcher_3:1:570</t>
+  </si>
+  <si>
+    <t>dragon:4:33,swordsman_3:2:2440,lancer_3:2:1220,swordsman_3:2:2440,catapult_3:2:610,ranger_3:2:1220,catapult_3:2:610</t>
+  </si>
+  <si>
+    <t>dragon:4:34,lancer_3:2:1320,ballista_3:2:1320,lancer_3:2:1320,ranger_3:2:1320,swordsman_3:2:1320,ranger_3:2:1320</t>
+  </si>
+  <si>
+    <t>dragon:4:36,catapult_3:3:1440,crossbowman_3:3:2880,catapult_3:3:1440,sentinel_3:3:1440,horseArcher_3:3:720,sentinel_3:3:1440</t>
+  </si>
+  <si>
+    <t>dragon:4:38,crossbowman_3:3:3200,sentinel_3:3:3200,crossbowman_3:3:3200,horseArcher_3:3:800,ballista_3:3:800,horseArcher_3:3:800</t>
   </si>
   <si>
     <t>items:woodClass_1:2:50,items:stoneClass_1:2:50,items:ironClass_1:2:50,items:foodClass_1:2:50,items:coinClass_1:2:36,items:gemClass_1:1:4,buildingMaterials:blueprints:1:190,buildingMaterials:tools:1:190,buildingMaterials:tiles:1:190,buildingMaterials:pulley:1:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:5:50,items:stoneClass_1:5:50,items:ironClass_1:5:50,items:foodClass_1:5:50,items:coinClass_1:5:36,items:gemClass_1:2:4,buildingMaterials:blueprints:2:190,buildingMaterials:tools:2:190,buildingMaterials:tiles:2:190,buildingMaterials:pulley:2:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:10:50,items:stoneClass_1:10:50,items:ironClass_1:10:50,items:foodClass_1:10:50,items:coinClass_1:10:36,items:gemClass_1:3:4,buildingMaterials:blueprints:3:190,buildingMaterials:tools:3:190,buildingMaterials:tiles:3:190,buildingMaterials:pulley:3:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:15:50,items:stoneClass_1:15:50,items:ironClass_1:15:50,items:foodClass_1:15:50,items:coinClass_1:15:36,items:gemClass_1:4:4,buildingMaterials:blueprints:4:190,buildingMaterials:tools:4:190,buildingMaterials:tiles:4:190,buildingMaterials:pulley:4:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:1:50,items:stoneClass_2:1:50,items:ironClass_2:1:50,items:foodClass_2:1:50,items:coinClass_2:1:36,items:gemClass_1:5:4,buildingMaterials:blueprints:5:190,buildingMaterials:tools:5:190,buildingMaterials:tiles:5:190,buildingMaterials:pulley:5:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:2:50,items:stoneClass_2:2:50,items:ironClass_2:2:50,items:foodClass_2:2:50,items:coinClass_2:2:36,items:gemClass_1:6:4,buildingMaterials:blueprints:6:190,buildingMaterials:tools:6:190,buildingMaterials:tiles:6:190,buildingMaterials:pulley:6:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:3:50,items:stoneClass_2:3:50,items:ironClass_2:3:50,items:foodClass_2:3:50,items:coinClass_2:3:36,items:gemClass_1:7:4,buildingMaterials:blueprints:7:190,buildingMaterials:tools:7:190,buildingMaterials:tiles:7:190,buildingMaterials:pulley:7:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:4:50,items:stoneClass_2:4:50,items:ironClass_2:4:50,items:foodClass_2:4:50,items:coinClass_2:4:36,items:gemClass_1:8:4,buildingMaterials:blueprints:8:190,buildingMaterials:tools:8:190,buildingMaterials:tiles:8:190,buildingMaterials:pulley:8:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:5:50,items:stoneClass_2:5:50,items:ironClass_2:5:50,items:foodClass_2:5:50,items:coinClass_2:5:36,items:gemClass_1:9:4,buildingMaterials:blueprints:9:190,buildingMaterials:tools:9:190,buildingMaterials:tiles:9:190,buildingMaterials:pulley:9:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:6:50,items:stoneClass_2:6:50,items:ironClass_2:6:50,items:foodClass_2:6:50,items:coinClass_2:6:36,items:gemClass_2:1:4,buildingMaterials:blueprints:10:190,buildingMaterials:tools:10:190,buildingMaterials:tiles:10:190,buildingMaterials:pulley:10:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:7:50,items:stoneClass_2:7:50,items:ironClass_2:7:50,items:foodClass_2:7:50,items:coinClass_2:7:36,items:gemClass_1:11:4,buildingMaterials:blueprints:11:190,buildingMaterials:tools:11:190,buildingMaterials:tiles:11:190,buildingMaterials:pulley:11:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:8:50,items:stoneClass_2:8:50,items:ironClass_2:8:50,items:foodClass_2:8:50,items:coinClass_2:8:36,items:gemClass_1:12:4,buildingMaterials:blueprints:12:190,buildingMaterials:tools:12:190,buildingMaterials:tiles:12:190,buildingMaterials:pulley:12:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:9:50,items:stoneClass_2:9:50,items:ironClass_2:9:50,items:foodClass_2:9:50,items:coinClass_2:9:36,items:gemClass_1:13:4,buildingMaterials:blueprints:13:190,buildingMaterials:tools:13:190,buildingMaterials:tiles:13:190,buildingMaterials:pulley:13:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:2:50,items:stoneClass_3:2:50,items:ironClass_3:2:50,items:foodClass_3:2:50,items:coinClass_3:2:36,items:gemClass_1:14:4,buildingMaterials:blueprints:14:190,buildingMaterials:tools:14:190,buildingMaterials:tiles:14:190,buildingMaterials:pulley:14:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:12:50,items:stoneClass_2:12:50,items:ironClass_2:12:50,items:foodClass_2:12:50,items:coinClass_2:12:36,items:gemClass_1:15:4,buildingMaterials:blueprints:15:190,buildingMaterials:tools:15:190,buildingMaterials:tiles:15:190,buildingMaterials:pulley:15:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:14:50,items:stoneClass_2:14:50,items:ironClass_2:14:50,items:foodClass_2:14:50,items:coinClass_2:14:36,items:gemClass_1:4:4,buildingMaterials:blueprints:16:190,buildingMaterials:tools:16:190,buildingMaterials:tiles:16:190,buildingMaterials:pulley:16:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:16:50,items:stoneClass_2:16:50,items:ironClass_2:16:50,items:foodClass_2:16:50,items:coinClass_2:16:36,items:gemClass_1:17:4,buildingMaterials:blueprints:17:190,buildingMaterials:tools:17:190,buildingMaterials:tiles:17:190,buildingMaterials:pulley:17:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:18:50,items:stoneClass_2:18:50,items:ironClass_2:18:50,items:foodClass_2:18:50,items:coinClass_2:18:36,items:gemClass_1:18:4,buildingMaterials:blueprints:18:190,buildingMaterials:tools:18:190,buildingMaterials:tiles:18:190,buildingMaterials:pulley:18:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:4:50,items:stoneClass_3:4:50,items:ironClass_3:4:50,items:foodClass_3:4:50,items:coinClass_3:4:36,items:gemClass_1:19:4,buildingMaterials:blueprints:19:190,buildingMaterials:tools:19:190,buildingMaterials:tiles:19:190,buildingMaterials:pulley:19:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:1:50,items:stoneClass_4:1:50,items:ironClass_4:1:50,items:foodClass_4:1:50,items:coinClass_4:1:36,items:gemClass_2:2:4,buildingMaterials:blueprints:20:190,buildingMaterials:tools:20:190,buildingMaterials:tiles:20:190,buildingMaterials:pulley:20:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:6:50,items:stoneClass_3:6:50,items:ironClass_3:6:50,items:foodClass_3:6:50,items:coinClass_3:6:36,items:gemClass_1:21:4,buildingMaterials:blueprints:21:190,buildingMaterials:tools:21:190,buildingMaterials:tiles:21:190,buildingMaterials:pulley:21:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:7:50,items:stoneClass_3:7:50,items:ironClass_3:7:50,items:foodClass_3:7:50,items:coinClass_3:7:36,items:gemClass_1:22:4,buildingMaterials:blueprints:22:190,buildingMaterials:tools:22:190,buildingMaterials:tiles:22:190,buildingMaterials:pulley:22:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:8:50,items:stoneClass_3:8:50,items:ironClass_3:8:50,items:foodClass_3:8:50,items:coinClass_3:8:36,items:gemClass_1:23:4,buildingMaterials:blueprints:23:190,buildingMaterials:tools:23:190,buildingMaterials:tiles:23:190,buildingMaterials:pulley:23:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:9:50,items:stoneClass_3:9:50,items:ironClass_3:9:50,items:foodClass_3:9:50,items:coinClass_3:9:36,items:gemClass_1:24:4,buildingMaterials:blueprints:24:190,buildingMaterials:tools:24:190,buildingMaterials:tiles:24:190,buildingMaterials:pulley:24:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:2:50,items:stoneClass_4:2:50,items:ironClass_4:2:50,items:foodClass_4:2:50,items:coinClass_4:2:36,items:gemClass_1:25:4,buildingMaterials:blueprints:25:190,buildingMaterials:tools:25:190,buildingMaterials:tiles:25:190,buildingMaterials:pulley:25:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:3:50,items:stoneClass_4:3:50,items:ironClass_4:3:50,items:foodClass_4:3:50,items:coinClass_4:3:36,items:gemClass_1:26:4,buildingMaterials:blueprints:26:190,buildingMaterials:tools:26:190,buildingMaterials:tiles:26:190,buildingMaterials:pulley:26:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:4:50,items:stoneClass_4:4:50,items:ironClass_4:4:50,items:foodClass_4:4:50,items:coinClass_4:4:36,items:gemClass_1:27:4,buildingMaterials:blueprints:27:190,buildingMaterials:tools:27:190,buildingMaterials:tiles:27:190,buildingMaterials:pulley:27:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:5:50,items:stoneClass_4:5:50,items:ironClass_4:5:50,items:foodClass_4:5:50,items:coinClass_4:5:36,items:gemClass_1:28:4,buildingMaterials:blueprints:28:190,buildingMaterials:tools:28:190,buildingMaterials:tiles:28:190,buildingMaterials:pulley:28:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:6:50,items:stoneClass_4:6:50,items:ironClass_4:6:50,items:foodClass_4:6:50,items:coinClass_4:6:36,items:gemClass_1:29:4,buildingMaterials:blueprints:29:190,buildingMaterials:tools:29:190,buildingMaterials:tiles:29:190,buildingMaterials:pulley:29:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:7:50,items:stoneClass_4:7:50,items:ironClass_4:7:50,items:foodClass_4:7:50,items:coinClass_4:7:36,items:gemClass_2:3:4,buildingMaterials:blueprints:30:190,buildingMaterials:tools:30:190,buildingMaterials:tiles:30:190,buildingMaterials:pulley:30:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:8:50,items:stoneClass_4:8:50,items:ironClass_4:8:50,items:foodClass_4:8:50,items:coinClass_4:8:36,items:gemClass_1:31:4,buildingMaterials:blueprints:31:190,buildingMaterials:tools:31:190,buildingMaterials:tiles:31:190,buildingMaterials:pulley:31:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:3:50,items:stoneClass_5:3:50,items:ironClass_5:3:50,items:foodClass_5:3:50,items:coinClass_5:3:36,items:gemClass_1:32:4,buildingMaterials:blueprints:32:190,buildingMaterials:tools:32:190,buildingMaterials:tiles:32:190,buildingMaterials:pulley:32:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:1:50,items:stoneClass_6:1:50,items:ironClass_6:1:50,items:foodClass_6:1:50,items:coinClass_6:1:36,items:gemClass_1:33:4,buildingMaterials:blueprints:33:190,buildingMaterials:tools:33:190,buildingMaterials:tiles:33:190,buildingMaterials:pulley:33:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:4:50,items:stoneClass_5:4:50,items:ironClass_5:4:50,items:foodClass_5:4:50,items:coinClass_5:4:36,items:gemClass_1:34:4,buildingMaterials:blueprints:34:190,buildingMaterials:tools:34:190,buildingMaterials:tiles:34:190,buildingMaterials:pulley:34:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:5:50,items:stoneClass_5:5:50,items:ironClass_5:5:50,items:foodClass_5:5:50,items:coinClass_5:5:36,items:gemClass_1:35:4,buildingMaterials:blueprints:35:190,buildingMaterials:tools:35:190,buildingMaterials:tiles:35:190,buildingMaterials:pulley:35:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:6:50,items:stoneClass_5:6:50,items:ironClass_5:6:50,items:foodClass_5:6:50,items:coinClass_5:6:36,items:gemClass_1:36:4,buildingMaterials:blueprints:36:190,buildingMaterials:tools:36:190,buildingMaterials:tiles:36:190,buildingMaterials:pulley:36:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:7:50,items:stoneClass_5:7:50,items:ironClass_5:7:50,items:foodClass_5:7:50,items:coinClass_5:7:36,items:gemClass_1:37:4,buildingMaterials:blueprints:37:190,buildingMaterials:tools:37:190,buildingMaterials:tiles:37:190,buildingMaterials:pulley:37:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:8:50,items:stoneClass_5:8:50,items:ironClass_5:8:50,items:foodClass_5:8:50,items:coinClass_5:8:36,items:gemClass_1:38:4,buildingMaterials:blueprints:38:190,buildingMaterials:tools:38:190,buildingMaterials:tiles:38:190,buildingMaterials:pulley:38:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:9:50,items:stoneClass_5:9:50,items:ironClass_5:9:50,items:foodClass_5:9:50,items:coinClass_5:9:36,items:gemClass_1:39:4,buildingMaterials:blueprints:39:190,buildingMaterials:tools:39:190,buildingMaterials:tiles:39:190,buildingMaterials:pulley:39:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:3:50,items:stoneClass_6:3:50,items:ironClass_6:3:50,items:foodClass_6:3:50,items:coinClass_6:3:36,items:gemClass_2:4:4,buildingMaterials:blueprints:40:190,buildingMaterials:tools:40:190,buildingMaterials:tiles:40:190,buildingMaterials:pulley:40:190</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_2:1:20,crossbowman_2:1:20,ballista_2:1:10,ballista_2:1:10,crossbowman_2:1:20,swordsman_2:1:20;lancer_2:1:10,horseArcher_2:1:10,swordsman_2:1:20,swordsman_2:1:20,horseArcher_2:1:10,lancer_2:1:10;catapult_2:1:10,ballista_2:1:10,lancer_2:1:10,lancer_2:1:10,ballista_2:1:10,catapult_2:1:10</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:60,swordsman_2:1:60,crossbowman_2:1:60,crossbowman_2:1:60,swordsman_2:1:60,sentinel_2:1:60;horseArcher_2:1:30,swordsman_2:1:60,catapult_2:1:30,catapult_2:1:30,swordsman_2:1:60,horseArcher_2:1:30;ballista_2:1:30,lancer_2:1:30,horseArcher_2:1:30,horseArcher_2:1:30,lancer_2:1:30,ballista_2:1:30</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:5,ballista_2:1:3,swordsman_2:1:5,swordsman_2:1:5,ballista_2:1:3,crossbowman_2:1:5;sentinel_2:1:5,lancer_2:1:3,horseArcher_2:1:3,horseArcher_2:1:3,lancer_2:1:3,sentinel_2:1:5;horseArcher_2:1:3,catapult_2:1:3,sentinel_2:1:5,sentinel_2:1:5,catapult_2:1:3,horseArcher_2:1:3</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:5,swordsman_2:1:10,swordsman_2:1:10,ballista_2:1:5,crossbowman_2:1:10;sentinel_2:1:10,lancer_2:1:5,horseArcher_2:1:5,horseArcher_2:1:5,lancer_2:1:5,sentinel_2:1:10;horseArcher_2:1:5,catapult_2:1:5,sentinel_2:1:10,sentinel_2:1:10,catapult_2:1:5,horseArcher_2:1:5</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:15,ballista_2:1:8,swordsman_2:1:15,swordsman_2:1:15,ballista_2:1:8,crossbowman_2:1:15;sentinel_2:1:15,lancer_2:1:8,horseArcher_2:1:8,horseArcher_2:1:8,lancer_2:1:8,sentinel_2:1:15;horseArcher_2:1:8,catapult_2:1:8,sentinel_2:1:15,sentinel_2:1:15,catapult_2:1:8,horseArcher_2:1:8</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:25,crossbowman_2:1:25,ballista_2:1:13,ballista_2:1:13,crossbowman_2:1:25,swordsman_2:1:25;lancer_2:1:13,horseArcher_2:1:13,swordsman_2:1:25,swordsman_2:1:25,horseArcher_2:1:13,lancer_2:1:13;catapult_2:1:13,ballista_2:1:13,lancer_2:1:13,lancer_2:1:13,ballista_2:1:13,catapult_2:1:13</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:40,crossbowman_2:1:40,ballista_2:1:20,ballista_2:1:20,crossbowman_2:1:40,swordsman_2:1:40;lancer_2:1:20,horseArcher_2:1:20,swordsman_2:1:40,swordsman_2:1:40,horseArcher_2:1:20,lancer_2:1:20;catapult_2:1:20,ballista_2:1:20,lancer_2:1:20,lancer_2:1:20,ballista_2:1:20,catapult_2:1:20</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:50,swordsman_2:1:50,crossbowman_2:1:50,crossbowman_2:1:50,swordsman_2:1:50,sentinel_2:1:50;horseArcher_2:1:25,swordsman_2:1:50,catapult_2:1:25,catapult_2:1:25,swordsman_2:1:50,horseArcher_2:1:25;ballista_2:1:25,lancer_2:1:25,horseArcher_2:1:25,horseArcher_2:1:25,lancer_2:1:25,ballista_2:1:25</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:75,swordsman_2:1:75,crossbowman_2:1:75,crossbowman_2:1:75,swordsman_2:1:75,sentinel_2:1:75;horseArcher_2:1:38,swordsman_2:1:75,catapult_2:1:38,catapult_2:1:38,swordsman_2:1:75,horseArcher_2:1:38;ballista_2:1:38,lancer_2:1:38,horseArcher_2:1:38,horseArcher_2:1:38,lancer_2:1:38,ballista_2:1:38</t>
+  </si>
+  <si>
+    <t>ranger_2:1:95,sentinel_2:1:95,swordsman_2:1:95,swordsman_2:1:95,sentinel_2:1:95,ranger_2:1:95;swordsman_2:1:95,catapult_2:1:48,ballista_2:1:48,ballista_2:1:48,catapult_2:1:48,swordsman_2:1:95;lancer_2:1:48,ranger_2:1:95,swordsman_2:1:95,swordsman_2:1:95,ranger_2:1:95,lancer_2:1:48</t>
+  </si>
+  <si>
+    <t>ranger_2:1:115,sentinel_2:1:115,swordsman_2:1:115,swordsman_2:1:115,sentinel_2:1:115,ranger_2:1:115;swordsman_2:1:115,catapult_2:1:58,ballista_2:1:58,ballista_2:1:58,catapult_2:1:58,swordsman_2:1:115;lancer_2:1:58,ranger_2:1:115,swordsman_2:1:115,swordsman_2:1:115,ranger_2:1:115,lancer_2:1:58</t>
+  </si>
+  <si>
+    <t>ranger_2:1:135,sentinel_2:1:135,swordsman_2:1:135,swordsman_2:1:135,sentinel_2:1:135,ranger_2:1:135;swordsman_2:1:135,catapult_2:1:68,ballista_2:1:68,ballista_2:1:68,catapult_2:1:68,swordsman_2:1:135;lancer_2:1:68,ranger_2:1:135,swordsman_2:1:135,swordsman_2:1:135,ranger_2:1:135,lancer_2:1:68</t>
+  </si>
+  <si>
+    <t>lancer_2:1:78,ranger_2:1:155,sentinel_2:1:155,sentinel_2:1:155,ranger_2:1:155,lancer_2:1:78;catapult_2:1:78,ballista_2:1:78,swordsman_2:1:155,swordsman_2:1:155,ballista_2:1:78,catapult_2:1:78;ranger_2:1:155,crossbowman_2:1:155,catapult_2:1:78,catapult_2:1:78,crossbowman_2:1:155,ranger_2:1:155</t>
+  </si>
+  <si>
+    <t>lancer_2:1:90,ranger_2:1:180,sentinel_2:1:180,sentinel_2:1:180,ranger_2:1:180,lancer_2:1:90;catapult_2:1:90,ballista_2:1:90,swordsman_2:1:180,swordsman_2:1:180,ballista_2:1:90,catapult_2:1:90;ranger_2:1:180,crossbowman_2:1:180,catapult_2:1:90,catapult_2:1:90,crossbowman_2:1:180,ranger_2:1:180</t>
+  </si>
+  <si>
+    <t>lancer_2:1:103,ranger_2:1:205,sentinel_2:1:205,sentinel_2:1:205,ranger_2:1:205,lancer_2:1:103;catapult_2:1:103,ballista_2:1:103,swordsman_2:1:205,swordsman_2:1:205,ballista_2:1:103,catapult_2:1:103;ranger_2:1:205,crossbowman_2:1:205,catapult_2:1:103,catapult_2:1:103,crossbowman_2:1:205,ranger_2:1:205</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:115,lancer_2:2:115,ranger_2:2:230,ranger_2:2:230,lancer_2:2:115,horseArcher_2:2:115;ballista_2:2:115,swordsman_2:2:230,sentinel_2:2:230,sentinel_2:2:230,swordsman_2:2:230,ballista_2:2:115;crossbowman_2:2:230,horseArcher_2:2:115,ballista_2:2:115,ballista_2:2:115,horseArcher_2:2:115,crossbowman_2:2:230</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:135,lancer_2:2:135,ranger_2:2:270,ranger_2:2:270,lancer_2:2:135,horseArcher_2:2:135;ballista_2:2:135,swordsman_2:2:270,sentinel_2:2:270,sentinel_2:2:270,swordsman_2:2:270,ballista_2:2:135;crossbowman_2:2:270,horseArcher_2:2:135,ballista_2:2:135,ballista_2:2:135,horseArcher_2:2:135,crossbowman_2:2:270</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:158,lancer_2:2:158,ranger_2:2:315,ranger_2:2:315,lancer_2:2:158,horseArcher_2:2:158;ballista_2:2:158,swordsman_2:2:315,sentinel_2:2:315,sentinel_2:2:315,swordsman_2:2:315,ballista_2:2:158;crossbowman_2:2:315,horseArcher_2:2:158,ballista_2:2:158,ballista_2:2:158,horseArcher_2:2:158,crossbowman_2:2:315</t>
+  </si>
+  <si>
+    <t>catapult_2:2:180,horseArcher_2:2:180,lancer_2:2:180,lancer_2:2:180,horseArcher_2:2:180,catapult_2:2:180;swordsman_2:2:360,sentinel_2:2:360,ranger_2:2:360,ranger_2:2:360,sentinel_2:2:360,swordsman_2:2:360;horseArcher_2:2:180,lancer_2:2:180,swordsman_2:2:360,swordsman_2:2:360,lancer_2:2:180,horseArcher_2:2:180</t>
+  </si>
+  <si>
+    <t>catapult_2:2:205,horseArcher_2:2:205,lancer_2:2:205,lancer_2:2:205,horseArcher_2:2:205,catapult_2:2:205;swordsman_2:2:410,sentinel_2:2:410,ranger_2:2:410,ranger_2:2:410,sentinel_2:2:410,swordsman_2:2:410;horseArcher_2:2:205,lancer_2:2:205,swordsman_2:2:410,swordsman_2:2:410,lancer_2:2:205,horseArcher_2:2:205</t>
+  </si>
+  <si>
+    <t>catapult_2:2:230,horseArcher_2:2:230,lancer_2:2:230,lancer_2:2:230,horseArcher_2:2:230,catapult_2:2:230;swordsman_2:2:460,sentinel_2:2:460,ranger_2:2:460,ranger_2:2:460,sentinel_2:2:460,swordsman_2:2:460;horseArcher_2:2:230,lancer_2:2:230,swordsman_2:2:460,swordsman_2:2:460,lancer_2:2:230,horseArcher_2:2:230</t>
+  </si>
+  <si>
+    <t>ballista_2:2:255,catapult_2:2:255,horseArcher_2:2:255,horseArcher_2:2:255,catapult_2:2:255,ballista_2:2:255;sentinel_2:2:510,ranger_2:2:510,lancer_2:2:255,lancer_2:2:255,ranger_2:2:510,sentinel_2:2:510;lancer_2:2:255,crossbowman_2:2:510,sentinel_2:2:510,sentinel_2:2:510,crossbowman_2:2:510,lancer_2:2:255</t>
+  </si>
+  <si>
+    <t>ballista_2:2:283,catapult_2:2:283,horseArcher_2:2:283,horseArcher_2:2:283,catapult_2:2:283,ballista_2:2:283;sentinel_2:2:565,ranger_2:2:565,lancer_2:2:283,lancer_2:2:283,ranger_2:2:565,sentinel_2:2:565;lancer_2:2:283,crossbowman_2:2:565,sentinel_2:2:565,sentinel_2:2:565,crossbowman_2:2:565,lancer_2:2:283</t>
+  </si>
+  <si>
+    <t>ballista_2:2:310,catapult_2:2:310,horseArcher_2:2:310,horseArcher_2:2:310,catapult_2:2:310,ballista_2:2:310;sentinel_2:2:620,ranger_2:2:620,lancer_2:2:310,lancer_2:2:310,ranger_2:2:620,sentinel_2:2:620;lancer_2:2:310,crossbowman_2:2:620,sentinel_2:2:620,sentinel_2:2:620,crossbowman_2:2:620,lancer_2:2:310</t>
+  </si>
+  <si>
+    <t>swordsman_2:2:680,sentinel_2:2:680,ranger_2:2:680,ranger_2:2:680,sentinel_2:2:680,swordsman_2:2:680;lancer_2:2:340,horseArcher_2:2:340,catapult_2:2:340,catapult_2:2:340,horseArcher_2:2:340,lancer_2:2:340;ballista_2:2:340,swordsman_2:2:680,horseArcher_2:2:340,horseArcher_2:2:340,swordsman_2:2:680,ballista_2:2:340</t>
+  </si>
+  <si>
+    <t>swordsman_2:3:740,sentinel_2:3:740,ranger_2:3:740,ranger_2:3:740,sentinel_2:3:740,swordsman_2:3:740;lancer_2:3:370,horseArcher_2:3:370,catapult_2:3:370,catapult_2:3:370,horseArcher_2:3:370,lancer_2:3:370;ballista_2:3:370,swordsman_2:3:740,horseArcher_2:3:370,horseArcher_2:3:370,swordsman_2:3:740,ballista_2:3:370</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:840,ranger_2:3:840,crossbowman_2:3:840,crossbowman_2:3:840,ranger_2:3:840,sentinel_2:3:840;horseArcher_2:3:420,catapult_2:3:420,ballista_2:3:420,ballista_2:3:420,catapult_2:3:420,horseArcher_2:3:420;catapult_2:3:420,sentinel_2:3:840,swordsman_2:3:840,swordsman_2:3:840,sentinel_2:3:840,catapult_2:3:420</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:950,ranger_2:3:950,crossbowman_2:3:950,crossbowman_2:3:950,ranger_2:3:950,sentinel_2:3:950;horseArcher_2:3:475,catapult_2:3:475,ballista_2:3:475,ballista_2:3:475,catapult_2:3:475,horseArcher_2:3:475;catapult_2:3:475,sentinel_2:3:950,swordsman_2:3:950,swordsman_2:3:950,sentinel_2:3:950,catapult_2:3:475</t>
+  </si>
+  <si>
+    <t>ranger_2:3:1060,crossbowman_2:3:1060,lancer_2:3:530,lancer_2:3:530,crossbowman_2:3:1060,ranger_2:3:1060;catapult_2:3:530,ballista_2:3:530,swordsman_2:3:1060,swordsman_2:3:1060,ballista_2:3:530,catapult_2:3:530;horseArcher_2:3:530,ranger_2:3:1060,sentinel_2:3:1060,sentinel_2:3:1060,ranger_2:3:1060,horseArcher_2:3:530</t>
+  </si>
+  <si>
+    <t>ranger_2:3:1180,crossbowman_2:3:1180,lancer_2:3:590,lancer_2:3:590,crossbowman_2:3:1180,ranger_2:3:1180;catapult_2:3:590,ballista_2:3:590,swordsman_2:3:1180,swordsman_2:3:1180,ballista_2:3:590,catapult_2:3:590;horseArcher_2:3:590,ranger_2:3:1180,sentinel_2:3:1180,sentinel_2:3:1180,ranger_2:3:1180,horseArcher_2:3:590</t>
+  </si>
+  <si>
+    <t>crossbowman_3:1:1260,lancer_3:1:630,horseArcher_3:1:630,horseArcher_3:1:630,lancer_3:1:630,crossbowman_3:1:1260;ballista_3:1:630,swordsman_3:1:1260,sentinel_3:1:1260,sentinel_3:1:1260,swordsman_3:1:1260,ballista_3:1:630;lancer_3:1:630,crossbowman_3:1:1260,sentinel_3:1:1260,sentinel_3:1:1260,crossbowman_3:1:1260,lancer_3:1:630</t>
+  </si>
+  <si>
+    <t>crossbowman_3:1:1340,lancer_3:1:670,horseArcher_3:1:670,horseArcher_3:1:670,lancer_3:1:670,crossbowman_3:1:1340;ballista_3:1:670,swordsman_3:1:1340,sentinel_3:1:1340,sentinel_3:1:1340,swordsman_3:1:1340,ballista_3:1:670;lancer_3:1:670,crossbowman_3:1:1340,catapult_3:1:670,catapult_3:1:670,crossbowman_3:1:1340,lancer_3:1:670</t>
+  </si>
+  <si>
+    <t>lancer_3:1:713,horseArcher_3:1:713,catapult_3:1:713,catapult_3:1:713,horseArcher_3:1:713,lancer_3:1:713;swordsman_3:1:1425,sentinel_3:1:1425,lancer_3:1:713,lancer_3:1:713,sentinel_3:1:1425,swordsman_3:1:1425;crossbowman_3:1:1425,lancer_3:1:713,ballista_3:1:713,ballista_3:1:713,lancer_3:1:713,crossbowman_3:1:1425</t>
+  </si>
+  <si>
+    <t>lancer_3:1:753,horseArcher_3:1:753,ballista_3:1:753,ballista_3:1:753,horseArcher_3:1:753,lancer_3:1:753;swordsman_3:1:1505,sentinel_3:1:1505,horseArcher_3:1:753,horseArcher_3:1:753,sentinel_3:1:1505,swordsman_3:1:1505;crossbowman_3:1:1505,lancer_3:1:753,swordsman_3:1:1505,swordsman_3:1:1505,lancer_3:1:753,crossbowman_3:1:1505</t>
+  </si>
+  <si>
+    <t>horseArcher_3:1:790,catapult_3:1:790,ballista_3:1:790,ballista_3:1:790,catapult_3:1:790,horseArcher_3:1:790;sentinel_3:1:1580,lancer_3:1:790,ranger_3:1:790,ranger_3:1:790,lancer_3:1:790,sentinel_3:1:1580;ranger_3:1:1580,horseArcher_3:1:790,sentinel_3:1:1580,sentinel_3:1:1580,horseArcher_3:1:790,ranger_3:1:1580</t>
+  </si>
+  <si>
+    <t>horseArcher_3:2:830,ballista_3:2:830,catapult_3:2:830,catapult_3:2:830,ballista_3:2:830,horseArcher_3:2:830;sentinel_3:2:1660,horseArcher_3:2:830,catapult_3:2:830,catapult_3:2:830,horseArcher_3:2:830,sentinel_3:2:1660;ranger_3:2:1660,horseArcher_3:2:830,catapult_3:2:830,catapult_3:2:830,horseArcher_3:2:830,ranger_3:2:1660</t>
+  </si>
+  <si>
+    <t>catapult_3:2:910,ballista_3:2:910,sentinel_3:2:1820,sentinel_3:2:1820,ballista_3:2:910,catapult_3:2:910;lancer_3:2:910,sentinel_3:2:1820,ballista_3:2:910,ballista_3:2:910,sentinel_3:2:1820,lancer_3:2:910;swordsman_3:2:1820,catapult_3:2:910,lancer_3:2:910,lancer_3:2:910,catapult_3:2:910,swordsman_3:2:1820</t>
+  </si>
+  <si>
+    <t>ballista_3:2:990,catapult_3:2:990,sentinel_3:2:1980,sentinel_3:2:1980,catapult_3:2:990,ballista_3:2:990;horseArcher_3:2:990,catapult_3:2:990,ranger_3:2:1980,ranger_3:2:1980,catapult_3:2:990,horseArcher_3:2:990;sentinel_3:2:1980,ballista_3:2:990,horseArcher_3:2:990,horseArcher_3:2:990,ballista_3:2:990,sentinel_3:2:1980</t>
+  </si>
+  <si>
+    <t>ballista_3:2:1070,swordsman_3:2:2140,ranger_3:2:2140,ranger_3:2:2140,swordsman_3:2:2140,ballista_3:2:1070;lancer_3:2:1070,ballista_3:2:1070,crossbowman_3:2:2140,crossbowman_3:2:2140,ballista_3:2:1070,lancer_3:2:1070;swordsman_3:2:2140,ranger_3:2:2140,ballista_3:2:1070,ballista_3:2:1070,ranger_3:2:2140,swordsman_3:2:2140</t>
+  </si>
+  <si>
+    <t>catapult_3:3:1148,swordsman_3:3:2295,ranger_3:3:2295,ranger_3:3:2295,swordsman_3:3:2295,catapult_3:3:1148;horseArcher_3:3:1148,crossbowman_3:3:2295,catapult_3:3:1148,catapult_3:3:1148,crossbowman_3:3:2295,horseArcher_3:3:1148;sentinel_3:3:2295,lancer_3:3:1148,catapult_3:3:1148,catapult_3:3:1148,lancer_3:3:1148,sentinel_3:3:2295</t>
+  </si>
+  <si>
+    <t>INT_honour</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2083,7 +2083,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="889">
+  <cellStyleXfs count="897">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2977,8 +2977,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3046,17 +3054,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="889">
+  <cellStyles count="897">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3503,6 +3505,10 @@
     <cellStyle name="超链接" xfId="883" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="885" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="895" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3942,6 +3948,10 @@
     <cellStyle name="访问过的超链接" xfId="884" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="886" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="896" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4392,10 +4402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4533,7 +4543,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="8">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>73</v>
@@ -4541,178 +4551,189 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>499</v>
       </c>
       <c r="B13" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B14" s="8">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B15" s="8">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="8">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="B19" s="8">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B20" s="8">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>485</v>
+        <v>273</v>
       </c>
       <c r="B21" s="8">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>484</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="B22" s="8">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>281</v>
+        <v>458</v>
       </c>
       <c r="B23" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>280</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="B24" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B25" s="8">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>415</v>
+        <v>335</v>
       </c>
       <c r="B26" s="8">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>414</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B27" s="8">
-        <v>20000</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B28" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B29" s="8">
         <v>100</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>419</v>
+      <c r="C29" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -4815,7 +4836,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>46</v>
@@ -4839,7 +4860,7 @@
         <v>32</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>35</v>
@@ -4851,7 +4872,7 @@
         <v>40</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="20" customHeight="1">
@@ -6094,7 +6115,7 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>144</v>
@@ -6117,7 +6138,7 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>144</v>
@@ -6140,7 +6161,7 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>144</v>
@@ -6163,7 +6184,7 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>144</v>
@@ -6186,7 +6207,7 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>144</v>
@@ -6209,7 +6230,7 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>144</v>
@@ -6253,10 +6274,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6265,19 +6286,19 @@
     <col min="6" max="7" width="24.1640625" style="12" customWidth="1"/>
     <col min="8" max="8" width="21.1640625" style="12" customWidth="1"/>
     <col min="9" max="9" width="91.5" style="12" customWidth="1"/>
-    <col min="10" max="17" width="20.6640625" style="12"/>
-    <col min="18" max="18" width="22.83203125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="34.5" style="12" customWidth="1"/>
+    <col min="10" max="14" width="20.6640625" style="12"/>
+    <col min="15" max="15" width="22.83203125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="34.5" style="12" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" style="12"/>
+    <col min="18" max="18" width="28" style="12" customWidth="1"/>
+    <col min="19" max="19" width="29.6640625" style="12" customWidth="1"/>
     <col min="20" max="20" width="20.6640625" style="12"/>
-    <col min="21" max="21" width="28" style="12" customWidth="1"/>
-    <col min="22" max="22" width="29.6640625" style="12" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" style="12"/>
-    <col min="24" max="24" width="32.5" style="12" customWidth="1"/>
-    <col min="25" max="25" width="31.5" style="12" customWidth="1"/>
-    <col min="26" max="16384" width="20.6640625" style="12"/>
+    <col min="21" max="21" width="32.5" style="12" customWidth="1"/>
+    <col min="22" max="22" width="31.5" style="12" customWidth="1"/>
+    <col min="23" max="16384" width="20.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="13" customFormat="1" ht="30">
+    <row r="1" spans="1:22" s="13" customFormat="1" ht="30">
       <c r="A1" s="14" t="s">
         <v>159</v>
       </c>
@@ -6306,55 +6327,46 @@
         <v>167</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="45">
+    </row>
+    <row r="2" spans="1:22" ht="45">
       <c r="A2" s="15" t="s">
         <v>145</v>
       </c>
@@ -6379,59 +6391,50 @@
       <c r="H2" s="16">
         <v>160</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>460</v>
+      <c r="I2" s="17" t="s">
+        <v>501</v>
       </c>
       <c r="J2" s="15">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K2" s="15">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="L2" s="15">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="M2" s="15">
-        <v>800</v>
-      </c>
-      <c r="N2" s="15">
-        <v>15</v>
-      </c>
-      <c r="O2" s="15">
-        <v>20</v>
-      </c>
-      <c r="P2" s="15">
         <v>35</v>
       </c>
+      <c r="N2" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>338</v>
+      </c>
       <c r="Q2" s="17" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="45">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="45">
       <c r="A3" s="15" t="s">
         <v>146</v>
       </c>
@@ -6456,59 +6459,50 @@
       <c r="H3" s="16">
         <v>360</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>461</v>
+      <c r="I3" s="17" t="s">
+        <v>502</v>
       </c>
       <c r="J3" s="15">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K3" s="15">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="L3" s="15">
-        <v>1200</v>
+        <v>45</v>
       </c>
       <c r="M3" s="15">
-        <v>1600</v>
-      </c>
-      <c r="N3" s="15">
-        <v>30</v>
-      </c>
-      <c r="O3" s="15">
-        <v>45</v>
-      </c>
-      <c r="P3" s="15">
         <v>75</v>
       </c>
+      <c r="N3" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>341</v>
+      </c>
       <c r="Q3" s="17" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="45">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="45">
       <c r="A4" s="15" t="s">
         <v>90</v>
       </c>
@@ -6533,59 +6527,50 @@
       <c r="H4" s="16">
         <v>560</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>462</v>
+      <c r="I4" s="17" t="s">
+        <v>503</v>
       </c>
       <c r="J4" s="15">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K4" s="15">
-        <v>1200</v>
+        <v>50</v>
       </c>
       <c r="L4" s="15">
-        <v>1800</v>
+        <v>75</v>
       </c>
       <c r="M4" s="15">
-        <v>2400</v>
-      </c>
-      <c r="N4" s="15">
-        <v>50</v>
-      </c>
-      <c r="O4" s="15">
-        <v>75</v>
-      </c>
-      <c r="P4" s="15">
         <v>115</v>
       </c>
+      <c r="N4" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>344</v>
+      </c>
       <c r="Q4" s="17" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="U4" s="17" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="X4" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="45">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="45">
       <c r="A5" s="15" t="s">
         <v>91</v>
       </c>
@@ -6610,59 +6595,50 @@
       <c r="H5" s="16">
         <v>1440</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>463</v>
+      <c r="I5" s="17" t="s">
+        <v>504</v>
       </c>
       <c r="J5" s="15">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="K5" s="15">
-        <v>1600</v>
+        <v>130</v>
       </c>
       <c r="L5" s="15">
-        <v>2400</v>
+        <v>195</v>
       </c>
       <c r="M5" s="15">
-        <v>3200</v>
-      </c>
-      <c r="N5" s="15">
-        <v>130</v>
-      </c>
-      <c r="O5" s="15">
-        <v>195</v>
-      </c>
-      <c r="P5" s="15">
         <v>300</v>
       </c>
+      <c r="N5" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>347</v>
+      </c>
       <c r="Q5" s="17" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="U5" s="17" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="45">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="45">
       <c r="A6" s="15" t="s">
         <v>89</v>
       </c>
@@ -6687,59 +6663,50 @@
       <c r="H6" s="16">
         <v>2402</v>
       </c>
-      <c r="I6" s="23" t="s">
-        <v>464</v>
+      <c r="I6" s="17" t="s">
+        <v>505</v>
       </c>
       <c r="J6" s="15">
-        <v>1210</v>
+        <v>3000</v>
       </c>
       <c r="K6" s="15">
-        <v>2000</v>
+        <v>215</v>
       </c>
       <c r="L6" s="15">
-        <v>3000</v>
+        <v>325</v>
       </c>
       <c r="M6" s="15">
-        <v>4000</v>
-      </c>
-      <c r="N6" s="15">
-        <v>215</v>
-      </c>
-      <c r="O6" s="15">
-        <v>325</v>
-      </c>
-      <c r="P6" s="15">
         <v>505</v>
       </c>
+      <c r="N6" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>350</v>
+      </c>
       <c r="Q6" s="17" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="U6" s="17" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="45">
       <c r="A7" s="15" t="s">
         <v>92</v>
       </c>
@@ -6764,59 +6731,50 @@
       <c r="H7" s="16">
         <v>3302</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>465</v>
+      <c r="I7" s="17" t="s">
+        <v>506</v>
       </c>
       <c r="J7" s="15">
-        <v>1660</v>
+        <v>3600</v>
       </c>
       <c r="K7" s="15">
-        <v>2400</v>
+        <v>295</v>
       </c>
       <c r="L7" s="15">
-        <v>3600</v>
+        <v>445</v>
       </c>
       <c r="M7" s="15">
-        <v>4800</v>
-      </c>
-      <c r="N7" s="15">
-        <v>295</v>
-      </c>
-      <c r="O7" s="15">
-        <v>445</v>
-      </c>
-      <c r="P7" s="15">
         <v>695</v>
       </c>
+      <c r="N7" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>353</v>
+      </c>
       <c r="Q7" s="17" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="U7" s="17" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="W7" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="X7" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="45">
       <c r="A8" s="15" t="s">
         <v>147</v>
       </c>
@@ -6841,59 +6799,50 @@
       <c r="H8" s="16">
         <v>7202</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>466</v>
+      <c r="I8" s="17" t="s">
+        <v>507</v>
       </c>
       <c r="J8" s="15">
-        <v>3610</v>
+        <v>4200</v>
       </c>
       <c r="K8" s="15">
-        <v>2800</v>
+        <v>645</v>
       </c>
       <c r="L8" s="15">
-        <v>4200</v>
+        <v>970</v>
       </c>
       <c r="M8" s="15">
-        <v>5600</v>
-      </c>
-      <c r="N8" s="15">
-        <v>645</v>
-      </c>
-      <c r="O8" s="15">
-        <v>970</v>
-      </c>
-      <c r="P8" s="15">
         <v>1515</v>
       </c>
+      <c r="N8" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="Q8" s="17" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="W8" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="X8" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="45">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="45">
       <c r="A9" s="15" t="s">
         <v>93</v>
       </c>
@@ -6918,59 +6867,50 @@
       <c r="H9" s="16">
         <v>9202</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>467</v>
+      <c r="I9" s="17" t="s">
+        <v>508</v>
       </c>
       <c r="J9" s="15">
-        <v>4610</v>
+        <v>4800</v>
       </c>
       <c r="K9" s="15">
-        <v>3200</v>
+        <v>825</v>
       </c>
       <c r="L9" s="15">
-        <v>4800</v>
+        <v>1240</v>
       </c>
       <c r="M9" s="15">
-        <v>6400</v>
-      </c>
-      <c r="N9" s="15">
-        <v>825</v>
-      </c>
-      <c r="O9" s="15">
-        <v>1240</v>
-      </c>
-      <c r="P9" s="15">
         <v>1935</v>
       </c>
+      <c r="N9" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>359</v>
+      </c>
       <c r="Q9" s="17" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="T9" s="17" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="W9" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="X9" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y9" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="45">
       <c r="A10" s="15" t="s">
         <v>88</v>
       </c>
@@ -6995,59 +6935,50 @@
       <c r="H10" s="16">
         <v>11440</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>468</v>
+      <c r="I10" s="17" t="s">
+        <v>509</v>
       </c>
       <c r="J10" s="15">
-        <v>5720</v>
+        <v>6000</v>
       </c>
       <c r="K10" s="15">
-        <v>4000</v>
+        <v>1030</v>
       </c>
       <c r="L10" s="15">
-        <v>6000</v>
+        <v>1545</v>
       </c>
       <c r="M10" s="15">
-        <v>8000</v>
-      </c>
-      <c r="N10" s="15">
-        <v>1030</v>
-      </c>
-      <c r="O10" s="15">
-        <v>1545</v>
-      </c>
-      <c r="P10" s="15">
         <v>2400</v>
       </c>
+      <c r="N10" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>362</v>
+      </c>
       <c r="Q10" s="17" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="X10" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y10" s="17" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="45">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="45">
       <c r="A11" s="15" t="s">
         <v>87</v>
       </c>
@@ -7072,59 +7003,50 @@
       <c r="H11" s="16">
         <v>17200</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>469</v>
+      <c r="I11" s="17" t="s">
+        <v>510</v>
       </c>
       <c r="J11" s="15">
-        <v>6880</v>
+        <v>7200</v>
       </c>
       <c r="K11" s="15">
-        <v>4800</v>
+        <v>1545</v>
       </c>
       <c r="L11" s="15">
-        <v>7200</v>
+        <v>2320</v>
       </c>
       <c r="M11" s="15">
-        <v>9600</v>
-      </c>
-      <c r="N11" s="15">
-        <v>1545</v>
-      </c>
-      <c r="O11" s="15">
-        <v>2320</v>
-      </c>
-      <c r="P11" s="15">
         <v>3610</v>
       </c>
+      <c r="N11" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>365</v>
+      </c>
       <c r="Q11" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U11" s="17" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="W11" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="X11" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y11" s="17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="45">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="45">
       <c r="A12" s="15" t="s">
         <v>86</v>
       </c>
@@ -7149,59 +7071,50 @@
       <c r="H12" s="16">
         <v>20500</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>470</v>
+      <c r="I12" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="J12" s="15">
-        <v>8200</v>
+        <v>9600</v>
       </c>
       <c r="K12" s="15">
-        <v>6400</v>
+        <v>1845</v>
       </c>
       <c r="L12" s="15">
-        <v>9600</v>
+        <v>2765</v>
       </c>
       <c r="M12" s="15">
-        <v>12800</v>
-      </c>
-      <c r="N12" s="15">
-        <v>1845</v>
-      </c>
-      <c r="O12" s="15">
-        <v>2765</v>
-      </c>
-      <c r="P12" s="15">
         <v>4305</v>
       </c>
+      <c r="N12" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>368</v>
+      </c>
       <c r="Q12" s="17" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y12" s="17" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="45">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="45">
       <c r="A13" s="15" t="s">
         <v>94</v>
       </c>
@@ -7226,59 +7139,50 @@
       <c r="H13" s="16">
         <v>24000</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>471</v>
+      <c r="I13" s="17" t="s">
+        <v>512</v>
       </c>
       <c r="J13" s="15">
-        <v>9600</v>
+        <v>12600</v>
       </c>
       <c r="K13" s="15">
-        <v>8400</v>
+        <v>2160</v>
       </c>
       <c r="L13" s="15">
-        <v>12600</v>
+        <v>3240</v>
       </c>
       <c r="M13" s="15">
-        <v>16800</v>
-      </c>
-      <c r="N13" s="15">
-        <v>2160</v>
-      </c>
-      <c r="O13" s="15">
-        <v>3240</v>
-      </c>
-      <c r="P13" s="15">
         <v>5040</v>
       </c>
+      <c r="N13" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>371</v>
+      </c>
       <c r="Q13" s="17" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="U13" s="17" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="W13" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="X13" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y13" s="17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="45">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="45">
       <c r="A14" s="15" t="s">
         <v>151</v>
       </c>
@@ -7303,59 +7207,50 @@
       <c r="H14" s="16">
         <v>33600</v>
       </c>
-      <c r="I14" s="23" t="s">
-        <v>472</v>
+      <c r="I14" s="17" t="s">
+        <v>513</v>
       </c>
       <c r="J14" s="15">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="K14" s="15">
-        <v>12000</v>
+        <v>3020</v>
       </c>
       <c r="L14" s="15">
-        <v>18000</v>
+        <v>4535</v>
       </c>
       <c r="M14" s="15">
-        <v>24000</v>
-      </c>
-      <c r="N14" s="15">
-        <v>3020</v>
-      </c>
-      <c r="O14" s="15">
-        <v>4535</v>
-      </c>
-      <c r="P14" s="15">
         <v>7055</v>
       </c>
+      <c r="N14" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="Q14" s="17" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="W14" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="X14" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y14" s="17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="45">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="45">
       <c r="A15" s="15" t="s">
         <v>95</v>
       </c>
@@ -7380,59 +7275,50 @@
       <c r="H15" s="16">
         <v>37200</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>473</v>
+      <c r="I15" s="17" t="s">
+        <v>514</v>
       </c>
       <c r="J15" s="15">
-        <v>15500</v>
+        <v>22500</v>
       </c>
       <c r="K15" s="15">
-        <v>15000</v>
+        <v>3345</v>
       </c>
       <c r="L15" s="15">
-        <v>22500</v>
+        <v>5020</v>
       </c>
       <c r="M15" s="15">
-        <v>30000</v>
-      </c>
-      <c r="N15" s="15">
-        <v>3345</v>
-      </c>
-      <c r="O15" s="15">
-        <v>5020</v>
-      </c>
-      <c r="P15" s="15">
         <v>7810</v>
       </c>
+      <c r="N15" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>377</v>
+      </c>
       <c r="Q15" s="17" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="U15" s="17" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="W15" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="X15" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y15" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="45">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="45">
       <c r="A16" s="15" t="s">
         <v>85</v>
       </c>
@@ -7457,59 +7343,50 @@
       <c r="H16" s="16">
         <v>42000</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>474</v>
+      <c r="I16" s="17" t="s">
+        <v>515</v>
       </c>
       <c r="J16" s="15">
-        <v>17500</v>
+        <v>31500</v>
       </c>
       <c r="K16" s="15">
-        <v>21000</v>
+        <v>3780</v>
       </c>
       <c r="L16" s="15">
-        <v>31500</v>
+        <v>5670</v>
       </c>
       <c r="M16" s="15">
-        <v>42000</v>
-      </c>
-      <c r="N16" s="15">
-        <v>3780</v>
-      </c>
-      <c r="O16" s="15">
-        <v>5670</v>
-      </c>
-      <c r="P16" s="15">
         <v>8820</v>
       </c>
+      <c r="N16" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>380</v>
+      </c>
       <c r="Q16" s="17" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="W16" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y16" s="17" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="45">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="45">
       <c r="A17" s="15" t="s">
         <v>84</v>
       </c>
@@ -7534,59 +7411,50 @@
       <c r="H17" s="16">
         <v>54600</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>475</v>
+      <c r="I17" s="17" t="s">
+        <v>516</v>
       </c>
       <c r="J17" s="15">
-        <v>19500</v>
+        <v>38400</v>
       </c>
       <c r="K17" s="15">
-        <v>25600</v>
+        <v>4910</v>
       </c>
       <c r="L17" s="15">
-        <v>38400</v>
+        <v>7370</v>
       </c>
       <c r="M17" s="15">
-        <v>51200</v>
-      </c>
-      <c r="N17" s="15">
-        <v>4910</v>
-      </c>
-      <c r="O17" s="15">
-        <v>7370</v>
-      </c>
-      <c r="P17" s="15">
         <v>11465</v>
       </c>
+      <c r="N17" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>383</v>
+      </c>
       <c r="Q17" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="U17" s="17" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="W17" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="X17" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y17" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="45">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="45">
       <c r="A18" s="15" t="s">
         <v>83</v>
       </c>
@@ -7611,59 +7479,50 @@
       <c r="H18" s="16">
         <v>60200</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>476</v>
+      <c r="I18" s="17" t="s">
+        <v>517</v>
       </c>
       <c r="J18" s="15">
-        <v>21500</v>
+        <v>56100</v>
       </c>
       <c r="K18" s="15">
-        <v>37400</v>
+        <v>5415</v>
       </c>
       <c r="L18" s="15">
-        <v>56100</v>
+        <v>8125</v>
       </c>
       <c r="M18" s="15">
-        <v>74800</v>
-      </c>
-      <c r="N18" s="15">
-        <v>5415</v>
-      </c>
-      <c r="O18" s="15">
-        <v>8125</v>
-      </c>
-      <c r="P18" s="15">
         <v>12640</v>
       </c>
+      <c r="N18" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>386</v>
+      </c>
       <c r="Q18" s="17" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="U18" s="17" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="X18" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y18" s="17" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="45">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="45">
       <c r="A19" s="15" t="s">
         <v>96</v>
       </c>
@@ -7688,59 +7547,50 @@
       <c r="H19" s="16">
         <v>67200</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>477</v>
-      </c>
-      <c r="J19" s="12">
-        <v>24000</v>
+      <c r="I19" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="J19" s="15">
+        <v>67500</v>
       </c>
       <c r="K19" s="15">
-        <v>45000</v>
+        <v>6045</v>
       </c>
       <c r="L19" s="15">
-        <v>67500</v>
+        <v>9070</v>
       </c>
       <c r="M19" s="15">
-        <v>90000</v>
-      </c>
-      <c r="N19" s="15">
-        <v>6045</v>
-      </c>
-      <c r="O19" s="15">
-        <v>9070</v>
-      </c>
-      <c r="P19" s="15">
         <v>14110</v>
       </c>
+      <c r="N19" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>389</v>
+      </c>
       <c r="Q19" s="17" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="U19" s="17" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="W19" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="X19" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y19" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="45">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="45">
       <c r="A20" s="15" t="s">
         <v>155</v>
       </c>
@@ -7765,59 +7615,50 @@
       <c r="H20" s="12">
         <v>83200</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="J20" s="12">
-        <v>31200</v>
+      <c r="I20" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="J20" s="15">
+        <v>98100</v>
       </c>
       <c r="K20" s="15">
-        <v>65400</v>
+        <v>7485</v>
       </c>
       <c r="L20" s="15">
-        <v>98100</v>
+        <v>11230</v>
       </c>
       <c r="M20" s="15">
-        <v>130800</v>
-      </c>
-      <c r="N20" s="15">
-        <v>7485</v>
-      </c>
-      <c r="O20" s="15">
-        <v>11230</v>
-      </c>
-      <c r="P20" s="15">
         <v>17470</v>
       </c>
+      <c r="N20" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>392</v>
+      </c>
       <c r="Q20" s="17" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="U20" s="17" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="W20" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="X20" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y20" s="17" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="45">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="45">
       <c r="A21" s="15" t="s">
         <v>97</v>
       </c>
@@ -7842,59 +7683,50 @@
       <c r="H21" s="12">
         <v>91200</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="J21" s="12">
-        <v>34200</v>
+      <c r="I21" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="J21" s="15">
+        <v>117900</v>
       </c>
       <c r="K21" s="15">
-        <v>78600</v>
+        <v>8205</v>
       </c>
       <c r="L21" s="15">
-        <v>117900</v>
+        <v>12310</v>
       </c>
       <c r="M21" s="15">
-        <v>157200</v>
-      </c>
-      <c r="N21" s="15">
-        <v>8205</v>
-      </c>
-      <c r="O21" s="15">
-        <v>12310</v>
-      </c>
-      <c r="P21" s="15">
         <v>19150</v>
       </c>
+      <c r="N21" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>395</v>
+      </c>
       <c r="Q21" s="17" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="U21" s="17" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="W21" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="X21" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y21" s="17" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="45">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="45">
       <c r="A22" s="15" t="s">
         <v>98</v>
       </c>
@@ -7919,59 +7751,50 @@
       <c r="H22" s="12">
         <v>109800</v>
       </c>
-      <c r="I22" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="J22" s="12">
-        <v>36600</v>
-      </c>
-      <c r="K22" s="15">
-        <v>113400</v>
-      </c>
-      <c r="L22" s="15">
+      <c r="I22" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="J22" s="15">
         <v>170100</v>
       </c>
-      <c r="M22" s="15">
-        <v>226800</v>
-      </c>
-      <c r="N22" s="12">
+      <c r="K22" s="12">
         <v>9880</v>
       </c>
-      <c r="O22" s="12">
+      <c r="L22" s="12">
         <v>14820</v>
       </c>
-      <c r="P22" s="12">
+      <c r="M22" s="12">
         <v>23055</v>
       </c>
+      <c r="N22" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>398</v>
+      </c>
       <c r="Q22" s="17" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="U22" s="17" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="W22" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="X22" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y22" s="17" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="45">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="45">
       <c r="A23" s="15" t="s">
         <v>99</v>
       </c>
@@ -7996,59 +7819,50 @@
       <c r="H23" s="12">
         <v>118800</v>
       </c>
-      <c r="I23" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="J23" s="12">
-        <v>39600</v>
-      </c>
-      <c r="K23" s="15">
-        <v>136000</v>
-      </c>
-      <c r="L23" s="15">
+      <c r="I23" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="J23" s="15">
         <v>204000</v>
       </c>
-      <c r="M23" s="15">
-        <v>272000</v>
-      </c>
-      <c r="N23" s="12">
+      <c r="K23" s="12">
         <v>10690</v>
       </c>
-      <c r="O23" s="12">
+      <c r="L23" s="12">
         <v>16035</v>
       </c>
-      <c r="P23" s="12">
+      <c r="M23" s="12">
         <v>24945</v>
       </c>
+      <c r="N23" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>401</v>
+      </c>
       <c r="Q23" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="T23" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U23" s="17" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="W23" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="X23" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y23" s="17" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="45">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="45">
       <c r="A24" s="15" t="s">
         <v>100</v>
       </c>
@@ -8073,59 +7887,50 @@
       <c r="H24" s="12">
         <v>144000</v>
       </c>
-      <c r="I24" s="23" t="s">
-        <v>482</v>
+      <c r="I24" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="J24" s="12">
-        <v>43200</v>
+        <v>240000</v>
       </c>
       <c r="K24" s="12">
-        <v>160000</v>
+        <v>12960</v>
       </c>
       <c r="L24" s="12">
-        <v>240000</v>
+        <v>19440</v>
       </c>
       <c r="M24" s="12">
-        <v>320000</v>
-      </c>
-      <c r="N24" s="12">
-        <v>12960</v>
-      </c>
-      <c r="O24" s="12">
-        <v>19440</v>
-      </c>
-      <c r="P24" s="12">
         <v>30240</v>
       </c>
-      <c r="Q24" s="22" t="s">
-        <v>290</v>
+      <c r="N24" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>295</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="W24" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="X24" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y24" s="17" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="45">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="45">
       <c r="A25" s="15" t="s">
         <v>101</v>
       </c>
@@ -8150,81 +7955,72 @@
       <c r="H25" s="12">
         <v>160000</v>
       </c>
-      <c r="I25" s="24" t="s">
-        <v>483</v>
+      <c r="I25" s="22" t="s">
+        <v>524</v>
       </c>
       <c r="J25" s="12">
-        <v>48000</v>
+        <v>300000</v>
       </c>
       <c r="K25" s="12">
-        <v>200000</v>
+        <v>14400</v>
       </c>
       <c r="L25" s="12">
-        <v>300000</v>
+        <v>21600</v>
       </c>
       <c r="M25" s="12">
-        <v>400000</v>
-      </c>
-      <c r="N25" s="12">
-        <v>14400</v>
-      </c>
-      <c r="O25" s="12">
-        <v>21600</v>
-      </c>
-      <c r="P25" s="12">
         <v>33600</v>
       </c>
-      <c r="Q25" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="R25" s="22" t="s">
-        <v>235</v>
+      <c r="N25" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>261</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="U25" s="17" t="s">
-        <v>265</v>
+        <v>216</v>
+      </c>
+      <c r="U25" s="22" t="s">
+        <v>246</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="W25" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="X25" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y25" s="17" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="20" customHeight="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="20" customHeight="1">
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-    </row>
-    <row r="28" spans="1:25" ht="20" customHeight="1">
+    </row>
+    <row r="28" spans="1:22" ht="20" customHeight="1">
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-    </row>
-    <row r="29" spans="1:25" ht="20" customHeight="1">
-      <c r="R29" s="15"/>
+    </row>
+    <row r="29" spans="1:22" ht="20" customHeight="1">
+      <c r="O29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -8242,8 +8038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D41"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8257,521 +8053,521 @@
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1">
       <c r="A1" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1" s="25" t="s">
         <v>275</v>
       </c>
+      <c r="D1" s="23" t="s">
+        <v>271</v>
+      </c>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="60">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60">
       <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>492</v>
+        <v>534</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60">
       <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60">
       <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60">
       <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60">
       <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="75">
       <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="75">
       <c r="A18" s="15">
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75">
       <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60">
       <c r="A20" s="15">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60">
       <c r="A21" s="15">
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60">
       <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60">
       <c r="A23" s="15">
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60">
       <c r="A24" s="15">
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60">
       <c r="A25" s="15">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="45">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="75">
       <c r="A26" s="15">
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="75">
       <c r="A27" s="15">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="75">
       <c r="A28" s="15">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="45">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="75">
       <c r="A29" s="15">
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="45">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="75">
       <c r="A30" s="15">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="75">
       <c r="A31" s="15">
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="45">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="75">
       <c r="A32" s="15">
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="45">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="75">
       <c r="A33" s="15">
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="45">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="75">
       <c r="A34" s="15">
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="45">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="75">
       <c r="A35" s="15">
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="45">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="60">
       <c r="A36" s="15">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="45">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30">
       <c r="A37" s="15">
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>500</v>
+        <v>451</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>561</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>563</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -8779,13 +8575,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>501</v>
+        <v>452</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>562</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>564</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
@@ -8793,13 +8589,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>565</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
@@ -8807,13 +8603,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>566</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -8821,13 +8617,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>567</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="497" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31760" windowHeight="19040" tabRatio="497" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1780,96 +1780,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman_2:1:20,crossbowman_2:1:20,ballista_2:1:10,ballista_2:1:10,crossbowman_2:1:20,swordsman_2:1:20;lancer_2:1:10,horseArcher_2:1:10,swordsman_2:1:20,swordsman_2:1:20,horseArcher_2:1:10,lancer_2:1:10;catapult_2:1:10,ballista_2:1:10,lancer_2:1:10,lancer_2:1:10,ballista_2:1:10,catapult_2:1:10</t>
-  </si>
-  <si>
-    <t>sentinel_2:1:60,swordsman_2:1:60,crossbowman_2:1:60,crossbowman_2:1:60,swordsman_2:1:60,sentinel_2:1:60;horseArcher_2:1:30,swordsman_2:1:60,catapult_2:1:30,catapult_2:1:30,swordsman_2:1:60,horseArcher_2:1:30;ballista_2:1:30,lancer_2:1:30,horseArcher_2:1:30,horseArcher_2:1:30,lancer_2:1:30,ballista_2:1:30</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:5,ballista_2:1:3,swordsman_2:1:5,swordsman_2:1:5,ballista_2:1:3,crossbowman_2:1:5;sentinel_2:1:5,lancer_2:1:3,horseArcher_2:1:3,horseArcher_2:1:3,lancer_2:1:3,sentinel_2:1:5;horseArcher_2:1:3,catapult_2:1:3,sentinel_2:1:5,sentinel_2:1:5,catapult_2:1:3,horseArcher_2:1:3</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:5,swordsman_2:1:10,swordsman_2:1:10,ballista_2:1:5,crossbowman_2:1:10;sentinel_2:1:10,lancer_2:1:5,horseArcher_2:1:5,horseArcher_2:1:5,lancer_2:1:5,sentinel_2:1:10;horseArcher_2:1:5,catapult_2:1:5,sentinel_2:1:10,sentinel_2:1:10,catapult_2:1:5,horseArcher_2:1:5</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:15,ballista_2:1:8,swordsman_2:1:15,swordsman_2:1:15,ballista_2:1:8,crossbowman_2:1:15;sentinel_2:1:15,lancer_2:1:8,horseArcher_2:1:8,horseArcher_2:1:8,lancer_2:1:8,sentinel_2:1:15;horseArcher_2:1:8,catapult_2:1:8,sentinel_2:1:15,sentinel_2:1:15,catapult_2:1:8,horseArcher_2:1:8</t>
-  </si>
-  <si>
-    <t>swordsman_2:1:25,crossbowman_2:1:25,ballista_2:1:13,ballista_2:1:13,crossbowman_2:1:25,swordsman_2:1:25;lancer_2:1:13,horseArcher_2:1:13,swordsman_2:1:25,swordsman_2:1:25,horseArcher_2:1:13,lancer_2:1:13;catapult_2:1:13,ballista_2:1:13,lancer_2:1:13,lancer_2:1:13,ballista_2:1:13,catapult_2:1:13</t>
-  </si>
-  <si>
-    <t>swordsman_2:1:40,crossbowman_2:1:40,ballista_2:1:20,ballista_2:1:20,crossbowman_2:1:40,swordsman_2:1:40;lancer_2:1:20,horseArcher_2:1:20,swordsman_2:1:40,swordsman_2:1:40,horseArcher_2:1:20,lancer_2:1:20;catapult_2:1:20,ballista_2:1:20,lancer_2:1:20,lancer_2:1:20,ballista_2:1:20,catapult_2:1:20</t>
-  </si>
-  <si>
-    <t>sentinel_2:1:50,swordsman_2:1:50,crossbowman_2:1:50,crossbowman_2:1:50,swordsman_2:1:50,sentinel_2:1:50;horseArcher_2:1:25,swordsman_2:1:50,catapult_2:1:25,catapult_2:1:25,swordsman_2:1:50,horseArcher_2:1:25;ballista_2:1:25,lancer_2:1:25,horseArcher_2:1:25,horseArcher_2:1:25,lancer_2:1:25,ballista_2:1:25</t>
-  </si>
-  <si>
-    <t>sentinel_2:1:75,swordsman_2:1:75,crossbowman_2:1:75,crossbowman_2:1:75,swordsman_2:1:75,sentinel_2:1:75;horseArcher_2:1:38,swordsman_2:1:75,catapult_2:1:38,catapult_2:1:38,swordsman_2:1:75,horseArcher_2:1:38;ballista_2:1:38,lancer_2:1:38,horseArcher_2:1:38,horseArcher_2:1:38,lancer_2:1:38,ballista_2:1:38</t>
-  </si>
-  <si>
-    <t>ranger_2:1:95,sentinel_2:1:95,swordsman_2:1:95,swordsman_2:1:95,sentinel_2:1:95,ranger_2:1:95;swordsman_2:1:95,catapult_2:1:48,ballista_2:1:48,ballista_2:1:48,catapult_2:1:48,swordsman_2:1:95;lancer_2:1:48,ranger_2:1:95,swordsman_2:1:95,swordsman_2:1:95,ranger_2:1:95,lancer_2:1:48</t>
-  </si>
-  <si>
-    <t>ranger_2:1:115,sentinel_2:1:115,swordsman_2:1:115,swordsman_2:1:115,sentinel_2:1:115,ranger_2:1:115;swordsman_2:1:115,catapult_2:1:58,ballista_2:1:58,ballista_2:1:58,catapult_2:1:58,swordsman_2:1:115;lancer_2:1:58,ranger_2:1:115,swordsman_2:1:115,swordsman_2:1:115,ranger_2:1:115,lancer_2:1:58</t>
-  </si>
-  <si>
-    <t>ranger_2:1:135,sentinel_2:1:135,swordsman_2:1:135,swordsman_2:1:135,sentinel_2:1:135,ranger_2:1:135;swordsman_2:1:135,catapult_2:1:68,ballista_2:1:68,ballista_2:1:68,catapult_2:1:68,swordsman_2:1:135;lancer_2:1:68,ranger_2:1:135,swordsman_2:1:135,swordsman_2:1:135,ranger_2:1:135,lancer_2:1:68</t>
-  </si>
-  <si>
-    <t>lancer_2:1:78,ranger_2:1:155,sentinel_2:1:155,sentinel_2:1:155,ranger_2:1:155,lancer_2:1:78;catapult_2:1:78,ballista_2:1:78,swordsman_2:1:155,swordsman_2:1:155,ballista_2:1:78,catapult_2:1:78;ranger_2:1:155,crossbowman_2:1:155,catapult_2:1:78,catapult_2:1:78,crossbowman_2:1:155,ranger_2:1:155</t>
-  </si>
-  <si>
-    <t>lancer_2:1:90,ranger_2:1:180,sentinel_2:1:180,sentinel_2:1:180,ranger_2:1:180,lancer_2:1:90;catapult_2:1:90,ballista_2:1:90,swordsman_2:1:180,swordsman_2:1:180,ballista_2:1:90,catapult_2:1:90;ranger_2:1:180,crossbowman_2:1:180,catapult_2:1:90,catapult_2:1:90,crossbowman_2:1:180,ranger_2:1:180</t>
-  </si>
-  <si>
-    <t>lancer_2:1:103,ranger_2:1:205,sentinel_2:1:205,sentinel_2:1:205,ranger_2:1:205,lancer_2:1:103;catapult_2:1:103,ballista_2:1:103,swordsman_2:1:205,swordsman_2:1:205,ballista_2:1:103,catapult_2:1:103;ranger_2:1:205,crossbowman_2:1:205,catapult_2:1:103,catapult_2:1:103,crossbowman_2:1:205,ranger_2:1:205</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:115,lancer_2:2:115,ranger_2:2:230,ranger_2:2:230,lancer_2:2:115,horseArcher_2:2:115;ballista_2:2:115,swordsman_2:2:230,sentinel_2:2:230,sentinel_2:2:230,swordsman_2:2:230,ballista_2:2:115;crossbowman_2:2:230,horseArcher_2:2:115,ballista_2:2:115,ballista_2:2:115,horseArcher_2:2:115,crossbowman_2:2:230</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:135,lancer_2:2:135,ranger_2:2:270,ranger_2:2:270,lancer_2:2:135,horseArcher_2:2:135;ballista_2:2:135,swordsman_2:2:270,sentinel_2:2:270,sentinel_2:2:270,swordsman_2:2:270,ballista_2:2:135;crossbowman_2:2:270,horseArcher_2:2:135,ballista_2:2:135,ballista_2:2:135,horseArcher_2:2:135,crossbowman_2:2:270</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:158,lancer_2:2:158,ranger_2:2:315,ranger_2:2:315,lancer_2:2:158,horseArcher_2:2:158;ballista_2:2:158,swordsman_2:2:315,sentinel_2:2:315,sentinel_2:2:315,swordsman_2:2:315,ballista_2:2:158;crossbowman_2:2:315,horseArcher_2:2:158,ballista_2:2:158,ballista_2:2:158,horseArcher_2:2:158,crossbowman_2:2:315</t>
-  </si>
-  <si>
-    <t>catapult_2:2:180,horseArcher_2:2:180,lancer_2:2:180,lancer_2:2:180,horseArcher_2:2:180,catapult_2:2:180;swordsman_2:2:360,sentinel_2:2:360,ranger_2:2:360,ranger_2:2:360,sentinel_2:2:360,swordsman_2:2:360;horseArcher_2:2:180,lancer_2:2:180,swordsman_2:2:360,swordsman_2:2:360,lancer_2:2:180,horseArcher_2:2:180</t>
-  </si>
-  <si>
-    <t>catapult_2:2:205,horseArcher_2:2:205,lancer_2:2:205,lancer_2:2:205,horseArcher_2:2:205,catapult_2:2:205;swordsman_2:2:410,sentinel_2:2:410,ranger_2:2:410,ranger_2:2:410,sentinel_2:2:410,swordsman_2:2:410;horseArcher_2:2:205,lancer_2:2:205,swordsman_2:2:410,swordsman_2:2:410,lancer_2:2:205,horseArcher_2:2:205</t>
-  </si>
-  <si>
-    <t>catapult_2:2:230,horseArcher_2:2:230,lancer_2:2:230,lancer_2:2:230,horseArcher_2:2:230,catapult_2:2:230;swordsman_2:2:460,sentinel_2:2:460,ranger_2:2:460,ranger_2:2:460,sentinel_2:2:460,swordsman_2:2:460;horseArcher_2:2:230,lancer_2:2:230,swordsman_2:2:460,swordsman_2:2:460,lancer_2:2:230,horseArcher_2:2:230</t>
-  </si>
-  <si>
-    <t>ballista_2:2:255,catapult_2:2:255,horseArcher_2:2:255,horseArcher_2:2:255,catapult_2:2:255,ballista_2:2:255;sentinel_2:2:510,ranger_2:2:510,lancer_2:2:255,lancer_2:2:255,ranger_2:2:510,sentinel_2:2:510;lancer_2:2:255,crossbowman_2:2:510,sentinel_2:2:510,sentinel_2:2:510,crossbowman_2:2:510,lancer_2:2:255</t>
-  </si>
-  <si>
-    <t>ballista_2:2:283,catapult_2:2:283,horseArcher_2:2:283,horseArcher_2:2:283,catapult_2:2:283,ballista_2:2:283;sentinel_2:2:565,ranger_2:2:565,lancer_2:2:283,lancer_2:2:283,ranger_2:2:565,sentinel_2:2:565;lancer_2:2:283,crossbowman_2:2:565,sentinel_2:2:565,sentinel_2:2:565,crossbowman_2:2:565,lancer_2:2:283</t>
-  </si>
-  <si>
-    <t>ballista_2:2:310,catapult_2:2:310,horseArcher_2:2:310,horseArcher_2:2:310,catapult_2:2:310,ballista_2:2:310;sentinel_2:2:620,ranger_2:2:620,lancer_2:2:310,lancer_2:2:310,ranger_2:2:620,sentinel_2:2:620;lancer_2:2:310,crossbowman_2:2:620,sentinel_2:2:620,sentinel_2:2:620,crossbowman_2:2:620,lancer_2:2:310</t>
-  </si>
-  <si>
-    <t>swordsman_2:2:680,sentinel_2:2:680,ranger_2:2:680,ranger_2:2:680,sentinel_2:2:680,swordsman_2:2:680;lancer_2:2:340,horseArcher_2:2:340,catapult_2:2:340,catapult_2:2:340,horseArcher_2:2:340,lancer_2:2:340;ballista_2:2:340,swordsman_2:2:680,horseArcher_2:2:340,horseArcher_2:2:340,swordsman_2:2:680,ballista_2:2:340</t>
-  </si>
-  <si>
-    <t>swordsman_2:3:740,sentinel_2:3:740,ranger_2:3:740,ranger_2:3:740,sentinel_2:3:740,swordsman_2:3:740;lancer_2:3:370,horseArcher_2:3:370,catapult_2:3:370,catapult_2:3:370,horseArcher_2:3:370,lancer_2:3:370;ballista_2:3:370,swordsman_2:3:740,horseArcher_2:3:370,horseArcher_2:3:370,swordsman_2:3:740,ballista_2:3:370</t>
-  </si>
-  <si>
-    <t>sentinel_2:3:840,ranger_2:3:840,crossbowman_2:3:840,crossbowman_2:3:840,ranger_2:3:840,sentinel_2:3:840;horseArcher_2:3:420,catapult_2:3:420,ballista_2:3:420,ballista_2:3:420,catapult_2:3:420,horseArcher_2:3:420;catapult_2:3:420,sentinel_2:3:840,swordsman_2:3:840,swordsman_2:3:840,sentinel_2:3:840,catapult_2:3:420</t>
-  </si>
-  <si>
-    <t>sentinel_2:3:950,ranger_2:3:950,crossbowman_2:3:950,crossbowman_2:3:950,ranger_2:3:950,sentinel_2:3:950;horseArcher_2:3:475,catapult_2:3:475,ballista_2:3:475,ballista_2:3:475,catapult_2:3:475,horseArcher_2:3:475;catapult_2:3:475,sentinel_2:3:950,swordsman_2:3:950,swordsman_2:3:950,sentinel_2:3:950,catapult_2:3:475</t>
-  </si>
-  <si>
-    <t>ranger_2:3:1060,crossbowman_2:3:1060,lancer_2:3:530,lancer_2:3:530,crossbowman_2:3:1060,ranger_2:3:1060;catapult_2:3:530,ballista_2:3:530,swordsman_2:3:1060,swordsman_2:3:1060,ballista_2:3:530,catapult_2:3:530;horseArcher_2:3:530,ranger_2:3:1060,sentinel_2:3:1060,sentinel_2:3:1060,ranger_2:3:1060,horseArcher_2:3:530</t>
-  </si>
-  <si>
-    <t>ranger_2:3:1180,crossbowman_2:3:1180,lancer_2:3:590,lancer_2:3:590,crossbowman_2:3:1180,ranger_2:3:1180;catapult_2:3:590,ballista_2:3:590,swordsman_2:3:1180,swordsman_2:3:1180,ballista_2:3:590,catapult_2:3:590;horseArcher_2:3:590,ranger_2:3:1180,sentinel_2:3:1180,sentinel_2:3:1180,ranger_2:3:1180,horseArcher_2:3:590</t>
-  </si>
-  <si>
     <t>crossbowman_3:1:1260,lancer_3:1:630,horseArcher_3:1:630,horseArcher_3:1:630,lancer_3:1:630,crossbowman_3:1:1260;ballista_3:1:630,swordsman_3:1:1260,sentinel_3:1:1260,sentinel_3:1:1260,swordsman_3:1:1260,ballista_3:1:630;lancer_3:1:630,crossbowman_3:1:1260,sentinel_3:1:1260,sentinel_3:1:1260,crossbowman_3:1:1260,lancer_3:1:630</t>
   </si>
   <si>
@@ -1902,6 +1812,96 @@
   <si>
     <t>INT_honour</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2:1:5,ballista_2:1:3,swordsman_2:1:5;sentinel_2:1:5,lancer_2:1:3,horseArcher_2:1:3;horseArcher_2:1:3,catapult_2:1:3,sentinel_2:1:5</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:5,swordsman_2:1:10;sentinel_2:1:10,lancer_2:1:5,horseArcher_2:1:5;horseArcher_2:1:5,catapult_2:1:5,sentinel_2:1:10</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:15,ballista_2:1:8,swordsman_2:1:15;sentinel_2:1:15,lancer_2:1:8,horseArcher_2:1:8;horseArcher_2:1:8,catapult_2:1:8,sentinel_2:1:15</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:20,crossbowman_2:1:20,ballista_2:1:10;lancer_2:1:10,horseArcher_2:1:10,swordsman_2:1:20;catapult_2:1:10,ballista_2:1:10,lancer_2:1:10</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:25,crossbowman_2:1:25,ballista_2:1:13;lancer_2:1:13,horseArcher_2:1:13,swordsman_2:1:25;catapult_2:1:13,ballista_2:1:13,lancer_2:1:13</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:40,crossbowman_2:1:40,ballista_2:1:20;lancer_2:1:20,horseArcher_2:1:20,swordsman_2:1:40;catapult_2:1:20,ballista_2:1:20,lancer_2:1:20</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:50,swordsman_2:1:50,crossbowman_2:1:50;horseArcher_2:1:25,swordsman_2:1:50,catapult_2:1:25;ballista_2:1:25,lancer_2:1:25,horseArcher_2:1:25</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:60,swordsman_2:1:60,crossbowman_2:1:60;horseArcher_2:1:30,swordsman_2:1:60,catapult_2:1:30;ballista_2:1:30,lancer_2:1:30,horseArcher_2:1:30</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:75,swordsman_2:1:75,crossbowman_2:1:75;horseArcher_2:1:38,swordsman_2:1:75,catapult_2:1:38;ballista_2:1:38,lancer_2:1:38,horseArcher_2:1:38</t>
+  </si>
+  <si>
+    <t>ranger_2:1:95,sentinel_2:1:95,swordsman_2:1:95;swordsman_2:1:95,catapult_2:1:48,ballista_2:1:48;lancer_2:1:48,ranger_2:1:95,swordsman_2:1:95</t>
+  </si>
+  <si>
+    <t>ranger_2:1:115,sentinel_2:1:115,swordsman_2:1:115,swordsman_2:1:115;swordsman_2:1:115,catapult_2:1:58,ballista_2:1:58,ballista_2:1:58;lancer_2:1:58,ranger_2:1:115,swordsman_2:1:115,swordsman_2:1:115</t>
+  </si>
+  <si>
+    <t>ranger_2:1:135,sentinel_2:1:135,swordsman_2:1:135,swordsman_2:1:135;swordsman_2:1:135,catapult_2:1:68,ballista_2:1:68,ballista_2:1:68;lancer_2:1:68,ranger_2:1:135,swordsman_2:1:135,swordsman_2:1:135</t>
+  </si>
+  <si>
+    <t>lancer_2:1:78,ranger_2:1:155,sentinel_2:1:155,sentinel_2:1:155;catapult_2:1:78,ballista_2:1:78,swordsman_2:1:155,swordsman_2:1:155;ranger_2:1:155,crossbowman_2:1:155,catapult_2:1:78,catapult_2:1:78</t>
+  </si>
+  <si>
+    <t>lancer_2:1:90,ranger_2:1:180,sentinel_2:1:180,sentinel_2:1:180;catapult_2:1:90,ballista_2:1:90,swordsman_2:1:180,swordsman_2:1:180;ranger_2:1:180,crossbowman_2:1:180,catapult_2:1:90,catapult_2:1:90</t>
+  </si>
+  <si>
+    <t>lancer_2:1:103,ranger_2:1:205,sentinel_2:1:205,sentinel_2:1:205;catapult_2:1:103,ballista_2:1:103,swordsman_2:1:205,swordsman_2:1:205;ranger_2:1:205,crossbowman_2:1:205,catapult_2:1:103,catapult_2:1:103</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:115,lancer_2:2:115,ranger_2:2:230,ranger_2:2:230;ballista_2:2:115,swordsman_2:2:230,sentinel_2:2:230,sentinel_2:2:230;crossbowman_2:2:230,horseArcher_2:2:115,ballista_2:2:115,ballista_2:2:115</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:135,lancer_2:2:135,ranger_2:2:270,ranger_2:2:270;ballista_2:2:135,swordsman_2:2:270,sentinel_2:2:270,sentinel_2:2:270;crossbowman_2:2:270,horseArcher_2:2:135,ballista_2:2:135,ballista_2:2:135</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:158,lancer_2:2:158,ranger_2:2:315,ranger_2:2:315;ballista_2:2:158,swordsman_2:2:315,sentinel_2:2:315,sentinel_2:2:315;crossbowman_2:2:315,horseArcher_2:2:158,ballista_2:2:158,ballista_2:2:158</t>
+  </si>
+  <si>
+    <t>catapult_2:2:180,horseArcher_2:2:180,lancer_2:2:180,lancer_2:2:180;swordsman_2:2:360,sentinel_2:2:360,ranger_2:2:360,ranger_2:2:360;horseArcher_2:2:180,lancer_2:2:180,swordsman_2:2:360,swordsman_2:2:360</t>
+  </si>
+  <si>
+    <t>catapult_2:2:205,horseArcher_2:2:205,lancer_2:2:205,lancer_2:2:205;swordsman_2:2:410,sentinel_2:2:410,ranger_2:2:410,ranger_2:2:410;horseArcher_2:2:205,lancer_2:2:205,swordsman_2:2:410,swordsman_2:2:410</t>
+  </si>
+  <si>
+    <t>catapult_2:2:230,horseArcher_2:2:230,lancer_2:2:230,lancer_2:2:230,horseArcher_2:2:230;swordsman_2:2:460,sentinel_2:2:460,ranger_2:2:460,ranger_2:2:460,sentinel_2:2:460;horseArcher_2:2:230,lancer_2:2:230,swordsman_2:2:460,swordsman_2:2:460,lancer_2:2:230</t>
+  </si>
+  <si>
+    <t>ballista_2:2:255,catapult_2:2:255,horseArcher_2:2:255,horseArcher_2:2:255,catapult_2:2:255;sentinel_2:2:510,ranger_2:2:510,lancer_2:2:255,lancer_2:2:255,ranger_2:2:510;lancer_2:2:255,crossbowman_2:2:510,sentinel_2:2:510,sentinel_2:2:510,crossbowman_2:2:510</t>
+  </si>
+  <si>
+    <t>ballista_2:2:283,catapult_2:2:283,horseArcher_2:2:283,horseArcher_2:2:283,catapult_2:2:283;sentinel_2:2:565,ranger_2:2:565,lancer_2:2:283,lancer_2:2:283,ranger_2:2:565;lancer_2:2:283,crossbowman_2:2:565,sentinel_2:2:565,sentinel_2:2:565,crossbowman_2:2:565</t>
+  </si>
+  <si>
+    <t>ballista_2:2:310,catapult_2:2:310,horseArcher_2:2:310,horseArcher_2:2:310,catapult_2:2:310;sentinel_2:2:620,ranger_2:2:620,lancer_2:2:310,lancer_2:2:310,ranger_2:2:620;lancer_2:2:310,crossbowman_2:2:620,sentinel_2:2:620,sentinel_2:2:620,crossbowman_2:2:620</t>
+  </si>
+  <si>
+    <t>swordsman_2:2:680,sentinel_2:2:680,ranger_2:2:680,ranger_2:2:680,sentinel_2:2:680;lancer_2:2:340,horseArcher_2:2:340,catapult_2:2:340,catapult_2:2:340,horseArcher_2:2:340;ballista_2:2:340,swordsman_2:2:680,horseArcher_2:2:340,horseArcher_2:2:340,swordsman_2:2:680</t>
+  </si>
+  <si>
+    <t>swordsman_2:3:740,sentinel_2:3:740,ranger_2:3:740,ranger_2:3:740,sentinel_2:3:740;lancer_2:3:370,horseArcher_2:3:370,catapult_2:3:370,catapult_2:3:370,horseArcher_2:3:370;ballista_2:3:370,swordsman_2:3:740,horseArcher_2:3:370,horseArcher_2:3:370,swordsman_2:3:740</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:840,ranger_2:3:840,crossbowman_2:3:840,crossbowman_2:3:840,ranger_2:3:840;horseArcher_2:3:420,catapult_2:3:420,ballista_2:3:420,ballista_2:3:420,catapult_2:3:420;catapult_2:3:420,sentinel_2:3:840,swordsman_2:3:840,swordsman_2:3:840,sentinel_2:3:840</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:950,ranger_2:3:950,crossbowman_2:3:950,crossbowman_2:3:950,ranger_2:3:950;horseArcher_2:3:475,catapult_2:3:475,ballista_2:3:475,ballista_2:3:475,catapult_2:3:475;catapult_2:3:475,sentinel_2:3:950,swordsman_2:3:950,swordsman_2:3:950,sentinel_2:3:950</t>
+  </si>
+  <si>
+    <t>ranger_2:3:1060,crossbowman_2:3:1060,lancer_2:3:530,lancer_2:3:530,crossbowman_2:3:1060;catapult_2:3:530,ballista_2:3:530,swordsman_2:3:1060,swordsman_2:3:1060,ballista_2:3:530;horseArcher_2:3:530,ranger_2:3:1060,sentinel_2:3:1060,sentinel_2:3:1060,ranger_2:3:1060</t>
+  </si>
+  <si>
+    <t>ranger_2:3:1180,crossbowman_2:3:1180,lancer_2:3:590,lancer_2:3:590,crossbowman_2:3:1180;catapult_2:3:590,ballista_2:3:590,swordsman_2:3:1180,swordsman_2:3:1180,ballista_2:3:590;horseArcher_2:3:590,ranger_2:3:1180,sentinel_2:3:1180,sentinel_2:3:1180,ranger_2:3:1180</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2083,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="897">
+  <cellStyleXfs count="899">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2565,6 +2565,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3058,7 +3060,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="897">
+  <cellStyles count="899">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3509,6 +3511,7 @@
     <cellStyle name="超链接" xfId="891" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="893" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="897" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3952,6 +3955,7 @@
     <cellStyle name="访问过的超链接" xfId="892" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="894" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="898" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -6276,8 +6280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6327,7 +6331,7 @@
         <v>167</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>168</v>
@@ -8038,8 +8042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8066,7 +8070,7 @@
       </c>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:6" ht="60">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -8074,13 +8078,13 @@
         <v>416</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -8088,13 +8092,13 @@
         <v>417</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -8102,13 +8106,13 @@
         <v>418</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -8116,13 +8120,13 @@
         <v>419</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -8130,13 +8134,13 @@
         <v>420</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -8144,13 +8148,13 @@
         <v>421</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -8158,13 +8162,13 @@
         <v>422</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -8172,13 +8176,13 @@
         <v>423</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -8186,13 +8190,13 @@
         <v>424</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -8200,13 +8204,13 @@
         <v>425</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -8214,13 +8218,13 @@
         <v>426</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -8228,13 +8232,13 @@
         <v>427</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60">
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -8242,13 +8246,13 @@
         <v>428</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60">
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -8256,13 +8260,13 @@
         <v>429</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="60">
+    <row r="16" spans="1:6" ht="45">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -8270,13 +8274,13 @@
         <v>430</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75">
+    <row r="17" spans="1:4" ht="45">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -8284,13 +8288,13 @@
         <v>431</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -8298,13 +8302,13 @@
         <v>432</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75">
+    <row r="19" spans="1:4" ht="45">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -8312,13 +8316,13 @@
         <v>433</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60">
+    <row r="20" spans="1:4" ht="45">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -8326,13 +8330,13 @@
         <v>434</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60">
+    <row r="21" spans="1:4" ht="45">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>435</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>478</v>
@@ -8354,7 +8358,7 @@
         <v>436</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>479</v>
@@ -8368,7 +8372,7 @@
         <v>437</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>480</v>
@@ -8382,7 +8386,7 @@
         <v>438</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>481</v>
@@ -8396,13 +8400,13 @@
         <v>439</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="75">
+    <row r="26" spans="1:4" ht="60">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -8410,13 +8414,13 @@
         <v>440</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75">
+    <row r="27" spans="1:4" ht="60">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -8424,13 +8428,13 @@
         <v>441</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="75">
+    <row r="28" spans="1:4" ht="60">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -8438,13 +8442,13 @@
         <v>442</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75">
+    <row r="29" spans="1:4" ht="60">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -8452,13 +8456,13 @@
         <v>443</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="75">
+    <row r="30" spans="1:4" ht="60">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -8466,13 +8470,13 @@
         <v>444</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="75">
+    <row r="31" spans="1:4" ht="60">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -8480,7 +8484,7 @@
         <v>445</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>488</v>
@@ -8494,7 +8498,7 @@
         <v>446</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>489</v>
@@ -8508,7 +8512,7 @@
         <v>447</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>490</v>
@@ -8522,7 +8526,7 @@
         <v>448</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>491</v>
@@ -8536,21 +8540,21 @@
         <v>449</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="60">
+    <row r="36" spans="1:4" ht="30">
       <c r="A36" s="15">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>560</v>
+      <c r="C36" s="21" t="s">
+        <v>530</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>493</v>
@@ -8564,7 +8568,7 @@
         <v>451</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>494</v>
@@ -8578,7 +8582,7 @@
         <v>452</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>495</v>
@@ -8592,7 +8596,7 @@
         <v>453</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>496</v>
@@ -8606,7 +8610,7 @@
         <v>454</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>497</v>
@@ -8620,7 +8624,7 @@
         <v>455</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>498</v>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31760" windowHeight="19040" tabRatio="497" activeTab="5"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="497"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="569">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1902,6 +1902,14 @@
   </si>
   <si>
     <t>ranger_2:3:1180,crossbowman_2:3:1180,lancer_2:3:590,lancer_2:3:590,crossbowman_2:3:1180;catapult_2:3:590,ballista_2:3:590,swordsman_2:3:1180,swordsman_2:3:1180,ballista_2:3:590;horseArcher_2:3:590,ranger_2:3:1180,sentinel_2:3:1180,sentinel_2:3:1180,ranger_2:3:1180</t>
+  </si>
+  <si>
+    <t>canBuyAllianceArchonMinutes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多长时间能购竞选联盟盟主职位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4406,10 +4414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4738,6 +4746,17 @@
       </c>
       <c r="C29" s="1" t="s">
         <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B30" s="8">
+        <v>10080</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -8042,7 +8061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A29" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="497"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="497"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="567">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -954,962 +954,954 @@
     <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6</t>
   </si>
   <si>
+    <t>gem_100</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_200</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_500</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_1000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_2000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_5000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_rewards</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_dragon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterRefreshMinutes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域地图野怪多少分钟后刷新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_soldiers</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵战斗受伤士兵基础百分比</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldierFightWoundedPercent</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:1,dragonMaterials:runes_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:3,dragonMaterials:runes_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:5,dragonMaterials:runes_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:1,dragonMaterials:runes_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:3,dragonMaterials:runes_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:5,dragonMaterials:runes_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:1,dragonMaterials:runes_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:3,dragonMaterials:runes_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:5,dragonMaterials:runes_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:1,dragonMaterials:runes_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:3,dragonMaterials:runes_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:5,dragonMaterials:runes_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:1,dragonMaterials:runes_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:3,dragonMaterials:runes_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:5,dragonMaterials:runes_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:1,dragonMaterials:runes_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:3,dragonMaterials:runes_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:5,dragonMaterials:runes_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:1,dragonMaterials:runes_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:3,dragonMaterials:runes_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:5,dragonMaterials:runes_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:1,dragonMaterials:runes_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:3,dragonMaterials:runes_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:5,dragonMaterials:runes_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:1,dragonMaterials:runes_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:3,dragonMaterials:runes_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:5,dragonMaterials:runes_4:5</t>
+  </si>
+  <si>
+    <t>掠夺敌方村落资源比例</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LootVillagePercent</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动联盟冷却时间</t>
+  </si>
+  <si>
+    <t>allianceMoveColdMinutes</t>
+  </si>
+  <si>
+    <t>BOOL_attackAlliance</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_moveAlliance</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1,allianceData:loyalty:800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1,allianceData:loyalty:800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1,allianceData:loyalty:800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2,allianceData:loyalty:1600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2,allianceData:loyalty:1600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2,allianceData:loyalty:1600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3,allianceData:loyalty:2400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3,allianceData:loyalty:2400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3,allianceData:loyalty:2400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4,allianceData:loyalty:3200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4,allianceData:loyalty:3200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4,allianceData:loyalty:3200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5,allianceData:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5,allianceData:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5,allianceData:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6,allianceData:loyalty:4800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6,allianceData:loyalty:4800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6,allianceData:loyalty:4800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:1,dragonMaterials:runes_2:1,allianceData:loyalty:5600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:1,dragonMaterials:runes_2:1,allianceData:loyalty:5600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:1,dragonMaterials:runes_2:1,allianceData:loyalty:5600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2,allianceData:loyalty:6400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2,allianceData:loyalty:6400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2,allianceData:loyalty:6400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:3,dragonMaterials:runes_2:3,allianceData:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:3,dragonMaterials:runes_2:3,allianceData:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:3,dragonMaterials:runes_2:3,allianceData:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4,allianceData:loyalty:9600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4,allianceData:loyalty:9600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4,allianceData:loyalty:9600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:5,dragonMaterials:runes_2:5,allianceData:loyalty:12800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:5,dragonMaterials:runes_2:5,allianceData:loyalty:12800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:5,dragonMaterials:runes_2:5,allianceData:loyalty:12800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6,allianceData:loyalty:16800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6,allianceData:loyalty:16800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6,allianceData:loyalty:16800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:1,dragonMaterials:runes_3:1,allianceData:loyalty:24000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:1,dragonMaterials:runes_3:1,allianceData:loyalty:24000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:1,dragonMaterials:runes_3:1,allianceData:loyalty:24000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2,allianceData:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2,allianceData:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2,allianceData:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:3,dragonMaterials:runes_3:3,allianceData:loyalty:42000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:3,dragonMaterials:runes_3:3,allianceData:loyalty:42000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:3,dragonMaterials:runes_3:3,allianceData:loyalty:42000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4,allianceData:loyalty:51200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4,allianceData:loyalty:51200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4,allianceData:loyalty:51200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:5,dragonMaterials:runes_3:5,allianceData:loyalty:74800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:5,dragonMaterials:runes_3:5,allianceData:loyalty:74800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:5,dragonMaterials:runes_3:5,allianceData:loyalty:74800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6,allianceData:loyalty:90000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6,allianceData:loyalty:90000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6,allianceData:loyalty:90000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:1,dragonMaterials:runes_4:1,allianceData:loyalty:130800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:1,dragonMaterials:runes_4:1,allianceData:loyalty:130800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:1,dragonMaterials:runes_4:1,allianceData:loyalty:130800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2,allianceData:loyalty:157200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2,allianceData:loyalty:157200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2,allianceData:loyalty:157200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:3,dragonMaterials:runes_4:3,allianceData:loyalty:226800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:3,dragonMaterials:runes_4:3,allianceData:loyalty:226800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:3,dragonMaterials:runes_4:3,allianceData:loyalty:226800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4,allianceData:loyalty:272000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4,allianceData:loyalty:272000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4,allianceData:loyalty:272000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:5,dragonMaterials:runes_4:5,allianceData:loyalty:320000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:5,dragonMaterials:runes_4:5,allianceData:loyalty:320000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:5,dragonMaterials:runes_4:5,allianceData:loyalty:320000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6,allianceData:loyalty:400000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6,allianceData:loyalty:400000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6,allianceData:loyalty:400000</t>
+  </si>
+  <si>
+    <t>大地图的大小</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigMapLength</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightRewardHonour</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战荣耀值奖励</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:1:1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:1:2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:1:3</t>
+  </si>
+  <si>
+    <t>blackDragon:1:4</t>
+  </si>
+  <si>
+    <t>blackDragon:1:5</t>
+  </si>
+  <si>
+    <t>blackDragon:1:6</t>
+  </si>
+  <si>
+    <t>blackDragon:1:7</t>
+  </si>
+  <si>
+    <t>blackDragon:1:8</t>
+  </si>
+  <si>
+    <t>blackDragon:1:9</t>
+  </si>
+  <si>
+    <t>blackDragon:1:10</t>
+  </si>
+  <si>
+    <t>blackDragon:2:11</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:2:12</t>
+  </si>
+  <si>
+    <t>blackDragon:2:13</t>
+  </si>
+  <si>
+    <t>blackDragon:2:14</t>
+  </si>
+  <si>
+    <t>blackDragon:2:15</t>
+  </si>
+  <si>
+    <t>blackDragon:2:16</t>
+  </si>
+  <si>
+    <t>blackDragon:2:17</t>
+  </si>
+  <si>
+    <t>blackDragon:2:18</t>
+  </si>
+  <si>
+    <t>blackDragon:2:19</t>
+  </si>
+  <si>
+    <t>blackDragon:2:20</t>
+  </si>
+  <si>
+    <t>blackDragon:3:21</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:3:22</t>
+  </si>
+  <si>
+    <t>blackDragon:3:23</t>
+  </si>
+  <si>
+    <t>blackDragon:3:24</t>
+  </si>
+  <si>
+    <t>blackDragon:3:25</t>
+  </si>
+  <si>
+    <t>blackDragon:3:26</t>
+  </si>
+  <si>
+    <t>blackDragon:3:27</t>
+  </si>
+  <si>
+    <t>blackDragon:3:28</t>
+  </si>
+  <si>
+    <t>blackDragon:3:29</t>
+  </si>
+  <si>
+    <t>blackDragon:3:30</t>
+  </si>
+  <si>
+    <t>blackDragon:4:31</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:4:32</t>
+  </si>
+  <si>
+    <t>blackDragon:4:33</t>
+  </si>
+  <si>
+    <t>blackDragon:4:34</t>
+  </si>
+  <si>
+    <t>blackDragon:4:35</t>
+  </si>
+  <si>
+    <t>blackDragon:4:36</t>
+  </si>
+  <si>
+    <t>blackDragon:4:37</t>
+  </si>
+  <si>
+    <t>blackDragon:4:38</t>
+  </si>
+  <si>
+    <t>blackDragon:4:39</t>
+  </si>
+  <si>
+    <t>blackDragon:4:40</t>
+  </si>
+  <si>
+    <t>区域地图村落多少分钟后刷新</t>
+  </si>
+  <si>
+    <t>monsterCount</t>
+  </si>
+  <si>
+    <t>每个联盟多少个野怪</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:5:50,items:stoneClass_1:5:50,items:ironClass_1:5:50,items:foodClass_1:5:50,items:coinClass_1:5:36,items:gemClass_1:2:4,buildingMaterials:blueprints:2:190,buildingMaterials:tools:2:190,buildingMaterials:tiles:2:190,buildingMaterials:pulley:2:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:10:50,items:stoneClass_1:10:50,items:ironClass_1:10:50,items:foodClass_1:10:50,items:coinClass_1:10:36,items:gemClass_1:3:4,buildingMaterials:blueprints:3:190,buildingMaterials:tools:3:190,buildingMaterials:tiles:3:190,buildingMaterials:pulley:3:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:15:50,items:stoneClass_1:15:50,items:ironClass_1:15:50,items:foodClass_1:15:50,items:coinClass_1:15:36,items:gemClass_1:4:4,buildingMaterials:blueprints:4:190,buildingMaterials:tools:4:190,buildingMaterials:tiles:4:190,buildingMaterials:pulley:4:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:1:50,items:stoneClass_2:1:50,items:ironClass_2:1:50,items:foodClass_2:1:50,items:coinClass_2:1:36,items:gemClass_1:5:4,buildingMaterials:blueprints:5:190,buildingMaterials:tools:5:190,buildingMaterials:tiles:5:190,buildingMaterials:pulley:5:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:2:50,items:stoneClass_2:2:50,items:ironClass_2:2:50,items:foodClass_2:2:50,items:coinClass_2:2:36,items:gemClass_1:6:4,buildingMaterials:blueprints:6:190,buildingMaterials:tools:6:190,buildingMaterials:tiles:6:190,buildingMaterials:pulley:6:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:3:50,items:stoneClass_2:3:50,items:ironClass_2:3:50,items:foodClass_2:3:50,items:coinClass_2:3:36,items:gemClass_1:7:4,buildingMaterials:blueprints:7:190,buildingMaterials:tools:7:190,buildingMaterials:tiles:7:190,buildingMaterials:pulley:7:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:4:50,items:stoneClass_2:4:50,items:ironClass_2:4:50,items:foodClass_2:4:50,items:coinClass_2:4:36,items:gemClass_1:8:4,buildingMaterials:blueprints:8:190,buildingMaterials:tools:8:190,buildingMaterials:tiles:8:190,buildingMaterials:pulley:8:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:5:50,items:stoneClass_2:5:50,items:ironClass_2:5:50,items:foodClass_2:5:50,items:coinClass_2:5:36,items:gemClass_1:9:4,buildingMaterials:blueprints:9:190,buildingMaterials:tools:9:190,buildingMaterials:tiles:9:190,buildingMaterials:pulley:9:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:6:50,items:stoneClass_2:6:50,items:ironClass_2:6:50,items:foodClass_2:6:50,items:coinClass_2:6:36,items:gemClass_2:1:4,buildingMaterials:blueprints:10:190,buildingMaterials:tools:10:190,buildingMaterials:tiles:10:190,buildingMaterials:pulley:10:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:7:50,items:stoneClass_2:7:50,items:ironClass_2:7:50,items:foodClass_2:7:50,items:coinClass_2:7:36,items:gemClass_1:11:4,buildingMaterials:blueprints:11:190,buildingMaterials:tools:11:190,buildingMaterials:tiles:11:190,buildingMaterials:pulley:11:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:8:50,items:stoneClass_2:8:50,items:ironClass_2:8:50,items:foodClass_2:8:50,items:coinClass_2:8:36,items:gemClass_1:12:4,buildingMaterials:blueprints:12:190,buildingMaterials:tools:12:190,buildingMaterials:tiles:12:190,buildingMaterials:pulley:12:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:9:50,items:stoneClass_2:9:50,items:ironClass_2:9:50,items:foodClass_2:9:50,items:coinClass_2:9:36,items:gemClass_1:13:4,buildingMaterials:blueprints:13:190,buildingMaterials:tools:13:190,buildingMaterials:tiles:13:190,buildingMaterials:pulley:13:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:2:50,items:stoneClass_3:2:50,items:ironClass_3:2:50,items:foodClass_3:2:50,items:coinClass_3:2:36,items:gemClass_1:14:4,buildingMaterials:blueprints:14:190,buildingMaterials:tools:14:190,buildingMaterials:tiles:14:190,buildingMaterials:pulley:14:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:12:50,items:stoneClass_2:12:50,items:ironClass_2:12:50,items:foodClass_2:12:50,items:coinClass_2:12:36,items:gemClass_1:15:4,buildingMaterials:blueprints:15:190,buildingMaterials:tools:15:190,buildingMaterials:tiles:15:190,buildingMaterials:pulley:15:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:14:50,items:stoneClass_2:14:50,items:ironClass_2:14:50,items:foodClass_2:14:50,items:coinClass_2:14:36,items:gemClass_1:4:4,buildingMaterials:blueprints:16:190,buildingMaterials:tools:16:190,buildingMaterials:tiles:16:190,buildingMaterials:pulley:16:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:16:50,items:stoneClass_2:16:50,items:ironClass_2:16:50,items:foodClass_2:16:50,items:coinClass_2:16:36,items:gemClass_1:17:4,buildingMaterials:blueprints:17:190,buildingMaterials:tools:17:190,buildingMaterials:tiles:17:190,buildingMaterials:pulley:17:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:18:50,items:stoneClass_2:18:50,items:ironClass_2:18:50,items:foodClass_2:18:50,items:coinClass_2:18:36,items:gemClass_1:18:4,buildingMaterials:blueprints:18:190,buildingMaterials:tools:18:190,buildingMaterials:tiles:18:190,buildingMaterials:pulley:18:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:4:50,items:stoneClass_3:4:50,items:ironClass_3:4:50,items:foodClass_3:4:50,items:coinClass_3:4:36,items:gemClass_1:19:4,buildingMaterials:blueprints:19:190,buildingMaterials:tools:19:190,buildingMaterials:tiles:19:190,buildingMaterials:pulley:19:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:1:50,items:stoneClass_4:1:50,items:ironClass_4:1:50,items:foodClass_4:1:50,items:coinClass_4:1:36,items:gemClass_2:2:4,buildingMaterials:blueprints:20:190,buildingMaterials:tools:20:190,buildingMaterials:tiles:20:190,buildingMaterials:pulley:20:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:6:50,items:stoneClass_3:6:50,items:ironClass_3:6:50,items:foodClass_3:6:50,items:coinClass_3:6:36,items:gemClass_1:21:4,buildingMaterials:blueprints:21:190,buildingMaterials:tools:21:190,buildingMaterials:tiles:21:190,buildingMaterials:pulley:21:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:7:50,items:stoneClass_3:7:50,items:ironClass_3:7:50,items:foodClass_3:7:50,items:coinClass_3:7:36,items:gemClass_1:22:4,buildingMaterials:blueprints:22:190,buildingMaterials:tools:22:190,buildingMaterials:tiles:22:190,buildingMaterials:pulley:22:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:8:50,items:stoneClass_3:8:50,items:ironClass_3:8:50,items:foodClass_3:8:50,items:coinClass_3:8:36,items:gemClass_1:23:4,buildingMaterials:blueprints:23:190,buildingMaterials:tools:23:190,buildingMaterials:tiles:23:190,buildingMaterials:pulley:23:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:9:50,items:stoneClass_3:9:50,items:ironClass_3:9:50,items:foodClass_3:9:50,items:coinClass_3:9:36,items:gemClass_1:24:4,buildingMaterials:blueprints:24:190,buildingMaterials:tools:24:190,buildingMaterials:tiles:24:190,buildingMaterials:pulley:24:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:2:50,items:stoneClass_4:2:50,items:ironClass_4:2:50,items:foodClass_4:2:50,items:coinClass_4:2:36,items:gemClass_1:25:4,buildingMaterials:blueprints:25:190,buildingMaterials:tools:25:190,buildingMaterials:tiles:25:190,buildingMaterials:pulley:25:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:3:50,items:stoneClass_4:3:50,items:ironClass_4:3:50,items:foodClass_4:3:50,items:coinClass_4:3:36,items:gemClass_1:26:4,buildingMaterials:blueprints:26:190,buildingMaterials:tools:26:190,buildingMaterials:tiles:26:190,buildingMaterials:pulley:26:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:4:50,items:stoneClass_4:4:50,items:ironClass_4:4:50,items:foodClass_4:4:50,items:coinClass_4:4:36,items:gemClass_1:27:4,buildingMaterials:blueprints:27:190,buildingMaterials:tools:27:190,buildingMaterials:tiles:27:190,buildingMaterials:pulley:27:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:5:50,items:stoneClass_4:5:50,items:ironClass_4:5:50,items:foodClass_4:5:50,items:coinClass_4:5:36,items:gemClass_1:28:4,buildingMaterials:blueprints:28:190,buildingMaterials:tools:28:190,buildingMaterials:tiles:28:190,buildingMaterials:pulley:28:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:6:50,items:stoneClass_4:6:50,items:ironClass_4:6:50,items:foodClass_4:6:50,items:coinClass_4:6:36,items:gemClass_1:29:4,buildingMaterials:blueprints:29:190,buildingMaterials:tools:29:190,buildingMaterials:tiles:29:190,buildingMaterials:pulley:29:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:7:50,items:stoneClass_4:7:50,items:ironClass_4:7:50,items:foodClass_4:7:50,items:coinClass_4:7:36,items:gemClass_2:3:4,buildingMaterials:blueprints:30:190,buildingMaterials:tools:30:190,buildingMaterials:tiles:30:190,buildingMaterials:pulley:30:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:8:50,items:stoneClass_4:8:50,items:ironClass_4:8:50,items:foodClass_4:8:50,items:coinClass_4:8:36,items:gemClass_1:31:4,buildingMaterials:blueprints:31:190,buildingMaterials:tools:31:190,buildingMaterials:tiles:31:190,buildingMaterials:pulley:31:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:3:50,items:stoneClass_5:3:50,items:ironClass_5:3:50,items:foodClass_5:3:50,items:coinClass_5:3:36,items:gemClass_1:32:4,buildingMaterials:blueprints:32:190,buildingMaterials:tools:32:190,buildingMaterials:tiles:32:190,buildingMaterials:pulley:32:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:1:50,items:stoneClass_6:1:50,items:ironClass_6:1:50,items:foodClass_6:1:50,items:coinClass_6:1:36,items:gemClass_1:33:4,buildingMaterials:blueprints:33:190,buildingMaterials:tools:33:190,buildingMaterials:tiles:33:190,buildingMaterials:pulley:33:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:4:50,items:stoneClass_5:4:50,items:ironClass_5:4:50,items:foodClass_5:4:50,items:coinClass_5:4:36,items:gemClass_1:34:4,buildingMaterials:blueprints:34:190,buildingMaterials:tools:34:190,buildingMaterials:tiles:34:190,buildingMaterials:pulley:34:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:5:50,items:stoneClass_5:5:50,items:ironClass_5:5:50,items:foodClass_5:5:50,items:coinClass_5:5:36,items:gemClass_1:35:4,buildingMaterials:blueprints:35:190,buildingMaterials:tools:35:190,buildingMaterials:tiles:35:190,buildingMaterials:pulley:35:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:6:50,items:stoneClass_5:6:50,items:ironClass_5:6:50,items:foodClass_5:6:50,items:coinClass_5:6:36,items:gemClass_1:36:4,buildingMaterials:blueprints:36:190,buildingMaterials:tools:36:190,buildingMaterials:tiles:36:190,buildingMaterials:pulley:36:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:7:50,items:stoneClass_5:7:50,items:ironClass_5:7:50,items:foodClass_5:7:50,items:coinClass_5:7:36,items:gemClass_1:37:4,buildingMaterials:blueprints:37:190,buildingMaterials:tools:37:190,buildingMaterials:tiles:37:190,buildingMaterials:pulley:37:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:8:50,items:stoneClass_5:8:50,items:ironClass_5:8:50,items:foodClass_5:8:50,items:coinClass_5:8:36,items:gemClass_1:38:4,buildingMaterials:blueprints:38:190,buildingMaterials:tools:38:190,buildingMaterials:tiles:38:190,buildingMaterials:pulley:38:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:9:50,items:stoneClass_5:9:50,items:ironClass_5:9:50,items:foodClass_5:9:50,items:coinClass_5:9:36,items:gemClass_1:39:4,buildingMaterials:blueprints:39:190,buildingMaterials:tools:39:190,buildingMaterials:tiles:39:190,buildingMaterials:pulley:39:190</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:3:50,items:stoneClass_6:3:50,items:ironClass_6:3:50,items:foodClass_6:3:50,items:coinClass_6:3:36,items:gemClass_2:4:4,buildingMaterials:blueprints:40:190,buildingMaterials:tools:40:190,buildingMaterials:tiles:40:190,buildingMaterials:pulley:40:190</t>
+  </si>
+  <si>
+    <t>maxTroopPerDragon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每条龙最多带多少部队</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon:1:1,swordsman_1:1:16,lancer_1:1:8,swordsman_1:1:16,catapult_1:1:4,ranger_1:1:8,catapult_1:1:4</t>
+  </si>
+  <si>
+    <t>dragon:1:2,lancer_1:1:18,ballista_1:1:18,lancer_1:1:18,ranger_1:1:18,swordsman_1:1:18,ranger_1:1:18</t>
+  </si>
+  <si>
+    <t>dragon:1:3,catapult_1:1:28,crossbowman_1:1:56,catapult_1:1:28,sentinel_1:1:28,horseArcher_1:1:14,sentinel_1:1:28</t>
+  </si>
+  <si>
+    <t>dragon:1:4,crossbowman_1:2:96,sentinel_1:2:96,crossbowman_1:2:96,horseArcher_1:2:24,ballista_1:2:24,horseArcher_1:2:24</t>
+  </si>
+  <si>
+    <t>dragon:1:6,swordsman_1:2:161,lancer_1:2:81,swordsman_1:2:161,catapult_1:2:41,ranger_1:2:81,catapult_1:2:41</t>
+  </si>
+  <si>
+    <t>dragon:1:8,lancer_1:2:111,ballista_1:2:111,lancer_1:2:111,ranger_1:2:111,swordsman_1:2:111,ranger_1:2:111</t>
+  </si>
+  <si>
+    <t>dragon:2:11,catapult_1:3:181,crossbowman_1:3:361,catapult_1:3:181,sentinel_1:3:181,horseArcher_1:3:91,sentinel_1:3:181</t>
+  </si>
+  <si>
+    <t>dragon:2:12,crossbowman_1:3:461,sentinel_1:3:461,crossbowman_1:3:461,horseArcher_1:3:116,ballista_1:3:116,horseArcher_1:3:116</t>
+  </si>
+  <si>
+    <t>dragon:2:13,swordsman_1:3:572,lancer_1:3:286,swordsman_1:3:572,catapult_1:3:143,ranger_1:3:286,catapult_1:3:143</t>
+  </si>
+  <si>
+    <t>dragon:2:14,lancer_2:1:344,ballista_2:1:344,lancer_2:1:344,ranger_2:1:344,swordsman_2:1:344,ranger_2:1:344</t>
+  </si>
+  <si>
+    <t>dragon:2:16,catapult_2:1:410,crossbowman_2:1:820,catapult_2:1:410,sentinel_2:1:410,horseArcher_2:1:205,sentinel_2:1:410</t>
+  </si>
+  <si>
+    <t>dragon:2:18,crossbowman_2:1:960,sentinel_2:1:960,crossbowman_2:1:960,horseArcher_2:1:240,ballista_2:1:240,horseArcher_2:1:240</t>
+  </si>
+  <si>
+    <t>dragon:3:21,swordsman_2:2:1120,lancer_2:2:560,swordsman_2:2:1120,catapult_2:2:280,ranger_2:2:560,catapult_2:2:280</t>
+  </si>
+  <si>
+    <t>dragon:3:22,lancer_2:2:620,ballista_2:2:620,lancer_2:2:620,ranger_2:2:620,swordsman_2:2:620,ranger_2:2:620</t>
+  </si>
+  <si>
+    <t>dragon:3:23,catapult_2:2:700,crossbowman_2:2:1400,catapult_2:2:700,sentinel_2:2:700,horseArcher_2:2:350,sentinel_2:2:700</t>
+  </si>
+  <si>
+    <t>dragon:3:24,crossbowman_2:3:1560,sentinel_2:3:1560,crossbowman_2:3:1560,horseArcher_2:3:390,ballista_2:3:390,horseArcher_2:3:390</t>
+  </si>
+  <si>
+    <t>dragon:3:26,swordsman_2:3:1720,lancer_2:3:860,swordsman_2:3:1720,catapult_2:3:430,ranger_2:3:860,catapult_2:3:430</t>
+  </si>
+  <si>
+    <t>dragon:3:28,lancer_2:3:960,ballista_2:3:960,lancer_2:3:960,ranger_2:3:960,swordsman_2:3:960,ranger_2:3:960</t>
+  </si>
+  <si>
+    <t>dragon:4:31,catapult_3:1:1040,crossbowman_3:1:2080,catapult_3:1:1040,sentinel_3:1:1040,horseArcher_3:1:520,sentinel_3:1:1040</t>
+  </si>
+  <si>
+    <t>dragon:4:32,crossbowman_3:1:2280,sentinel_3:1:2280,crossbowman_3:1:2280,horseArcher_3:1:570,ballista_3:1:570,horseArcher_3:1:570</t>
+  </si>
+  <si>
+    <t>dragon:4:33,swordsman_3:2:2440,lancer_3:2:1220,swordsman_3:2:2440,catapult_3:2:610,ranger_3:2:1220,catapult_3:2:610</t>
+  </si>
+  <si>
+    <t>dragon:4:34,lancer_3:2:1320,ballista_3:2:1320,lancer_3:2:1320,ranger_3:2:1320,swordsman_3:2:1320,ranger_3:2:1320</t>
+  </si>
+  <si>
+    <t>dragon:4:36,catapult_3:3:1440,crossbowman_3:3:2880,catapult_3:3:1440,sentinel_3:3:1440,horseArcher_3:3:720,sentinel_3:3:1440</t>
+  </si>
+  <si>
+    <t>dragon:4:38,crossbowman_3:3:3200,sentinel_3:3:3200,crossbowman_3:3:3200,horseArcher_3:3:800,ballista_3:3:800,horseArcher_3:3:800</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:2:50,items:stoneClass_1:2:50,items:ironClass_1:2:50,items:foodClass_1:2:50,items:coinClass_1:2:36,items:gemClass_1:1:4,buildingMaterials:blueprints:1:190,buildingMaterials:tools:1:190,buildingMaterials:tiles:1:190,buildingMaterials:pulley:1:190</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_3:1:1260,lancer_3:1:630,horseArcher_3:1:630,horseArcher_3:1:630,lancer_3:1:630,crossbowman_3:1:1260;ballista_3:1:630,swordsman_3:1:1260,sentinel_3:1:1260,sentinel_3:1:1260,swordsman_3:1:1260,ballista_3:1:630;lancer_3:1:630,crossbowman_3:1:1260,sentinel_3:1:1260,sentinel_3:1:1260,crossbowman_3:1:1260,lancer_3:1:630</t>
+  </si>
+  <si>
+    <t>crossbowman_3:1:1340,lancer_3:1:670,horseArcher_3:1:670,horseArcher_3:1:670,lancer_3:1:670,crossbowman_3:1:1340;ballista_3:1:670,swordsman_3:1:1340,sentinel_3:1:1340,sentinel_3:1:1340,swordsman_3:1:1340,ballista_3:1:670;lancer_3:1:670,crossbowman_3:1:1340,catapult_3:1:670,catapult_3:1:670,crossbowman_3:1:1340,lancer_3:1:670</t>
+  </si>
+  <si>
+    <t>lancer_3:1:713,horseArcher_3:1:713,catapult_3:1:713,catapult_3:1:713,horseArcher_3:1:713,lancer_3:1:713;swordsman_3:1:1425,sentinel_3:1:1425,lancer_3:1:713,lancer_3:1:713,sentinel_3:1:1425,swordsman_3:1:1425;crossbowman_3:1:1425,lancer_3:1:713,ballista_3:1:713,ballista_3:1:713,lancer_3:1:713,crossbowman_3:1:1425</t>
+  </si>
+  <si>
+    <t>lancer_3:1:753,horseArcher_3:1:753,ballista_3:1:753,ballista_3:1:753,horseArcher_3:1:753,lancer_3:1:753;swordsman_3:1:1505,sentinel_3:1:1505,horseArcher_3:1:753,horseArcher_3:1:753,sentinel_3:1:1505,swordsman_3:1:1505;crossbowman_3:1:1505,lancer_3:1:753,swordsman_3:1:1505,swordsman_3:1:1505,lancer_3:1:753,crossbowman_3:1:1505</t>
+  </si>
+  <si>
+    <t>horseArcher_3:1:790,catapult_3:1:790,ballista_3:1:790,ballista_3:1:790,catapult_3:1:790,horseArcher_3:1:790;sentinel_3:1:1580,lancer_3:1:790,ranger_3:1:790,ranger_3:1:790,lancer_3:1:790,sentinel_3:1:1580;ranger_3:1:1580,horseArcher_3:1:790,sentinel_3:1:1580,sentinel_3:1:1580,horseArcher_3:1:790,ranger_3:1:1580</t>
+  </si>
+  <si>
+    <t>horseArcher_3:2:830,ballista_3:2:830,catapult_3:2:830,catapult_3:2:830,ballista_3:2:830,horseArcher_3:2:830;sentinel_3:2:1660,horseArcher_3:2:830,catapult_3:2:830,catapult_3:2:830,horseArcher_3:2:830,sentinel_3:2:1660;ranger_3:2:1660,horseArcher_3:2:830,catapult_3:2:830,catapult_3:2:830,horseArcher_3:2:830,ranger_3:2:1660</t>
+  </si>
+  <si>
+    <t>catapult_3:2:910,ballista_3:2:910,sentinel_3:2:1820,sentinel_3:2:1820,ballista_3:2:910,catapult_3:2:910;lancer_3:2:910,sentinel_3:2:1820,ballista_3:2:910,ballista_3:2:910,sentinel_3:2:1820,lancer_3:2:910;swordsman_3:2:1820,catapult_3:2:910,lancer_3:2:910,lancer_3:2:910,catapult_3:2:910,swordsman_3:2:1820</t>
+  </si>
+  <si>
+    <t>ballista_3:2:990,catapult_3:2:990,sentinel_3:2:1980,sentinel_3:2:1980,catapult_3:2:990,ballista_3:2:990;horseArcher_3:2:990,catapult_3:2:990,ranger_3:2:1980,ranger_3:2:1980,catapult_3:2:990,horseArcher_3:2:990;sentinel_3:2:1980,ballista_3:2:990,horseArcher_3:2:990,horseArcher_3:2:990,ballista_3:2:990,sentinel_3:2:1980</t>
+  </si>
+  <si>
+    <t>ballista_3:2:1070,swordsman_3:2:2140,ranger_3:2:2140,ranger_3:2:2140,swordsman_3:2:2140,ballista_3:2:1070;lancer_3:2:1070,ballista_3:2:1070,crossbowman_3:2:2140,crossbowman_3:2:2140,ballista_3:2:1070,lancer_3:2:1070;swordsman_3:2:2140,ranger_3:2:2140,ballista_3:2:1070,ballista_3:2:1070,ranger_3:2:2140,swordsman_3:2:2140</t>
+  </si>
+  <si>
+    <t>catapult_3:3:1148,swordsman_3:3:2295,ranger_3:3:2295,ranger_3:3:2295,swordsman_3:3:2295,catapult_3:3:1148;horseArcher_3:3:1148,crossbowman_3:3:2295,catapult_3:3:1148,catapult_3:3:1148,crossbowman_3:3:2295,horseArcher_3:3:1148;sentinel_3:3:2295,lancer_3:3:1148,catapult_3:3:1148,catapult_3:3:1148,lancer_3:3:1148,sentinel_3:3:2295</t>
+  </si>
+  <si>
+    <t>INT_honour</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2:1:5,ballista_2:1:3,swordsman_2:1:5;sentinel_2:1:5,lancer_2:1:3,horseArcher_2:1:3;horseArcher_2:1:3,catapult_2:1:3,sentinel_2:1:5</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:5,swordsman_2:1:10;sentinel_2:1:10,lancer_2:1:5,horseArcher_2:1:5;horseArcher_2:1:5,catapult_2:1:5,sentinel_2:1:10</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:15,ballista_2:1:8,swordsman_2:1:15;sentinel_2:1:15,lancer_2:1:8,horseArcher_2:1:8;horseArcher_2:1:8,catapult_2:1:8,sentinel_2:1:15</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:20,crossbowman_2:1:20,ballista_2:1:10;lancer_2:1:10,horseArcher_2:1:10,swordsman_2:1:20;catapult_2:1:10,ballista_2:1:10,lancer_2:1:10</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:25,crossbowman_2:1:25,ballista_2:1:13;lancer_2:1:13,horseArcher_2:1:13,swordsman_2:1:25;catapult_2:1:13,ballista_2:1:13,lancer_2:1:13</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:40,crossbowman_2:1:40,ballista_2:1:20;lancer_2:1:20,horseArcher_2:1:20,swordsman_2:1:40;catapult_2:1:20,ballista_2:1:20,lancer_2:1:20</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:50,swordsman_2:1:50,crossbowman_2:1:50;horseArcher_2:1:25,swordsman_2:1:50,catapult_2:1:25;ballista_2:1:25,lancer_2:1:25,horseArcher_2:1:25</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:60,swordsman_2:1:60,crossbowman_2:1:60;horseArcher_2:1:30,swordsman_2:1:60,catapult_2:1:30;ballista_2:1:30,lancer_2:1:30,horseArcher_2:1:30</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:75,swordsman_2:1:75,crossbowman_2:1:75;horseArcher_2:1:38,swordsman_2:1:75,catapult_2:1:38;ballista_2:1:38,lancer_2:1:38,horseArcher_2:1:38</t>
+  </si>
+  <si>
+    <t>ranger_2:1:95,sentinel_2:1:95,swordsman_2:1:95;swordsman_2:1:95,catapult_2:1:48,ballista_2:1:48;lancer_2:1:48,ranger_2:1:95,swordsman_2:1:95</t>
+  </si>
+  <si>
+    <t>ranger_2:1:115,sentinel_2:1:115,swordsman_2:1:115,swordsman_2:1:115;swordsman_2:1:115,catapult_2:1:58,ballista_2:1:58,ballista_2:1:58;lancer_2:1:58,ranger_2:1:115,swordsman_2:1:115,swordsman_2:1:115</t>
+  </si>
+  <si>
+    <t>ranger_2:1:135,sentinel_2:1:135,swordsman_2:1:135,swordsman_2:1:135;swordsman_2:1:135,catapult_2:1:68,ballista_2:1:68,ballista_2:1:68;lancer_2:1:68,ranger_2:1:135,swordsman_2:1:135,swordsman_2:1:135</t>
+  </si>
+  <si>
+    <t>lancer_2:1:78,ranger_2:1:155,sentinel_2:1:155,sentinel_2:1:155;catapult_2:1:78,ballista_2:1:78,swordsman_2:1:155,swordsman_2:1:155;ranger_2:1:155,crossbowman_2:1:155,catapult_2:1:78,catapult_2:1:78</t>
+  </si>
+  <si>
+    <t>lancer_2:1:90,ranger_2:1:180,sentinel_2:1:180,sentinel_2:1:180;catapult_2:1:90,ballista_2:1:90,swordsman_2:1:180,swordsman_2:1:180;ranger_2:1:180,crossbowman_2:1:180,catapult_2:1:90,catapult_2:1:90</t>
+  </si>
+  <si>
+    <t>lancer_2:1:103,ranger_2:1:205,sentinel_2:1:205,sentinel_2:1:205;catapult_2:1:103,ballista_2:1:103,swordsman_2:1:205,swordsman_2:1:205;ranger_2:1:205,crossbowman_2:1:205,catapult_2:1:103,catapult_2:1:103</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:115,lancer_2:2:115,ranger_2:2:230,ranger_2:2:230;ballista_2:2:115,swordsman_2:2:230,sentinel_2:2:230,sentinel_2:2:230;crossbowman_2:2:230,horseArcher_2:2:115,ballista_2:2:115,ballista_2:2:115</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:135,lancer_2:2:135,ranger_2:2:270,ranger_2:2:270;ballista_2:2:135,swordsman_2:2:270,sentinel_2:2:270,sentinel_2:2:270;crossbowman_2:2:270,horseArcher_2:2:135,ballista_2:2:135,ballista_2:2:135</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:158,lancer_2:2:158,ranger_2:2:315,ranger_2:2:315;ballista_2:2:158,swordsman_2:2:315,sentinel_2:2:315,sentinel_2:2:315;crossbowman_2:2:315,horseArcher_2:2:158,ballista_2:2:158,ballista_2:2:158</t>
+  </si>
+  <si>
+    <t>catapult_2:2:180,horseArcher_2:2:180,lancer_2:2:180,lancer_2:2:180;swordsman_2:2:360,sentinel_2:2:360,ranger_2:2:360,ranger_2:2:360;horseArcher_2:2:180,lancer_2:2:180,swordsman_2:2:360,swordsman_2:2:360</t>
+  </si>
+  <si>
+    <t>catapult_2:2:205,horseArcher_2:2:205,lancer_2:2:205,lancer_2:2:205;swordsman_2:2:410,sentinel_2:2:410,ranger_2:2:410,ranger_2:2:410;horseArcher_2:2:205,lancer_2:2:205,swordsman_2:2:410,swordsman_2:2:410</t>
+  </si>
+  <si>
+    <t>catapult_2:2:230,horseArcher_2:2:230,lancer_2:2:230,lancer_2:2:230,horseArcher_2:2:230;swordsman_2:2:460,sentinel_2:2:460,ranger_2:2:460,ranger_2:2:460,sentinel_2:2:460;horseArcher_2:2:230,lancer_2:2:230,swordsman_2:2:460,swordsman_2:2:460,lancer_2:2:230</t>
+  </si>
+  <si>
+    <t>ballista_2:2:255,catapult_2:2:255,horseArcher_2:2:255,horseArcher_2:2:255,catapult_2:2:255;sentinel_2:2:510,ranger_2:2:510,lancer_2:2:255,lancer_2:2:255,ranger_2:2:510;lancer_2:2:255,crossbowman_2:2:510,sentinel_2:2:510,sentinel_2:2:510,crossbowman_2:2:510</t>
+  </si>
+  <si>
+    <t>ballista_2:2:283,catapult_2:2:283,horseArcher_2:2:283,horseArcher_2:2:283,catapult_2:2:283;sentinel_2:2:565,ranger_2:2:565,lancer_2:2:283,lancer_2:2:283,ranger_2:2:565;lancer_2:2:283,crossbowman_2:2:565,sentinel_2:2:565,sentinel_2:2:565,crossbowman_2:2:565</t>
+  </si>
+  <si>
+    <t>ballista_2:2:310,catapult_2:2:310,horseArcher_2:2:310,horseArcher_2:2:310,catapult_2:2:310;sentinel_2:2:620,ranger_2:2:620,lancer_2:2:310,lancer_2:2:310,ranger_2:2:620;lancer_2:2:310,crossbowman_2:2:620,sentinel_2:2:620,sentinel_2:2:620,crossbowman_2:2:620</t>
+  </si>
+  <si>
+    <t>swordsman_2:2:680,sentinel_2:2:680,ranger_2:2:680,ranger_2:2:680,sentinel_2:2:680;lancer_2:2:340,horseArcher_2:2:340,catapult_2:2:340,catapult_2:2:340,horseArcher_2:2:340;ballista_2:2:340,swordsman_2:2:680,horseArcher_2:2:340,horseArcher_2:2:340,swordsman_2:2:680</t>
+  </si>
+  <si>
+    <t>swordsman_2:3:740,sentinel_2:3:740,ranger_2:3:740,ranger_2:3:740,sentinel_2:3:740;lancer_2:3:370,horseArcher_2:3:370,catapult_2:3:370,catapult_2:3:370,horseArcher_2:3:370;ballista_2:3:370,swordsman_2:3:740,horseArcher_2:3:370,horseArcher_2:3:370,swordsman_2:3:740</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:840,ranger_2:3:840,crossbowman_2:3:840,crossbowman_2:3:840,ranger_2:3:840;horseArcher_2:3:420,catapult_2:3:420,ballista_2:3:420,ballista_2:3:420,catapult_2:3:420;catapult_2:3:420,sentinel_2:3:840,swordsman_2:3:840,swordsman_2:3:840,sentinel_2:3:840</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:950,ranger_2:3:950,crossbowman_2:3:950,crossbowman_2:3:950,ranger_2:3:950;horseArcher_2:3:475,catapult_2:3:475,ballista_2:3:475,ballista_2:3:475,catapult_2:3:475;catapult_2:3:475,sentinel_2:3:950,swordsman_2:3:950,swordsman_2:3:950,sentinel_2:3:950</t>
+  </si>
+  <si>
+    <t>ranger_2:3:1060,crossbowman_2:3:1060,lancer_2:3:530,lancer_2:3:530,crossbowman_2:3:1060;catapult_2:3:530,ballista_2:3:530,swordsman_2:3:1060,swordsman_2:3:1060,ballista_2:3:530;horseArcher_2:3:530,ranger_2:3:1060,sentinel_2:3:1060,sentinel_2:3:1060,ranger_2:3:1060</t>
+  </si>
+  <si>
+    <t>ranger_2:3:1180,crossbowman_2:3:1180,lancer_2:3:590,lancer_2:3:590,crossbowman_2:3:1180;catapult_2:3:590,ballista_2:3:590,swordsman_2:3:1180,swordsman_2:3:1180,ballista_2:3:590;horseArcher_2:3:590,ranger_2:3:1180,sentinel_2:3:1180,sentinel_2:3:1180,ranger_2:3:1180</t>
+  </si>
+  <si>
+    <t>canBuyAllianceArchonMinutes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多长时间能购竞选联盟盟主职位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战可得多少10个宝石的宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightGemClass2Get</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>villageRefreshMinutes</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>村落采空后多少分钟后刷新</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_100</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_200</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_500</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_1000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_2000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_5000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_rewards</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_dragon</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterRefreshMinutes</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域地图野怪多少分钟后刷新</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_soldiers</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>士兵战斗受伤士兵基础百分比</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldierFightWoundedPercent</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:1,dragonMaterials:runes_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:3,dragonMaterials:runes_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:5,dragonMaterials:runes_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:1,dragonMaterials:runes_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:3,dragonMaterials:runes_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:5,dragonMaterials:runes_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:1,dragonMaterials:runes_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:3,dragonMaterials:runes_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:5,dragonMaterials:runes_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:1,dragonMaterials:runes_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:3,dragonMaterials:runes_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:5,dragonMaterials:runes_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:1,dragonMaterials:runes_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:3,dragonMaterials:runes_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:5,dragonMaterials:runes_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:1,dragonMaterials:runes_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:3,dragonMaterials:runes_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:5,dragonMaterials:runes_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:1,dragonMaterials:runes_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:3,dragonMaterials:runes_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:5,dragonMaterials:runes_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:1,dragonMaterials:runes_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:3,dragonMaterials:runes_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:5,dragonMaterials:runes_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:1,dragonMaterials:runes_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:3,dragonMaterials:runes_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:5,dragonMaterials:runes_4:5</t>
-  </si>
-  <si>
-    <t>掠夺敌方村落资源比例</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>LootVillagePercent</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动联盟冷却时间</t>
-  </si>
-  <si>
-    <t>allianceMoveColdMinutes</t>
-  </si>
-  <si>
-    <t>BOOL_attackAlliance</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_moveAlliance</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1,allianceData:loyalty:800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1,allianceData:loyalty:800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1,allianceData:loyalty:800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2,allianceData:loyalty:1600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2,allianceData:loyalty:1600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2,allianceData:loyalty:1600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3,allianceData:loyalty:2400</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3,allianceData:loyalty:2400</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3,allianceData:loyalty:2400</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4,allianceData:loyalty:3200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4,allianceData:loyalty:3200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4,allianceData:loyalty:3200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5,allianceData:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5,allianceData:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5,allianceData:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6,allianceData:loyalty:4800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6,allianceData:loyalty:4800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6,allianceData:loyalty:4800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:1,dragonMaterials:runes_2:1,allianceData:loyalty:5600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:1,dragonMaterials:runes_2:1,allianceData:loyalty:5600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:1,dragonMaterials:runes_2:1,allianceData:loyalty:5600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2,allianceData:loyalty:6400</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2,allianceData:loyalty:6400</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2,allianceData:loyalty:6400</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:3,dragonMaterials:runes_2:3,allianceData:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:3,dragonMaterials:runes_2:3,allianceData:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:3,dragonMaterials:runes_2:3,allianceData:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4,allianceData:loyalty:9600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4,allianceData:loyalty:9600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4,allianceData:loyalty:9600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:5,dragonMaterials:runes_2:5,allianceData:loyalty:12800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:5,dragonMaterials:runes_2:5,allianceData:loyalty:12800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:5,dragonMaterials:runes_2:5,allianceData:loyalty:12800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6,allianceData:loyalty:16800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6,allianceData:loyalty:16800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6,allianceData:loyalty:16800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:1,dragonMaterials:runes_3:1,allianceData:loyalty:24000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:1,dragonMaterials:runes_3:1,allianceData:loyalty:24000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:1,dragonMaterials:runes_3:1,allianceData:loyalty:24000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2,allianceData:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2,allianceData:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2,allianceData:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:3,dragonMaterials:runes_3:3,allianceData:loyalty:42000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:3,dragonMaterials:runes_3:3,allianceData:loyalty:42000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:3,dragonMaterials:runes_3:3,allianceData:loyalty:42000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4,allianceData:loyalty:51200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4,allianceData:loyalty:51200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4,allianceData:loyalty:51200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:5,dragonMaterials:runes_3:5,allianceData:loyalty:74800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:5,dragonMaterials:runes_3:5,allianceData:loyalty:74800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:5,dragonMaterials:runes_3:5,allianceData:loyalty:74800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6,allianceData:loyalty:90000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6,allianceData:loyalty:90000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6,allianceData:loyalty:90000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:1,dragonMaterials:runes_4:1,allianceData:loyalty:130800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:1,dragonMaterials:runes_4:1,allianceData:loyalty:130800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:1,dragonMaterials:runes_4:1,allianceData:loyalty:130800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2,allianceData:loyalty:157200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2,allianceData:loyalty:157200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2,allianceData:loyalty:157200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:3,dragonMaterials:runes_4:3,allianceData:loyalty:226800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:3,dragonMaterials:runes_4:3,allianceData:loyalty:226800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:3,dragonMaterials:runes_4:3,allianceData:loyalty:226800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4,allianceData:loyalty:272000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4,allianceData:loyalty:272000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4,allianceData:loyalty:272000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:5,dragonMaterials:runes_4:5,allianceData:loyalty:320000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:5,dragonMaterials:runes_4:5,allianceData:loyalty:320000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:5,dragonMaterials:runes_4:5,allianceData:loyalty:320000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6,allianceData:loyalty:400000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6,allianceData:loyalty:400000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6,allianceData:loyalty:400000</t>
-  </si>
-  <si>
-    <t>大地图的大小</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigMapLength</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceFightRewardGem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceFightRewardHonour</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟战荣耀值奖励</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟战宝石奖励</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon:1:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon:1:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon:1:3</t>
-  </si>
-  <si>
-    <t>blackDragon:1:4</t>
-  </si>
-  <si>
-    <t>blackDragon:1:5</t>
-  </si>
-  <si>
-    <t>blackDragon:1:6</t>
-  </si>
-  <si>
-    <t>blackDragon:1:7</t>
-  </si>
-  <si>
-    <t>blackDragon:1:8</t>
-  </si>
-  <si>
-    <t>blackDragon:1:9</t>
-  </si>
-  <si>
-    <t>blackDragon:1:10</t>
-  </si>
-  <si>
-    <t>blackDragon:2:11</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon:2:12</t>
-  </si>
-  <si>
-    <t>blackDragon:2:13</t>
-  </si>
-  <si>
-    <t>blackDragon:2:14</t>
-  </si>
-  <si>
-    <t>blackDragon:2:15</t>
-  </si>
-  <si>
-    <t>blackDragon:2:16</t>
-  </si>
-  <si>
-    <t>blackDragon:2:17</t>
-  </si>
-  <si>
-    <t>blackDragon:2:18</t>
-  </si>
-  <si>
-    <t>blackDragon:2:19</t>
-  </si>
-  <si>
-    <t>blackDragon:2:20</t>
-  </si>
-  <si>
-    <t>blackDragon:3:21</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon:3:22</t>
-  </si>
-  <si>
-    <t>blackDragon:3:23</t>
-  </si>
-  <si>
-    <t>blackDragon:3:24</t>
-  </si>
-  <si>
-    <t>blackDragon:3:25</t>
-  </si>
-  <si>
-    <t>blackDragon:3:26</t>
-  </si>
-  <si>
-    <t>blackDragon:3:27</t>
-  </si>
-  <si>
-    <t>blackDragon:3:28</t>
-  </si>
-  <si>
-    <t>blackDragon:3:29</t>
-  </si>
-  <si>
-    <t>blackDragon:3:30</t>
-  </si>
-  <si>
-    <t>blackDragon:4:31</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon:4:32</t>
-  </si>
-  <si>
-    <t>blackDragon:4:33</t>
-  </si>
-  <si>
-    <t>blackDragon:4:34</t>
-  </si>
-  <si>
-    <t>blackDragon:4:35</t>
-  </si>
-  <si>
-    <t>blackDragon:4:36</t>
-  </si>
-  <si>
-    <t>blackDragon:4:37</t>
-  </si>
-  <si>
-    <t>blackDragon:4:38</t>
-  </si>
-  <si>
-    <t>blackDragon:4:39</t>
-  </si>
-  <si>
-    <t>blackDragon:4:40</t>
-  </si>
-  <si>
-    <t>区域地图村落多少分钟后刷新</t>
-  </si>
-  <si>
-    <t>villageRefreshTime</t>
-  </si>
-  <si>
-    <t>monsterCount</t>
-  </si>
-  <si>
-    <t>每个联盟多少个野怪</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:5:50,items:stoneClass_1:5:50,items:ironClass_1:5:50,items:foodClass_1:5:50,items:coinClass_1:5:36,items:gemClass_1:2:4,buildingMaterials:blueprints:2:190,buildingMaterials:tools:2:190,buildingMaterials:tiles:2:190,buildingMaterials:pulley:2:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:10:50,items:stoneClass_1:10:50,items:ironClass_1:10:50,items:foodClass_1:10:50,items:coinClass_1:10:36,items:gemClass_1:3:4,buildingMaterials:blueprints:3:190,buildingMaterials:tools:3:190,buildingMaterials:tiles:3:190,buildingMaterials:pulley:3:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:15:50,items:stoneClass_1:15:50,items:ironClass_1:15:50,items:foodClass_1:15:50,items:coinClass_1:15:36,items:gemClass_1:4:4,buildingMaterials:blueprints:4:190,buildingMaterials:tools:4:190,buildingMaterials:tiles:4:190,buildingMaterials:pulley:4:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:1:50,items:stoneClass_2:1:50,items:ironClass_2:1:50,items:foodClass_2:1:50,items:coinClass_2:1:36,items:gemClass_1:5:4,buildingMaterials:blueprints:5:190,buildingMaterials:tools:5:190,buildingMaterials:tiles:5:190,buildingMaterials:pulley:5:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:2:50,items:stoneClass_2:2:50,items:ironClass_2:2:50,items:foodClass_2:2:50,items:coinClass_2:2:36,items:gemClass_1:6:4,buildingMaterials:blueprints:6:190,buildingMaterials:tools:6:190,buildingMaterials:tiles:6:190,buildingMaterials:pulley:6:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:3:50,items:stoneClass_2:3:50,items:ironClass_2:3:50,items:foodClass_2:3:50,items:coinClass_2:3:36,items:gemClass_1:7:4,buildingMaterials:blueprints:7:190,buildingMaterials:tools:7:190,buildingMaterials:tiles:7:190,buildingMaterials:pulley:7:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:4:50,items:stoneClass_2:4:50,items:ironClass_2:4:50,items:foodClass_2:4:50,items:coinClass_2:4:36,items:gemClass_1:8:4,buildingMaterials:blueprints:8:190,buildingMaterials:tools:8:190,buildingMaterials:tiles:8:190,buildingMaterials:pulley:8:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:5:50,items:stoneClass_2:5:50,items:ironClass_2:5:50,items:foodClass_2:5:50,items:coinClass_2:5:36,items:gemClass_1:9:4,buildingMaterials:blueprints:9:190,buildingMaterials:tools:9:190,buildingMaterials:tiles:9:190,buildingMaterials:pulley:9:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:6:50,items:stoneClass_2:6:50,items:ironClass_2:6:50,items:foodClass_2:6:50,items:coinClass_2:6:36,items:gemClass_2:1:4,buildingMaterials:blueprints:10:190,buildingMaterials:tools:10:190,buildingMaterials:tiles:10:190,buildingMaterials:pulley:10:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:7:50,items:stoneClass_2:7:50,items:ironClass_2:7:50,items:foodClass_2:7:50,items:coinClass_2:7:36,items:gemClass_1:11:4,buildingMaterials:blueprints:11:190,buildingMaterials:tools:11:190,buildingMaterials:tiles:11:190,buildingMaterials:pulley:11:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:8:50,items:stoneClass_2:8:50,items:ironClass_2:8:50,items:foodClass_2:8:50,items:coinClass_2:8:36,items:gemClass_1:12:4,buildingMaterials:blueprints:12:190,buildingMaterials:tools:12:190,buildingMaterials:tiles:12:190,buildingMaterials:pulley:12:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:9:50,items:stoneClass_2:9:50,items:ironClass_2:9:50,items:foodClass_2:9:50,items:coinClass_2:9:36,items:gemClass_1:13:4,buildingMaterials:blueprints:13:190,buildingMaterials:tools:13:190,buildingMaterials:tiles:13:190,buildingMaterials:pulley:13:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:2:50,items:stoneClass_3:2:50,items:ironClass_3:2:50,items:foodClass_3:2:50,items:coinClass_3:2:36,items:gemClass_1:14:4,buildingMaterials:blueprints:14:190,buildingMaterials:tools:14:190,buildingMaterials:tiles:14:190,buildingMaterials:pulley:14:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:12:50,items:stoneClass_2:12:50,items:ironClass_2:12:50,items:foodClass_2:12:50,items:coinClass_2:12:36,items:gemClass_1:15:4,buildingMaterials:blueprints:15:190,buildingMaterials:tools:15:190,buildingMaterials:tiles:15:190,buildingMaterials:pulley:15:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:14:50,items:stoneClass_2:14:50,items:ironClass_2:14:50,items:foodClass_2:14:50,items:coinClass_2:14:36,items:gemClass_1:4:4,buildingMaterials:blueprints:16:190,buildingMaterials:tools:16:190,buildingMaterials:tiles:16:190,buildingMaterials:pulley:16:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:16:50,items:stoneClass_2:16:50,items:ironClass_2:16:50,items:foodClass_2:16:50,items:coinClass_2:16:36,items:gemClass_1:17:4,buildingMaterials:blueprints:17:190,buildingMaterials:tools:17:190,buildingMaterials:tiles:17:190,buildingMaterials:pulley:17:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:18:50,items:stoneClass_2:18:50,items:ironClass_2:18:50,items:foodClass_2:18:50,items:coinClass_2:18:36,items:gemClass_1:18:4,buildingMaterials:blueprints:18:190,buildingMaterials:tools:18:190,buildingMaterials:tiles:18:190,buildingMaterials:pulley:18:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:4:50,items:stoneClass_3:4:50,items:ironClass_3:4:50,items:foodClass_3:4:50,items:coinClass_3:4:36,items:gemClass_1:19:4,buildingMaterials:blueprints:19:190,buildingMaterials:tools:19:190,buildingMaterials:tiles:19:190,buildingMaterials:pulley:19:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:1:50,items:stoneClass_4:1:50,items:ironClass_4:1:50,items:foodClass_4:1:50,items:coinClass_4:1:36,items:gemClass_2:2:4,buildingMaterials:blueprints:20:190,buildingMaterials:tools:20:190,buildingMaterials:tiles:20:190,buildingMaterials:pulley:20:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:6:50,items:stoneClass_3:6:50,items:ironClass_3:6:50,items:foodClass_3:6:50,items:coinClass_3:6:36,items:gemClass_1:21:4,buildingMaterials:blueprints:21:190,buildingMaterials:tools:21:190,buildingMaterials:tiles:21:190,buildingMaterials:pulley:21:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:7:50,items:stoneClass_3:7:50,items:ironClass_3:7:50,items:foodClass_3:7:50,items:coinClass_3:7:36,items:gemClass_1:22:4,buildingMaterials:blueprints:22:190,buildingMaterials:tools:22:190,buildingMaterials:tiles:22:190,buildingMaterials:pulley:22:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:8:50,items:stoneClass_3:8:50,items:ironClass_3:8:50,items:foodClass_3:8:50,items:coinClass_3:8:36,items:gemClass_1:23:4,buildingMaterials:blueprints:23:190,buildingMaterials:tools:23:190,buildingMaterials:tiles:23:190,buildingMaterials:pulley:23:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:9:50,items:stoneClass_3:9:50,items:ironClass_3:9:50,items:foodClass_3:9:50,items:coinClass_3:9:36,items:gemClass_1:24:4,buildingMaterials:blueprints:24:190,buildingMaterials:tools:24:190,buildingMaterials:tiles:24:190,buildingMaterials:pulley:24:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:2:50,items:stoneClass_4:2:50,items:ironClass_4:2:50,items:foodClass_4:2:50,items:coinClass_4:2:36,items:gemClass_1:25:4,buildingMaterials:blueprints:25:190,buildingMaterials:tools:25:190,buildingMaterials:tiles:25:190,buildingMaterials:pulley:25:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:3:50,items:stoneClass_4:3:50,items:ironClass_4:3:50,items:foodClass_4:3:50,items:coinClass_4:3:36,items:gemClass_1:26:4,buildingMaterials:blueprints:26:190,buildingMaterials:tools:26:190,buildingMaterials:tiles:26:190,buildingMaterials:pulley:26:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:4:50,items:stoneClass_4:4:50,items:ironClass_4:4:50,items:foodClass_4:4:50,items:coinClass_4:4:36,items:gemClass_1:27:4,buildingMaterials:blueprints:27:190,buildingMaterials:tools:27:190,buildingMaterials:tiles:27:190,buildingMaterials:pulley:27:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:5:50,items:stoneClass_4:5:50,items:ironClass_4:5:50,items:foodClass_4:5:50,items:coinClass_4:5:36,items:gemClass_1:28:4,buildingMaterials:blueprints:28:190,buildingMaterials:tools:28:190,buildingMaterials:tiles:28:190,buildingMaterials:pulley:28:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:6:50,items:stoneClass_4:6:50,items:ironClass_4:6:50,items:foodClass_4:6:50,items:coinClass_4:6:36,items:gemClass_1:29:4,buildingMaterials:blueprints:29:190,buildingMaterials:tools:29:190,buildingMaterials:tiles:29:190,buildingMaterials:pulley:29:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:7:50,items:stoneClass_4:7:50,items:ironClass_4:7:50,items:foodClass_4:7:50,items:coinClass_4:7:36,items:gemClass_2:3:4,buildingMaterials:blueprints:30:190,buildingMaterials:tools:30:190,buildingMaterials:tiles:30:190,buildingMaterials:pulley:30:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:8:50,items:stoneClass_4:8:50,items:ironClass_4:8:50,items:foodClass_4:8:50,items:coinClass_4:8:36,items:gemClass_1:31:4,buildingMaterials:blueprints:31:190,buildingMaterials:tools:31:190,buildingMaterials:tiles:31:190,buildingMaterials:pulley:31:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:3:50,items:stoneClass_5:3:50,items:ironClass_5:3:50,items:foodClass_5:3:50,items:coinClass_5:3:36,items:gemClass_1:32:4,buildingMaterials:blueprints:32:190,buildingMaterials:tools:32:190,buildingMaterials:tiles:32:190,buildingMaterials:pulley:32:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:1:50,items:stoneClass_6:1:50,items:ironClass_6:1:50,items:foodClass_6:1:50,items:coinClass_6:1:36,items:gemClass_1:33:4,buildingMaterials:blueprints:33:190,buildingMaterials:tools:33:190,buildingMaterials:tiles:33:190,buildingMaterials:pulley:33:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:4:50,items:stoneClass_5:4:50,items:ironClass_5:4:50,items:foodClass_5:4:50,items:coinClass_5:4:36,items:gemClass_1:34:4,buildingMaterials:blueprints:34:190,buildingMaterials:tools:34:190,buildingMaterials:tiles:34:190,buildingMaterials:pulley:34:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:5:50,items:stoneClass_5:5:50,items:ironClass_5:5:50,items:foodClass_5:5:50,items:coinClass_5:5:36,items:gemClass_1:35:4,buildingMaterials:blueprints:35:190,buildingMaterials:tools:35:190,buildingMaterials:tiles:35:190,buildingMaterials:pulley:35:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:6:50,items:stoneClass_5:6:50,items:ironClass_5:6:50,items:foodClass_5:6:50,items:coinClass_5:6:36,items:gemClass_1:36:4,buildingMaterials:blueprints:36:190,buildingMaterials:tools:36:190,buildingMaterials:tiles:36:190,buildingMaterials:pulley:36:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:7:50,items:stoneClass_5:7:50,items:ironClass_5:7:50,items:foodClass_5:7:50,items:coinClass_5:7:36,items:gemClass_1:37:4,buildingMaterials:blueprints:37:190,buildingMaterials:tools:37:190,buildingMaterials:tiles:37:190,buildingMaterials:pulley:37:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:8:50,items:stoneClass_5:8:50,items:ironClass_5:8:50,items:foodClass_5:8:50,items:coinClass_5:8:36,items:gemClass_1:38:4,buildingMaterials:blueprints:38:190,buildingMaterials:tools:38:190,buildingMaterials:tiles:38:190,buildingMaterials:pulley:38:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:9:50,items:stoneClass_5:9:50,items:ironClass_5:9:50,items:foodClass_5:9:50,items:coinClass_5:9:36,items:gemClass_1:39:4,buildingMaterials:blueprints:39:190,buildingMaterials:tools:39:190,buildingMaterials:tiles:39:190,buildingMaterials:pulley:39:190</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:3:50,items:stoneClass_6:3:50,items:ironClass_6:3:50,items:foodClass_6:3:50,items:coinClass_6:3:36,items:gemClass_2:4:4,buildingMaterials:blueprints:40:190,buildingMaterials:tools:40:190,buildingMaterials:tiles:40:190,buildingMaterials:pulley:40:190</t>
-  </si>
-  <si>
-    <t>maxTroopPerDragon</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>每条龙最多带多少部队</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon:1:1,swordsman_1:1:16,lancer_1:1:8,swordsman_1:1:16,catapult_1:1:4,ranger_1:1:8,catapult_1:1:4</t>
-  </si>
-  <si>
-    <t>dragon:1:2,lancer_1:1:18,ballista_1:1:18,lancer_1:1:18,ranger_1:1:18,swordsman_1:1:18,ranger_1:1:18</t>
-  </si>
-  <si>
-    <t>dragon:1:3,catapult_1:1:28,crossbowman_1:1:56,catapult_1:1:28,sentinel_1:1:28,horseArcher_1:1:14,sentinel_1:1:28</t>
-  </si>
-  <si>
-    <t>dragon:1:4,crossbowman_1:2:96,sentinel_1:2:96,crossbowman_1:2:96,horseArcher_1:2:24,ballista_1:2:24,horseArcher_1:2:24</t>
-  </si>
-  <si>
-    <t>dragon:1:6,swordsman_1:2:161,lancer_1:2:81,swordsman_1:2:161,catapult_1:2:41,ranger_1:2:81,catapult_1:2:41</t>
-  </si>
-  <si>
-    <t>dragon:1:8,lancer_1:2:111,ballista_1:2:111,lancer_1:2:111,ranger_1:2:111,swordsman_1:2:111,ranger_1:2:111</t>
-  </si>
-  <si>
-    <t>dragon:2:11,catapult_1:3:181,crossbowman_1:3:361,catapult_1:3:181,sentinel_1:3:181,horseArcher_1:3:91,sentinel_1:3:181</t>
-  </si>
-  <si>
-    <t>dragon:2:12,crossbowman_1:3:461,sentinel_1:3:461,crossbowman_1:3:461,horseArcher_1:3:116,ballista_1:3:116,horseArcher_1:3:116</t>
-  </si>
-  <si>
-    <t>dragon:2:13,swordsman_1:3:572,lancer_1:3:286,swordsman_1:3:572,catapult_1:3:143,ranger_1:3:286,catapult_1:3:143</t>
-  </si>
-  <si>
-    <t>dragon:2:14,lancer_2:1:344,ballista_2:1:344,lancer_2:1:344,ranger_2:1:344,swordsman_2:1:344,ranger_2:1:344</t>
-  </si>
-  <si>
-    <t>dragon:2:16,catapult_2:1:410,crossbowman_2:1:820,catapult_2:1:410,sentinel_2:1:410,horseArcher_2:1:205,sentinel_2:1:410</t>
-  </si>
-  <si>
-    <t>dragon:2:18,crossbowman_2:1:960,sentinel_2:1:960,crossbowman_2:1:960,horseArcher_2:1:240,ballista_2:1:240,horseArcher_2:1:240</t>
-  </si>
-  <si>
-    <t>dragon:3:21,swordsman_2:2:1120,lancer_2:2:560,swordsman_2:2:1120,catapult_2:2:280,ranger_2:2:560,catapult_2:2:280</t>
-  </si>
-  <si>
-    <t>dragon:3:22,lancer_2:2:620,ballista_2:2:620,lancer_2:2:620,ranger_2:2:620,swordsman_2:2:620,ranger_2:2:620</t>
-  </si>
-  <si>
-    <t>dragon:3:23,catapult_2:2:700,crossbowman_2:2:1400,catapult_2:2:700,sentinel_2:2:700,horseArcher_2:2:350,sentinel_2:2:700</t>
-  </si>
-  <si>
-    <t>dragon:3:24,crossbowman_2:3:1560,sentinel_2:3:1560,crossbowman_2:3:1560,horseArcher_2:3:390,ballista_2:3:390,horseArcher_2:3:390</t>
-  </si>
-  <si>
-    <t>dragon:3:26,swordsman_2:3:1720,lancer_2:3:860,swordsman_2:3:1720,catapult_2:3:430,ranger_2:3:860,catapult_2:3:430</t>
-  </si>
-  <si>
-    <t>dragon:3:28,lancer_2:3:960,ballista_2:3:960,lancer_2:3:960,ranger_2:3:960,swordsman_2:3:960,ranger_2:3:960</t>
-  </si>
-  <si>
-    <t>dragon:4:31,catapult_3:1:1040,crossbowman_3:1:2080,catapult_3:1:1040,sentinel_3:1:1040,horseArcher_3:1:520,sentinel_3:1:1040</t>
-  </si>
-  <si>
-    <t>dragon:4:32,crossbowman_3:1:2280,sentinel_3:1:2280,crossbowman_3:1:2280,horseArcher_3:1:570,ballista_3:1:570,horseArcher_3:1:570</t>
-  </si>
-  <si>
-    <t>dragon:4:33,swordsman_3:2:2440,lancer_3:2:1220,swordsman_3:2:2440,catapult_3:2:610,ranger_3:2:1220,catapult_3:2:610</t>
-  </si>
-  <si>
-    <t>dragon:4:34,lancer_3:2:1320,ballista_3:2:1320,lancer_3:2:1320,ranger_3:2:1320,swordsman_3:2:1320,ranger_3:2:1320</t>
-  </si>
-  <si>
-    <t>dragon:4:36,catapult_3:3:1440,crossbowman_3:3:2880,catapult_3:3:1440,sentinel_3:3:1440,horseArcher_3:3:720,sentinel_3:3:1440</t>
-  </si>
-  <si>
-    <t>dragon:4:38,crossbowman_3:3:3200,sentinel_3:3:3200,crossbowman_3:3:3200,horseArcher_3:3:800,ballista_3:3:800,horseArcher_3:3:800</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:2:50,items:stoneClass_1:2:50,items:ironClass_1:2:50,items:foodClass_1:2:50,items:coinClass_1:2:36,items:gemClass_1:1:4,buildingMaterials:blueprints:1:190,buildingMaterials:tools:1:190,buildingMaterials:tiles:1:190,buildingMaterials:pulley:1:190</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_3:1:1260,lancer_3:1:630,horseArcher_3:1:630,horseArcher_3:1:630,lancer_3:1:630,crossbowman_3:1:1260;ballista_3:1:630,swordsman_3:1:1260,sentinel_3:1:1260,sentinel_3:1:1260,swordsman_3:1:1260,ballista_3:1:630;lancer_3:1:630,crossbowman_3:1:1260,sentinel_3:1:1260,sentinel_3:1:1260,crossbowman_3:1:1260,lancer_3:1:630</t>
-  </si>
-  <si>
-    <t>crossbowman_3:1:1340,lancer_3:1:670,horseArcher_3:1:670,horseArcher_3:1:670,lancer_3:1:670,crossbowman_3:1:1340;ballista_3:1:670,swordsman_3:1:1340,sentinel_3:1:1340,sentinel_3:1:1340,swordsman_3:1:1340,ballista_3:1:670;lancer_3:1:670,crossbowman_3:1:1340,catapult_3:1:670,catapult_3:1:670,crossbowman_3:1:1340,lancer_3:1:670</t>
-  </si>
-  <si>
-    <t>lancer_3:1:713,horseArcher_3:1:713,catapult_3:1:713,catapult_3:1:713,horseArcher_3:1:713,lancer_3:1:713;swordsman_3:1:1425,sentinel_3:1:1425,lancer_3:1:713,lancer_3:1:713,sentinel_3:1:1425,swordsman_3:1:1425;crossbowman_3:1:1425,lancer_3:1:713,ballista_3:1:713,ballista_3:1:713,lancer_3:1:713,crossbowman_3:1:1425</t>
-  </si>
-  <si>
-    <t>lancer_3:1:753,horseArcher_3:1:753,ballista_3:1:753,ballista_3:1:753,horseArcher_3:1:753,lancer_3:1:753;swordsman_3:1:1505,sentinel_3:1:1505,horseArcher_3:1:753,horseArcher_3:1:753,sentinel_3:1:1505,swordsman_3:1:1505;crossbowman_3:1:1505,lancer_3:1:753,swordsman_3:1:1505,swordsman_3:1:1505,lancer_3:1:753,crossbowman_3:1:1505</t>
-  </si>
-  <si>
-    <t>horseArcher_3:1:790,catapult_3:1:790,ballista_3:1:790,ballista_3:1:790,catapult_3:1:790,horseArcher_3:1:790;sentinel_3:1:1580,lancer_3:1:790,ranger_3:1:790,ranger_3:1:790,lancer_3:1:790,sentinel_3:1:1580;ranger_3:1:1580,horseArcher_3:1:790,sentinel_3:1:1580,sentinel_3:1:1580,horseArcher_3:1:790,ranger_3:1:1580</t>
-  </si>
-  <si>
-    <t>horseArcher_3:2:830,ballista_3:2:830,catapult_3:2:830,catapult_3:2:830,ballista_3:2:830,horseArcher_3:2:830;sentinel_3:2:1660,horseArcher_3:2:830,catapult_3:2:830,catapult_3:2:830,horseArcher_3:2:830,sentinel_3:2:1660;ranger_3:2:1660,horseArcher_3:2:830,catapult_3:2:830,catapult_3:2:830,horseArcher_3:2:830,ranger_3:2:1660</t>
-  </si>
-  <si>
-    <t>catapult_3:2:910,ballista_3:2:910,sentinel_3:2:1820,sentinel_3:2:1820,ballista_3:2:910,catapult_3:2:910;lancer_3:2:910,sentinel_3:2:1820,ballista_3:2:910,ballista_3:2:910,sentinel_3:2:1820,lancer_3:2:910;swordsman_3:2:1820,catapult_3:2:910,lancer_3:2:910,lancer_3:2:910,catapult_3:2:910,swordsman_3:2:1820</t>
-  </si>
-  <si>
-    <t>ballista_3:2:990,catapult_3:2:990,sentinel_3:2:1980,sentinel_3:2:1980,catapult_3:2:990,ballista_3:2:990;horseArcher_3:2:990,catapult_3:2:990,ranger_3:2:1980,ranger_3:2:1980,catapult_3:2:990,horseArcher_3:2:990;sentinel_3:2:1980,ballista_3:2:990,horseArcher_3:2:990,horseArcher_3:2:990,ballista_3:2:990,sentinel_3:2:1980</t>
-  </si>
-  <si>
-    <t>ballista_3:2:1070,swordsman_3:2:2140,ranger_3:2:2140,ranger_3:2:2140,swordsman_3:2:2140,ballista_3:2:1070;lancer_3:2:1070,ballista_3:2:1070,crossbowman_3:2:2140,crossbowman_3:2:2140,ballista_3:2:1070,lancer_3:2:1070;swordsman_3:2:2140,ranger_3:2:2140,ballista_3:2:1070,ballista_3:2:1070,ranger_3:2:2140,swordsman_3:2:2140</t>
-  </si>
-  <si>
-    <t>catapult_3:3:1148,swordsman_3:3:2295,ranger_3:3:2295,ranger_3:3:2295,swordsman_3:3:2295,catapult_3:3:1148;horseArcher_3:3:1148,crossbowman_3:3:2295,catapult_3:3:1148,catapult_3:3:1148,crossbowman_3:3:2295,horseArcher_3:3:1148;sentinel_3:3:2295,lancer_3:3:1148,catapult_3:3:1148,catapult_3:3:1148,lancer_3:3:1148,sentinel_3:3:2295</t>
-  </si>
-  <si>
-    <t>INT_honour</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_2:1:5,ballista_2:1:3,swordsman_2:1:5;sentinel_2:1:5,lancer_2:1:3,horseArcher_2:1:3;horseArcher_2:1:3,catapult_2:1:3,sentinel_2:1:5</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:10,ballista_2:1:5,swordsman_2:1:10;sentinel_2:1:10,lancer_2:1:5,horseArcher_2:1:5;horseArcher_2:1:5,catapult_2:1:5,sentinel_2:1:10</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:15,ballista_2:1:8,swordsman_2:1:15;sentinel_2:1:15,lancer_2:1:8,horseArcher_2:1:8;horseArcher_2:1:8,catapult_2:1:8,sentinel_2:1:15</t>
-  </si>
-  <si>
-    <t>swordsman_2:1:20,crossbowman_2:1:20,ballista_2:1:10;lancer_2:1:10,horseArcher_2:1:10,swordsman_2:1:20;catapult_2:1:10,ballista_2:1:10,lancer_2:1:10</t>
-  </si>
-  <si>
-    <t>swordsman_2:1:25,crossbowman_2:1:25,ballista_2:1:13;lancer_2:1:13,horseArcher_2:1:13,swordsman_2:1:25;catapult_2:1:13,ballista_2:1:13,lancer_2:1:13</t>
-  </si>
-  <si>
-    <t>swordsman_2:1:40,crossbowman_2:1:40,ballista_2:1:20;lancer_2:1:20,horseArcher_2:1:20,swordsman_2:1:40;catapult_2:1:20,ballista_2:1:20,lancer_2:1:20</t>
-  </si>
-  <si>
-    <t>sentinel_2:1:50,swordsman_2:1:50,crossbowman_2:1:50;horseArcher_2:1:25,swordsman_2:1:50,catapult_2:1:25;ballista_2:1:25,lancer_2:1:25,horseArcher_2:1:25</t>
-  </si>
-  <si>
-    <t>sentinel_2:1:60,swordsman_2:1:60,crossbowman_2:1:60;horseArcher_2:1:30,swordsman_2:1:60,catapult_2:1:30;ballista_2:1:30,lancer_2:1:30,horseArcher_2:1:30</t>
-  </si>
-  <si>
-    <t>sentinel_2:1:75,swordsman_2:1:75,crossbowman_2:1:75;horseArcher_2:1:38,swordsman_2:1:75,catapult_2:1:38;ballista_2:1:38,lancer_2:1:38,horseArcher_2:1:38</t>
-  </si>
-  <si>
-    <t>ranger_2:1:95,sentinel_2:1:95,swordsman_2:1:95;swordsman_2:1:95,catapult_2:1:48,ballista_2:1:48;lancer_2:1:48,ranger_2:1:95,swordsman_2:1:95</t>
-  </si>
-  <si>
-    <t>ranger_2:1:115,sentinel_2:1:115,swordsman_2:1:115,swordsman_2:1:115;swordsman_2:1:115,catapult_2:1:58,ballista_2:1:58,ballista_2:1:58;lancer_2:1:58,ranger_2:1:115,swordsman_2:1:115,swordsman_2:1:115</t>
-  </si>
-  <si>
-    <t>ranger_2:1:135,sentinel_2:1:135,swordsman_2:1:135,swordsman_2:1:135;swordsman_2:1:135,catapult_2:1:68,ballista_2:1:68,ballista_2:1:68;lancer_2:1:68,ranger_2:1:135,swordsman_2:1:135,swordsman_2:1:135</t>
-  </si>
-  <si>
-    <t>lancer_2:1:78,ranger_2:1:155,sentinel_2:1:155,sentinel_2:1:155;catapult_2:1:78,ballista_2:1:78,swordsman_2:1:155,swordsman_2:1:155;ranger_2:1:155,crossbowman_2:1:155,catapult_2:1:78,catapult_2:1:78</t>
-  </si>
-  <si>
-    <t>lancer_2:1:90,ranger_2:1:180,sentinel_2:1:180,sentinel_2:1:180;catapult_2:1:90,ballista_2:1:90,swordsman_2:1:180,swordsman_2:1:180;ranger_2:1:180,crossbowman_2:1:180,catapult_2:1:90,catapult_2:1:90</t>
-  </si>
-  <si>
-    <t>lancer_2:1:103,ranger_2:1:205,sentinel_2:1:205,sentinel_2:1:205;catapult_2:1:103,ballista_2:1:103,swordsman_2:1:205,swordsman_2:1:205;ranger_2:1:205,crossbowman_2:1:205,catapult_2:1:103,catapult_2:1:103</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:115,lancer_2:2:115,ranger_2:2:230,ranger_2:2:230;ballista_2:2:115,swordsman_2:2:230,sentinel_2:2:230,sentinel_2:2:230;crossbowman_2:2:230,horseArcher_2:2:115,ballista_2:2:115,ballista_2:2:115</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:135,lancer_2:2:135,ranger_2:2:270,ranger_2:2:270;ballista_2:2:135,swordsman_2:2:270,sentinel_2:2:270,sentinel_2:2:270;crossbowman_2:2:270,horseArcher_2:2:135,ballista_2:2:135,ballista_2:2:135</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:158,lancer_2:2:158,ranger_2:2:315,ranger_2:2:315;ballista_2:2:158,swordsman_2:2:315,sentinel_2:2:315,sentinel_2:2:315;crossbowman_2:2:315,horseArcher_2:2:158,ballista_2:2:158,ballista_2:2:158</t>
-  </si>
-  <si>
-    <t>catapult_2:2:180,horseArcher_2:2:180,lancer_2:2:180,lancer_2:2:180;swordsman_2:2:360,sentinel_2:2:360,ranger_2:2:360,ranger_2:2:360;horseArcher_2:2:180,lancer_2:2:180,swordsman_2:2:360,swordsman_2:2:360</t>
-  </si>
-  <si>
-    <t>catapult_2:2:205,horseArcher_2:2:205,lancer_2:2:205,lancer_2:2:205;swordsman_2:2:410,sentinel_2:2:410,ranger_2:2:410,ranger_2:2:410;horseArcher_2:2:205,lancer_2:2:205,swordsman_2:2:410,swordsman_2:2:410</t>
-  </si>
-  <si>
-    <t>catapult_2:2:230,horseArcher_2:2:230,lancer_2:2:230,lancer_2:2:230,horseArcher_2:2:230;swordsman_2:2:460,sentinel_2:2:460,ranger_2:2:460,ranger_2:2:460,sentinel_2:2:460;horseArcher_2:2:230,lancer_2:2:230,swordsman_2:2:460,swordsman_2:2:460,lancer_2:2:230</t>
-  </si>
-  <si>
-    <t>ballista_2:2:255,catapult_2:2:255,horseArcher_2:2:255,horseArcher_2:2:255,catapult_2:2:255;sentinel_2:2:510,ranger_2:2:510,lancer_2:2:255,lancer_2:2:255,ranger_2:2:510;lancer_2:2:255,crossbowman_2:2:510,sentinel_2:2:510,sentinel_2:2:510,crossbowman_2:2:510</t>
-  </si>
-  <si>
-    <t>ballista_2:2:283,catapult_2:2:283,horseArcher_2:2:283,horseArcher_2:2:283,catapult_2:2:283;sentinel_2:2:565,ranger_2:2:565,lancer_2:2:283,lancer_2:2:283,ranger_2:2:565;lancer_2:2:283,crossbowman_2:2:565,sentinel_2:2:565,sentinel_2:2:565,crossbowman_2:2:565</t>
-  </si>
-  <si>
-    <t>ballista_2:2:310,catapult_2:2:310,horseArcher_2:2:310,horseArcher_2:2:310,catapult_2:2:310;sentinel_2:2:620,ranger_2:2:620,lancer_2:2:310,lancer_2:2:310,ranger_2:2:620;lancer_2:2:310,crossbowman_2:2:620,sentinel_2:2:620,sentinel_2:2:620,crossbowman_2:2:620</t>
-  </si>
-  <si>
-    <t>swordsman_2:2:680,sentinel_2:2:680,ranger_2:2:680,ranger_2:2:680,sentinel_2:2:680;lancer_2:2:340,horseArcher_2:2:340,catapult_2:2:340,catapult_2:2:340,horseArcher_2:2:340;ballista_2:2:340,swordsman_2:2:680,horseArcher_2:2:340,horseArcher_2:2:340,swordsman_2:2:680</t>
-  </si>
-  <si>
-    <t>swordsman_2:3:740,sentinel_2:3:740,ranger_2:3:740,ranger_2:3:740,sentinel_2:3:740;lancer_2:3:370,horseArcher_2:3:370,catapult_2:3:370,catapult_2:3:370,horseArcher_2:3:370;ballista_2:3:370,swordsman_2:3:740,horseArcher_2:3:370,horseArcher_2:3:370,swordsman_2:3:740</t>
-  </si>
-  <si>
-    <t>sentinel_2:3:840,ranger_2:3:840,crossbowman_2:3:840,crossbowman_2:3:840,ranger_2:3:840;horseArcher_2:3:420,catapult_2:3:420,ballista_2:3:420,ballista_2:3:420,catapult_2:3:420;catapult_2:3:420,sentinel_2:3:840,swordsman_2:3:840,swordsman_2:3:840,sentinel_2:3:840</t>
-  </si>
-  <si>
-    <t>sentinel_2:3:950,ranger_2:3:950,crossbowman_2:3:950,crossbowman_2:3:950,ranger_2:3:950;horseArcher_2:3:475,catapult_2:3:475,ballista_2:3:475,ballista_2:3:475,catapult_2:3:475;catapult_2:3:475,sentinel_2:3:950,swordsman_2:3:950,swordsman_2:3:950,sentinel_2:3:950</t>
-  </si>
-  <si>
-    <t>ranger_2:3:1060,crossbowman_2:3:1060,lancer_2:3:530,lancer_2:3:530,crossbowman_2:3:1060;catapult_2:3:530,ballista_2:3:530,swordsman_2:3:1060,swordsman_2:3:1060,ballista_2:3:530;horseArcher_2:3:530,ranger_2:3:1060,sentinel_2:3:1060,sentinel_2:3:1060,ranger_2:3:1060</t>
-  </si>
-  <si>
-    <t>ranger_2:3:1180,crossbowman_2:3:1180,lancer_2:3:590,lancer_2:3:590,crossbowman_2:3:1180;catapult_2:3:590,ballista_2:3:590,swordsman_2:3:1180,swordsman_2:3:1180,ballista_2:3:590;horseArcher_2:3:590,ranger_2:3:1180,sentinel_2:3:1180,sentinel_2:3:1180,ranger_2:3:1180</t>
-  </si>
-  <si>
-    <t>canBuyAllianceArchonMinutes</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>多长时间能购竞选联盟盟主职位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4414,10 +4406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4563,13 +4555,13 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B13" s="8">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
@@ -4640,57 +4632,57 @@
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B20" s="8">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>273</v>
+        <v>566</v>
       </c>
       <c r="B21" s="8">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>274</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B22" s="8">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>458</v>
+        <v>275</v>
       </c>
       <c r="B23" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>459</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="B24" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -4698,7 +4690,7 @@
         <v>333</v>
       </c>
       <c r="B25" s="8">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>332</v>
@@ -4706,57 +4698,46 @@
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="B26" s="8">
-        <v>360</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B27" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B27" s="8">
-        <v>41</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>413</v>
+        <v>565</v>
       </c>
       <c r="B28" s="8">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>414</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>412</v>
+        <v>562</v>
       </c>
       <c r="B29" s="8">
-        <v>100</v>
+        <v>10080</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B30" s="8">
-        <v>10080</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4883,7 +4864,7 @@
         <v>32</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>35</v>
@@ -4895,7 +4876,7 @@
         <v>40</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="20" customHeight="1">
@@ -6138,7 +6119,7 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>144</v>
@@ -6161,7 +6142,7 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>144</v>
@@ -6184,7 +6165,7 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>144</v>
@@ -6207,7 +6188,7 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>144</v>
@@ -6230,7 +6211,7 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>144</v>
@@ -6253,7 +6234,7 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>144</v>
@@ -6350,7 +6331,7 @@
         <v>167</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>168</v>
@@ -6415,7 +6396,7 @@
         <v>160</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J2" s="15">
         <v>600</v>
@@ -6436,7 +6417,7 @@
         <v>217</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>193</v>
@@ -6445,7 +6426,7 @@
         <v>247</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T2" s="17" t="s">
         <v>205</v>
@@ -6454,7 +6435,7 @@
         <v>232</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="45">
@@ -6483,7 +6464,7 @@
         <v>360</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="J3" s="15">
         <v>1200</v>
@@ -6504,7 +6485,7 @@
         <v>218</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q3" s="17" t="s">
         <v>194</v>
@@ -6513,7 +6494,7 @@
         <v>248</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>206</v>
@@ -6522,7 +6503,7 @@
         <v>233</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="45">
@@ -6551,7 +6532,7 @@
         <v>560</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J4" s="15">
         <v>1800</v>
@@ -6572,7 +6553,7 @@
         <v>219</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="17" t="s">
         <v>195</v>
@@ -6581,7 +6562,7 @@
         <v>249</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="T4" s="17" t="s">
         <v>207</v>
@@ -6590,7 +6571,7 @@
         <v>234</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="45">
@@ -6619,7 +6600,7 @@
         <v>1440</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="J5" s="15">
         <v>2400</v>
@@ -6640,7 +6621,7 @@
         <v>220</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="17" t="s">
         <v>196</v>
@@ -6649,7 +6630,7 @@
         <v>250</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T5" s="17" t="s">
         <v>208</v>
@@ -6658,7 +6639,7 @@
         <v>235</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="45">
@@ -6687,7 +6668,7 @@
         <v>2402</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="J6" s="15">
         <v>3000</v>
@@ -6708,7 +6689,7 @@
         <v>221</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q6" s="17" t="s">
         <v>197</v>
@@ -6717,7 +6698,7 @@
         <v>251</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="T6" s="17" t="s">
         <v>209</v>
@@ -6726,7 +6707,7 @@
         <v>236</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="45">
@@ -6755,7 +6736,7 @@
         <v>3302</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="J7" s="15">
         <v>3600</v>
@@ -6776,7 +6757,7 @@
         <v>222</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="17" t="s">
         <v>198</v>
@@ -6785,7 +6766,7 @@
         <v>252</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="T7" s="17" t="s">
         <v>210</v>
@@ -6794,7 +6775,7 @@
         <v>237</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="45">
@@ -6823,7 +6804,7 @@
         <v>7202</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="J8" s="15">
         <v>4200</v>
@@ -6838,31 +6819,31 @@
         <v>1515</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P8" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="V8" s="17" t="s">
         <v>356</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="45">
@@ -6891,7 +6872,7 @@
         <v>9202</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J9" s="15">
         <v>4800</v>
@@ -6912,7 +6893,7 @@
         <v>223</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q9" s="17" t="s">
         <v>199</v>
@@ -6921,7 +6902,7 @@
         <v>253</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="T9" s="17" t="s">
         <v>211</v>
@@ -6930,7 +6911,7 @@
         <v>238</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="45">
@@ -6959,7 +6940,7 @@
         <v>11440</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J10" s="15">
         <v>6000</v>
@@ -6974,31 +6955,31 @@
         <v>2400</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P10" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="V10" s="17" t="s">
         <v>362</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="V10" s="17" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="45">
@@ -7027,7 +7008,7 @@
         <v>17200</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="J11" s="15">
         <v>7200</v>
@@ -7048,7 +7029,7 @@
         <v>224</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q11" s="17" t="s">
         <v>149</v>
@@ -7057,7 +7038,7 @@
         <v>254</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="T11" s="17" t="s">
         <v>150</v>
@@ -7066,7 +7047,7 @@
         <v>239</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="45">
@@ -7095,7 +7076,7 @@
         <v>20500</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="J12" s="15">
         <v>9600</v>
@@ -7110,31 +7091,31 @@
         <v>4305</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P12" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="V12" s="17" t="s">
         <v>368</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="45">
@@ -7163,7 +7144,7 @@
         <v>24000</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="J13" s="15">
         <v>12600</v>
@@ -7184,7 +7165,7 @@
         <v>225</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="17" t="s">
         <v>200</v>
@@ -7193,7 +7174,7 @@
         <v>255</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="T13" s="17" t="s">
         <v>212</v>
@@ -7202,7 +7183,7 @@
         <v>240</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="45">
@@ -7231,7 +7212,7 @@
         <v>33600</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="J14" s="15">
         <v>18000</v>
@@ -7246,31 +7227,31 @@
         <v>7055</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P14" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="V14" s="17" t="s">
         <v>374</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="U14" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="V14" s="17" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="45">
@@ -7299,7 +7280,7 @@
         <v>37200</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="J15" s="15">
         <v>22500</v>
@@ -7320,7 +7301,7 @@
         <v>226</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q15" s="17" t="s">
         <v>201</v>
@@ -7329,7 +7310,7 @@
         <v>256</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="T15" s="17" t="s">
         <v>213</v>
@@ -7338,7 +7319,7 @@
         <v>241</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45">
@@ -7367,7 +7348,7 @@
         <v>42000</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="J16" s="15">
         <v>31500</v>
@@ -7382,31 +7363,31 @@
         <v>8820</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P16" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="V16" s="17" t="s">
         <v>380</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="R16" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="45">
@@ -7435,7 +7416,7 @@
         <v>54600</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="J17" s="15">
         <v>38400</v>
@@ -7456,7 +7437,7 @@
         <v>227</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="17" t="s">
         <v>153</v>
@@ -7465,7 +7446,7 @@
         <v>257</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T17" s="17" t="s">
         <v>154</v>
@@ -7474,7 +7455,7 @@
         <v>242</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="45">
@@ -7503,7 +7484,7 @@
         <v>60200</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="J18" s="15">
         <v>56100</v>
@@ -7518,31 +7499,31 @@
         <v>12640</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P18" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="U18" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="V18" s="17" t="s">
         <v>386</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="U18" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="45">
@@ -7571,7 +7552,7 @@
         <v>67200</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="J19" s="15">
         <v>67500</v>
@@ -7592,7 +7573,7 @@
         <v>228</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q19" s="17" t="s">
         <v>202</v>
@@ -7601,7 +7582,7 @@
         <v>258</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T19" s="17" t="s">
         <v>214</v>
@@ -7610,7 +7591,7 @@
         <v>243</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="45">
@@ -7639,7 +7620,7 @@
         <v>83200</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="J20" s="15">
         <v>98100</v>
@@ -7654,31 +7635,31 @@
         <v>17470</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P20" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="U20" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="V20" s="17" t="s">
         <v>392</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="T20" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="U20" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="V20" s="17" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="45">
@@ -7707,7 +7688,7 @@
         <v>91200</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="J21" s="15">
         <v>117900</v>
@@ -7728,7 +7709,7 @@
         <v>229</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q21" s="17" t="s">
         <v>203</v>
@@ -7737,7 +7718,7 @@
         <v>259</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="T21" s="17" t="s">
         <v>215</v>
@@ -7746,7 +7727,7 @@
         <v>244</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="45">
@@ -7775,7 +7756,7 @@
         <v>109800</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="J22" s="15">
         <v>170100</v>
@@ -7790,31 +7771,31 @@
         <v>23055</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P22" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="U22" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="V22" s="17" t="s">
         <v>398</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="S22" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="T22" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="U22" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="V22" s="17" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="45">
@@ -7843,7 +7824,7 @@
         <v>118800</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="J23" s="15">
         <v>204000</v>
@@ -7864,7 +7845,7 @@
         <v>230</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Q23" s="17" t="s">
         <v>157</v>
@@ -7873,7 +7854,7 @@
         <v>260</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T23" s="17" t="s">
         <v>158</v>
@@ -7882,7 +7863,7 @@
         <v>245</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="45">
@@ -7911,7 +7892,7 @@
         <v>144000</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J24" s="12">
         <v>240000</v>
@@ -7926,31 +7907,31 @@
         <v>30240</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P24" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="V24" s="17" t="s">
         <v>404</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="R24" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="S24" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="T24" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="U24" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="V24" s="17" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="45">
@@ -7979,7 +7960,7 @@
         <v>160000</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="J25" s="12">
         <v>300000</v>
@@ -8000,7 +7981,7 @@
         <v>231</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q25" s="17" t="s">
         <v>204</v>
@@ -8009,7 +7990,7 @@
         <v>261</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>216</v>
@@ -8018,7 +7999,7 @@
         <v>246</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="20" customHeight="1">
@@ -8076,16 +8057,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1">
       <c r="A1" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>272</v>
-      </c>
       <c r="C1" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F1" s="20"/>
     </row>
@@ -8094,13 +8075,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -8108,13 +8089,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -8122,13 +8103,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -8136,13 +8117,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -8150,13 +8131,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -8164,13 +8145,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -8178,13 +8159,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -8192,13 +8173,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
@@ -8206,13 +8187,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -8220,13 +8201,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
@@ -8234,13 +8215,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45">
@@ -8248,13 +8229,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45">
@@ -8262,13 +8243,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45">
@@ -8276,13 +8257,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
@@ -8290,13 +8271,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45">
@@ -8304,13 +8285,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45">
@@ -8318,13 +8299,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45">
@@ -8332,13 +8313,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45">
@@ -8346,13 +8327,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45">
@@ -8360,13 +8341,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60">
@@ -8374,13 +8355,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60">
@@ -8388,13 +8369,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60">
@@ -8402,13 +8383,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60">
@@ -8416,13 +8397,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60">
@@ -8430,13 +8411,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60">
@@ -8444,13 +8425,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60">
@@ -8458,13 +8439,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60">
@@ -8472,13 +8453,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60">
@@ -8486,13 +8467,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="60">
@@ -8500,13 +8481,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="75">
@@ -8514,13 +8495,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="75">
@@ -8528,13 +8509,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="75">
@@ -8542,13 +8523,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="75">
@@ -8556,13 +8537,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30">
@@ -8570,13 +8551,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30">
@@ -8584,13 +8565,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -8598,13 +8579,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
@@ -8612,13 +8593,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
@@ -8626,13 +8607,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -8640,13 +8621,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="497"/>
+    <workbookView xWindow="220" yWindow="0" windowWidth="30700" windowHeight="17540" tabRatio="497" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1685,112 +1685,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>dragon:1:1,swordsman_1:1:16,lancer_1:1:8,swordsman_1:1:16,catapult_1:1:4,ranger_1:1:8,catapult_1:1:4</t>
-  </si>
-  <si>
-    <t>dragon:1:2,lancer_1:1:18,ballista_1:1:18,lancer_1:1:18,ranger_1:1:18,swordsman_1:1:18,ranger_1:1:18</t>
-  </si>
-  <si>
-    <t>dragon:1:3,catapult_1:1:28,crossbowman_1:1:56,catapult_1:1:28,sentinel_1:1:28,horseArcher_1:1:14,sentinel_1:1:28</t>
-  </si>
-  <si>
-    <t>dragon:1:4,crossbowman_1:2:96,sentinel_1:2:96,crossbowman_1:2:96,horseArcher_1:2:24,ballista_1:2:24,horseArcher_1:2:24</t>
-  </si>
-  <si>
-    <t>dragon:1:6,swordsman_1:2:161,lancer_1:2:81,swordsman_1:2:161,catapult_1:2:41,ranger_1:2:81,catapult_1:2:41</t>
-  </si>
-  <si>
-    <t>dragon:1:8,lancer_1:2:111,ballista_1:2:111,lancer_1:2:111,ranger_1:2:111,swordsman_1:2:111,ranger_1:2:111</t>
-  </si>
-  <si>
-    <t>dragon:2:11,catapult_1:3:181,crossbowman_1:3:361,catapult_1:3:181,sentinel_1:3:181,horseArcher_1:3:91,sentinel_1:3:181</t>
-  </si>
-  <si>
-    <t>dragon:2:12,crossbowman_1:3:461,sentinel_1:3:461,crossbowman_1:3:461,horseArcher_1:3:116,ballista_1:3:116,horseArcher_1:3:116</t>
-  </si>
-  <si>
-    <t>dragon:2:13,swordsman_1:3:572,lancer_1:3:286,swordsman_1:3:572,catapult_1:3:143,ranger_1:3:286,catapult_1:3:143</t>
-  </si>
-  <si>
-    <t>dragon:2:14,lancer_2:1:344,ballista_2:1:344,lancer_2:1:344,ranger_2:1:344,swordsman_2:1:344,ranger_2:1:344</t>
-  </si>
-  <si>
-    <t>dragon:2:16,catapult_2:1:410,crossbowman_2:1:820,catapult_2:1:410,sentinel_2:1:410,horseArcher_2:1:205,sentinel_2:1:410</t>
-  </si>
-  <si>
-    <t>dragon:2:18,crossbowman_2:1:960,sentinel_2:1:960,crossbowman_2:1:960,horseArcher_2:1:240,ballista_2:1:240,horseArcher_2:1:240</t>
-  </si>
-  <si>
-    <t>dragon:3:21,swordsman_2:2:1120,lancer_2:2:560,swordsman_2:2:1120,catapult_2:2:280,ranger_2:2:560,catapult_2:2:280</t>
-  </si>
-  <si>
-    <t>dragon:3:22,lancer_2:2:620,ballista_2:2:620,lancer_2:2:620,ranger_2:2:620,swordsman_2:2:620,ranger_2:2:620</t>
-  </si>
-  <si>
-    <t>dragon:3:23,catapult_2:2:700,crossbowman_2:2:1400,catapult_2:2:700,sentinel_2:2:700,horseArcher_2:2:350,sentinel_2:2:700</t>
-  </si>
-  <si>
-    <t>dragon:3:24,crossbowman_2:3:1560,sentinel_2:3:1560,crossbowman_2:3:1560,horseArcher_2:3:390,ballista_2:3:390,horseArcher_2:3:390</t>
-  </si>
-  <si>
-    <t>dragon:3:26,swordsman_2:3:1720,lancer_2:3:860,swordsman_2:3:1720,catapult_2:3:430,ranger_2:3:860,catapult_2:3:430</t>
-  </si>
-  <si>
-    <t>dragon:3:28,lancer_2:3:960,ballista_2:3:960,lancer_2:3:960,ranger_2:3:960,swordsman_2:3:960,ranger_2:3:960</t>
-  </si>
-  <si>
-    <t>dragon:4:31,catapult_3:1:1040,crossbowman_3:1:2080,catapult_3:1:1040,sentinel_3:1:1040,horseArcher_3:1:520,sentinel_3:1:1040</t>
-  </si>
-  <si>
-    <t>dragon:4:32,crossbowman_3:1:2280,sentinel_3:1:2280,crossbowman_3:1:2280,horseArcher_3:1:570,ballista_3:1:570,horseArcher_3:1:570</t>
-  </si>
-  <si>
-    <t>dragon:4:33,swordsman_3:2:2440,lancer_3:2:1220,swordsman_3:2:2440,catapult_3:2:610,ranger_3:2:1220,catapult_3:2:610</t>
-  </si>
-  <si>
-    <t>dragon:4:34,lancer_3:2:1320,ballista_3:2:1320,lancer_3:2:1320,ranger_3:2:1320,swordsman_3:2:1320,ranger_3:2:1320</t>
-  </si>
-  <si>
-    <t>dragon:4:36,catapult_3:3:1440,crossbowman_3:3:2880,catapult_3:3:1440,sentinel_3:3:1440,horseArcher_3:3:720,sentinel_3:3:1440</t>
-  </si>
-  <si>
-    <t>dragon:4:38,crossbowman_3:3:3200,sentinel_3:3:3200,crossbowman_3:3:3200,horseArcher_3:3:800,ballista_3:3:800,horseArcher_3:3:800</t>
-  </si>
-  <si>
     <t>items:woodClass_1:2:50,items:stoneClass_1:2:50,items:ironClass_1:2:50,items:foodClass_1:2:50,items:coinClass_1:2:36,items:gemClass_1:1:4,buildingMaterials:blueprints:1:190,buildingMaterials:tools:1:190,buildingMaterials:tiles:1:190,buildingMaterials:pulley:1:190</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>crossbowman_3:1:1260,lancer_3:1:630,horseArcher_3:1:630,horseArcher_3:1:630,lancer_3:1:630,crossbowman_3:1:1260;ballista_3:1:630,swordsman_3:1:1260,sentinel_3:1:1260,sentinel_3:1:1260,swordsman_3:1:1260,ballista_3:1:630;lancer_3:1:630,crossbowman_3:1:1260,sentinel_3:1:1260,sentinel_3:1:1260,crossbowman_3:1:1260,lancer_3:1:630</t>
-  </si>
-  <si>
-    <t>crossbowman_3:1:1340,lancer_3:1:670,horseArcher_3:1:670,horseArcher_3:1:670,lancer_3:1:670,crossbowman_3:1:1340;ballista_3:1:670,swordsman_3:1:1340,sentinel_3:1:1340,sentinel_3:1:1340,swordsman_3:1:1340,ballista_3:1:670;lancer_3:1:670,crossbowman_3:1:1340,catapult_3:1:670,catapult_3:1:670,crossbowman_3:1:1340,lancer_3:1:670</t>
-  </si>
-  <si>
-    <t>lancer_3:1:713,horseArcher_3:1:713,catapult_3:1:713,catapult_3:1:713,horseArcher_3:1:713,lancer_3:1:713;swordsman_3:1:1425,sentinel_3:1:1425,lancer_3:1:713,lancer_3:1:713,sentinel_3:1:1425,swordsman_3:1:1425;crossbowman_3:1:1425,lancer_3:1:713,ballista_3:1:713,ballista_3:1:713,lancer_3:1:713,crossbowman_3:1:1425</t>
-  </si>
-  <si>
-    <t>lancer_3:1:753,horseArcher_3:1:753,ballista_3:1:753,ballista_3:1:753,horseArcher_3:1:753,lancer_3:1:753;swordsman_3:1:1505,sentinel_3:1:1505,horseArcher_3:1:753,horseArcher_3:1:753,sentinel_3:1:1505,swordsman_3:1:1505;crossbowman_3:1:1505,lancer_3:1:753,swordsman_3:1:1505,swordsman_3:1:1505,lancer_3:1:753,crossbowman_3:1:1505</t>
-  </si>
-  <si>
-    <t>horseArcher_3:1:790,catapult_3:1:790,ballista_3:1:790,ballista_3:1:790,catapult_3:1:790,horseArcher_3:1:790;sentinel_3:1:1580,lancer_3:1:790,ranger_3:1:790,ranger_3:1:790,lancer_3:1:790,sentinel_3:1:1580;ranger_3:1:1580,horseArcher_3:1:790,sentinel_3:1:1580,sentinel_3:1:1580,horseArcher_3:1:790,ranger_3:1:1580</t>
-  </si>
-  <si>
-    <t>horseArcher_3:2:830,ballista_3:2:830,catapult_3:2:830,catapult_3:2:830,ballista_3:2:830,horseArcher_3:2:830;sentinel_3:2:1660,horseArcher_3:2:830,catapult_3:2:830,catapult_3:2:830,horseArcher_3:2:830,sentinel_3:2:1660;ranger_3:2:1660,horseArcher_3:2:830,catapult_3:2:830,catapult_3:2:830,horseArcher_3:2:830,ranger_3:2:1660</t>
-  </si>
-  <si>
-    <t>catapult_3:2:910,ballista_3:2:910,sentinel_3:2:1820,sentinel_3:2:1820,ballista_3:2:910,catapult_3:2:910;lancer_3:2:910,sentinel_3:2:1820,ballista_3:2:910,ballista_3:2:910,sentinel_3:2:1820,lancer_3:2:910;swordsman_3:2:1820,catapult_3:2:910,lancer_3:2:910,lancer_3:2:910,catapult_3:2:910,swordsman_3:2:1820</t>
-  </si>
-  <si>
-    <t>ballista_3:2:990,catapult_3:2:990,sentinel_3:2:1980,sentinel_3:2:1980,catapult_3:2:990,ballista_3:2:990;horseArcher_3:2:990,catapult_3:2:990,ranger_3:2:1980,ranger_3:2:1980,catapult_3:2:990,horseArcher_3:2:990;sentinel_3:2:1980,ballista_3:2:990,horseArcher_3:2:990,horseArcher_3:2:990,ballista_3:2:990,sentinel_3:2:1980</t>
-  </si>
-  <si>
-    <t>ballista_3:2:1070,swordsman_3:2:2140,ranger_3:2:2140,ranger_3:2:2140,swordsman_3:2:2140,ballista_3:2:1070;lancer_3:2:1070,ballista_3:2:1070,crossbowman_3:2:2140,crossbowman_3:2:2140,ballista_3:2:1070,lancer_3:2:1070;swordsman_3:2:2140,ranger_3:2:2140,ballista_3:2:1070,ballista_3:2:1070,ranger_3:2:2140,swordsman_3:2:2140</t>
-  </si>
-  <si>
-    <t>catapult_3:3:1148,swordsman_3:3:2295,ranger_3:3:2295,ranger_3:3:2295,swordsman_3:3:2295,catapult_3:3:1148;horseArcher_3:3:1148,crossbowman_3:3:2295,catapult_3:3:1148,catapult_3:3:1148,crossbowman_3:3:2295,horseArcher_3:3:1148;sentinel_3:3:2295,lancer_3:3:1148,catapult_3:3:1148,catapult_3:3:1148,lancer_3:3:1148,sentinel_3:3:2295</t>
-  </si>
-  <si>
     <t>INT_honour</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1798,93 +1696,9 @@
     <t>crossbowman_2:1:5,ballista_2:1:3,swordsman_2:1:5;sentinel_2:1:5,lancer_2:1:3,horseArcher_2:1:3;horseArcher_2:1:3,catapult_2:1:3,sentinel_2:1:5</t>
   </si>
   <si>
-    <t>crossbowman_2:1:10,ballista_2:1:5,swordsman_2:1:10;sentinel_2:1:10,lancer_2:1:5,horseArcher_2:1:5;horseArcher_2:1:5,catapult_2:1:5,sentinel_2:1:10</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:15,ballista_2:1:8,swordsman_2:1:15;sentinel_2:1:15,lancer_2:1:8,horseArcher_2:1:8;horseArcher_2:1:8,catapult_2:1:8,sentinel_2:1:15</t>
-  </si>
-  <si>
     <t>swordsman_2:1:20,crossbowman_2:1:20,ballista_2:1:10;lancer_2:1:10,horseArcher_2:1:10,swordsman_2:1:20;catapult_2:1:10,ballista_2:1:10,lancer_2:1:10</t>
   </si>
   <si>
-    <t>swordsman_2:1:25,crossbowman_2:1:25,ballista_2:1:13;lancer_2:1:13,horseArcher_2:1:13,swordsman_2:1:25;catapult_2:1:13,ballista_2:1:13,lancer_2:1:13</t>
-  </si>
-  <si>
-    <t>swordsman_2:1:40,crossbowman_2:1:40,ballista_2:1:20;lancer_2:1:20,horseArcher_2:1:20,swordsman_2:1:40;catapult_2:1:20,ballista_2:1:20,lancer_2:1:20</t>
-  </si>
-  <si>
-    <t>sentinel_2:1:50,swordsman_2:1:50,crossbowman_2:1:50;horseArcher_2:1:25,swordsman_2:1:50,catapult_2:1:25;ballista_2:1:25,lancer_2:1:25,horseArcher_2:1:25</t>
-  </si>
-  <si>
-    <t>sentinel_2:1:60,swordsman_2:1:60,crossbowman_2:1:60;horseArcher_2:1:30,swordsman_2:1:60,catapult_2:1:30;ballista_2:1:30,lancer_2:1:30,horseArcher_2:1:30</t>
-  </si>
-  <si>
-    <t>sentinel_2:1:75,swordsman_2:1:75,crossbowman_2:1:75;horseArcher_2:1:38,swordsman_2:1:75,catapult_2:1:38;ballista_2:1:38,lancer_2:1:38,horseArcher_2:1:38</t>
-  </si>
-  <si>
-    <t>ranger_2:1:95,sentinel_2:1:95,swordsman_2:1:95;swordsman_2:1:95,catapult_2:1:48,ballista_2:1:48;lancer_2:1:48,ranger_2:1:95,swordsman_2:1:95</t>
-  </si>
-  <si>
-    <t>ranger_2:1:115,sentinel_2:1:115,swordsman_2:1:115,swordsman_2:1:115;swordsman_2:1:115,catapult_2:1:58,ballista_2:1:58,ballista_2:1:58;lancer_2:1:58,ranger_2:1:115,swordsman_2:1:115,swordsman_2:1:115</t>
-  </si>
-  <si>
-    <t>ranger_2:1:135,sentinel_2:1:135,swordsman_2:1:135,swordsman_2:1:135;swordsman_2:1:135,catapult_2:1:68,ballista_2:1:68,ballista_2:1:68;lancer_2:1:68,ranger_2:1:135,swordsman_2:1:135,swordsman_2:1:135</t>
-  </si>
-  <si>
-    <t>lancer_2:1:78,ranger_2:1:155,sentinel_2:1:155,sentinel_2:1:155;catapult_2:1:78,ballista_2:1:78,swordsman_2:1:155,swordsman_2:1:155;ranger_2:1:155,crossbowman_2:1:155,catapult_2:1:78,catapult_2:1:78</t>
-  </si>
-  <si>
-    <t>lancer_2:1:90,ranger_2:1:180,sentinel_2:1:180,sentinel_2:1:180;catapult_2:1:90,ballista_2:1:90,swordsman_2:1:180,swordsman_2:1:180;ranger_2:1:180,crossbowman_2:1:180,catapult_2:1:90,catapult_2:1:90</t>
-  </si>
-  <si>
-    <t>lancer_2:1:103,ranger_2:1:205,sentinel_2:1:205,sentinel_2:1:205;catapult_2:1:103,ballista_2:1:103,swordsman_2:1:205,swordsman_2:1:205;ranger_2:1:205,crossbowman_2:1:205,catapult_2:1:103,catapult_2:1:103</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:115,lancer_2:2:115,ranger_2:2:230,ranger_2:2:230;ballista_2:2:115,swordsman_2:2:230,sentinel_2:2:230,sentinel_2:2:230;crossbowman_2:2:230,horseArcher_2:2:115,ballista_2:2:115,ballista_2:2:115</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:135,lancer_2:2:135,ranger_2:2:270,ranger_2:2:270;ballista_2:2:135,swordsman_2:2:270,sentinel_2:2:270,sentinel_2:2:270;crossbowman_2:2:270,horseArcher_2:2:135,ballista_2:2:135,ballista_2:2:135</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:158,lancer_2:2:158,ranger_2:2:315,ranger_2:2:315;ballista_2:2:158,swordsman_2:2:315,sentinel_2:2:315,sentinel_2:2:315;crossbowman_2:2:315,horseArcher_2:2:158,ballista_2:2:158,ballista_2:2:158</t>
-  </si>
-  <si>
-    <t>catapult_2:2:180,horseArcher_2:2:180,lancer_2:2:180,lancer_2:2:180;swordsman_2:2:360,sentinel_2:2:360,ranger_2:2:360,ranger_2:2:360;horseArcher_2:2:180,lancer_2:2:180,swordsman_2:2:360,swordsman_2:2:360</t>
-  </si>
-  <si>
-    <t>catapult_2:2:205,horseArcher_2:2:205,lancer_2:2:205,lancer_2:2:205;swordsman_2:2:410,sentinel_2:2:410,ranger_2:2:410,ranger_2:2:410;horseArcher_2:2:205,lancer_2:2:205,swordsman_2:2:410,swordsman_2:2:410</t>
-  </si>
-  <si>
-    <t>catapult_2:2:230,horseArcher_2:2:230,lancer_2:2:230,lancer_2:2:230,horseArcher_2:2:230;swordsman_2:2:460,sentinel_2:2:460,ranger_2:2:460,ranger_2:2:460,sentinel_2:2:460;horseArcher_2:2:230,lancer_2:2:230,swordsman_2:2:460,swordsman_2:2:460,lancer_2:2:230</t>
-  </si>
-  <si>
-    <t>ballista_2:2:255,catapult_2:2:255,horseArcher_2:2:255,horseArcher_2:2:255,catapult_2:2:255;sentinel_2:2:510,ranger_2:2:510,lancer_2:2:255,lancer_2:2:255,ranger_2:2:510;lancer_2:2:255,crossbowman_2:2:510,sentinel_2:2:510,sentinel_2:2:510,crossbowman_2:2:510</t>
-  </si>
-  <si>
-    <t>ballista_2:2:283,catapult_2:2:283,horseArcher_2:2:283,horseArcher_2:2:283,catapult_2:2:283;sentinel_2:2:565,ranger_2:2:565,lancer_2:2:283,lancer_2:2:283,ranger_2:2:565;lancer_2:2:283,crossbowman_2:2:565,sentinel_2:2:565,sentinel_2:2:565,crossbowman_2:2:565</t>
-  </si>
-  <si>
-    <t>ballista_2:2:310,catapult_2:2:310,horseArcher_2:2:310,horseArcher_2:2:310,catapult_2:2:310;sentinel_2:2:620,ranger_2:2:620,lancer_2:2:310,lancer_2:2:310,ranger_2:2:620;lancer_2:2:310,crossbowman_2:2:620,sentinel_2:2:620,sentinel_2:2:620,crossbowman_2:2:620</t>
-  </si>
-  <si>
-    <t>swordsman_2:2:680,sentinel_2:2:680,ranger_2:2:680,ranger_2:2:680,sentinel_2:2:680;lancer_2:2:340,horseArcher_2:2:340,catapult_2:2:340,catapult_2:2:340,horseArcher_2:2:340;ballista_2:2:340,swordsman_2:2:680,horseArcher_2:2:340,horseArcher_2:2:340,swordsman_2:2:680</t>
-  </si>
-  <si>
-    <t>swordsman_2:3:740,sentinel_2:3:740,ranger_2:3:740,ranger_2:3:740,sentinel_2:3:740;lancer_2:3:370,horseArcher_2:3:370,catapult_2:3:370,catapult_2:3:370,horseArcher_2:3:370;ballista_2:3:370,swordsman_2:3:740,horseArcher_2:3:370,horseArcher_2:3:370,swordsman_2:3:740</t>
-  </si>
-  <si>
-    <t>sentinel_2:3:840,ranger_2:3:840,crossbowman_2:3:840,crossbowman_2:3:840,ranger_2:3:840;horseArcher_2:3:420,catapult_2:3:420,ballista_2:3:420,ballista_2:3:420,catapult_2:3:420;catapult_2:3:420,sentinel_2:3:840,swordsman_2:3:840,swordsman_2:3:840,sentinel_2:3:840</t>
-  </si>
-  <si>
-    <t>sentinel_2:3:950,ranger_2:3:950,crossbowman_2:3:950,crossbowman_2:3:950,ranger_2:3:950;horseArcher_2:3:475,catapult_2:3:475,ballista_2:3:475,ballista_2:3:475,catapult_2:3:475;catapult_2:3:475,sentinel_2:3:950,swordsman_2:3:950,swordsman_2:3:950,sentinel_2:3:950</t>
-  </si>
-  <si>
-    <t>ranger_2:3:1060,crossbowman_2:3:1060,lancer_2:3:530,lancer_2:3:530,crossbowman_2:3:1060;catapult_2:3:530,ballista_2:3:530,swordsman_2:3:1060,swordsman_2:3:1060,ballista_2:3:530;horseArcher_2:3:530,ranger_2:3:1060,sentinel_2:3:1060,sentinel_2:3:1060,ranger_2:3:1060</t>
-  </si>
-  <si>
-    <t>ranger_2:3:1180,crossbowman_2:3:1180,lancer_2:3:590,lancer_2:3:590,crossbowman_2:3:1180;catapult_2:3:590,ballista_2:3:590,swordsman_2:3:1180,swordsman_2:3:1180,ballista_2:3:590;horseArcher_2:3:590,ranger_2:3:1180,sentinel_2:3:1180,sentinel_2:3:1180,ranger_2:3:1180</t>
-  </si>
-  <si>
     <t>canBuyAllianceArchonMinutes</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1902,6 +1716,192 @@
   </si>
   <si>
     <t>villageRefreshMinutes</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:3,ballista_2:1:2,swordsman_2:1:3;sentinel_2:1:3,lancer_2:1:2,horseArcher_2:1:2;horseArcher_2:1:2,catapult_2:1:2,sentinel_2:1:3</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:30,swordsman_2:1:30,crossbowman_2:1:30;horseArcher_2:1:15,swordsman_2:1:30,catapult_2:1:15;ballista_2:1:15,lancer_2:1:15,horseArcher_2:1:15</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:8,ballista_2:1:4,swordsman_2:1:8;sentinel_2:1:8,lancer_2:1:4,horseArcher_2:1:4;horseArcher_2:1:4,catapult_2:1:4,sentinel_2:1:8</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:10,crossbowman_2:1:10,ballista_2:1:5;lancer_2:1:5,horseArcher_2:1:5,swordsman_2:1:10;catapult_2:1:5,ballista_2:1:5,lancer_2:1:5</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:13,crossbowman_2:1:13,ballista_2:1:7;lancer_2:1:7,horseArcher_2:1:7,swordsman_2:1:13;catapult_2:1:7,ballista_2:1:7,lancer_2:1:7</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:25,swordsman_2:1:25,crossbowman_2:1:25;horseArcher_2:1:13,swordsman_2:1:25,catapult_2:1:13;ballista_2:1:13,lancer_2:1:13,horseArcher_2:1:13</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:38,swordsman_2:1:38,crossbowman_2:1:38;horseArcher_2:1:19,swordsman_2:1:38,catapult_2:1:19;ballista_2:1:19,lancer_2:1:19,horseArcher_2:1:19</t>
+  </si>
+  <si>
+    <t>ranger_2:1:48,sentinel_2:1:48,swordsman_2:1:48;swordsman_2:1:48,catapult_2:1:24,ballista_2:1:24;lancer_2:1:24,ranger_2:1:48,swordsman_2:1:48</t>
+  </si>
+  <si>
+    <t>ranger_2:1:58,sentinel_2:1:58,swordsman_2:1:58,swordsman_2:1:58;swordsman_2:1:58,catapult_2:1:29,ballista_2:1:29,ballista_2:1:29;lancer_2:1:29,ranger_2:1:58,swordsman_2:1:58,swordsman_2:1:58</t>
+  </si>
+  <si>
+    <t>ranger_2:1:68,sentinel_2:1:68,swordsman_2:1:68,swordsman_2:1:68;swordsman_2:1:68,catapult_2:1:34,ballista_2:1:34,ballista_2:1:34;lancer_2:1:34,ranger_2:1:68,swordsman_2:1:68,swordsman_2:1:68</t>
+  </si>
+  <si>
+    <t>lancer_2:1:39,ranger_2:1:78,sentinel_2:1:78,sentinel_2:1:78;catapult_2:1:39,ballista_2:1:39,swordsman_2:1:78,swordsman_2:1:78;ranger_2:1:78,crossbowman_2:1:78,catapult_2:1:39,catapult_2:1:39</t>
+  </si>
+  <si>
+    <t>lancer_2:1:45,ranger_2:1:90,sentinel_2:1:90,sentinel_2:1:90;catapult_2:1:45,ballista_2:1:45,swordsman_2:1:90,swordsman_2:1:90;ranger_2:1:90,crossbowman_2:1:90,catapult_2:1:45,catapult_2:1:45</t>
+  </si>
+  <si>
+    <t>lancer_2:1:52,ranger_2:1:103,sentinel_2:1:103,sentinel_2:1:103;catapult_2:1:52,ballista_2:1:52,swordsman_2:1:103,swordsman_2:1:103;ranger_2:1:103,crossbowman_2:1:103,catapult_2:1:52,catapult_2:1:52</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:58,lancer_2:2:58,ranger_2:2:115,ranger_2:2:115;ballista_2:2:58,swordsman_2:2:115,sentinel_2:2:115,sentinel_2:2:115;crossbowman_2:2:115,horseArcher_2:2:58,ballista_2:2:58,ballista_2:2:58</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:68,lancer_2:2:68,ranger_2:2:135,ranger_2:2:135;ballista_2:2:68,swordsman_2:2:135,sentinel_2:2:135,sentinel_2:2:135;crossbowman_2:2:135,horseArcher_2:2:68,ballista_2:2:68,ballista_2:2:68</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:79,lancer_2:2:79,ranger_2:2:158,ranger_2:2:158;ballista_2:2:79,swordsman_2:2:158,sentinel_2:2:158,sentinel_2:2:158;crossbowman_2:2:158,horseArcher_2:2:79,ballista_2:2:79,ballista_2:2:79</t>
+  </si>
+  <si>
+    <t>catapult_2:2:90,horseArcher_2:2:90,lancer_2:2:90,lancer_2:2:90;swordsman_2:2:180,sentinel_2:2:180,ranger_2:2:180,ranger_2:2:180;horseArcher_2:2:90,lancer_2:2:90,swordsman_2:2:180,swordsman_2:2:180</t>
+  </si>
+  <si>
+    <t>catapult_2:2:103,horseArcher_2:2:103,lancer_2:2:103,lancer_2:2:103;swordsman_2:2:205,sentinel_2:2:205,ranger_2:2:205,ranger_2:2:205;horseArcher_2:2:103,lancer_2:2:103,swordsman_2:2:205,swordsman_2:2:205</t>
+  </si>
+  <si>
+    <t>catapult_2:2:115,horseArcher_2:2:115,lancer_2:2:115,lancer_2:2:115,horseArcher_2:2:115;swordsman_2:2:230,sentinel_2:2:230,ranger_2:2:230,ranger_2:2:230,sentinel_2:2:230;horseArcher_2:2:115,lancer_2:2:115,swordsman_2:2:230,swordsman_2:2:230,lancer_2:2:115</t>
+  </si>
+  <si>
+    <t>ballista_2:2:128,catapult_2:2:128,horseArcher_2:2:128,horseArcher_2:2:128,catapult_2:2:128;sentinel_2:2:255,ranger_2:2:255,lancer_2:2:128,lancer_2:2:128,ranger_2:2:255;lancer_2:2:128,crossbowman_2:2:255,sentinel_2:2:255,sentinel_2:2:255,crossbowman_2:2:255</t>
+  </si>
+  <si>
+    <t>ballista_2:2:142,catapult_2:2:142,horseArcher_2:2:142,horseArcher_2:2:142,catapult_2:2:142;sentinel_2:2:283,ranger_2:2:283,lancer_2:2:142,lancer_2:2:142,ranger_2:2:283;lancer_2:2:142,crossbowman_2:2:283,sentinel_2:2:283,sentinel_2:2:283,crossbowman_2:2:283</t>
+  </si>
+  <si>
+    <t>ballista_2:2:155,catapult_2:2:155,horseArcher_2:2:155,horseArcher_2:2:155,catapult_2:2:155;sentinel_2:2:310,ranger_2:2:310,lancer_2:2:155,lancer_2:2:155,ranger_2:2:310;lancer_2:2:155,crossbowman_2:2:310,sentinel_2:2:310,sentinel_2:2:310,crossbowman_2:2:310</t>
+  </si>
+  <si>
+    <t>swordsman_2:2:340,sentinel_2:2:340,ranger_2:2:340,ranger_2:2:340,sentinel_2:2:340;lancer_2:2:170,horseArcher_2:2:170,catapult_2:2:170,catapult_2:2:170,horseArcher_2:2:170;ballista_2:2:170,swordsman_2:2:340,horseArcher_2:2:170,horseArcher_2:2:170,swordsman_2:2:340</t>
+  </si>
+  <si>
+    <t>swordsman_2:3:370,sentinel_2:3:370,ranger_2:3:370,ranger_2:3:370,sentinel_2:3:370;lancer_2:3:185,horseArcher_2:3:185,catapult_2:3:185,catapult_2:3:185,horseArcher_2:3:185;ballista_2:3:185,swordsman_2:3:370,horseArcher_2:3:185,horseArcher_2:3:185,swordsman_2:3:370</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:420,ranger_2:3:420,crossbowman_2:3:420,crossbowman_2:3:420,ranger_2:3:420;horseArcher_2:3:210,catapult_2:3:210,ballista_2:3:210,ballista_2:3:210,catapult_2:3:210;catapult_2:3:210,sentinel_2:3:420,swordsman_2:3:420,swordsman_2:3:420,sentinel_2:3:420</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:475,ranger_2:3:475,crossbowman_2:3:475,crossbowman_2:3:475,ranger_2:3:475;horseArcher_2:3:238,catapult_2:3:238,ballista_2:3:238,ballista_2:3:238,catapult_2:3:238;catapult_2:3:238,sentinel_2:3:475,swordsman_2:3:475,swordsman_2:3:475,sentinel_2:3:475</t>
+  </si>
+  <si>
+    <t>ranger_2:3:530,crossbowman_2:3:530,lancer_2:3:265,lancer_2:3:265,crossbowman_2:3:530;catapult_2:3:265,ballista_2:3:265,swordsman_2:3:530,swordsman_2:3:530,ballista_2:3:265;horseArcher_2:3:265,ranger_2:3:530,sentinel_2:3:530,sentinel_2:3:530,ranger_2:3:530</t>
+  </si>
+  <si>
+    <t>ranger_2:3:590,crossbowman_2:3:590,lancer_2:3:295,lancer_2:3:295,crossbowman_2:3:590;catapult_2:3:295,ballista_2:3:295,swordsman_2:3:590,swordsman_2:3:590,ballista_2:3:295;horseArcher_2:3:295,ranger_2:3:590,sentinel_2:3:590,sentinel_2:3:590,ranger_2:3:590</t>
+  </si>
+  <si>
+    <t>crossbowman_3:1:630,lancer_3:1:315,horseArcher_3:1:315,horseArcher_3:1:315,lancer_3:1:315,crossbowman_3:1:630;ballista_3:1:315,swordsman_3:1:630,sentinel_3:1:630,sentinel_3:1:630,swordsman_3:1:630,ballista_3:1:315;lancer_3:1:315,crossbowman_3:1:630,sentinel_3:1:630,sentinel_3:1:630,crossbowman_3:1:630,lancer_3:1:315</t>
+  </si>
+  <si>
+    <t>crossbowman_3:1:670,lancer_3:1:335,horseArcher_3:1:335,horseArcher_3:1:335,lancer_3:1:335,crossbowman_3:1:670;ballista_3:1:335,swordsman_3:1:670,sentinel_3:1:670,sentinel_3:1:670,swordsman_3:1:670,ballista_3:1:335;lancer_3:1:335,crossbowman_3:1:670,catapult_3:1:335,catapult_3:1:335,crossbowman_3:1:670,lancer_3:1:335</t>
+  </si>
+  <si>
+    <t>lancer_3:1:357,horseArcher_3:1:357,catapult_3:1:357,catapult_3:1:357,horseArcher_3:1:357,lancer_3:1:357;swordsman_3:1:713,sentinel_3:1:713,lancer_3:1:357,lancer_3:1:357,sentinel_3:1:713,swordsman_3:1:713;crossbowman_3:1:713,lancer_3:1:357,ballista_3:1:357,ballista_3:1:357,lancer_3:1:357,crossbowman_3:1:713</t>
+  </si>
+  <si>
+    <t>lancer_3:1:377,horseArcher_3:1:377,ballista_3:1:377,ballista_3:1:377,horseArcher_3:1:377,lancer_3:1:377;swordsman_3:1:753,sentinel_3:1:753,horseArcher_3:1:377,horseArcher_3:1:377,sentinel_3:1:753,swordsman_3:1:753;crossbowman_3:1:753,lancer_3:1:377,swordsman_3:1:753,swordsman_3:1:753,lancer_3:1:377,crossbowman_3:1:753</t>
+  </si>
+  <si>
+    <t>horseArcher_3:1:395,catapult_3:1:395,ballista_3:1:395,ballista_3:1:395,catapult_3:1:395,horseArcher_3:1:395;sentinel_3:1:790,lancer_3:1:395,ranger_3:1:395,ranger_3:1:395,lancer_3:1:395,sentinel_3:1:790;ranger_3:1:790,horseArcher_3:1:395,sentinel_3:1:790,sentinel_3:1:790,horseArcher_3:1:395,ranger_3:1:790</t>
+  </si>
+  <si>
+    <t>horseArcher_3:2:415,ballista_3:2:415,catapult_3:2:415,catapult_3:2:415,ballista_3:2:415,horseArcher_3:2:415;sentinel_3:2:830,horseArcher_3:2:415,catapult_3:2:415,catapult_3:2:415,horseArcher_3:2:415,sentinel_3:2:830;ranger_3:2:830,horseArcher_3:2:415,catapult_3:2:415,catapult_3:2:415,horseArcher_3:2:415,ranger_3:2:830</t>
+  </si>
+  <si>
+    <t>catapult_3:2:455,ballista_3:2:455,sentinel_3:2:910,sentinel_3:2:910,ballista_3:2:455,catapult_3:2:455;lancer_3:2:455,sentinel_3:2:910,ballista_3:2:455,ballista_3:2:455,sentinel_3:2:910,lancer_3:2:455;swordsman_3:2:910,catapult_3:2:455,lancer_3:2:455,lancer_3:2:455,catapult_3:2:455,swordsman_3:2:910</t>
+  </si>
+  <si>
+    <t>ballista_3:2:504,catapult_3:2:504,sentinel_3:2:1008,sentinel_3:2:1008,catapult_3:2:504,ballista_3:2:504;horseArcher_3:2:504,catapult_3:2:504,ranger_3:2:1008,ranger_3:2:1008,catapult_3:2:504,horseArcher_3:2:504;sentinel_3:2:1008,ballista_3:2:504,horseArcher_3:2:504,horseArcher_3:2:504,ballista_3:2:504,sentinel_3:2:1008</t>
+  </si>
+  <si>
+    <t>ballista_3:2:559,swordsman_3:2:1117,ranger_3:2:1117,ranger_3:2:1117,swordsman_3:2:1117,ballista_3:2:559;lancer_3:2:559,ballista_3:2:559,crossbowman_3:2:1117,crossbowman_3:2:1117,ballista_3:2:559,lancer_3:2:559;swordsman_3:2:1117,ranger_3:2:1117,ballista_3:2:559,ballista_3:2:559,ranger_3:2:1117,swordsman_3:2:1117</t>
+  </si>
+  <si>
+    <t>catapult_3:3:622,swordsman_3:3:1243,ranger_3:3:1243,ranger_3:3:1243,swordsman_3:3:1243,catapult_3:3:622;horseArcher_3:3:622,crossbowman_3:3:1243,catapult_3:3:622,catapult_3:3:622,crossbowman_3:3:1243,horseArcher_3:3:622;sentinel_3:3:1243,lancer_3:3:622,catapult_3:3:622,catapult_3:3:622,lancer_3:3:622,sentinel_3:3:1243</t>
+  </si>
+  <si>
+    <t>dragon:1:1,swordsman_1:1:8,lancer_1:1:4,swordsman_1:1:8,catapult_1:1:2,ranger_1:1:4,catapult_1:1:2</t>
+  </si>
+  <si>
+    <t>dragon:1:2,lancer_1:1:9,ballista_1:1:9,lancer_1:1:9,ranger_1:1:9,swordsman_1:1:9,ranger_1:1:9</t>
+  </si>
+  <si>
+    <t>dragon:1:3,catapult_1:1:14,crossbowman_1:1:28,catapult_1:1:14,sentinel_1:1:14,horseArcher_1:1:7,sentinel_1:1:14</t>
+  </si>
+  <si>
+    <t>dragon:1:4,crossbowman_1:2:48,sentinel_1:2:48,crossbowman_1:2:48,horseArcher_1:2:12,ballista_1:2:12,horseArcher_1:2:12</t>
+  </si>
+  <si>
+    <t>dragon:1:6,swordsman_1:2:81,lancer_1:2:41,swordsman_1:2:81,catapult_1:2:21,ranger_1:2:41,catapult_1:2:21</t>
+  </si>
+  <si>
+    <t>dragon:1:8,lancer_1:2:56,ballista_1:2:56,lancer_1:2:56,ranger_1:2:56,swordsman_1:2:56,ranger_1:2:56</t>
+  </si>
+  <si>
+    <t>dragon:2:11,catapult_1:3:91,crossbowman_1:3:181,catapult_1:3:91,sentinel_1:3:91,horseArcher_1:3:46,sentinel_1:3:91</t>
+  </si>
+  <si>
+    <t>dragon:2:12,crossbowman_1:3:231,sentinel_1:3:231,crossbowman_1:3:231,horseArcher_1:3:58,ballista_1:3:58,horseArcher_1:3:58</t>
+  </si>
+  <si>
+    <t>dragon:2:13,swordsman_1:3:286,lancer_1:3:143,swordsman_1:3:286,catapult_1:3:72,ranger_1:3:143,catapult_1:3:72</t>
+  </si>
+  <si>
+    <t>dragon:2:14,lancer_2:1:172,ballista_2:1:172,lancer_2:1:172,ranger_2:1:172,swordsman_2:1:172,ranger_2:1:172</t>
+  </si>
+  <si>
+    <t>dragon:2:16,catapult_2:1:205,crossbowman_2:1:410,catapult_2:1:205,sentinel_2:1:205,horseArcher_2:1:103,sentinel_2:1:205</t>
+  </si>
+  <si>
+    <t>dragon:2:18,crossbowman_2:1:480,sentinel_2:1:480,crossbowman_2:1:480,horseArcher_2:1:120,ballista_2:1:120,horseArcher_2:1:120</t>
+  </si>
+  <si>
+    <t>dragon:3:21,swordsman_2:2:560,lancer_2:2:280,swordsman_2:2:560,catapult_2:2:140,ranger_2:2:280,catapult_2:2:140</t>
+  </si>
+  <si>
+    <t>dragon:3:22,lancer_2:2:310,ballista_2:2:310,lancer_2:2:310,ranger_2:2:310,swordsman_2:2:310,ranger_2:2:310</t>
+  </si>
+  <si>
+    <t>dragon:3:23,catapult_2:2:350,crossbowman_2:2:700,catapult_2:2:350,sentinel_2:2:350,horseArcher_2:2:175,sentinel_2:2:350</t>
+  </si>
+  <si>
+    <t>dragon:3:24,crossbowman_2:3:780,sentinel_2:3:780,crossbowman_2:3:780,horseArcher_2:3:195,ballista_2:3:195,horseArcher_2:3:195</t>
+  </si>
+  <si>
+    <t>dragon:3:26,swordsman_2:3:860,lancer_2:3:430,swordsman_2:3:860,catapult_2:3:215,ranger_2:3:430,catapult_2:3:215</t>
+  </si>
+  <si>
+    <t>dragon:3:28,lancer_2:3:480,ballista_2:3:480,lancer_2:3:480,ranger_2:3:480,swordsman_2:3:480,ranger_2:3:480</t>
+  </si>
+  <si>
+    <t>dragon:4:31,catapult_3:1:520,crossbowman_3:1:1040,catapult_3:1:520,sentinel_3:1:520,horseArcher_3:1:260,sentinel_3:1:520</t>
+  </si>
+  <si>
+    <t>dragon:4:32,crossbowman_3:1:1140,sentinel_3:1:1140,crossbowman_3:1:1140,horseArcher_3:1:285,ballista_3:1:285,horseArcher_3:1:285</t>
+  </si>
+  <si>
+    <t>dragon:4:33,swordsman_3:2:1220,lancer_3:2:610,swordsman_3:2:1220,catapult_3:2:305,ranger_3:2:610,catapult_3:2:305</t>
+  </si>
+  <si>
+    <t>dragon:4:34,lancer_3:2:660,ballista_3:2:660,lancer_3:2:660,ranger_3:2:660,swordsman_3:2:660,ranger_3:2:660</t>
+  </si>
+  <si>
+    <t>dragon:4:36,catapult_3:3:720,crossbowman_3:3:1440,catapult_3:3:720,sentinel_3:3:720,horseArcher_3:3:360,sentinel_3:3:720</t>
+  </si>
+  <si>
+    <t>dragon:4:38,crossbowman_3:3:1600,sentinel_3:3:1600,crossbowman_3:3:1600,horseArcher_3:3:400,ballista_3:3:400,horseArcher_3:3:400</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2083,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="899">
+  <cellStyleXfs count="905">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2565,6 +2565,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3060,7 +3066,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="899">
+  <cellStyles count="905">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3512,6 +3518,9 @@
     <cellStyle name="超链接" xfId="893" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="895" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="903" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3956,6 +3965,9 @@
     <cellStyle name="访问过的超链接" xfId="894" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="896" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="904" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4408,7 +4420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -4643,7 +4655,7 @@
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>566</v>
+        <v>504</v>
       </c>
       <c r="B21" s="8">
         <v>240</v>
@@ -4720,24 +4732,24 @@
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>565</v>
+        <v>503</v>
       </c>
       <c r="B28" s="8">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>564</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="B29" s="8">
         <v>10080</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>563</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -6280,8 +6292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6331,7 +6343,7 @@
         <v>167</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>168</v>
@@ -6396,7 +6408,7 @@
         <v>160</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>496</v>
+        <v>543</v>
       </c>
       <c r="J2" s="15">
         <v>600</v>
@@ -6464,7 +6476,7 @@
         <v>360</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="J3" s="15">
         <v>1200</v>
@@ -6532,7 +6544,7 @@
         <v>560</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="J4" s="15">
         <v>1800</v>
@@ -6600,7 +6612,7 @@
         <v>1440</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>499</v>
+        <v>546</v>
       </c>
       <c r="J5" s="15">
         <v>2400</v>
@@ -6668,7 +6680,7 @@
         <v>2402</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>500</v>
+        <v>547</v>
       </c>
       <c r="J6" s="15">
         <v>3000</v>
@@ -6736,7 +6748,7 @@
         <v>3302</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
       <c r="J7" s="15">
         <v>3600</v>
@@ -6804,7 +6816,7 @@
         <v>7202</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>502</v>
+        <v>549</v>
       </c>
       <c r="J8" s="15">
         <v>4200</v>
@@ -6872,7 +6884,7 @@
         <v>9202</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>503</v>
+        <v>550</v>
       </c>
       <c r="J9" s="15">
         <v>4800</v>
@@ -6940,7 +6952,7 @@
         <v>11440</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>504</v>
+        <v>551</v>
       </c>
       <c r="J10" s="15">
         <v>6000</v>
@@ -7008,7 +7020,7 @@
         <v>17200</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>505</v>
+        <v>552</v>
       </c>
       <c r="J11" s="15">
         <v>7200</v>
@@ -7076,7 +7088,7 @@
         <v>20500</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>506</v>
+        <v>553</v>
       </c>
       <c r="J12" s="15">
         <v>9600</v>
@@ -7144,7 +7156,7 @@
         <v>24000</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>507</v>
+        <v>554</v>
       </c>
       <c r="J13" s="15">
         <v>12600</v>
@@ -7212,7 +7224,7 @@
         <v>33600</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>508</v>
+        <v>555</v>
       </c>
       <c r="J14" s="15">
         <v>18000</v>
@@ -7280,7 +7292,7 @@
         <v>37200</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>509</v>
+        <v>556</v>
       </c>
       <c r="J15" s="15">
         <v>22500</v>
@@ -7348,7 +7360,7 @@
         <v>42000</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>510</v>
+        <v>557</v>
       </c>
       <c r="J16" s="15">
         <v>31500</v>
@@ -7416,7 +7428,7 @@
         <v>54600</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>511</v>
+        <v>558</v>
       </c>
       <c r="J17" s="15">
         <v>38400</v>
@@ -7484,7 +7496,7 @@
         <v>60200</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>512</v>
+        <v>559</v>
       </c>
       <c r="J18" s="15">
         <v>56100</v>
@@ -7552,7 +7564,7 @@
         <v>67200</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>513</v>
+        <v>560</v>
       </c>
       <c r="J19" s="15">
         <v>67500</v>
@@ -7620,7 +7632,7 @@
         <v>83200</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
       <c r="J20" s="15">
         <v>98100</v>
@@ -7688,7 +7700,7 @@
         <v>91200</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>515</v>
+        <v>562</v>
       </c>
       <c r="J21" s="15">
         <v>117900</v>
@@ -7756,7 +7768,7 @@
         <v>109800</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>516</v>
+        <v>563</v>
       </c>
       <c r="J22" s="15">
         <v>170100</v>
@@ -7823,8 +7835,8 @@
       <c r="H23" s="12">
         <v>118800</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>517</v>
+      <c r="I23" s="22" t="s">
+        <v>564</v>
       </c>
       <c r="J23" s="15">
         <v>204000</v>
@@ -7892,7 +7904,7 @@
         <v>144000</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>518</v>
+        <v>565</v>
       </c>
       <c r="J24" s="12">
         <v>240000</v>
@@ -7959,8 +7971,8 @@
       <c r="H25" s="12">
         <v>160000</v>
       </c>
-      <c r="I25" s="22" t="s">
-        <v>519</v>
+      <c r="I25" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="J25" s="12">
         <v>300000</v>
@@ -8042,8 +8054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8078,10 +8090,10 @@
         <v>412</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -8092,7 +8104,7 @@
         <v>413</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>455</v>
@@ -8106,7 +8118,7 @@
         <v>414</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>456</v>
@@ -8120,7 +8132,7 @@
         <v>415</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>457</v>
@@ -8134,7 +8146,7 @@
         <v>416</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>458</v>
@@ -8148,7 +8160,7 @@
         <v>417</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>459</v>
@@ -8162,7 +8174,7 @@
         <v>418</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>460</v>
@@ -8176,7 +8188,7 @@
         <v>419</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>461</v>
@@ -8190,7 +8202,7 @@
         <v>420</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>462</v>
@@ -8204,7 +8216,7 @@
         <v>421</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>463</v>
@@ -8218,7 +8230,7 @@
         <v>422</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>464</v>
@@ -8232,7 +8244,7 @@
         <v>423</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>465</v>
@@ -8246,7 +8258,7 @@
         <v>424</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>466</v>
@@ -8260,7 +8272,7 @@
         <v>425</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>467</v>
@@ -8274,7 +8286,7 @@
         <v>426</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>468</v>
@@ -8288,7 +8300,7 @@
         <v>427</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>469</v>
@@ -8302,7 +8314,7 @@
         <v>428</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>470</v>
@@ -8316,7 +8328,7 @@
         <v>429</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>471</v>
@@ -8330,7 +8342,7 @@
         <v>430</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>472</v>
@@ -8344,7 +8356,7 @@
         <v>431</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>473</v>
@@ -8358,7 +8370,7 @@
         <v>432</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>474</v>
@@ -8372,7 +8384,7 @@
         <v>433</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>475</v>
@@ -8386,7 +8398,7 @@
         <v>434</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>476</v>
@@ -8400,7 +8412,7 @@
         <v>435</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>477</v>
@@ -8414,7 +8426,7 @@
         <v>436</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>478</v>
@@ -8428,7 +8440,7 @@
         <v>437</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>479</v>
@@ -8442,7 +8454,7 @@
         <v>438</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>480</v>
@@ -8456,7 +8468,7 @@
         <v>439</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>481</v>
@@ -8470,7 +8482,7 @@
         <v>440</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>482</v>
@@ -8484,7 +8496,7 @@
         <v>441</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>483</v>
@@ -8498,7 +8510,7 @@
         <v>442</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>484</v>
@@ -8512,35 +8524,35 @@
         <v>443</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="75">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" s="15">
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>523</v>
+      <c r="C34" s="21" t="s">
+        <v>535</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75">
+    <row r="35" spans="1:4" ht="30">
       <c r="A35" s="15">
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>524</v>
+      <c r="C35" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>487</v>
@@ -8554,7 +8566,7 @@
         <v>446</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>488</v>
@@ -8568,7 +8580,7 @@
         <v>447</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>489</v>
@@ -8582,7 +8594,7 @@
         <v>448</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>490</v>
@@ -8596,7 +8608,7 @@
         <v>449</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>491</v>
@@ -8610,7 +8622,7 @@
         <v>450</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>492</v>
@@ -8624,7 +8636,7 @@
         <v>451</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>493</v>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="0" windowWidth="30700" windowHeight="17540" tabRatio="497" activeTab="4"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="33420" windowHeight="20860" tabRatio="497" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1693,12 +1693,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>crossbowman_2:1:5,ballista_2:1:3,swordsman_2:1:5;sentinel_2:1:5,lancer_2:1:3,horseArcher_2:1:3;horseArcher_2:1:3,catapult_2:1:3,sentinel_2:1:5</t>
-  </si>
-  <si>
-    <t>swordsman_2:1:20,crossbowman_2:1:20,ballista_2:1:10;lancer_2:1:10,horseArcher_2:1:10,swordsman_2:1:20;catapult_2:1:10,ballista_2:1:10,lancer_2:1:10</t>
-  </si>
-  <si>
     <t>canBuyAllianceArchonMinutes</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1718,120 +1712,21 @@
     <t>villageRefreshMinutes</t>
   </si>
   <si>
-    <t>crossbowman_2:1:3,ballista_2:1:2,swordsman_2:1:3;sentinel_2:1:3,lancer_2:1:2,horseArcher_2:1:2;horseArcher_2:1:2,catapult_2:1:2,sentinel_2:1:3</t>
-  </si>
-  <si>
-    <t>sentinel_2:1:30,swordsman_2:1:30,crossbowman_2:1:30;horseArcher_2:1:15,swordsman_2:1:30,catapult_2:1:15;ballista_2:1:15,lancer_2:1:15,horseArcher_2:1:15</t>
-  </si>
-  <si>
-    <t>crossbowman_2:1:8,ballista_2:1:4,swordsman_2:1:8;sentinel_2:1:8,lancer_2:1:4,horseArcher_2:1:4;horseArcher_2:1:4,catapult_2:1:4,sentinel_2:1:8</t>
-  </si>
-  <si>
     <t>swordsman_2:1:10,crossbowman_2:1:10,ballista_2:1:5;lancer_2:1:5,horseArcher_2:1:5,swordsman_2:1:10;catapult_2:1:5,ballista_2:1:5,lancer_2:1:5</t>
   </si>
   <si>
-    <t>swordsman_2:1:13,crossbowman_2:1:13,ballista_2:1:7;lancer_2:1:7,horseArcher_2:1:7,swordsman_2:1:13;catapult_2:1:7,ballista_2:1:7,lancer_2:1:7</t>
-  </si>
-  <si>
     <t>sentinel_2:1:25,swordsman_2:1:25,crossbowman_2:1:25;horseArcher_2:1:13,swordsman_2:1:25,catapult_2:1:13;ballista_2:1:13,lancer_2:1:13,horseArcher_2:1:13</t>
   </si>
   <si>
-    <t>sentinel_2:1:38,swordsman_2:1:38,crossbowman_2:1:38;horseArcher_2:1:19,swordsman_2:1:38,catapult_2:1:19;ballista_2:1:19,lancer_2:1:19,horseArcher_2:1:19</t>
-  </si>
-  <si>
-    <t>ranger_2:1:48,sentinel_2:1:48,swordsman_2:1:48;swordsman_2:1:48,catapult_2:1:24,ballista_2:1:24;lancer_2:1:24,ranger_2:1:48,swordsman_2:1:48</t>
-  </si>
-  <si>
     <t>ranger_2:1:58,sentinel_2:1:58,swordsman_2:1:58,swordsman_2:1:58;swordsman_2:1:58,catapult_2:1:29,ballista_2:1:29,ballista_2:1:29;lancer_2:1:29,ranger_2:1:58,swordsman_2:1:58,swordsman_2:1:58</t>
   </si>
   <si>
-    <t>ranger_2:1:68,sentinel_2:1:68,swordsman_2:1:68,swordsman_2:1:68;swordsman_2:1:68,catapult_2:1:34,ballista_2:1:34,ballista_2:1:34;lancer_2:1:34,ranger_2:1:68,swordsman_2:1:68,swordsman_2:1:68</t>
-  </si>
-  <si>
     <t>lancer_2:1:39,ranger_2:1:78,sentinel_2:1:78,sentinel_2:1:78;catapult_2:1:39,ballista_2:1:39,swordsman_2:1:78,swordsman_2:1:78;ranger_2:1:78,crossbowman_2:1:78,catapult_2:1:39,catapult_2:1:39</t>
   </si>
   <si>
     <t>lancer_2:1:45,ranger_2:1:90,sentinel_2:1:90,sentinel_2:1:90;catapult_2:1:45,ballista_2:1:45,swordsman_2:1:90,swordsman_2:1:90;ranger_2:1:90,crossbowman_2:1:90,catapult_2:1:45,catapult_2:1:45</t>
   </si>
   <si>
-    <t>lancer_2:1:52,ranger_2:1:103,sentinel_2:1:103,sentinel_2:1:103;catapult_2:1:52,ballista_2:1:52,swordsman_2:1:103,swordsman_2:1:103;ranger_2:1:103,crossbowman_2:1:103,catapult_2:1:52,catapult_2:1:52</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:58,lancer_2:2:58,ranger_2:2:115,ranger_2:2:115;ballista_2:2:58,swordsman_2:2:115,sentinel_2:2:115,sentinel_2:2:115;crossbowman_2:2:115,horseArcher_2:2:58,ballista_2:2:58,ballista_2:2:58</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:68,lancer_2:2:68,ranger_2:2:135,ranger_2:2:135;ballista_2:2:68,swordsman_2:2:135,sentinel_2:2:135,sentinel_2:2:135;crossbowman_2:2:135,horseArcher_2:2:68,ballista_2:2:68,ballista_2:2:68</t>
-  </si>
-  <si>
-    <t>horseArcher_2:2:79,lancer_2:2:79,ranger_2:2:158,ranger_2:2:158;ballista_2:2:79,swordsman_2:2:158,sentinel_2:2:158,sentinel_2:2:158;crossbowman_2:2:158,horseArcher_2:2:79,ballista_2:2:79,ballista_2:2:79</t>
-  </si>
-  <si>
-    <t>catapult_2:2:90,horseArcher_2:2:90,lancer_2:2:90,lancer_2:2:90;swordsman_2:2:180,sentinel_2:2:180,ranger_2:2:180,ranger_2:2:180;horseArcher_2:2:90,lancer_2:2:90,swordsman_2:2:180,swordsman_2:2:180</t>
-  </si>
-  <si>
-    <t>catapult_2:2:103,horseArcher_2:2:103,lancer_2:2:103,lancer_2:2:103;swordsman_2:2:205,sentinel_2:2:205,ranger_2:2:205,ranger_2:2:205;horseArcher_2:2:103,lancer_2:2:103,swordsman_2:2:205,swordsman_2:2:205</t>
-  </si>
-  <si>
-    <t>catapult_2:2:115,horseArcher_2:2:115,lancer_2:2:115,lancer_2:2:115,horseArcher_2:2:115;swordsman_2:2:230,sentinel_2:2:230,ranger_2:2:230,ranger_2:2:230,sentinel_2:2:230;horseArcher_2:2:115,lancer_2:2:115,swordsman_2:2:230,swordsman_2:2:230,lancer_2:2:115</t>
-  </si>
-  <si>
-    <t>ballista_2:2:128,catapult_2:2:128,horseArcher_2:2:128,horseArcher_2:2:128,catapult_2:2:128;sentinel_2:2:255,ranger_2:2:255,lancer_2:2:128,lancer_2:2:128,ranger_2:2:255;lancer_2:2:128,crossbowman_2:2:255,sentinel_2:2:255,sentinel_2:2:255,crossbowman_2:2:255</t>
-  </si>
-  <si>
-    <t>ballista_2:2:142,catapult_2:2:142,horseArcher_2:2:142,horseArcher_2:2:142,catapult_2:2:142;sentinel_2:2:283,ranger_2:2:283,lancer_2:2:142,lancer_2:2:142,ranger_2:2:283;lancer_2:2:142,crossbowman_2:2:283,sentinel_2:2:283,sentinel_2:2:283,crossbowman_2:2:283</t>
-  </si>
-  <si>
-    <t>ballista_2:2:155,catapult_2:2:155,horseArcher_2:2:155,horseArcher_2:2:155,catapult_2:2:155;sentinel_2:2:310,ranger_2:2:310,lancer_2:2:155,lancer_2:2:155,ranger_2:2:310;lancer_2:2:155,crossbowman_2:2:310,sentinel_2:2:310,sentinel_2:2:310,crossbowman_2:2:310</t>
-  </si>
-  <si>
-    <t>swordsman_2:2:340,sentinel_2:2:340,ranger_2:2:340,ranger_2:2:340,sentinel_2:2:340;lancer_2:2:170,horseArcher_2:2:170,catapult_2:2:170,catapult_2:2:170,horseArcher_2:2:170;ballista_2:2:170,swordsman_2:2:340,horseArcher_2:2:170,horseArcher_2:2:170,swordsman_2:2:340</t>
-  </si>
-  <si>
-    <t>swordsman_2:3:370,sentinel_2:3:370,ranger_2:3:370,ranger_2:3:370,sentinel_2:3:370;lancer_2:3:185,horseArcher_2:3:185,catapult_2:3:185,catapult_2:3:185,horseArcher_2:3:185;ballista_2:3:185,swordsman_2:3:370,horseArcher_2:3:185,horseArcher_2:3:185,swordsman_2:3:370</t>
-  </si>
-  <si>
-    <t>sentinel_2:3:420,ranger_2:3:420,crossbowman_2:3:420,crossbowman_2:3:420,ranger_2:3:420;horseArcher_2:3:210,catapult_2:3:210,ballista_2:3:210,ballista_2:3:210,catapult_2:3:210;catapult_2:3:210,sentinel_2:3:420,swordsman_2:3:420,swordsman_2:3:420,sentinel_2:3:420</t>
-  </si>
-  <si>
-    <t>sentinel_2:3:475,ranger_2:3:475,crossbowman_2:3:475,crossbowman_2:3:475,ranger_2:3:475;horseArcher_2:3:238,catapult_2:3:238,ballista_2:3:238,ballista_2:3:238,catapult_2:3:238;catapult_2:3:238,sentinel_2:3:475,swordsman_2:3:475,swordsman_2:3:475,sentinel_2:3:475</t>
-  </si>
-  <si>
-    <t>ranger_2:3:530,crossbowman_2:3:530,lancer_2:3:265,lancer_2:3:265,crossbowman_2:3:530;catapult_2:3:265,ballista_2:3:265,swordsman_2:3:530,swordsman_2:3:530,ballista_2:3:265;horseArcher_2:3:265,ranger_2:3:530,sentinel_2:3:530,sentinel_2:3:530,ranger_2:3:530</t>
-  </si>
-  <si>
-    <t>ranger_2:3:590,crossbowman_2:3:590,lancer_2:3:295,lancer_2:3:295,crossbowman_2:3:590;catapult_2:3:295,ballista_2:3:295,swordsman_2:3:590,swordsman_2:3:590,ballista_2:3:295;horseArcher_2:3:295,ranger_2:3:590,sentinel_2:3:590,sentinel_2:3:590,ranger_2:3:590</t>
-  </si>
-  <si>
-    <t>crossbowman_3:1:630,lancer_3:1:315,horseArcher_3:1:315,horseArcher_3:1:315,lancer_3:1:315,crossbowman_3:1:630;ballista_3:1:315,swordsman_3:1:630,sentinel_3:1:630,sentinel_3:1:630,swordsman_3:1:630,ballista_3:1:315;lancer_3:1:315,crossbowman_3:1:630,sentinel_3:1:630,sentinel_3:1:630,crossbowman_3:1:630,lancer_3:1:315</t>
-  </si>
-  <si>
-    <t>crossbowman_3:1:670,lancer_3:1:335,horseArcher_3:1:335,horseArcher_3:1:335,lancer_3:1:335,crossbowman_3:1:670;ballista_3:1:335,swordsman_3:1:670,sentinel_3:1:670,sentinel_3:1:670,swordsman_3:1:670,ballista_3:1:335;lancer_3:1:335,crossbowman_3:1:670,catapult_3:1:335,catapult_3:1:335,crossbowman_3:1:670,lancer_3:1:335</t>
-  </si>
-  <si>
-    <t>lancer_3:1:357,horseArcher_3:1:357,catapult_3:1:357,catapult_3:1:357,horseArcher_3:1:357,lancer_3:1:357;swordsman_3:1:713,sentinel_3:1:713,lancer_3:1:357,lancer_3:1:357,sentinel_3:1:713,swordsman_3:1:713;crossbowman_3:1:713,lancer_3:1:357,ballista_3:1:357,ballista_3:1:357,lancer_3:1:357,crossbowman_3:1:713</t>
-  </si>
-  <si>
-    <t>lancer_3:1:377,horseArcher_3:1:377,ballista_3:1:377,ballista_3:1:377,horseArcher_3:1:377,lancer_3:1:377;swordsman_3:1:753,sentinel_3:1:753,horseArcher_3:1:377,horseArcher_3:1:377,sentinel_3:1:753,swordsman_3:1:753;crossbowman_3:1:753,lancer_3:1:377,swordsman_3:1:753,swordsman_3:1:753,lancer_3:1:377,crossbowman_3:1:753</t>
-  </si>
-  <si>
-    <t>horseArcher_3:1:395,catapult_3:1:395,ballista_3:1:395,ballista_3:1:395,catapult_3:1:395,horseArcher_3:1:395;sentinel_3:1:790,lancer_3:1:395,ranger_3:1:395,ranger_3:1:395,lancer_3:1:395,sentinel_3:1:790;ranger_3:1:790,horseArcher_3:1:395,sentinel_3:1:790,sentinel_3:1:790,horseArcher_3:1:395,ranger_3:1:790</t>
-  </si>
-  <si>
-    <t>horseArcher_3:2:415,ballista_3:2:415,catapult_3:2:415,catapult_3:2:415,ballista_3:2:415,horseArcher_3:2:415;sentinel_3:2:830,horseArcher_3:2:415,catapult_3:2:415,catapult_3:2:415,horseArcher_3:2:415,sentinel_3:2:830;ranger_3:2:830,horseArcher_3:2:415,catapult_3:2:415,catapult_3:2:415,horseArcher_3:2:415,ranger_3:2:830</t>
-  </si>
-  <si>
-    <t>catapult_3:2:455,ballista_3:2:455,sentinel_3:2:910,sentinel_3:2:910,ballista_3:2:455,catapult_3:2:455;lancer_3:2:455,sentinel_3:2:910,ballista_3:2:455,ballista_3:2:455,sentinel_3:2:910,lancer_3:2:455;swordsman_3:2:910,catapult_3:2:455,lancer_3:2:455,lancer_3:2:455,catapult_3:2:455,swordsman_3:2:910</t>
-  </si>
-  <si>
-    <t>ballista_3:2:504,catapult_3:2:504,sentinel_3:2:1008,sentinel_3:2:1008,catapult_3:2:504,ballista_3:2:504;horseArcher_3:2:504,catapult_3:2:504,ranger_3:2:1008,ranger_3:2:1008,catapult_3:2:504,horseArcher_3:2:504;sentinel_3:2:1008,ballista_3:2:504,horseArcher_3:2:504,horseArcher_3:2:504,ballista_3:2:504,sentinel_3:2:1008</t>
-  </si>
-  <si>
-    <t>ballista_3:2:559,swordsman_3:2:1117,ranger_3:2:1117,ranger_3:2:1117,swordsman_3:2:1117,ballista_3:2:559;lancer_3:2:559,ballista_3:2:559,crossbowman_3:2:1117,crossbowman_3:2:1117,ballista_3:2:559,lancer_3:2:559;swordsman_3:2:1117,ranger_3:2:1117,ballista_3:2:559,ballista_3:2:559,ranger_3:2:1117,swordsman_3:2:1117</t>
-  </si>
-  <si>
-    <t>catapult_3:3:622,swordsman_3:3:1243,ranger_3:3:1243,ranger_3:3:1243,swordsman_3:3:1243,catapult_3:3:622;horseArcher_3:3:622,crossbowman_3:3:1243,catapult_3:3:622,catapult_3:3:622,crossbowman_3:3:1243,horseArcher_3:3:622;sentinel_3:3:1243,lancer_3:3:622,catapult_3:3:622,catapult_3:3:622,lancer_3:3:622,sentinel_3:3:1243</t>
-  </si>
-  <si>
     <t>dragon:1:1,swordsman_1:1:8,lancer_1:1:4,swordsman_1:1:8,catapult_1:1:2,ranger_1:1:4,catapult_1:1:2</t>
   </si>
   <si>
@@ -1902,6 +1797,111 @@
   </si>
   <si>
     <t>dragon:4:38,crossbowman_3:3:1600,sentinel_3:3:1600,crossbowman_3:3:1600,horseArcher_3:3:400,ballista_3:3:400,horseArcher_3:3:400</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:2,ballista_2:1:1,swordsman_2:1:2;sentinel_2:1:2,lancer_2:1:1,horseArcher_2:1:1;horseArcher_2:1:1,catapult_2:1:1,sentinel_2:1:2</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:4,ballista_2:1:2,swordsman_2:1:4;sentinel_2:1:4,lancer_2:1:2,horseArcher_2:1:2;horseArcher_2:1:2,catapult_2:1:2,sentinel_2:1:4</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:6,ballista_2:1:3,swordsman_2:1:6;sentinel_2:1:6,lancer_2:1:3,horseArcher_2:1:3;horseArcher_2:1:3,catapult_2:1:3,sentinel_2:1:6</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:8,crossbowman_2:1:8,ballista_2:1:4;lancer_2:1:4,horseArcher_2:1:4,swordsman_2:1:8;catapult_2:1:4,ballista_2:1:4,lancer_2:1:4</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:17,crossbowman_2:1:17,ballista_2:1:9;lancer_2:1:9,horseArcher_2:1:9,swordsman_2:1:17;catapult_2:1:9,ballista_2:1:9,lancer_2:1:9</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:21,swordsman_2:1:21,crossbowman_2:1:21;horseArcher_2:1:11,swordsman_2:1:21,catapult_2:1:11;ballista_2:1:11,lancer_2:1:11,horseArcher_2:1:11</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:32,swordsman_2:1:32,crossbowman_2:1:32;horseArcher_2:1:16,swordsman_2:1:32,catapult_2:1:16;ballista_2:1:16,lancer_2:1:16,horseArcher_2:1:16</t>
+  </si>
+  <si>
+    <t>ranger_2:1:40,sentinel_2:1:40,swordsman_2:1:40;swordsman_2:1:40,catapult_2:1:20,ballista_2:1:20;lancer_2:1:20,ranger_2:1:40,swordsman_2:1:40</t>
+  </si>
+  <si>
+    <t>ranger_2:1:49,sentinel_2:1:49,swordsman_2:1:49,swordsman_2:1:49;swordsman_2:1:49,catapult_2:1:25,ballista_2:1:25,ballista_2:1:25;lancer_2:1:25,ranger_2:1:49,swordsman_2:1:49,swordsman_2:1:49</t>
+  </si>
+  <si>
+    <t>lancer_2:1:34,ranger_2:1:67,sentinel_2:1:67,sentinel_2:1:67;catapult_2:1:34,ballista_2:1:34,swordsman_2:1:67,swordsman_2:1:67;ranger_2:1:67,crossbowman_2:1:67,catapult_2:1:34,catapult_2:1:34</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:51,lancer_2:2:51,ranger_2:2:101,ranger_2:2:101;ballista_2:2:51,swordsman_2:2:101,sentinel_2:2:101,sentinel_2:2:101;crossbowman_2:2:101,horseArcher_2:2:51,ballista_2:2:51,ballista_2:2:51</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:60,lancer_2:2:60,ranger_2:2:119,ranger_2:2:119;ballista_2:2:60,swordsman_2:2:119,sentinel_2:2:119,sentinel_2:2:119;crossbowman_2:2:119,horseArcher_2:2:60,ballista_2:2:60,ballista_2:2:60</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:70,lancer_2:2:70,ranger_2:2:140,ranger_2:2:140;ballista_2:2:70,swordsman_2:2:140,sentinel_2:2:140,sentinel_2:2:140;crossbowman_2:2:140,horseArcher_2:2:70,ballista_2:2:70,ballista_2:2:70</t>
+  </si>
+  <si>
+    <t>catapult_2:2:81,horseArcher_2:2:81,lancer_2:2:81,lancer_2:2:81;swordsman_2:2:161,sentinel_2:2:161,ranger_2:2:161,ranger_2:2:161;horseArcher_2:2:81,lancer_2:2:81,swordsman_2:2:161,swordsman_2:2:161</t>
+  </si>
+  <si>
+    <t>catapult_2:2:92,horseArcher_2:2:92,lancer_2:2:92,lancer_2:2:92;swordsman_2:2:184,sentinel_2:2:184,ranger_2:2:184,ranger_2:2:184;horseArcher_2:2:92,lancer_2:2:92,swordsman_2:2:184,swordsman_2:2:184</t>
+  </si>
+  <si>
+    <t>catapult_2:2:104,horseArcher_2:2:104,lancer_2:2:104,lancer_2:2:104,horseArcher_2:2:104;swordsman_2:2:208,sentinel_2:2:208,ranger_2:2:208,ranger_2:2:208,sentinel_2:2:208;horseArcher_2:2:104,lancer_2:2:104,swordsman_2:2:208,swordsman_2:2:208,lancer_2:2:104</t>
+  </si>
+  <si>
+    <t>ballista_2:2:116,catapult_2:2:116,horseArcher_2:2:116,horseArcher_2:2:116,catapult_2:2:116;sentinel_2:2:232,ranger_2:2:232,lancer_2:2:116,lancer_2:2:116,ranger_2:2:232;lancer_2:2:116,crossbowman_2:2:232,sentinel_2:2:232,sentinel_2:2:232,crossbowman_2:2:232</t>
+  </si>
+  <si>
+    <t>ballista_2:2:129,catapult_2:2:129,horseArcher_2:2:129,horseArcher_2:2:129,catapult_2:2:129;sentinel_2:2:258,ranger_2:2:258,lancer_2:2:129,lancer_2:2:129,ranger_2:2:258;lancer_2:2:129,crossbowman_2:2:258,sentinel_2:2:258,sentinel_2:2:258,crossbowman_2:2:258</t>
+  </si>
+  <si>
+    <t>ballista_2:2:143,catapult_2:2:143,horseArcher_2:2:143,horseArcher_2:2:143,catapult_2:2:143;sentinel_2:2:285,ranger_2:2:285,lancer_2:2:143,lancer_2:2:143,ranger_2:2:285;lancer_2:2:143,crossbowman_2:2:285,sentinel_2:2:285,sentinel_2:2:285,crossbowman_2:2:285</t>
+  </si>
+  <si>
+    <t>swordsman_2:2:315,sentinel_2:2:315,ranger_2:2:315,ranger_2:2:315,sentinel_2:2:315;lancer_2:2:158,horseArcher_2:2:158,catapult_2:2:158,catapult_2:2:158,horseArcher_2:2:158;ballista_2:2:158,swordsman_2:2:315,horseArcher_2:2:158,horseArcher_2:2:158,swordsman_2:2:315</t>
+  </si>
+  <si>
+    <t>swordsman_2:3:344,sentinel_2:3:344,ranger_2:3:344,ranger_2:3:344,sentinel_2:3:344;lancer_2:3:172,horseArcher_2:3:172,catapult_2:3:172,catapult_2:3:172,horseArcher_2:3:172;ballista_2:3:172,swordsman_2:3:344,horseArcher_2:3:172,horseArcher_2:3:172,swordsman_2:3:344</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:393,ranger_2:3:393,crossbowman_2:3:393,crossbowman_2:3:393,ranger_2:3:393;horseArcher_2:3:197,catapult_2:3:197,ballista_2:3:197,ballista_2:3:197,catapult_2:3:197;catapult_2:3:197,sentinel_2:3:393,swordsman_2:3:393,swordsman_2:3:393,sentinel_2:3:393</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:447,ranger_2:3:447,crossbowman_2:3:447,crossbowman_2:3:447,ranger_2:3:447;horseArcher_2:3:224,catapult_2:3:224,ballista_2:3:224,ballista_2:3:224,catapult_2:3:224;catapult_2:3:224,sentinel_2:3:447,swordsman_2:3:447,swordsman_2:3:447,sentinel_2:3:447</t>
+  </si>
+  <si>
+    <t>ranger_2:3:501,crossbowman_2:3:501,lancer_2:3:251,lancer_2:3:251,crossbowman_2:3:501;catapult_2:3:251,ballista_2:3:251,swordsman_2:3:501,swordsman_2:3:501,ballista_2:3:251;horseArcher_2:3:251,ranger_2:3:501,sentinel_2:3:501,sentinel_2:3:501,ranger_2:3:501</t>
+  </si>
+  <si>
+    <t>ranger_2:3:561,crossbowman_2:3:561,lancer_2:3:281,lancer_2:3:281,crossbowman_2:3:561;catapult_2:3:281,ballista_2:3:281,swordsman_2:3:561,swordsman_2:3:561,ballista_2:3:281;horseArcher_2:3:281,ranger_2:3:561,sentinel_2:3:561,sentinel_2:3:561,ranger_2:3:561</t>
+  </si>
+  <si>
+    <t>crossbowman_3:1:602,lancer_3:1:301,horseArcher_3:1:301,horseArcher_3:1:301,lancer_3:1:301,crossbowman_3:1:602;ballista_3:1:301,swordsman_3:1:602,sentinel_3:1:602,sentinel_3:1:602,swordsman_3:1:602,ballista_3:1:301;lancer_3:1:301,crossbowman_3:1:602,sentinel_3:1:602,sentinel_3:1:602,crossbowman_3:1:602,lancer_3:1:301</t>
+  </si>
+  <si>
+    <t>crossbowman_3:1:643,lancer_3:1:322,horseArcher_3:1:322,horseArcher_3:1:322,lancer_3:1:322,crossbowman_3:1:643;ballista_3:1:322,swordsman_3:1:643,sentinel_3:1:643,sentinel_3:1:643,swordsman_3:1:643,ballista_3:1:322;lancer_3:1:322,crossbowman_3:1:643,catapult_3:1:322,catapult_3:1:322,crossbowman_3:1:643,lancer_3:1:322</t>
+  </si>
+  <si>
+    <t>lancer_3:1:344,horseArcher_3:1:344,catapult_3:1:344,catapult_3:1:344,horseArcher_3:1:344,lancer_3:1:344;swordsman_3:1:688,sentinel_3:1:688,lancer_3:1:344,lancer_3:1:344,sentinel_3:1:688,swordsman_3:1:688;crossbowman_3:1:688,lancer_3:1:344,ballista_3:1:344,ballista_3:1:344,lancer_3:1:344,crossbowman_3:1:688</t>
+  </si>
+  <si>
+    <t>lancer_3:1:365,horseArcher_3:1:365,ballista_3:1:365,ballista_3:1:365,horseArcher_3:1:365,lancer_3:1:365;swordsman_3:1:730,sentinel_3:1:730,horseArcher_3:1:365,horseArcher_3:1:365,sentinel_3:1:730,swordsman_3:1:730;crossbowman_3:1:730,lancer_3:1:365,swordsman_3:1:730,swordsman_3:1:730,lancer_3:1:365,crossbowman_3:1:730</t>
+  </si>
+  <si>
+    <t>horseArcher_3:1:385,catapult_3:1:385,ballista_3:1:385,ballista_3:1:385,catapult_3:1:385,horseArcher_3:1:385;sentinel_3:1:770,lancer_3:1:385,ranger_3:1:385,ranger_3:1:385,lancer_3:1:385,sentinel_3:1:770;ranger_3:1:770,horseArcher_3:1:385,sentinel_3:1:770,sentinel_3:1:770,horseArcher_3:1:385,ranger_3:1:770</t>
+  </si>
+  <si>
+    <t>horseArcher_3:2:407,ballista_3:2:407,catapult_3:2:407,catapult_3:2:407,ballista_3:2:407,horseArcher_3:2:407;sentinel_3:2:813,horseArcher_3:2:407,catapult_3:2:407,catapult_3:2:407,horseArcher_3:2:407,sentinel_3:2:813;ranger_3:2:813,horseArcher_3:2:407,catapult_3:2:407,catapult_3:2:407,horseArcher_3:2:407,ranger_3:2:813</t>
+  </si>
+  <si>
+    <t>catapult_3:2:448,ballista_3:2:448,sentinel_3:2:896,sentinel_3:2:896,ballista_3:2:448,catapult_3:2:448;lancer_3:2:448,sentinel_3:2:896,ballista_3:2:448,ballista_3:2:448,sentinel_3:2:896,lancer_3:2:448;swordsman_3:2:896,catapult_3:2:448,lancer_3:2:448,lancer_3:2:448,catapult_3:2:448,swordsman_3:2:896</t>
+  </si>
+  <si>
+    <t>ballista_3:2:490,catapult_3:2:490,sentinel_3:2:980,sentinel_3:2:980,catapult_3:2:490,ballista_3:2:490;horseArcher_3:2:490,catapult_3:2:490,ranger_3:2:980,ranger_3:2:980,catapult_3:2:490,horseArcher_3:2:490;sentinel_3:2:980,ballista_3:2:490,horseArcher_3:2:490,horseArcher_3:2:490,ballista_3:2:490,sentinel_3:2:980</t>
+  </si>
+  <si>
+    <t>ballista_3:2:533,swordsman_3:2:1065,ranger_3:2:1065,ranger_3:2:1065,swordsman_3:2:1065,ballista_3:2:533;lancer_3:2:533,ballista_3:2:533,crossbowman_3:2:1065,crossbowman_3:2:1065,ballista_3:2:533,lancer_3:2:533;swordsman_3:2:1065,ranger_3:2:1065,ballista_3:2:533,ballista_3:2:533,ranger_3:2:1065,swordsman_3:2:1065</t>
+  </si>
+  <si>
+    <t>catapult_3:3:574,swordsman_3:3:1148,ranger_3:3:1148,ranger_3:3:1148,swordsman_3:3:1148,catapult_3:3:574;horseArcher_3:3:574,crossbowman_3:3:1148,catapult_3:3:574,catapult_3:3:574,crossbowman_3:3:1148,horseArcher_3:3:574;sentinel_3:3:1148,lancer_3:3:574,catapult_3:3:574,catapult_3:3:574,lancer_3:3:574,sentinel_3:3:1148</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2083,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="905">
+  <cellStyleXfs count="913">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2565,6 +2565,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3066,7 +3074,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="905">
+  <cellStyles count="913">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3521,6 +3529,10 @@
     <cellStyle name="超链接" xfId="899" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="901" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="911" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3968,6 +3980,10 @@
     <cellStyle name="访问过的超链接" xfId="900" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="902" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="912" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4655,7 +4671,7 @@
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B21" s="8">
         <v>240</v>
@@ -4732,24 +4748,24 @@
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B28" s="8">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B29" s="8">
         <v>10080</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -6292,8 +6308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6396,19 +6412,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="15">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="F2" s="15">
         <v>50</v>
       </c>
       <c r="G2" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="16">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="J2" s="15">
         <v>600</v>
@@ -6464,19 +6480,19 @@
         <v>2</v>
       </c>
       <c r="E3" s="15">
-        <v>1080</v>
+        <v>360</v>
       </c>
       <c r="F3" s="15">
         <v>50</v>
       </c>
       <c r="G3" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3" s="16">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="J3" s="15">
         <v>1200</v>
@@ -6532,19 +6548,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="15">
-        <v>1680</v>
+        <v>560</v>
       </c>
       <c r="F4" s="15">
         <v>50</v>
       </c>
       <c r="G4" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="16">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="J4" s="15">
         <v>1800</v>
@@ -6600,19 +6616,19 @@
         <v>4</v>
       </c>
       <c r="E5" s="15">
-        <v>4320</v>
+        <v>1440</v>
       </c>
       <c r="F5" s="15">
         <v>50</v>
       </c>
       <c r="G5" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5" s="16">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="J5" s="15">
         <v>2400</v>
@@ -6668,19 +6684,19 @@
         <v>5</v>
       </c>
       <c r="E6" s="15">
-        <v>7206</v>
+        <v>2404</v>
       </c>
       <c r="F6" s="15">
         <v>50</v>
       </c>
       <c r="G6" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6" s="16">
-        <v>2402</v>
+        <v>1202</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="J6" s="15">
         <v>3000</v>
@@ -6736,19 +6752,19 @@
         <v>6</v>
       </c>
       <c r="E7" s="15">
-        <v>9906</v>
+        <v>3304</v>
       </c>
       <c r="F7" s="15">
         <v>50</v>
       </c>
       <c r="G7" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7" s="16">
-        <v>3302</v>
+        <v>1652</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="J7" s="15">
         <v>3600</v>
@@ -6804,19 +6820,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="15">
-        <v>28808</v>
+        <v>10806</v>
       </c>
       <c r="F8" s="15">
         <v>100</v>
       </c>
       <c r="G8" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8" s="16">
-        <v>7202</v>
+        <v>3602</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="J8" s="15">
         <v>4200</v>
@@ -6872,19 +6888,19 @@
         <v>2</v>
       </c>
       <c r="E9" s="15">
-        <v>36808</v>
+        <v>13806</v>
       </c>
       <c r="F9" s="15">
         <v>100</v>
       </c>
       <c r="G9" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" s="16">
-        <v>9202</v>
+        <v>4602</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="J9" s="15">
         <v>4800</v>
@@ -6940,19 +6956,19 @@
         <v>3</v>
       </c>
       <c r="E10" s="15">
-        <v>45760</v>
+        <v>17160</v>
       </c>
       <c r="F10" s="15">
         <v>100</v>
       </c>
       <c r="G10" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H10" s="16">
-        <v>11440</v>
+        <v>5720</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="J10" s="15">
         <v>6000</v>
@@ -7008,19 +7024,19 @@
         <v>4</v>
       </c>
       <c r="E11" s="15">
-        <v>68800</v>
+        <v>30960</v>
       </c>
       <c r="F11" s="15">
         <v>100</v>
       </c>
       <c r="G11" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11" s="16">
-        <v>17200</v>
+        <v>10320</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="J11" s="15">
         <v>7200</v>
@@ -7076,19 +7092,19 @@
         <v>5</v>
       </c>
       <c r="E12" s="15">
-        <v>82000</v>
+        <v>36900</v>
       </c>
       <c r="F12" s="15">
         <v>100</v>
       </c>
       <c r="G12" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H12" s="16">
-        <v>20500</v>
+        <v>12300</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="J12" s="15">
         <v>9600</v>
@@ -7144,19 +7160,19 @@
         <v>6</v>
       </c>
       <c r="E13" s="15">
-        <v>96000</v>
+        <v>43200</v>
       </c>
       <c r="F13" s="15">
         <v>100</v>
       </c>
       <c r="G13" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" s="16">
-        <v>24000</v>
+        <v>14400</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="J13" s="15">
         <v>12600</v>
@@ -7212,19 +7228,19 @@
         <v>1</v>
       </c>
       <c r="E14" s="15">
-        <v>168000</v>
+        <v>89600</v>
       </c>
       <c r="F14" s="15">
         <v>150</v>
       </c>
       <c r="G14" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H14" s="16">
-        <v>33600</v>
+        <v>22400</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="J14" s="15">
         <v>18000</v>
@@ -7280,19 +7296,19 @@
         <v>2</v>
       </c>
       <c r="E15" s="15">
-        <v>186000</v>
+        <v>99200</v>
       </c>
       <c r="F15" s="15">
         <v>150</v>
       </c>
       <c r="G15" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H15" s="16">
-        <v>37200</v>
+        <v>24800</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="J15" s="15">
         <v>22500</v>
@@ -7348,19 +7364,19 @@
         <v>3</v>
       </c>
       <c r="E16" s="15">
-        <v>210000</v>
+        <v>112000</v>
       </c>
       <c r="F16" s="15">
         <v>150</v>
       </c>
       <c r="G16" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H16" s="16">
-        <v>42000</v>
+        <v>28000</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="J16" s="15">
         <v>31500</v>
@@ -7416,19 +7432,19 @@
         <v>4</v>
       </c>
       <c r="E17" s="15">
-        <v>273000</v>
+        <v>156000</v>
       </c>
       <c r="F17" s="15">
         <v>150</v>
       </c>
       <c r="G17" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H17" s="16">
-        <v>54600</v>
+        <v>39000</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="J17" s="15">
         <v>38400</v>
@@ -7483,20 +7499,20 @@
       <c r="D18" s="15">
         <v>5</v>
       </c>
-      <c r="E18" s="15">
-        <v>301000</v>
+      <c r="E18" s="12">
+        <v>172000</v>
       </c>
       <c r="F18" s="15">
         <v>150</v>
       </c>
       <c r="G18" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18" s="16">
-        <v>60200</v>
+        <v>43000</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="J18" s="15">
         <v>56100</v>
@@ -7552,19 +7568,19 @@
         <v>6</v>
       </c>
       <c r="E19" s="12">
-        <v>336000</v>
+        <v>192000</v>
       </c>
       <c r="F19" s="15">
         <v>150</v>
       </c>
       <c r="G19" s="15">
-        <v>10</v>
-      </c>
-      <c r="H19" s="16">
-        <v>67200</v>
+        <v>8</v>
+      </c>
+      <c r="H19" s="12">
+        <v>48000</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="J19" s="15">
         <v>67500</v>
@@ -7620,19 +7636,19 @@
         <v>1</v>
       </c>
       <c r="E20" s="12">
-        <v>499200</v>
+        <v>390000</v>
       </c>
       <c r="F20" s="15">
         <v>200</v>
       </c>
       <c r="G20" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="12">
-        <v>83200</v>
+        <v>78000</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="J20" s="15">
         <v>98100</v>
@@ -7688,19 +7704,19 @@
         <v>2</v>
       </c>
       <c r="E21" s="12">
-        <v>547200</v>
+        <v>427500</v>
       </c>
       <c r="F21" s="15">
         <v>200</v>
       </c>
       <c r="G21" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="12">
-        <v>91200</v>
+        <v>85500</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="J21" s="15">
         <v>117900</v>
@@ -7756,19 +7772,19 @@
         <v>3</v>
       </c>
       <c r="E22" s="12">
-        <v>658800</v>
+        <v>610000</v>
       </c>
       <c r="F22" s="15">
         <v>200</v>
       </c>
       <c r="G22" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="12">
-        <v>109800</v>
+        <v>122000</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="J22" s="15">
         <v>170100</v>
@@ -7824,19 +7840,19 @@
         <v>4</v>
       </c>
       <c r="E23" s="12">
-        <v>712800</v>
+        <v>660000</v>
       </c>
       <c r="F23" s="15">
         <v>200</v>
       </c>
       <c r="G23" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="12">
-        <v>118800</v>
+        <v>132000</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="J23" s="15">
         <v>204000</v>
@@ -7892,19 +7908,19 @@
         <v>5</v>
       </c>
       <c r="E24" s="12">
-        <v>864000</v>
+        <v>900000</v>
       </c>
       <c r="F24" s="15">
         <v>200</v>
       </c>
       <c r="G24" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" s="12">
-        <v>144000</v>
+        <v>180000</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="J24" s="12">
         <v>240000</v>
@@ -7960,19 +7976,19 @@
         <v>6</v>
       </c>
       <c r="E25" s="12">
-        <v>960000</v>
+        <v>1000000</v>
       </c>
       <c r="F25" s="15">
         <v>200</v>
       </c>
-      <c r="G25" s="15">
-        <v>12</v>
+      <c r="G25" s="12">
+        <v>10</v>
       </c>
       <c r="H25" s="12">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="J25" s="12">
         <v>300000</v>
@@ -8055,7 +8071,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C44"/>
+      <selection activeCell="C2" sqref="C2:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8090,7 +8106,7 @@
         <v>412</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>496</v>
@@ -8104,7 +8120,7 @@
         <v>413</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>455</v>
@@ -8118,7 +8134,7 @@
         <v>414</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>456</v>
@@ -8132,7 +8148,7 @@
         <v>415</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>457</v>
@@ -8146,7 +8162,7 @@
         <v>416</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>458</v>
@@ -8160,7 +8176,7 @@
         <v>417</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>459</v>
@@ -8174,7 +8190,7 @@
         <v>418</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>460</v>
@@ -8188,7 +8204,7 @@
         <v>419</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>461</v>
@@ -8202,7 +8218,7 @@
         <v>420</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>462</v>
@@ -8216,7 +8232,7 @@
         <v>421</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>463</v>
@@ -8230,7 +8246,7 @@
         <v>422</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>464</v>
@@ -8244,7 +8260,7 @@
         <v>423</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>465</v>
@@ -8258,7 +8274,7 @@
         <v>424</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>466</v>
@@ -8272,7 +8288,7 @@
         <v>425</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>467</v>
@@ -8286,7 +8302,7 @@
         <v>426</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>468</v>
@@ -8300,7 +8316,7 @@
         <v>427</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>469</v>
@@ -8314,7 +8330,7 @@
         <v>428</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>470</v>
@@ -8328,7 +8344,7 @@
         <v>429</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>471</v>
@@ -8342,7 +8358,7 @@
         <v>430</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>472</v>
@@ -8356,7 +8372,7 @@
         <v>431</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>473</v>
@@ -8370,7 +8386,7 @@
         <v>432</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>474</v>
@@ -8384,7 +8400,7 @@
         <v>433</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>475</v>
@@ -8398,7 +8414,7 @@
         <v>434</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>476</v>
@@ -8412,7 +8428,7 @@
         <v>435</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>477</v>
@@ -8426,7 +8442,7 @@
         <v>436</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>478</v>
@@ -8440,7 +8456,7 @@
         <v>437</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>479</v>
@@ -8454,7 +8470,7 @@
         <v>438</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>480</v>
@@ -8468,7 +8484,7 @@
         <v>439</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>481</v>
@@ -8482,7 +8498,7 @@
         <v>440</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>482</v>
@@ -8496,7 +8512,7 @@
         <v>441</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>483</v>
@@ -8510,21 +8526,21 @@
         <v>442</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="75">
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" s="15">
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>534</v>
+      <c r="C33" s="21" t="s">
+        <v>558</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>485</v>
@@ -8538,7 +8554,7 @@
         <v>444</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>486</v>
@@ -8552,7 +8568,7 @@
         <v>445</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>487</v>
@@ -8566,7 +8582,7 @@
         <v>446</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>488</v>
@@ -8580,7 +8596,7 @@
         <v>447</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>489</v>
@@ -8594,7 +8610,7 @@
         <v>448</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>490</v>
@@ -8608,7 +8624,7 @@
         <v>449</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>491</v>
@@ -8622,7 +8638,7 @@
         <v>450</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>492</v>
@@ -8636,7 +8652,7 @@
         <v>451</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>493</v>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="33420" windowHeight="20860" tabRatio="497" activeTab="4"/>
+    <workbookView xWindow="1540" yWindow="100" windowWidth="33420" windowHeight="20860" tabRatio="497"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -4436,8 +4436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6308,7 +6308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="Q1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="100" windowWidth="33420" windowHeight="20860" tabRatio="497"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="497" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="566">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -660,9 +660,6 @@
   </si>
   <si>
     <t>INT_needPerception</t>
-  </si>
-  <si>
-    <t>INT_suggestPlayer</t>
   </si>
   <si>
     <t>INT_suggestPower</t>
@@ -4436,8 +4433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4583,13 +4580,13 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B13" s="8">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
@@ -4660,112 +4657,112 @@
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B20" s="8">
         <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B21" s="8">
         <v>240</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B22" s="8">
         <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B23" s="8">
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B24" s="8">
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B25" s="8">
         <v>360</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B26" s="8">
         <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B27" s="8">
         <v>20000</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B28" s="8">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B29" s="8">
         <v>10080</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -4868,7 +4865,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>46</v>
@@ -4892,7 +4889,7 @@
         <v>32</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>35</v>
@@ -4904,7 +4901,7 @@
         <v>40</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="20" customHeight="1">
@@ -6147,7 +6144,7 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>144</v>
@@ -6170,7 +6167,7 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>144</v>
@@ -6193,7 +6190,7 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>144</v>
@@ -6216,7 +6213,7 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>144</v>
@@ -6239,7 +6236,7 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>144</v>
@@ -6262,7 +6259,7 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>144</v>
@@ -6306,31 +6303,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="20.6640625" style="12"/>
-    <col min="6" max="7" width="24.1640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="91.5" style="12" customWidth="1"/>
-    <col min="10" max="14" width="20.6640625" style="12"/>
-    <col min="15" max="15" width="22.83203125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="34.5" style="12" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="12"/>
-    <col min="18" max="18" width="28" style="12" customWidth="1"/>
-    <col min="19" max="19" width="29.6640625" style="12" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" style="12"/>
-    <col min="21" max="21" width="32.5" style="12" customWidth="1"/>
-    <col min="22" max="22" width="31.5" style="12" customWidth="1"/>
-    <col min="23" max="16384" width="20.6640625" style="12"/>
+    <col min="6" max="6" width="24.1640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="91.5" style="12" customWidth="1"/>
+    <col min="9" max="13" width="20.6640625" style="12"/>
+    <col min="14" max="14" width="22.83203125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="34.5" style="12" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="12"/>
+    <col min="17" max="17" width="28" style="12" customWidth="1"/>
+    <col min="18" max="18" width="29.6640625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="12"/>
+    <col min="20" max="20" width="32.5" style="12" customWidth="1"/>
+    <col min="21" max="21" width="31.5" style="12" customWidth="1"/>
+    <col min="22" max="16384" width="20.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" ht="30">
+    <row r="1" spans="1:21" s="13" customFormat="1" ht="30">
       <c r="A1" s="14" t="s">
         <v>159</v>
       </c>
@@ -6356,10 +6353,10 @@
         <v>166</v>
       </c>
       <c r="I1" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>497</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>168</v>
@@ -6394,11 +6391,8 @@
       <c r="U1" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="45">
+    </row>
+    <row r="2" spans="1:21" ht="45">
       <c r="A2" s="15" t="s">
         <v>145</v>
       </c>
@@ -6417,56 +6411,53 @@
       <c r="F2" s="15">
         <v>50</v>
       </c>
-      <c r="G2" s="15">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="G2" s="16">
         <v>80</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>508</v>
+      <c r="H2" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="I2" s="15">
+        <v>200</v>
       </c>
       <c r="J2" s="15">
-        <v>600</v>
+        <v>15</v>
       </c>
       <c r="K2" s="15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L2" s="15">
-        <v>20</v>
-      </c>
-      <c r="M2" s="15">
         <v>35</v>
       </c>
+      <c r="M2" s="17" t="s">
+        <v>180</v>
+      </c>
       <c r="N2" s="17" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>217</v>
+        <v>335</v>
       </c>
       <c r="P2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="R2" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="Q2" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>247</v>
-      </c>
       <c r="S2" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="45">
+    </row>
+    <row r="3" spans="1:21" ht="45">
       <c r="A3" s="15" t="s">
         <v>146</v>
       </c>
@@ -6485,56 +6476,53 @@
       <c r="F3" s="15">
         <v>50</v>
       </c>
-      <c r="G3" s="15">
-        <v>4</v>
-      </c>
-      <c r="H3" s="16">
+      <c r="G3" s="16">
         <v>180</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>509</v>
+      <c r="H3" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="I3" s="15">
+        <v>400</v>
       </c>
       <c r="J3" s="15">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="K3" s="15">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L3" s="15">
-        <v>45</v>
-      </c>
-      <c r="M3" s="15">
         <v>75</v>
       </c>
+      <c r="M3" s="17" t="s">
+        <v>181</v>
+      </c>
       <c r="N3" s="17" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="P3" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="R3" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="Q3" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>248</v>
-      </c>
       <c r="S3" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="U3" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="T3" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="45">
+    </row>
+    <row r="4" spans="1:21" ht="45">
       <c r="A4" s="15" t="s">
         <v>90</v>
       </c>
@@ -6553,56 +6541,53 @@
       <c r="F4" s="15">
         <v>50</v>
       </c>
-      <c r="G4" s="15">
-        <v>4</v>
-      </c>
-      <c r="H4" s="16">
+      <c r="G4" s="16">
         <v>280</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>510</v>
+      <c r="H4" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="I4" s="15">
+        <v>600</v>
       </c>
       <c r="J4" s="15">
-        <v>1800</v>
+        <v>50</v>
       </c>
       <c r="K4" s="15">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L4" s="15">
-        <v>75</v>
-      </c>
-      <c r="M4" s="15">
         <v>115</v>
       </c>
+      <c r="M4" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="N4" s="17" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="P4" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="R4" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="Q4" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>249</v>
-      </c>
       <c r="S4" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="U4" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="T4" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="45">
+    </row>
+    <row r="5" spans="1:21" ht="45">
       <c r="A5" s="15" t="s">
         <v>91</v>
       </c>
@@ -6621,56 +6606,53 @@
       <c r="F5" s="15">
         <v>50</v>
       </c>
-      <c r="G5" s="15">
-        <v>4</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="G5" s="16">
         <v>720</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>511</v>
+      <c r="H5" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="I5" s="15">
+        <v>800</v>
       </c>
       <c r="J5" s="15">
-        <v>2400</v>
+        <v>130</v>
       </c>
       <c r="K5" s="15">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="L5" s="15">
+        <v>300</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="P5" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="M5" s="15">
-        <v>300</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="P5" s="17" t="s">
+      <c r="Q5" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="R5" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="Q5" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>250</v>
-      </c>
       <c r="S5" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="U5" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="T5" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="U5" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="45">
+    </row>
+    <row r="6" spans="1:21" ht="45">
       <c r="A6" s="15" t="s">
         <v>89</v>
       </c>
@@ -6689,56 +6671,53 @@
       <c r="F6" s="15">
         <v>50</v>
       </c>
-      <c r="G6" s="15">
-        <v>4</v>
-      </c>
-      <c r="H6" s="16">
+      <c r="G6" s="16">
         <v>1202</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>512</v>
+      <c r="H6" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1000</v>
       </c>
       <c r="J6" s="15">
-        <v>3000</v>
+        <v>215</v>
       </c>
       <c r="K6" s="15">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="L6" s="15">
-        <v>325</v>
-      </c>
-      <c r="M6" s="15">
         <v>505</v>
       </c>
+      <c r="M6" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="N6" s="17" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>221</v>
+        <v>347</v>
       </c>
       <c r="P6" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="R6" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="Q6" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>251</v>
-      </c>
       <c r="S6" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="U6" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="T6" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="45">
+    </row>
+    <row r="7" spans="1:21" ht="45">
       <c r="A7" s="15" t="s">
         <v>92</v>
       </c>
@@ -6757,56 +6736,53 @@
       <c r="F7" s="15">
         <v>50</v>
       </c>
-      <c r="G7" s="15">
-        <v>4</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="16">
         <v>1652</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>513</v>
+      <c r="H7" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1200</v>
       </c>
       <c r="J7" s="15">
-        <v>3600</v>
+        <v>295</v>
       </c>
       <c r="K7" s="15">
-        <v>295</v>
+        <v>445</v>
       </c>
       <c r="L7" s="15">
-        <v>445</v>
-      </c>
-      <c r="M7" s="15">
         <v>695</v>
       </c>
+      <c r="M7" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="N7" s="17" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>222</v>
+        <v>350</v>
       </c>
       <c r="P7" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="R7" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="Q7" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>252</v>
-      </c>
       <c r="S7" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="U7" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="T7" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="45">
+    </row>
+    <row r="8" spans="1:21" ht="45">
       <c r="A8" s="15" t="s">
         <v>147</v>
       </c>
@@ -6825,56 +6801,53 @@
       <c r="F8" s="15">
         <v>100</v>
       </c>
-      <c r="G8" s="15">
-        <v>6</v>
-      </c>
-      <c r="H8" s="16">
+      <c r="G8" s="16">
         <v>3602</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>514</v>
+      <c r="H8" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1400</v>
       </c>
       <c r="J8" s="15">
-        <v>4200</v>
+        <v>645</v>
       </c>
       <c r="K8" s="15">
-        <v>645</v>
+        <v>970</v>
       </c>
       <c r="L8" s="15">
-        <v>970</v>
-      </c>
-      <c r="M8" s="15">
         <v>1515</v>
       </c>
+      <c r="M8" s="17" t="s">
+        <v>275</v>
+      </c>
       <c r="N8" s="17" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="P8" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="R8" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="Q8" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>312</v>
-      </c>
       <c r="S8" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="U8" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="T8" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="45">
+    </row>
+    <row r="9" spans="1:21" ht="45">
       <c r="A9" s="15" t="s">
         <v>93</v>
       </c>
@@ -6893,56 +6866,53 @@
       <c r="F9" s="15">
         <v>100</v>
       </c>
-      <c r="G9" s="15">
-        <v>6</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="G9" s="16">
         <v>4602</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>515</v>
+      <c r="H9" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1600</v>
       </c>
       <c r="J9" s="15">
-        <v>4800</v>
+        <v>825</v>
       </c>
       <c r="K9" s="15">
-        <v>825</v>
+        <v>1240</v>
       </c>
       <c r="L9" s="15">
-        <v>1240</v>
-      </c>
-      <c r="M9" s="15">
         <v>1935</v>
       </c>
+      <c r="M9" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="N9" s="17" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>223</v>
+        <v>356</v>
       </c>
       <c r="P9" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="R9" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="Q9" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>253</v>
-      </c>
       <c r="S9" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="U9" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="T9" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="V9" s="17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="45">
+    </row>
+    <row r="10" spans="1:21" ht="45">
       <c r="A10" s="15" t="s">
         <v>88</v>
       </c>
@@ -6961,56 +6931,53 @@
       <c r="F10" s="15">
         <v>100</v>
       </c>
-      <c r="G10" s="15">
-        <v>6</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="G10" s="16">
         <v>5720</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>516</v>
+      <c r="H10" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="I10" s="15">
+        <v>2000</v>
       </c>
       <c r="J10" s="15">
-        <v>6000</v>
+        <v>1030</v>
       </c>
       <c r="K10" s="15">
-        <v>1030</v>
+        <v>1545</v>
       </c>
       <c r="L10" s="15">
-        <v>1545</v>
-      </c>
-      <c r="M10" s="15">
         <v>2400</v>
       </c>
+      <c r="M10" s="17" t="s">
+        <v>276</v>
+      </c>
       <c r="N10" s="17" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="P10" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R10" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="Q10" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>313</v>
-      </c>
       <c r="S10" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="U10" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="T10" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="V10" s="17" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="45">
+    </row>
+    <row r="11" spans="1:21" ht="45">
       <c r="A11" s="15" t="s">
         <v>87</v>
       </c>
@@ -7029,56 +6996,53 @@
       <c r="F11" s="15">
         <v>100</v>
       </c>
-      <c r="G11" s="15">
-        <v>6</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="G11" s="16">
         <v>10320</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>517</v>
+      <c r="H11" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="I11" s="15">
+        <v>2400</v>
       </c>
       <c r="J11" s="15">
-        <v>7200</v>
+        <v>1545</v>
       </c>
       <c r="K11" s="15">
-        <v>1545</v>
+        <v>2320</v>
       </c>
       <c r="L11" s="15">
-        <v>2320</v>
-      </c>
-      <c r="M11" s="15">
         <v>3610</v>
       </c>
+      <c r="M11" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="N11" s="17" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>224</v>
+        <v>362</v>
       </c>
       <c r="P11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="R11" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="Q11" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>254</v>
-      </c>
       <c r="S11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="U11" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="T11" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="U11" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="V11" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="45">
+    </row>
+    <row r="12" spans="1:21" ht="45">
       <c r="A12" s="15" t="s">
         <v>86</v>
       </c>
@@ -7097,56 +7061,53 @@
       <c r="F12" s="15">
         <v>100</v>
       </c>
-      <c r="G12" s="15">
-        <v>6</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="G12" s="16">
         <v>12300</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>518</v>
+      <c r="H12" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="I12" s="15">
+        <v>3200</v>
       </c>
       <c r="J12" s="15">
-        <v>9600</v>
+        <v>1845</v>
       </c>
       <c r="K12" s="15">
-        <v>1845</v>
+        <v>2765</v>
       </c>
       <c r="L12" s="15">
-        <v>2765</v>
-      </c>
-      <c r="M12" s="15">
         <v>4305</v>
       </c>
+      <c r="M12" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="N12" s="17" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="P12" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="R12" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="Q12" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>314</v>
-      </c>
       <c r="S12" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="U12" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="T12" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="45">
+    </row>
+    <row r="13" spans="1:21" ht="45">
       <c r="A13" s="15" t="s">
         <v>94</v>
       </c>
@@ -7165,56 +7126,53 @@
       <c r="F13" s="15">
         <v>100</v>
       </c>
-      <c r="G13" s="15">
-        <v>6</v>
-      </c>
-      <c r="H13" s="16">
+      <c r="G13" s="16">
         <v>14400</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>519</v>
+      <c r="H13" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="I13" s="15">
+        <v>4200</v>
       </c>
       <c r="J13" s="15">
-        <v>12600</v>
+        <v>2160</v>
       </c>
       <c r="K13" s="15">
-        <v>2160</v>
+        <v>3240</v>
       </c>
       <c r="L13" s="15">
-        <v>3240</v>
-      </c>
-      <c r="M13" s="15">
         <v>5040</v>
       </c>
+      <c r="M13" s="17" t="s">
+        <v>187</v>
+      </c>
       <c r="N13" s="17" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>225</v>
+        <v>368</v>
       </c>
       <c r="P13" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="R13" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="Q13" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>255</v>
-      </c>
       <c r="S13" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="U13" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="T13" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="U13" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="V13" s="17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="45">
+    </row>
+    <row r="14" spans="1:21" ht="45">
       <c r="A14" s="15" t="s">
         <v>151</v>
       </c>
@@ -7233,56 +7191,53 @@
       <c r="F14" s="15">
         <v>150</v>
       </c>
-      <c r="G14" s="15">
-        <v>8</v>
-      </c>
-      <c r="H14" s="16">
+      <c r="G14" s="16">
         <v>22400</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>520</v>
+      <c r="H14" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="I14" s="15">
+        <v>6000</v>
       </c>
       <c r="J14" s="15">
-        <v>18000</v>
+        <v>3020</v>
       </c>
       <c r="K14" s="15">
-        <v>3020</v>
+        <v>4535</v>
       </c>
       <c r="L14" s="15">
-        <v>4535</v>
-      </c>
-      <c r="M14" s="15">
         <v>7055</v>
       </c>
+      <c r="M14" s="17" t="s">
+        <v>278</v>
+      </c>
       <c r="N14" s="17" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="P14" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="R14" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="Q14" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>315</v>
-      </c>
       <c r="S14" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="U14" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="T14" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="U14" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="V14" s="17" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="45">
+    </row>
+    <row r="15" spans="1:21" ht="45">
       <c r="A15" s="15" t="s">
         <v>95</v>
       </c>
@@ -7301,56 +7256,53 @@
       <c r="F15" s="15">
         <v>150</v>
       </c>
-      <c r="G15" s="15">
-        <v>8</v>
-      </c>
-      <c r="H15" s="16">
+      <c r="G15" s="16">
         <v>24800</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>521</v>
+      <c r="H15" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="I15" s="15">
+        <v>7500</v>
       </c>
       <c r="J15" s="15">
-        <v>22500</v>
+        <v>3345</v>
       </c>
       <c r="K15" s="15">
-        <v>3345</v>
+        <v>5020</v>
       </c>
       <c r="L15" s="15">
-        <v>5020</v>
-      </c>
-      <c r="M15" s="15">
         <v>7810</v>
       </c>
+      <c r="M15" s="17" t="s">
+        <v>188</v>
+      </c>
       <c r="N15" s="17" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>226</v>
+        <v>374</v>
       </c>
       <c r="P15" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="R15" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="Q15" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>256</v>
-      </c>
       <c r="S15" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="U15" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="T15" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="U15" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="V15" s="17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="45">
+    </row>
+    <row r="16" spans="1:21" ht="45">
       <c r="A16" s="15" t="s">
         <v>85</v>
       </c>
@@ -7369,56 +7321,53 @@
       <c r="F16" s="15">
         <v>150</v>
       </c>
-      <c r="G16" s="15">
-        <v>8</v>
-      </c>
-      <c r="H16" s="16">
+      <c r="G16" s="16">
         <v>28000</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>522</v>
+      <c r="H16" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="I16" s="15">
+        <v>10500</v>
       </c>
       <c r="J16" s="15">
-        <v>31500</v>
+        <v>3780</v>
       </c>
       <c r="K16" s="15">
-        <v>3780</v>
+        <v>5670</v>
       </c>
       <c r="L16" s="15">
-        <v>5670</v>
-      </c>
-      <c r="M16" s="15">
         <v>8820</v>
       </c>
+      <c r="M16" s="17" t="s">
+        <v>279</v>
+      </c>
       <c r="N16" s="17" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="P16" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="R16" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="Q16" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="R16" s="17" t="s">
-        <v>316</v>
-      </c>
       <c r="S16" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="U16" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="T16" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="45">
+    </row>
+    <row r="17" spans="1:21" ht="45">
       <c r="A17" s="15" t="s">
         <v>84</v>
       </c>
@@ -7437,56 +7386,53 @@
       <c r="F17" s="15">
         <v>150</v>
       </c>
-      <c r="G17" s="15">
-        <v>8</v>
-      </c>
-      <c r="H17" s="16">
+      <c r="G17" s="16">
         <v>39000</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>523</v>
+      <c r="H17" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="I17" s="15">
+        <v>12800</v>
       </c>
       <c r="J17" s="15">
-        <v>38400</v>
+        <v>4910</v>
       </c>
       <c r="K17" s="15">
-        <v>4910</v>
+        <v>7370</v>
       </c>
       <c r="L17" s="15">
-        <v>7370</v>
-      </c>
-      <c r="M17" s="15">
         <v>11465</v>
       </c>
+      <c r="M17" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="N17" s="17" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>227</v>
+        <v>380</v>
       </c>
       <c r="P17" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="R17" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="Q17" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="R17" s="17" t="s">
-        <v>257</v>
-      </c>
       <c r="S17" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="U17" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="T17" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="V17" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="45">
+    </row>
+    <row r="18" spans="1:21" ht="45">
       <c r="A18" s="15" t="s">
         <v>83</v>
       </c>
@@ -7505,56 +7451,53 @@
       <c r="F18" s="15">
         <v>150</v>
       </c>
-      <c r="G18" s="15">
-        <v>8</v>
-      </c>
-      <c r="H18" s="16">
+      <c r="G18" s="16">
         <v>43000</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>524</v>
+      <c r="H18" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="I18" s="15">
+        <v>18700</v>
       </c>
       <c r="J18" s="15">
-        <v>56100</v>
+        <v>5415</v>
       </c>
       <c r="K18" s="15">
-        <v>5415</v>
+        <v>8125</v>
       </c>
       <c r="L18" s="15">
-        <v>8125</v>
-      </c>
-      <c r="M18" s="15">
         <v>12640</v>
       </c>
+      <c r="M18" s="17" t="s">
+        <v>280</v>
+      </c>
       <c r="N18" s="17" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>308</v>
+        <v>383</v>
       </c>
       <c r="P18" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="R18" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="Q18" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>317</v>
-      </c>
       <c r="S18" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="U18" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="T18" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="U18" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="45">
+    </row>
+    <row r="19" spans="1:21" ht="45">
       <c r="A19" s="15" t="s">
         <v>96</v>
       </c>
@@ -7573,56 +7516,53 @@
       <c r="F19" s="15">
         <v>150</v>
       </c>
-      <c r="G19" s="15">
-        <v>8</v>
-      </c>
-      <c r="H19" s="12">
+      <c r="G19" s="12">
         <v>48000</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>525</v>
+      <c r="H19" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I19" s="15">
+        <v>22500</v>
       </c>
       <c r="J19" s="15">
-        <v>67500</v>
+        <v>6045</v>
       </c>
       <c r="K19" s="15">
-        <v>6045</v>
+        <v>9070</v>
       </c>
       <c r="L19" s="15">
-        <v>9070</v>
-      </c>
-      <c r="M19" s="15">
         <v>14110</v>
       </c>
+      <c r="M19" s="17" t="s">
+        <v>189</v>
+      </c>
       <c r="N19" s="17" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>228</v>
+        <v>386</v>
       </c>
       <c r="P19" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="R19" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="Q19" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="R19" s="17" t="s">
-        <v>258</v>
-      </c>
       <c r="S19" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="U19" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="T19" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="U19" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="45">
+    </row>
+    <row r="20" spans="1:21" ht="45">
       <c r="A20" s="15" t="s">
         <v>155</v>
       </c>
@@ -7641,56 +7581,53 @@
       <c r="F20" s="15">
         <v>200</v>
       </c>
-      <c r="G20" s="15">
-        <v>10</v>
-      </c>
-      <c r="H20" s="12">
+      <c r="G20" s="12">
         <v>78000</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>526</v>
+      <c r="H20" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="I20" s="15">
+        <v>32700</v>
       </c>
       <c r="J20" s="15">
-        <v>98100</v>
+        <v>7485</v>
       </c>
       <c r="K20" s="15">
-        <v>7485</v>
+        <v>11230</v>
       </c>
       <c r="L20" s="15">
-        <v>11230</v>
-      </c>
-      <c r="M20" s="15">
         <v>17470</v>
       </c>
+      <c r="M20" s="17" t="s">
+        <v>281</v>
+      </c>
       <c r="N20" s="17" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="P20" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="R20" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="Q20" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>318</v>
-      </c>
       <c r="S20" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="U20" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="T20" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="U20" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="V20" s="17" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="45">
+    </row>
+    <row r="21" spans="1:21" ht="45">
       <c r="A21" s="15" t="s">
         <v>97</v>
       </c>
@@ -7709,56 +7646,53 @@
       <c r="F21" s="15">
         <v>200</v>
       </c>
-      <c r="G21" s="15">
-        <v>10</v>
-      </c>
-      <c r="H21" s="12">
+      <c r="G21" s="12">
         <v>85500</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>527</v>
+      <c r="H21" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="I21" s="15">
+        <v>39300</v>
       </c>
       <c r="J21" s="15">
-        <v>117900</v>
+        <v>8205</v>
       </c>
       <c r="K21" s="15">
-        <v>8205</v>
+        <v>12310</v>
       </c>
       <c r="L21" s="15">
-        <v>12310</v>
-      </c>
-      <c r="M21" s="15">
         <v>19150</v>
       </c>
+      <c r="M21" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="N21" s="17" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>229</v>
+        <v>392</v>
       </c>
       <c r="P21" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="R21" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="Q21" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>259</v>
-      </c>
       <c r="S21" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="U21" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="T21" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="U21" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="V21" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="45">
+    </row>
+    <row r="22" spans="1:21" ht="45">
       <c r="A22" s="15" t="s">
         <v>98</v>
       </c>
@@ -7777,56 +7711,53 @@
       <c r="F22" s="15">
         <v>200</v>
       </c>
-      <c r="G22" s="15">
-        <v>10</v>
-      </c>
-      <c r="H22" s="12">
+      <c r="G22" s="12">
         <v>122000</v>
       </c>
-      <c r="I22" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="J22" s="15">
-        <v>170100</v>
+      <c r="H22" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="I22" s="15">
+        <v>56700</v>
+      </c>
+      <c r="J22" s="12">
+        <v>9880</v>
       </c>
       <c r="K22" s="12">
-        <v>9880</v>
+        <v>14820</v>
       </c>
       <c r="L22" s="12">
-        <v>14820</v>
-      </c>
-      <c r="M22" s="12">
         <v>23055</v>
       </c>
+      <c r="M22" s="17" t="s">
+        <v>282</v>
+      </c>
       <c r="N22" s="17" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="P22" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="R22" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="Q22" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>319</v>
-      </c>
       <c r="S22" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="U22" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="T22" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="U22" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="V22" s="17" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="45">
+    </row>
+    <row r="23" spans="1:21" ht="45">
       <c r="A23" s="15" t="s">
         <v>99</v>
       </c>
@@ -7845,56 +7776,53 @@
       <c r="F23" s="15">
         <v>200</v>
       </c>
-      <c r="G23" s="15">
-        <v>10</v>
-      </c>
-      <c r="H23" s="12">
+      <c r="G23" s="12">
         <v>132000</v>
       </c>
-      <c r="I23" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="J23" s="15">
-        <v>204000</v>
+      <c r="H23" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="I23" s="15">
+        <v>68000</v>
+      </c>
+      <c r="J23" s="12">
+        <v>10690</v>
       </c>
       <c r="K23" s="12">
-        <v>10690</v>
+        <v>16035</v>
       </c>
       <c r="L23" s="12">
-        <v>16035</v>
-      </c>
-      <c r="M23" s="12">
         <v>24945</v>
       </c>
+      <c r="M23" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="N23" s="17" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>230</v>
+        <v>398</v>
       </c>
       <c r="P23" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="R23" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="Q23" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="R23" s="17" t="s">
-        <v>260</v>
-      </c>
       <c r="S23" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="U23" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="T23" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="U23" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="V23" s="17" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="45">
+    </row>
+    <row r="24" spans="1:21" ht="45">
       <c r="A24" s="15" t="s">
         <v>100</v>
       </c>
@@ -7913,56 +7841,53 @@
       <c r="F24" s="15">
         <v>200</v>
       </c>
-      <c r="G24" s="15">
-        <v>10</v>
-      </c>
-      <c r="H24" s="12">
+      <c r="G24" s="12">
         <v>180000</v>
       </c>
-      <c r="I24" s="22" t="s">
-        <v>530</v>
+      <c r="H24" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="I24" s="12">
+        <v>80000</v>
       </c>
       <c r="J24" s="12">
-        <v>240000</v>
+        <v>12960</v>
       </c>
       <c r="K24" s="12">
-        <v>12960</v>
+        <v>19440</v>
       </c>
       <c r="L24" s="12">
-        <v>19440</v>
-      </c>
-      <c r="M24" s="12">
         <v>30240</v>
       </c>
-      <c r="N24" s="22" t="s">
-        <v>284</v>
+      <c r="M24" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>310</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>311</v>
+        <v>401</v>
       </c>
       <c r="P24" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="R24" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="Q24" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="R24" s="17" t="s">
-        <v>320</v>
-      </c>
       <c r="S24" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="U24" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="T24" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="U24" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="V24" s="17" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="45">
+    </row>
+    <row r="25" spans="1:21" ht="45">
       <c r="A25" s="15" t="s">
         <v>101</v>
       </c>
@@ -7982,63 +7907,61 @@
         <v>200</v>
       </c>
       <c r="G25" s="12">
-        <v>10</v>
-      </c>
-      <c r="H25" s="12">
         <v>200000</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>531</v>
+      <c r="H25" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="I25" s="12">
+        <v>100000</v>
       </c>
       <c r="J25" s="12">
-        <v>300000</v>
+        <v>14400</v>
       </c>
       <c r="K25" s="12">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="L25" s="12">
-        <v>21600</v>
-      </c>
-      <c r="M25" s="12">
         <v>33600</v>
       </c>
+      <c r="M25" s="22" t="s">
+        <v>191</v>
+      </c>
       <c r="N25" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="O25" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>404</v>
       </c>
       <c r="P25" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="R25" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="Q25" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="R25" s="17" t="s">
-        <v>261</v>
-      </c>
       <c r="S25" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="T25" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="U25" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="T25" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="U25" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="20" customHeight="1">
+    </row>
+    <row r="27" spans="1:21" ht="20" customHeight="1">
+      <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
       <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-    </row>
-    <row r="28" spans="1:22" ht="20" customHeight="1">
+    </row>
+    <row r="28" spans="1:21" ht="20" customHeight="1">
+      <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
@@ -8046,13 +7969,12 @@
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-    </row>
-    <row r="29" spans="1:22" ht="20" customHeight="1">
-      <c r="O29" s="15"/>
-      <c r="S29" s="15"/>
+    </row>
+    <row r="29" spans="1:21" ht="20" customHeight="1">
+      <c r="N29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -8085,16 +8007,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1">
       <c r="A1" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>268</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>269</v>
       </c>
       <c r="F1" s="20"/>
     </row>
@@ -8103,13 +8025,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -8117,13 +8039,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -8131,13 +8053,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -8145,13 +8067,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -8159,13 +8081,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -8173,13 +8095,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -8187,13 +8109,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -8201,13 +8123,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
@@ -8215,13 +8137,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -8229,13 +8151,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
@@ -8243,13 +8165,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45">
@@ -8257,13 +8179,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45">
@@ -8271,13 +8193,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45">
@@ -8285,13 +8207,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
@@ -8299,13 +8221,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45">
@@ -8313,13 +8235,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45">
@@ -8327,13 +8249,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45">
@@ -8341,13 +8263,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45">
@@ -8355,13 +8277,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45">
@@ -8369,13 +8291,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60">
@@ -8383,13 +8305,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60">
@@ -8397,13 +8319,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60">
@@ -8411,13 +8333,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60">
@@ -8425,13 +8347,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60">
@@ -8439,13 +8361,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60">
@@ -8453,13 +8375,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60">
@@ -8467,13 +8389,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60">
@@ -8481,13 +8403,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60">
@@ -8495,13 +8417,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="60">
@@ -8509,13 +8431,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="75">
@@ -8523,13 +8445,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30">
@@ -8537,13 +8459,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
@@ -8551,13 +8473,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
@@ -8565,13 +8487,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30">
@@ -8579,13 +8501,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30">
@@ -8593,13 +8515,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -8607,13 +8529,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
@@ -8621,13 +8543,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
@@ -8635,13 +8557,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -8649,13 +8571,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -6305,8 +6305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H15" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7718,7 +7718,7 @@
         <v>527</v>
       </c>
       <c r="I22" s="15">
-        <v>56700</v>
+        <v>45360</v>
       </c>
       <c r="J22" s="12">
         <v>9880</v>
@@ -7783,7 +7783,7 @@
         <v>528</v>
       </c>
       <c r="I23" s="15">
-        <v>68000</v>
+        <v>54400</v>
       </c>
       <c r="J23" s="12">
         <v>10690</v>
@@ -7848,7 +7848,7 @@
         <v>529</v>
       </c>
       <c r="I24" s="12">
-        <v>80000</v>
+        <v>64000</v>
       </c>
       <c r="J24" s="12">
         <v>12960</v>
@@ -7913,7 +7913,7 @@
         <v>530</v>
       </c>
       <c r="I25" s="12">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="J25" s="12">
         <v>14400</v>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="497" activeTab="4"/>
+    <workbookView xWindow="1520" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="497" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -2080,7 +2080,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="913">
+  <cellStyleXfs count="919">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2998,8 +2998,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3070,8 +3076,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="913">
+  <cellStyles count="919">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3530,6 +3539,9 @@
     <cellStyle name="超链接" xfId="907" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="909" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="917" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3981,6 +3993,9 @@
     <cellStyle name="访问过的超链接" xfId="908" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="910" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="918" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -6305,8 +6320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H15" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6420,14 +6435,14 @@
       <c r="I2" s="15">
         <v>200</v>
       </c>
-      <c r="J2" s="15">
-        <v>15</v>
-      </c>
-      <c r="K2" s="15">
-        <v>20</v>
-      </c>
-      <c r="L2" s="15">
-        <v>35</v>
+      <c r="J2" s="24">
+        <v>7</v>
+      </c>
+      <c r="K2" s="24">
+        <v>10</v>
+      </c>
+      <c r="L2" s="24">
+        <v>17</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>180</v>
@@ -6485,14 +6500,14 @@
       <c r="I3" s="15">
         <v>400</v>
       </c>
-      <c r="J3" s="15">
-        <v>30</v>
-      </c>
-      <c r="K3" s="15">
-        <v>45</v>
-      </c>
-      <c r="L3" s="15">
-        <v>75</v>
+      <c r="J3" s="24">
+        <v>15</v>
+      </c>
+      <c r="K3" s="24">
+        <v>22</v>
+      </c>
+      <c r="L3" s="24">
+        <v>37</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>181</v>
@@ -6550,14 +6565,14 @@
       <c r="I4" s="15">
         <v>600</v>
       </c>
-      <c r="J4" s="15">
-        <v>50</v>
-      </c>
-      <c r="K4" s="15">
-        <v>75</v>
-      </c>
-      <c r="L4" s="15">
-        <v>115</v>
+      <c r="J4" s="24">
+        <v>25</v>
+      </c>
+      <c r="K4" s="24">
+        <v>37</v>
+      </c>
+      <c r="L4" s="24">
+        <v>57</v>
       </c>
       <c r="M4" s="17" t="s">
         <v>182</v>
@@ -6615,14 +6630,14 @@
       <c r="I5" s="15">
         <v>800</v>
       </c>
-      <c r="J5" s="15">
-        <v>130</v>
-      </c>
-      <c r="K5" s="15">
-        <v>195</v>
-      </c>
-      <c r="L5" s="15">
-        <v>300</v>
+      <c r="J5" s="24">
+        <v>65</v>
+      </c>
+      <c r="K5" s="24">
+        <v>97</v>
+      </c>
+      <c r="L5" s="24">
+        <v>150</v>
       </c>
       <c r="M5" s="17" t="s">
         <v>183</v>
@@ -6680,14 +6695,14 @@
       <c r="I6" s="15">
         <v>1000</v>
       </c>
-      <c r="J6" s="15">
-        <v>215</v>
-      </c>
-      <c r="K6" s="15">
-        <v>325</v>
-      </c>
-      <c r="L6" s="15">
-        <v>505</v>
+      <c r="J6" s="24">
+        <v>107</v>
+      </c>
+      <c r="K6" s="24">
+        <v>162</v>
+      </c>
+      <c r="L6" s="24">
+        <v>252</v>
       </c>
       <c r="M6" s="17" t="s">
         <v>184</v>
@@ -6745,14 +6760,14 @@
       <c r="I7" s="15">
         <v>1200</v>
       </c>
-      <c r="J7" s="15">
-        <v>295</v>
-      </c>
-      <c r="K7" s="15">
-        <v>445</v>
-      </c>
-      <c r="L7" s="15">
-        <v>695</v>
+      <c r="J7" s="24">
+        <v>147</v>
+      </c>
+      <c r="K7" s="24">
+        <v>222</v>
+      </c>
+      <c r="L7" s="24">
+        <v>347</v>
       </c>
       <c r="M7" s="17" t="s">
         <v>185</v>
@@ -6810,14 +6825,14 @@
       <c r="I8" s="15">
         <v>1400</v>
       </c>
-      <c r="J8" s="15">
-        <v>645</v>
-      </c>
-      <c r="K8" s="15">
-        <v>970</v>
-      </c>
-      <c r="L8" s="15">
-        <v>1515</v>
+      <c r="J8" s="24">
+        <v>322</v>
+      </c>
+      <c r="K8" s="24">
+        <v>485</v>
+      </c>
+      <c r="L8" s="24">
+        <v>757</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>275</v>
@@ -6875,14 +6890,14 @@
       <c r="I9" s="15">
         <v>1600</v>
       </c>
-      <c r="J9" s="15">
-        <v>825</v>
-      </c>
-      <c r="K9" s="15">
-        <v>1240</v>
-      </c>
-      <c r="L9" s="15">
-        <v>1935</v>
+      <c r="J9" s="24">
+        <v>412</v>
+      </c>
+      <c r="K9" s="24">
+        <v>620</v>
+      </c>
+      <c r="L9" s="24">
+        <v>967</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>186</v>
@@ -6940,14 +6955,14 @@
       <c r="I10" s="15">
         <v>2000</v>
       </c>
-      <c r="J10" s="15">
-        <v>1030</v>
-      </c>
-      <c r="K10" s="15">
-        <v>1545</v>
-      </c>
-      <c r="L10" s="15">
-        <v>2400</v>
+      <c r="J10" s="24">
+        <v>515</v>
+      </c>
+      <c r="K10" s="24">
+        <v>772</v>
+      </c>
+      <c r="L10" s="24">
+        <v>1200</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>276</v>
@@ -7005,14 +7020,14 @@
       <c r="I11" s="15">
         <v>2400</v>
       </c>
-      <c r="J11" s="15">
-        <v>1545</v>
-      </c>
-      <c r="K11" s="15">
-        <v>2320</v>
-      </c>
-      <c r="L11" s="15">
-        <v>3610</v>
+      <c r="J11" s="24">
+        <v>772</v>
+      </c>
+      <c r="K11" s="24">
+        <v>1160</v>
+      </c>
+      <c r="L11" s="24">
+        <v>1805</v>
       </c>
       <c r="M11" s="17" t="s">
         <v>148</v>
@@ -7070,14 +7085,14 @@
       <c r="I12" s="15">
         <v>3200</v>
       </c>
-      <c r="J12" s="15">
-        <v>1845</v>
-      </c>
-      <c r="K12" s="15">
-        <v>2765</v>
-      </c>
-      <c r="L12" s="15">
-        <v>4305</v>
+      <c r="J12" s="24">
+        <v>922</v>
+      </c>
+      <c r="K12" s="24">
+        <v>1382</v>
+      </c>
+      <c r="L12" s="24">
+        <v>2152</v>
       </c>
       <c r="M12" s="17" t="s">
         <v>277</v>
@@ -7135,14 +7150,14 @@
       <c r="I13" s="15">
         <v>4200</v>
       </c>
-      <c r="J13" s="15">
-        <v>2160</v>
-      </c>
-      <c r="K13" s="15">
-        <v>3240</v>
-      </c>
-      <c r="L13" s="15">
-        <v>5040</v>
+      <c r="J13" s="24">
+        <v>1080</v>
+      </c>
+      <c r="K13" s="24">
+        <v>1620</v>
+      </c>
+      <c r="L13" s="24">
+        <v>2520</v>
       </c>
       <c r="M13" s="17" t="s">
         <v>187</v>
@@ -7200,14 +7215,14 @@
       <c r="I14" s="15">
         <v>6000</v>
       </c>
-      <c r="J14" s="15">
-        <v>3020</v>
-      </c>
-      <c r="K14" s="15">
-        <v>4535</v>
-      </c>
-      <c r="L14" s="15">
-        <v>7055</v>
+      <c r="J14" s="24">
+        <v>1510</v>
+      </c>
+      <c r="K14" s="24">
+        <v>2267</v>
+      </c>
+      <c r="L14" s="24">
+        <v>3527</v>
       </c>
       <c r="M14" s="17" t="s">
         <v>278</v>
@@ -7265,14 +7280,14 @@
       <c r="I15" s="15">
         <v>7500</v>
       </c>
-      <c r="J15" s="15">
-        <v>3345</v>
-      </c>
-      <c r="K15" s="15">
-        <v>5020</v>
-      </c>
-      <c r="L15" s="15">
-        <v>7810</v>
+      <c r="J15" s="24">
+        <v>1672</v>
+      </c>
+      <c r="K15" s="24">
+        <v>2510</v>
+      </c>
+      <c r="L15" s="24">
+        <v>3905</v>
       </c>
       <c r="M15" s="17" t="s">
         <v>188</v>
@@ -7330,14 +7345,14 @@
       <c r="I16" s="15">
         <v>10500</v>
       </c>
-      <c r="J16" s="15">
-        <v>3780</v>
-      </c>
-      <c r="K16" s="15">
-        <v>5670</v>
-      </c>
-      <c r="L16" s="15">
-        <v>8820</v>
+      <c r="J16" s="24">
+        <v>1890</v>
+      </c>
+      <c r="K16" s="24">
+        <v>2835</v>
+      </c>
+      <c r="L16" s="24">
+        <v>4410</v>
       </c>
       <c r="M16" s="17" t="s">
         <v>279</v>
@@ -7395,14 +7410,14 @@
       <c r="I17" s="15">
         <v>12800</v>
       </c>
-      <c r="J17" s="15">
-        <v>4910</v>
-      </c>
-      <c r="K17" s="15">
-        <v>7370</v>
-      </c>
-      <c r="L17" s="15">
-        <v>11465</v>
+      <c r="J17" s="24">
+        <v>2455</v>
+      </c>
+      <c r="K17" s="24">
+        <v>3685</v>
+      </c>
+      <c r="L17" s="24">
+        <v>5732</v>
       </c>
       <c r="M17" s="17" t="s">
         <v>152</v>
@@ -7460,14 +7475,14 @@
       <c r="I18" s="15">
         <v>18700</v>
       </c>
-      <c r="J18" s="15">
-        <v>5415</v>
-      </c>
-      <c r="K18" s="15">
-        <v>8125</v>
-      </c>
-      <c r="L18" s="15">
-        <v>12640</v>
+      <c r="J18" s="24">
+        <v>2707</v>
+      </c>
+      <c r="K18" s="24">
+        <v>4062</v>
+      </c>
+      <c r="L18" s="24">
+        <v>6320</v>
       </c>
       <c r="M18" s="17" t="s">
         <v>280</v>
@@ -7525,14 +7540,14 @@
       <c r="I19" s="15">
         <v>22500</v>
       </c>
-      <c r="J19" s="15">
-        <v>6045</v>
-      </c>
-      <c r="K19" s="15">
-        <v>9070</v>
-      </c>
-      <c r="L19" s="15">
-        <v>14110</v>
+      <c r="J19" s="24">
+        <v>3022</v>
+      </c>
+      <c r="K19" s="24">
+        <v>4535</v>
+      </c>
+      <c r="L19" s="24">
+        <v>7055</v>
       </c>
       <c r="M19" s="17" t="s">
         <v>189</v>
@@ -7590,14 +7605,14 @@
       <c r="I20" s="15">
         <v>32700</v>
       </c>
-      <c r="J20" s="15">
-        <v>7485</v>
-      </c>
-      <c r="K20" s="15">
-        <v>11230</v>
-      </c>
-      <c r="L20" s="15">
-        <v>17470</v>
+      <c r="J20" s="24">
+        <v>3742</v>
+      </c>
+      <c r="K20" s="24">
+        <v>5615</v>
+      </c>
+      <c r="L20" s="24">
+        <v>8735</v>
       </c>
       <c r="M20" s="17" t="s">
         <v>281</v>
@@ -7655,14 +7670,14 @@
       <c r="I21" s="15">
         <v>39300</v>
       </c>
-      <c r="J21" s="15">
-        <v>8205</v>
-      </c>
-      <c r="K21" s="15">
-        <v>12310</v>
-      </c>
-      <c r="L21" s="15">
-        <v>19150</v>
+      <c r="J21" s="24">
+        <v>4102</v>
+      </c>
+      <c r="K21" s="24">
+        <v>6155</v>
+      </c>
+      <c r="L21" s="24">
+        <v>9575</v>
       </c>
       <c r="M21" s="17" t="s">
         <v>190</v>
@@ -7720,14 +7735,14 @@
       <c r="I22" s="15">
         <v>45360</v>
       </c>
-      <c r="J22" s="12">
-        <v>9880</v>
-      </c>
-      <c r="K22" s="12">
-        <v>14820</v>
-      </c>
-      <c r="L22" s="12">
-        <v>23055</v>
+      <c r="J22" s="24">
+        <v>4940</v>
+      </c>
+      <c r="K22" s="24">
+        <v>7410</v>
+      </c>
+      <c r="L22" s="24">
+        <v>11527</v>
       </c>
       <c r="M22" s="17" t="s">
         <v>282</v>
@@ -7785,14 +7800,14 @@
       <c r="I23" s="15">
         <v>54400</v>
       </c>
-      <c r="J23" s="12">
-        <v>10690</v>
-      </c>
-      <c r="K23" s="12">
-        <v>16035</v>
-      </c>
-      <c r="L23" s="12">
-        <v>24945</v>
+      <c r="J23" s="24">
+        <v>5345</v>
+      </c>
+      <c r="K23" s="24">
+        <v>8017</v>
+      </c>
+      <c r="L23" s="24">
+        <v>12472</v>
       </c>
       <c r="M23" s="17" t="s">
         <v>156</v>
@@ -7850,14 +7865,14 @@
       <c r="I24" s="12">
         <v>64000</v>
       </c>
-      <c r="J24" s="12">
-        <v>12960</v>
-      </c>
-      <c r="K24" s="12">
-        <v>19440</v>
-      </c>
-      <c r="L24" s="12">
-        <v>30240</v>
+      <c r="J24" s="24">
+        <v>6480</v>
+      </c>
+      <c r="K24" s="24">
+        <v>9720</v>
+      </c>
+      <c r="L24" s="24">
+        <v>15120</v>
       </c>
       <c r="M24" s="22" t="s">
         <v>283</v>
@@ -7915,14 +7930,14 @@
       <c r="I25" s="12">
         <v>80000</v>
       </c>
-      <c r="J25" s="12">
-        <v>14400</v>
-      </c>
-      <c r="K25" s="12">
-        <v>21600</v>
-      </c>
-      <c r="L25" s="12">
-        <v>33600</v>
+      <c r="J25" s="24">
+        <v>7200</v>
+      </c>
+      <c r="K25" s="24">
+        <v>10800</v>
+      </c>
+      <c r="L25" s="24">
+        <v>16800</v>
       </c>
       <c r="M25" s="22" t="s">
         <v>191</v>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="497" activeTab="4"/>
+    <workbookView xWindow="460" yWindow="380" windowWidth="25600" windowHeight="16060" tabRatio="497"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -13,24 +13,29 @@
     <sheet name="donate" sheetId="8" r:id="rId4"/>
     <sheet name="shrineStage" sheetId="12" r:id="rId5"/>
     <sheet name="monsters" sheetId="14" r:id="rId6"/>
+    <sheet name="grabResourceFix" sheetId="15" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="571">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1899,6 +1904,26 @@
   </si>
   <si>
     <t>catapult_3:3:574,swordsman_3:3:1148,ranger_3:3:1148,ranger_3:3:1148,swordsman_3:3:1148,catapult_3:3:574;horseArcher_3:3:574,crossbowman_3:3:1148,catapult_3:3:574,catapult_3:3:574,crossbowman_3:3:1148,horseArcher_3:3:574;sentinel_3:3:1148,lancer_3:3:574,catapult_3:3:574,catapult_3:3:574,lancer_3:3:574,sentinel_3:3:1148</t>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_grabPercentFix</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_powerCompare</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>helpDefenceDisableMinutes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止协防冷却分钟数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4446,10 +4471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4778,6 +4803,17 @@
       </c>
       <c r="C29" s="1" t="s">
         <v>498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B30" s="8">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -6320,7 +6356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -8008,7 +8044,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C42"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8605,4 +8641,355 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="4" width="20.6640625" style="6"/>
+    <col min="5" max="13" width="20.6640625" style="1"/>
+    <col min="14" max="14" width="20.6640625" style="6"/>
+    <col min="15" max="20" width="20.6640625" style="1"/>
+    <col min="21" max="21" width="20.6640625" style="6"/>
+    <col min="22" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" spans="1:22" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="C22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="380" windowWidth="25600" windowHeight="16060" tabRatio="497"/>
+    <workbookView xWindow="800" yWindow="220" windowWidth="25600" windowHeight="16060" tabRatio="497" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -14,26 +14,31 @@
     <sheet name="shrineStage" sheetId="12" r:id="rId5"/>
     <sheet name="monsters" sheetId="14" r:id="rId6"/>
     <sheet name="grabResourceFix" sheetId="15" r:id="rId7"/>
+    <sheet name="allianceFightLoyaltyGet" sheetId="16" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="573">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1923,6 +1928,14 @@
   </si>
   <si>
     <t>禁止协防冷却分钟数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_loyaltyPercent</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_killRank</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2105,7 +2118,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="919">
+  <cellStyleXfs count="931">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2587,6 +2600,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3105,7 +3130,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="919">
+  <cellStyles count="931">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3567,6 +3592,12 @@
     <cellStyle name="超链接" xfId="913" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="915" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="929" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4021,6 +4052,12 @@
     <cellStyle name="访问过的超链接" xfId="914" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="916" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="930" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4473,8 +4510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4810,7 +4847,7 @@
         <v>569</v>
       </c>
       <c r="B30" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>570</v>
@@ -8992,4 +9029,261 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="4" width="20.6640625" style="6"/>
+    <col min="5" max="13" width="20.6640625" style="1"/>
+    <col min="14" max="14" width="20.6640625" style="6"/>
+    <col min="15" max="20" width="20.6640625" style="1"/>
+    <col min="21" max="21" width="20.6640625" style="6"/>
+    <col min="22" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" spans="1:22" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" ht="20" customHeight="1">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" ht="20" customHeight="1">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" ht="20" customHeight="1">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" ht="20" customHeight="1">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" ht="20" customHeight="1">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" ht="20" customHeight="1">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" ht="20" customHeight="1">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" ht="20" customHeight="1">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" ht="20" customHeight="1">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" ht="20" customHeight="1">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" ht="20" customHeight="1">
+      <c r="C22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="220" windowWidth="25600" windowHeight="16060" tabRatio="497" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="1520" yWindow="860" windowWidth="25600" windowHeight="16060" tabRatio="497" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -3136,8 +3136,472 @@
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="普通 2" xfId="476"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="930" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
@@ -3598,470 +4062,6 @@
     <cellStyle name="超链接" xfId="925" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="927" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="929" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="538" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="540" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="542" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="544" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="546" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="548" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="550" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="552" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="560" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="562" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="564" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="566" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="568" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="570" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="572" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="574" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="576" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="578" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="580" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="582" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="588" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="590" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="592" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="594" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="596" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="598" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="600" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="604" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="606" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="608" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="610" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="612" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="614" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="616" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="618" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="620" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="622" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="624" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="626" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="628" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="630" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="632" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="634" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="636" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="638" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="640" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="642" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="644" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="646" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="648" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="650" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="652" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="654" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="656" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="658" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="660" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="662" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="664" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="666" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="668" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="670" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="672" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="674" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="676" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="678" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="680" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="682" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="684" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="686" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="688" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="690" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="692" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="694" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="696" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="698" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="700" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="702" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="704" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="706" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="708" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="710" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="712" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="714" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="716" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="718" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="720" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="722" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="724" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="726" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="728" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="730" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="732" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="734" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="736" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="738" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="740" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="742" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="744" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="746" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="748" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="750" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="752" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="754" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="756" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="758" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="760" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="762" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="764" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="766" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="768" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="770" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="772" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="774" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="776" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="778" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="780" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="782" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="784" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="786" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="788" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="790" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="792" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="794" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="796" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="798" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="800" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="802" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="804" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="806" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="808" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="810" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="812" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="814" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="816" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="818" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="820" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="822" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="824" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="826" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="828" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="830" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="832" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="834" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="836" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="838" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="840" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="842" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="844" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="846" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="848" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="850" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="852" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="854" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="856" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="858" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="860" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="862" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="864" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="866" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="868" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="870" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="872" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="874" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="876" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="878" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="880" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="882" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="884" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="886" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="888" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="890" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="892" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="894" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="896" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="898" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="900" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="902" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="904" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="906" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="908" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="910" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="912" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="914" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="916" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="918" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="920" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="922" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="924" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="926" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="928" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="930" builtinId="9" hidden="1"/>
-    <cellStyle name="解释性文本" xfId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="普通 2" xfId="476"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="7"/>
@@ -9094,7 +9094,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7"/>
@@ -9121,7 +9121,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.17</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="7"/>
@@ -9148,7 +9148,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
@@ -9175,7 +9175,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.14000000000000001</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="7"/>
@@ -9202,7 +9202,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="C7" s="1"/>
       <c r="N7" s="7"/>
@@ -9212,7 +9212,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.11</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -9221,7 +9221,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -9230,7 +9230,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.08</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -9239,7 +9239,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C11" s="1"/>
     </row>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -9036,7 +9036,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="7"/>
@@ -9094,7 +9094,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7"/>
@@ -9121,7 +9121,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="7"/>
@@ -9148,7 +9148,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
@@ -9175,7 +9175,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="7"/>
@@ -9202,7 +9202,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="C7" s="1"/>
       <c r="N7" s="7"/>
@@ -9212,7 +9212,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -9221,7 +9221,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -9230,7 +9230,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -9239,7 +9239,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C11" s="1"/>
     </row>

--- a/Dragonfall/gameData/shared/AllianceInitData.xlsx
+++ b/Dragonfall/gameData/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="860" windowWidth="25600" windowHeight="16060" tabRatio="497" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="31720" yWindow="-740" windowWidth="25600" windowHeight="16060" tabRatio="497"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -247,14 +247,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>allianceRevengeMaxMinutes</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>复仇最大时间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>allianceRegionMapWidth</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1936,6 +1928,14 @@
   </si>
   <si>
     <t>INT_killRank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>城墙攻破后保护时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>protectMinutes</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2118,7 +2118,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="931">
+  <cellStyleXfs count="951">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2600,6 +2600,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3130,18 +3150,484 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="931">
+  <cellStyles count="951">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="普通 2" xfId="476"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
-    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="949" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3602,466 +4088,20 @@
     <cellStyle name="访问过的超链接" xfId="926" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="928" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="930" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="406" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="414" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="416" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="424" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="426" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="428" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="430" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="432" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="434" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="436" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="444" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="452" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="454" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="456" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="472" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="559" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="561" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="563" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="565" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="567" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="569" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="571" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="575" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="577" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="579" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="603" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="605" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="607" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="609" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="611" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="613" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="615" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="617" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="619" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="621" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="623" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="625" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="627" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="629" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="631" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="633" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="635" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="637" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="639" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="641" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="645" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="647" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="649" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="651" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="653" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="655" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="657" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="659" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="661" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="663" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="665" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="667" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="669" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="671" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="673" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="675" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="677" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="679" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="681" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="683" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="685" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="687" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="689" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="691" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="693" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="695" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="697" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="699" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="701" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="703" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="705" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="707" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="709" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="711" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="713" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="715" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="717" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="719" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="721" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="723" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="725" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="727" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="729" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="731" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="733" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="735" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="737" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="739" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="741" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="743" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="745" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="747" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="749" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="751" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="753" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="755" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="757" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="759" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="761" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="763" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="765" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="767" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="769" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="771" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="773" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="775" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="777" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="779" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="781" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="783" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="785" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="787" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="789" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="791" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="793" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="795" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="797" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="799" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="801" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="803" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="805" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="807" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="809" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="811" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="813" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="815" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="817" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="819" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="821" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="823" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="825" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="827" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="829" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="831" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="833" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="835" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="837" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="839" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="841" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="843" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="845" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="847" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="849" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="851" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="853" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="855" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="857" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="859" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="861" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="863" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="865" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="867" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="869" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="871" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="873" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="875" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="879" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="881" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="883" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="885" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="887" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="889" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="891" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="893" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="895" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="897" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="899" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="901" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="903" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="905" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="907" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="909" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="911" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="913" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="915" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="917" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="919" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="921" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="923" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="925" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="927" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="普通 2" xfId="476"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4510,8 +4550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4536,156 +4576,156 @@
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="8">
         <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="11">
         <v>1000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="11">
         <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="8">
         <v>5000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="8">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8">
-        <v>1440</v>
+        <v>480</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B10" s="8">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B11" s="8">
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B12" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>493</v>
+        <v>70</v>
       </c>
       <c r="B13" s="8">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>494</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>491</v>
       </c>
       <c r="B14" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B15" s="8">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
@@ -4693,7 +4733,7 @@
         <v>74</v>
       </c>
       <c r="B16" s="8">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>75</v>
@@ -4704,7 +4744,7 @@
         <v>76</v>
       </c>
       <c r="B17" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>77</v>
@@ -4715,7 +4755,7 @@
         <v>78</v>
       </c>
       <c r="B18" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>79</v>
@@ -4723,32 +4763,32 @@
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="B19" s="8">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>270</v>
+        <v>499</v>
       </c>
       <c r="B20" s="8">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>271</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="B21" s="8">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>451</v>
@@ -4756,24 +4796,24 @@
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>452</v>
+        <v>272</v>
       </c>
       <c r="B22" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>453</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="B23" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -4781,7 +4821,7 @@
         <v>330</v>
       </c>
       <c r="B24" s="8">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>329</v>
@@ -4789,68 +4829,68 @@
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>332</v>
+        <v>406</v>
       </c>
       <c r="B25" s="8">
-        <v>360</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>331</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B26" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B26" s="8">
-        <v>41</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>409</v>
+        <v>498</v>
       </c>
       <c r="B27" s="8">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>410</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B28" s="8">
-        <v>10</v>
+        <v>10080</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>497</v>
+        <v>567</v>
       </c>
       <c r="B29" s="8">
-        <v>10080</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B30" s="8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -4953,7 +4993,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>46</v>
@@ -4977,7 +5017,7 @@
         <v>32</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>35</v>
@@ -4989,7 +5029,7 @@
         <v>40</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="20" customHeight="1">
@@ -5457,10 +5497,10 @@
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -5487,10 +5527,10 @@
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -5517,10 +5557,10 @@
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -5547,10 +5587,10 @@
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -5580,7 +5620,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -5607,10 +5647,10 @@
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -5637,10 +5677,10 @@
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -5667,10 +5707,10 @@
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -5699,10 +5739,10 @@
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -5731,10 +5771,10 @@
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -5763,10 +5803,10 @@
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -5795,10 +5835,10 @@
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
@@ -5818,10 +5858,10 @@
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -5841,10 +5881,10 @@
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -5864,10 +5904,10 @@
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -5887,10 +5927,10 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -5913,7 +5953,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -5933,10 +5973,10 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1">
         <v>6</v>
@@ -5956,10 +5996,10 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -5979,10 +6019,10 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -6002,10 +6042,10 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -6025,10 +6065,10 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -6048,10 +6088,10 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -6071,10 +6111,10 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
@@ -6094,10 +6134,10 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -6117,10 +6157,10 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -6140,10 +6180,10 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -6163,10 +6203,10 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -6186,10 +6226,10 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -6209,10 +6249,10 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
@@ -6232,10 +6272,10 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -6255,10 +6295,10 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -6278,10 +6318,10 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -6301,10 +6341,10 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -6324,10 +6364,10 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="1">
         <v>5</v>
@@ -6347,10 +6387,10 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -6417,72 +6457,72 @@
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="30">
       <c r="A1" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="45">
       <c r="A2" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6503,7 +6543,7 @@
         <v>80</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I2" s="15">
         <v>200</v>
@@ -6518,36 +6558,36 @@
         <v>17</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O2" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>335</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="45">
       <c r="A3" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="15">
         <v>2</v>
@@ -6568,7 +6608,7 @@
         <v>180</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I3" s="15">
         <v>400</v>
@@ -6583,36 +6623,36 @@
         <v>37</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O3" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="U3" s="17" t="s">
         <v>338</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="45">
       <c r="A4" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="15">
         <v>3</v>
@@ -6633,7 +6673,7 @@
         <v>280</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I4" s="15">
         <v>600</v>
@@ -6648,36 +6688,36 @@
         <v>57</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O4" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="U4" s="17" t="s">
         <v>341</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="T4" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="45">
       <c r="A5" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="15">
         <v>4</v>
@@ -6698,7 +6738,7 @@
         <v>720</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I5" s="15">
         <v>800</v>
@@ -6713,36 +6753,36 @@
         <v>150</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O5" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="U5" s="17" t="s">
         <v>344</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="U5" s="17" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="45">
       <c r="A6" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="15">
         <v>5</v>
@@ -6763,7 +6803,7 @@
         <v>1202</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I6" s="15">
         <v>1000</v>
@@ -6778,36 +6818,36 @@
         <v>252</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O6" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="U6" s="17" t="s">
         <v>347</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="45">
       <c r="A7" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
@@ -6828,7 +6868,7 @@
         <v>1652</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I7" s="15">
         <v>1200</v>
@@ -6843,36 +6883,36 @@
         <v>347</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O7" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="U7" s="17" t="s">
         <v>350</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="T7" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="45">
       <c r="A8" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="15">
         <v>7</v>
@@ -6893,7 +6933,7 @@
         <v>3602</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I8" s="15">
         <v>1400</v>
@@ -6908,36 +6948,36 @@
         <v>757</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O8" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="U8" s="17" t="s">
         <v>353</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45">
       <c r="A9" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="15">
         <v>8</v>
@@ -6958,7 +6998,7 @@
         <v>4602</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I9" s="15">
         <v>1600</v>
@@ -6973,36 +7013,36 @@
         <v>967</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O9" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="U9" s="17" t="s">
         <v>356</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="45">
       <c r="A10" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="15">
         <v>9</v>
@@ -7023,7 +7063,7 @@
         <v>5720</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I10" s="15">
         <v>2000</v>
@@ -7038,36 +7078,36 @@
         <v>1200</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O10" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="U10" s="17" t="s">
         <v>359</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="45">
       <c r="A11" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="15">
         <v>10</v>
@@ -7088,7 +7128,7 @@
         <v>10320</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I11" s="15">
         <v>2400</v>
@@ -7103,36 +7143,36 @@
         <v>1805</v>
       </c>
       <c r="M11" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="S11" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="N11" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="O11" s="17" t="s">
+      <c r="T11" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="U11" s="17" t="s">
         <v>362</v>
-      </c>
-      <c r="P11" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="S11" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="T11" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="U11" s="17" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="45">
       <c r="A12" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" s="15">
         <v>11</v>
@@ -7153,7 +7193,7 @@
         <v>12300</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I12" s="15">
         <v>3200</v>
@@ -7168,36 +7208,36 @@
         <v>2152</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O12" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="U12" s="17" t="s">
         <v>365</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="45">
       <c r="A13" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="15">
         <v>12</v>
@@ -7218,7 +7258,7 @@
         <v>14400</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I13" s="15">
         <v>4200</v>
@@ -7233,36 +7273,36 @@
         <v>2520</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O13" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="U13" s="17" t="s">
         <v>368</v>
-      </c>
-      <c r="P13" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="S13" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="U13" s="17" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="45">
       <c r="A14" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B14" s="15">
         <v>13</v>
@@ -7283,7 +7323,7 @@
         <v>22400</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I14" s="15">
         <v>6000</v>
@@ -7298,36 +7338,36 @@
         <v>3527</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O14" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="U14" s="17" t="s">
         <v>371</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="U14" s="17" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="45">
       <c r="A15" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" s="15">
         <v>14</v>
@@ -7348,7 +7388,7 @@
         <v>24800</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I15" s="15">
         <v>7500</v>
@@ -7363,36 +7403,36 @@
         <v>3905</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O15" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="U15" s="17" t="s">
         <v>374</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="T15" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="U15" s="17" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="45">
       <c r="A16" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="15">
         <v>15</v>
@@ -7413,7 +7453,7 @@
         <v>28000</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I16" s="15">
         <v>10500</v>
@@ -7428,36 +7468,36 @@
         <v>4410</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O16" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="U16" s="17" t="s">
         <v>377</v>
-      </c>
-      <c r="P16" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="R16" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="45">
       <c r="A17" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="15">
         <v>16</v>
@@ -7478,7 +7518,7 @@
         <v>39000</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I17" s="15">
         <v>12800</v>
@@ -7493,36 +7533,36 @@
         <v>5732</v>
       </c>
       <c r="M17" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="S17" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="N17" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="O17" s="17" t="s">
+      <c r="T17" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="U17" s="17" t="s">
         <v>380</v>
-      </c>
-      <c r="P17" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="R17" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="45">
       <c r="A18" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="15">
         <v>17</v>
@@ -7543,7 +7583,7 @@
         <v>43000</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I18" s="15">
         <v>18700</v>
@@ -7558,36 +7598,36 @@
         <v>6320</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O18" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="U18" s="17" t="s">
         <v>383</v>
-      </c>
-      <c r="P18" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="U18" s="17" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="45">
       <c r="A19" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="15">
         <v>18</v>
@@ -7608,7 +7648,7 @@
         <v>48000</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I19" s="15">
         <v>22500</v>
@@ -7623,36 +7663,36 @@
         <v>7055</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O19" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="U19" s="17" t="s">
         <v>386</v>
-      </c>
-      <c r="P19" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="R19" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="T19" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="U19" s="17" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="45">
       <c r="A20" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20" s="15">
         <v>19</v>
@@ -7673,7 +7713,7 @@
         <v>78000</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I20" s="15">
         <v>32700</v>
@@ -7688,36 +7728,36 @@
         <v>8735</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O20" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="U20" s="17" t="s">
         <v>389</v>
-      </c>
-      <c r="P20" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="T20" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="U20" s="17" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="45">
       <c r="A21" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" s="15">
         <v>20</v>
@@ -7738,7 +7778,7 @@
         <v>85500</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I21" s="15">
         <v>39300</v>
@@ -7753,36 +7793,36 @@
         <v>9575</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O21" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="U21" s="17" t="s">
         <v>392</v>
-      </c>
-      <c r="P21" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="T21" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="U21" s="17" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="45">
       <c r="A22" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="15">
         <v>21</v>
@@ -7803,7 +7843,7 @@
         <v>122000</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I22" s="15">
         <v>45360</v>
@@ -7818,36 +7858,36 @@
         <v>11527</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O22" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="U22" s="17" t="s">
         <v>395</v>
-      </c>
-      <c r="P22" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="S22" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="T22" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="U22" s="17" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="45">
       <c r="A23" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" s="15">
         <v>22</v>
@@ -7868,7 +7908,7 @@
         <v>132000</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I23" s="15">
         <v>54400</v>
@@ -7883,36 +7923,36 @@
         <v>12472</v>
       </c>
       <c r="M23" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="S23" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="N23" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="O23" s="17" t="s">
+      <c r="T23" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="U23" s="17" t="s">
         <v>398</v>
-      </c>
-      <c r="P23" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="R23" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="S23" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="T23" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="U23" s="17" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="45">
       <c r="A24" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" s="15">
         <v>23</v>
@@ -7933,7 +7973,7 @@
         <v>180000</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I24" s="12">
         <v>64000</v>
@@ -7948,36 +7988,36 @@
         <v>15120</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O24" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="U24" s="17" t="s">
         <v>401</v>
-      </c>
-      <c r="P24" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="R24" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="S24" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="T24" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="U24" s="17" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="45">
       <c r="A25" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="15">
         <v>24</v>
@@ -7998,7 +8038,7 @@
         <v>200000</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I25" s="12">
         <v>80000</v>
@@ -8013,31 +8053,31 @@
         <v>16800</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O25" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="T25" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="U25" s="17" t="s">
         <v>404</v>
-      </c>
-      <c r="P25" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="R25" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="S25" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="T25" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="U25" s="17" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="20" customHeight="1">
@@ -8095,16 +8135,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1">
       <c r="A1" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>269</v>
-      </c>
       <c r="C1" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F1" s="20"/>
     </row>
@@ -8113,13 +8153,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -8127,13 +8167,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -8141,13 +8181,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -8155,13 +8195,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -8169,13 +8209,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -8183,13 +8223,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -8197,13 +8237,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -8211,13 +8251,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
@@ -8225,13 +8265,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -8239,13 +8279,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
@@ -8253,13 +8293,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45">
@@ -8267,13 +8307,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45">
@@ -8281,13 +8321,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45">
@@ -8295,13 +8335,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
@@ -8309,13 +8349,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45">
@@ -8323,13 +8363,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45">
@@ -8337,13 +8377,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45">
@@ -8351,13 +8391,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45">
@@ -8365,13 +8405,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45">
@@ -8379,13 +8419,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60">
@@ -8393,13 +8433,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60">
@@ -8407,13 +8447,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60">
@@ -8421,13 +8461,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60">
@@ -8435,13 +8475,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60">
@@ -8449,13 +8489,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60">
@@ -8463,13 +8503,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60">
@@ -8477,13 +8517,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60">
@@ -8491,13 +8531,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60">
@@ -8505,13 +8545,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="60">
@@ -8519,13 +8559,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="75">
@@ -8533,13 +8573,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30">
@@ -8547,13 +8587,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
@@ -8561,13 +8601,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
@@ -8575,13 +8615,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30">
@@ -8589,13 +8629,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30">
@@ -8603,13 +8643,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -8617,13 +8657,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
@@ -8631,13 +8671,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
@@ -8645,13 +8685,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -8659,13 +8699,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -8701,13 +8741,13 @@
   <sheetData>
     <row r="1" spans="1:22" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>568</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D1" s="5"/>
       <c r="N1" s="5"/>
@@ -9035,7 +9075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -9052,10 +9092,10 @@
   <sheetData>
     <row r="1" spans="1:22" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
